--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
@@ -670,7 +670,7 @@
         <v>2.66</v>
       </c>
       <c r="G2" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="H2" t="n">
         <v>2.94</v>
@@ -694,7 +694,7 @@
         <v>3.45</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
         <v>1.81</v>
@@ -706,19 +706,19 @@
         <v>1.31</v>
       </c>
       <c r="S2" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="T2" t="n">
         <v>1.87</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V2" t="n">
         <v>1.5</v>
       </c>
       <c r="W2" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="X2" t="n">
         <v>15</v>
@@ -727,19 +727,19 @@
         <v>11.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -748,7 +748,7 @@
         <v>18</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
         <v>21</v>
@@ -757,7 +757,7 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK2" t="n">
         <v>34</v>
@@ -772,7 +772,7 @@
         <v>980</v>
       </c>
       <c r="AO2" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -826,7 +826,7 @@
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O3" t="n">
         <v>1.37</v>
@@ -940,25 +940,25 @@
         <v>3.2</v>
       </c>
       <c r="G4" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="H4" t="n">
         <v>2.04</v>
       </c>
       <c r="I4" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K4" t="n">
         <v>4.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
         <v>2.24</v>
@@ -970,61 +970,61 @@
         <v>2.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="R4" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="S4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U4" t="n">
         <v>2.34</v>
       </c>
-      <c r="T4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.01</v>
-      </c>
       <c r="V4" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="W4" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG4" t="n">
         <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1087,19 +1087,19 @@
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P5" t="n">
         <v>2.16</v>
@@ -1108,76 +1108,76 @@
         <v>1.7</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="G6" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="H6" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J6" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="K6" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.64</v>
+        <v>2.52</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>1.69</v>
       </c>
       <c r="H7" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I7" t="n">
         <v>5.7</v>
@@ -1375,10 +1375,10 @@
         <v>2.46</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R7" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="S7" t="n">
         <v>2.58</v>
@@ -1402,7 +1402,7 @@
         <v>25</v>
       </c>
       <c r="Z7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA7" t="n">
         <v>150</v>
@@ -1417,7 +1417,7 @@
         <v>23</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF7" t="n">
         <v>12</v>
@@ -1438,7 +1438,7 @@
         <v>18.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="n">
         <v>90</v>
@@ -1447,7 +1447,7 @@
         <v>7.2</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -1510,7 +1510,7 @@
         <v>1.69</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="O9" t="n">
         <v>1.2</v>
@@ -1645,10 +1645,10 @@
         <v>2.48</v>
       </c>
       <c r="Q9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R9" t="n">
         <v>1.61</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.62</v>
       </c>
       <c r="S9" t="n">
         <v>2.5</v>
@@ -1657,7 +1657,7 @@
         <v>1.54</v>
       </c>
       <c r="U9" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O10" t="n">
         <v>1.34</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="G11" t="n">
         <v>1.48</v>
@@ -1891,7 +1891,7 @@
         <v>7.4</v>
       </c>
       <c r="I11" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J11" t="n">
         <v>5.2</v>
@@ -1906,7 +1906,7 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="O11" t="n">
         <v>1.18</v>
@@ -1936,28 +1936,28 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y11" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AC11" t="n">
         <v>12.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AE11" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AF11" t="n">
         <v>11</v>
@@ -1966,10 +1966,10 @@
         <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="n">
         <v>14.5</v>
@@ -1978,7 +1978,7 @@
         <v>15</v>
       </c>
       <c r="AL11" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM11" t="n">
         <v>100</v>
@@ -1987,7 +1987,7 @@
         <v>5.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="G12" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="H12" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I12" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J12" t="n">
         <v>3.55</v>
@@ -2047,10 +2047,10 @@
         <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R12" t="n">
         <v>1.3</v>
@@ -2077,7 +2077,7 @@
         <v>14</v>
       </c>
       <c r="Z12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA12" t="n">
         <v>130</v>
@@ -2119,7 +2119,7 @@
         <v>160</v>
       </c>
       <c r="AN12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
         <v>90</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AO15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -685,7 +685,7 @@
         <v>3.45</v>
       </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -700,7 +700,7 @@
         <v>1.81</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
         <v>1.31</v>
@@ -721,58 +721,58 @@
         <v>1.56</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y2" t="n">
         <v>11.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
         <v>60</v>
       </c>
       <c r="AB2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF2" t="n">
         <v>18</v>
       </c>
       <c r="AG2" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH2" t="n">
         <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ2" t="n">
         <v>48</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
         <v>120</v>
       </c>
       <c r="AN2" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AO2" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I3" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.65</v>
       </c>
       <c r="J3" t="n">
         <v>3.7</v>
@@ -826,7 +826,7 @@
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O3" t="n">
         <v>1.37</v>
@@ -835,7 +835,7 @@
         <v>1.83</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R3" t="n">
         <v>1.31</v>
@@ -853,25 +853,25 @@
         <v>1.38</v>
       </c>
       <c r="W3" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
         <v>25</v>
       </c>
       <c r="AA3" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB3" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD3" t="n">
         <v>15</v>
@@ -886,7 +886,7 @@
         <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
         <v>60</v>
@@ -904,7 +904,7 @@
         <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO3" t="n">
         <v>50</v>
@@ -961,10 +961,10 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>2.24</v>
+        <v>4.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
         <v>2.24</v>
@@ -979,7 +979,7 @@
         <v>2.6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U4" t="n">
         <v>2.34</v>
@@ -991,58 +991,58 @@
         <v>1.35</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>970</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>970</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG4" t="n">
         <v>18</v>
       </c>
-      <c r="Z4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI4" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="5">
@@ -1084,13 +1084,13 @@
         <v>6.6</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K5" t="n">
         <v>4.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
@@ -1108,10 +1108,10 @@
         <v>1.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S5" t="n">
-        <v>2.76</v>
+        <v>2.52</v>
       </c>
       <c r="T5" t="n">
         <v>1.01</v>
@@ -1123,7 +1123,7 @@
         <v>1.17</v>
       </c>
       <c r="W5" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>FC Magdeburg</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.33</v>
+        <v>2.7</v>
       </c>
       <c r="G6" t="n">
-        <v>1.42</v>
+        <v>2.92</v>
       </c>
       <c r="H6" t="n">
-        <v>9.199999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>2.66</v>
       </c>
       <c r="J6" t="n">
-        <v>5.3</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>6.4</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.67</v>
+        <v>2.68</v>
       </c>
       <c r="G7" t="n">
-        <v>1.69</v>
+        <v>2.78</v>
       </c>
       <c r="H7" t="n">
-        <v>5.3</v>
+        <v>2.64</v>
       </c>
       <c r="I7" t="n">
-        <v>5.7</v>
+        <v>2.8</v>
       </c>
       <c r="J7" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N7" t="n">
         <v>4.4</v>
       </c>
-      <c r="K7" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N7" t="n">
-        <v>5.3</v>
-      </c>
       <c r="O7" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2.46</v>
+        <v>2.18</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R7" t="n">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="S7" t="n">
-        <v>2.58</v>
+        <v>2.84</v>
       </c>
       <c r="T7" t="n">
-        <v>1.72</v>
+        <v>1.54</v>
       </c>
       <c r="U7" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="X7" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF7" t="n">
         <v>24</v>
       </c>
-      <c r="Y7" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>12</v>
-      </c>
       <c r="AG7" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI7" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="AJ7" t="n">
-        <v>17.5</v>
+        <v>48</v>
       </c>
       <c r="AK7" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AM7" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN7" t="n">
-        <v>7.2</v>
+        <v>24</v>
       </c>
       <c r="AO7" t="n">
-        <v>70</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Academico de Viseu</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.95</v>
+        <v>1.33</v>
       </c>
       <c r="G8" t="n">
-        <v>2.26</v>
+        <v>1.42</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>5.3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.75</v>
+        <v>6.4</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>1.69</v>
+        <v>2.54</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.02</v>
+        <v>1.52</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.72</v>
+        <v>1.68</v>
       </c>
       <c r="G9" t="n">
-        <v>2.78</v>
+        <v>1.69</v>
       </c>
       <c r="H9" t="n">
-        <v>2.66</v>
+        <v>5.3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P9" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R9" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="S9" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="T9" t="n">
-        <v>1.54</v>
+        <v>1.71</v>
       </c>
       <c r="U9" t="n">
-        <v>2.66</v>
+        <v>2.3</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="X9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y9" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK9" t="n">
         <v>16</v>
       </c>
-      <c r="Z9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>26</v>
-      </c>
       <c r="AL9" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="n">
-        <v>15.5</v>
+        <v>7.2</v>
       </c>
       <c r="AO9" t="n">
-        <v>15.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Academico de Viseu</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6.2</v>
+        <v>1.95</v>
       </c>
       <c r="G10" t="n">
-        <v>6.6</v>
+        <v>2.26</v>
       </c>
       <c r="H10" t="n">
-        <v>1.67</v>
+        <v>4.1</v>
       </c>
       <c r="I10" t="n">
-        <v>1.68</v>
+        <v>5.5</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>3.7</v>
+        <v>2.74</v>
       </c>
       <c r="O10" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>1.9</v>
+        <v>1.69</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="R10" t="n">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="S10" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="X10" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
         <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,66 +1868,66 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Arges Pitesti</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.46</v>
+        <v>3.25</v>
       </c>
       <c r="G11" t="n">
-        <v>1.48</v>
+        <v>4.2</v>
       </c>
       <c r="H11" t="n">
-        <v>7.4</v>
+        <v>2.36</v>
       </c>
       <c r="I11" t="n">
-        <v>8.199999999999999</v>
+        <v>2.84</v>
       </c>
       <c r="J11" t="n">
-        <v>5.2</v>
+        <v>2.94</v>
       </c>
       <c r="K11" t="n">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1936,192 +1936,597 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>German Bundesliga</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>210</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>French Ligue 1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Paris St-G</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Spanish La Liga</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>2026-01-16</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Espanyol</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Girona</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="F15" t="n">
         <v>1.96</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G15" t="n">
         <v>1.98</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H15" t="n">
         <v>4.5</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I15" t="n">
         <v>4.8</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J15" t="n">
         <v>3.55</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K15" t="n">
         <v>3.65</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>1.09</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N15" t="n">
         <v>3.45</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O15" t="n">
         <v>1.4</v>
       </c>
-      <c r="P12" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R12" t="n">
+      <c r="P15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R15" t="n">
         <v>1.3</v>
       </c>
-      <c r="S12" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T12" t="n">
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="n">
         <v>1.98</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U15" t="n">
         <v>2</v>
       </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y15" t="n">
         <v>14</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z15" t="n">
         <v>34</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA15" t="n">
         <v>130</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB15" t="n">
         <v>8</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC15" t="n">
         <v>8</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD15" t="n">
         <v>18.5</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE15" t="n">
         <v>70</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF15" t="n">
         <v>11</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG15" t="n">
         <v>11</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AH15" t="n">
         <v>22</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AI15" t="n">
         <v>80</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AJ15" t="n">
         <v>24</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AK15" t="n">
         <v>23</v>
       </c>
-      <c r="AL12" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM12" t="n">
+      <c r="AL15" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM15" t="n">
         <v>160</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AN15" t="n">
         <v>17</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AO15" t="n">
         <v>90</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO15"/>
+  <dimension ref="A1:AO36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -703,16 +703,16 @@
         <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="T2" t="n">
         <v>1.87</v>
       </c>
       <c r="U2" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
         <v>1.5</v>
@@ -721,25 +721,25 @@
         <v>1.56</v>
       </c>
       <c r="X2" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y2" t="n">
         <v>11.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC2" t="n">
         <v>7.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
         <v>42</v>
@@ -748,19 +748,19 @@
         <v>18</v>
       </c>
       <c r="AG2" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
         <v>55</v>
@@ -772,7 +772,7 @@
         <v>30</v>
       </c>
       <c r="AO2" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
     </row>
     <row r="3">
@@ -805,7 +805,7 @@
         <v>2.2</v>
       </c>
       <c r="G3" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
@@ -826,7 +826,7 @@
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O3" t="n">
         <v>1.37</v>
@@ -1090,13 +1090,13 @@
         <v>4.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>2.16</v>
+        <v>3.7</v>
       </c>
       <c r="O5" t="n">
         <v>1.23</v>
@@ -1111,13 +1111,13 @@
         <v>1.46</v>
       </c>
       <c r="S5" t="n">
-        <v>2.52</v>
+        <v>2.74</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="V5" t="n">
         <v>1.17</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G6" t="n">
         <v>2.92</v>
@@ -1225,13 +1225,13 @@
         <v>3.95</v>
       </c>
       <c r="L6" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
         <v>1.21</v>
@@ -1240,19 +1240,19 @@
         <v>2.38</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="R6" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S6" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="T6" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="U6" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="V6" t="n">
         <v>1.6</v>
@@ -1264,55 +1264,55 @@
         <v>27</v>
       </c>
       <c r="Y6" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="Z6" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AA6" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AB6" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AC6" t="n">
         <v>9.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AE6" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AF6" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AH6" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AI6" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AJ6" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AK6" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AL6" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AM6" t="n">
         <v>60</v>
       </c>
       <c r="AN6" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AO6" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G7" t="n">
         <v>2.78</v>
@@ -1360,7 +1360,7 @@
         <v>3.85</v>
       </c>
       <c r="L7" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
@@ -1372,10 +1372,10 @@
         <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="R7" t="n">
         <v>1.47</v>
@@ -1384,7 +1384,7 @@
         <v>2.84</v>
       </c>
       <c r="T7" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="U7" t="n">
         <v>2.4</v>
@@ -1411,7 +1411,7 @@
         <v>16</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD7" t="n">
         <v>14.5</v>
@@ -1495,7 +1495,7 @@
         <v>6.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1513,16 +1513,16 @@
         <v>1.52</v>
       </c>
       <c r="R8" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S8" t="n">
         <v>2.28</v>
       </c>
       <c r="T8" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="U8" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V8" t="n">
         <v>1.1</v>
@@ -1531,10 +1531,10 @@
         <v>3.35</v>
       </c>
       <c r="X8" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Y8" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="n">
         <v>110</v>
@@ -1543,13 +1543,13 @@
         <v>350</v>
       </c>
       <c r="AB8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD8" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="n">
         <v>150</v>
@@ -1558,28 +1558,28 @@
         <v>11</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI8" t="n">
         <v>120</v>
       </c>
       <c r="AJ8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL8" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
         <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="AO8" t="n">
         <v>170</v>
@@ -1615,22 +1615,22 @@
         <v>1.68</v>
       </c>
       <c r="G9" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
         <v>5.3</v>
       </c>
       <c r="I9" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="J9" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K9" t="n">
         <v>4.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -1648,7 +1648,7 @@
         <v>1.63</v>
       </c>
       <c r="R9" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S9" t="n">
         <v>2.58</v>
@@ -1660,10 +1660,10 @@
         <v>2.3</v>
       </c>
       <c r="V9" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W9" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="X9" t="n">
         <v>23</v>
@@ -1747,34 +1747,34 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="G10" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="H10" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I10" t="n">
         <v>5.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
         <v>3.75</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>2.74</v>
+        <v>1.69</v>
       </c>
       <c r="O10" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="P10" t="n">
         <v>1.69</v>
@@ -1786,7 +1786,7 @@
         <v>1.21</v>
       </c>
       <c r="S10" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T10" t="n">
         <v>1.01</v>
@@ -1798,7 +1798,7 @@
         <v>1.22</v>
       </c>
       <c r="W10" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1891,7 +1891,7 @@
         <v>2.36</v>
       </c>
       <c r="I11" t="n">
-        <v>2.84</v>
+        <v>2.68</v>
       </c>
       <c r="J11" t="n">
         <v>2.94</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.72</v>
+        <v>1.63</v>
       </c>
       <c r="G12" t="n">
-        <v>2.78</v>
+        <v>1.77</v>
       </c>
       <c r="H12" t="n">
-        <v>2.66</v>
+        <v>5.8</v>
       </c>
       <c r="I12" t="n">
-        <v>2.7</v>
+        <v>7.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K12" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>5.4</v>
+        <v>3.25</v>
       </c>
       <c r="O12" t="n">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="P12" t="n">
-        <v>2.48</v>
+        <v>1.79</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.62</v>
+        <v>2.04</v>
       </c>
       <c r="R12" t="n">
-        <v>1.62</v>
+        <v>1.29</v>
       </c>
       <c r="S12" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="T12" t="n">
-        <v>1.53</v>
+        <v>1.98</v>
       </c>
       <c r="U12" t="n">
-        <v>2.74</v>
+        <v>1.81</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AD12" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AH12" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AI12" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL12" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN12" t="n">
-        <v>19.5</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
-        <v>19</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Le Puy</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6.2</v>
+        <v>2.04</v>
       </c>
       <c r="G13" t="n">
-        <v>6.6</v>
+        <v>2.34</v>
       </c>
       <c r="H13" t="n">
-        <v>1.67</v>
+        <v>3.55</v>
       </c>
       <c r="I13" t="n">
-        <v>1.69</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="P13" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R13" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="S13" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="T13" t="n">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="U13" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="X13" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.8</v>
+        <v>970</v>
       </c>
       <c r="Z13" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AA13" t="n">
-        <v>16.5</v>
+        <v>95</v>
       </c>
       <c r="AB13" t="n">
-        <v>19.5</v>
+        <v>10</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>970</v>
       </c>
       <c r="AD13" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AE13" t="n">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="AF13" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AG13" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AI13" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="n">
-        <v>210</v>
+        <v>970</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL13" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="AM13" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>150</v>
+        <v>970</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,123 +2273,123 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.46</v>
+        <v>2.72</v>
       </c>
       <c r="G14" t="n">
-        <v>1.48</v>
+        <v>3.3</v>
       </c>
       <c r="H14" t="n">
-        <v>7.4</v>
+        <v>2.56</v>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>2.92</v>
       </c>
       <c r="J14" t="n">
-        <v>5.2</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
-        <v>5.4</v>
+        <v>3.75</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>5.8</v>
+        <v>1.83</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="P14" t="n">
-        <v>2.68</v>
+        <v>1.83</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.55</v>
+        <v>1.97</v>
       </c>
       <c r="R14" t="n">
-        <v>1.66</v>
+        <v>1.25</v>
       </c>
       <c r="S14" t="n">
-        <v>2.4</v>
+        <v>3.05</v>
       </c>
       <c r="T14" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="X14" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,126 +2408,2961 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Paris 13 Atletico</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.96</v>
+        <v>2.2</v>
       </c>
       <c r="G15" t="n">
-        <v>1.98</v>
+        <v>2.48</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>3.35</v>
       </c>
       <c r="I15" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="J15" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="K15" t="n">
         <v>3.65</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P15" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R15" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="T15" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="X15" t="n">
         <v>12.5</v>
       </c>
       <c r="Y15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>970</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Versailles 78 FC</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Rouen</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Bourg-en-Bresse</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Stade Briochin</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Fleury Merogis</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Orleans</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X20" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>250</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>48</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Boulogne</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Amiens</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="X22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2</v>
+      </c>
+      <c r="X23" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>VVV Venlo</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Jong AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ADO Den Haag</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Cambuur Leeuwarden</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Helmond Sport</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Vitesse Arnhem</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X26" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Le Mans</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X27" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>German Bundesliga</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N28" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X28" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Italian Serie B</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Entella</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="X29" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Pesaro</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Arezzo</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB30" t="n">
         <v>14</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AC30" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE30" t="n">
         <v>34</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AF30" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>140</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>150</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Cavese 1919</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Team Altamura</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Spanish Segunda Division</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>CD Castellon</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Leganes</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N32" t="n">
+        <v>4</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W32" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="X32" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="G33" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V33" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X33" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>200</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>140</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Portuguese Liga 3</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Mafra</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Santarem</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I34" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K34" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W34" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>French Ligue 1</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Paris St-G</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H35" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I35" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J35" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K35" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N35" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W35" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="X35" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Girona</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W36" t="n">
+        <v>2</v>
+      </c>
+      <c r="X36" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM36" t="n">
         <v>130</v>
       </c>
-      <c r="AB15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI15" t="n">
+      <c r="AN36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO36" t="n">
         <v>80</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO36"/>
+  <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G2" t="n">
         <v>2.76</v>
@@ -694,13 +694,13 @@
         <v>3.45</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
         <v>1.81</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R2" t="n">
         <v>1.3</v>
@@ -721,7 +721,7 @@
         <v>1.56</v>
       </c>
       <c r="X2" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
         <v>11.5</v>
@@ -739,13 +739,13 @@
         <v>7.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG2" t="n">
         <v>13</v>
@@ -763,7 +763,7 @@
         <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>120</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G3" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I3" t="n">
         <v>3.6</v>
@@ -826,7 +826,7 @@
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O3" t="n">
         <v>1.37</v>
@@ -835,19 +835,19 @@
         <v>1.83</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="R3" t="n">
         <v>1.31</v>
       </c>
       <c r="S3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="T3" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U3" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V3" t="n">
         <v>1.38</v>
@@ -940,7 +940,7 @@
         <v>3.2</v>
       </c>
       <c r="G4" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H4" t="n">
         <v>2.04</v>
@@ -949,7 +949,7 @@
         <v>2.32</v>
       </c>
       <c r="J4" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K4" t="n">
         <v>4.4</v>
@@ -1090,7 +1090,7 @@
         <v>4.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
@@ -1243,7 +1243,7 @@
         <v>1.59</v>
       </c>
       <c r="R6" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="S6" t="n">
         <v>2.56</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="G7" t="n">
         <v>2.78</v>
@@ -1357,7 +1357,7 @@
         <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L7" t="n">
         <v>1.35</v>
@@ -1378,7 +1378,7 @@
         <v>1.74</v>
       </c>
       <c r="R7" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="S7" t="n">
         <v>2.84</v>
@@ -1387,7 +1387,7 @@
         <v>1.62</v>
       </c>
       <c r="U7" t="n">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="V7" t="n">
         <v>1.56</v>
@@ -1396,13 +1396,13 @@
         <v>1.56</v>
       </c>
       <c r="X7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y7" t="n">
         <v>16</v>
       </c>
       <c r="Z7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA7" t="n">
         <v>44</v>
@@ -1414,16 +1414,16 @@
         <v>9.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF7" t="n">
         <v>24</v>
       </c>
       <c r="AG7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         <v>24</v>
       </c>
       <c r="AO7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="G8" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="H8" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I8" t="n">
         <v>11</v>
@@ -1507,7 +1507,7 @@
         <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="Q8" t="n">
         <v>1.52</v>
@@ -1519,7 +1519,7 @@
         <v>2.28</v>
       </c>
       <c r="T8" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U8" t="n">
         <v>1.96</v>
@@ -1528,7 +1528,7 @@
         <v>1.1</v>
       </c>
       <c r="W8" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="X8" t="n">
         <v>29</v>
@@ -1546,7 +1546,7 @@
         <v>11.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD8" t="n">
         <v>38</v>
@@ -1561,7 +1561,7 @@
         <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI8" t="n">
         <v>120</v>
@@ -1579,7 +1579,7 @@
         <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AO8" t="n">
         <v>170</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="H9" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I9" t="n">
         <v>5.7</v>
@@ -1648,7 +1648,7 @@
         <v>1.63</v>
       </c>
       <c r="R9" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="S9" t="n">
         <v>2.58</v>
@@ -1663,7 +1663,7 @@
         <v>1.21</v>
       </c>
       <c r="W9" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="X9" t="n">
         <v>23</v>
@@ -1675,7 +1675,7 @@
         <v>46</v>
       </c>
       <c r="AA9" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB9" t="n">
         <v>11.5</v>
@@ -1687,7 +1687,7 @@
         <v>21</v>
       </c>
       <c r="AE9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF9" t="n">
         <v>11.5</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="G10" t="n">
         <v>2.18</v>
@@ -1780,7 +1780,7 @@
         <v>1.69</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="R10" t="n">
         <v>1.21</v>
@@ -2071,7 +2071,7 @@
         <v>2.28</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y12" t="n">
         <v>970</v>
@@ -2095,7 +2095,7 @@
         <v>120</v>
       </c>
       <c r="AF12" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="AG12" t="n">
         <v>970</v>
@@ -2119,7 +2119,7 @@
         <v>180</v>
       </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AO12" t="n">
         <v>180</v>
@@ -2155,13 +2155,13 @@
         <v>2.04</v>
       </c>
       <c r="G13" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H13" t="n">
         <v>3.55</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J13" t="n">
         <v>3.25</v>
@@ -2200,7 +2200,7 @@
         <v>1.96</v>
       </c>
       <c r="V13" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W13" t="n">
         <v>1.75</v>
@@ -2290,13 +2290,13 @@
         <v>2.72</v>
       </c>
       <c r="G14" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H14" t="n">
         <v>2.56</v>
       </c>
       <c r="I14" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="J14" t="n">
         <v>3.25</v>
@@ -2305,7 +2305,7 @@
         <v>3.75</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
@@ -2335,10 +2335,10 @@
         <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="W14" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="G16" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="H16" t="n">
-        <v>2.44</v>
+        <v>2.54</v>
       </c>
       <c r="I16" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="J16" t="n">
         <v>3</v>
@@ -2605,10 +2605,10 @@
         <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="W16" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2695,10 +2695,10 @@
         <v>1.69</v>
       </c>
       <c r="G17" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="H17" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="I17" t="n">
         <v>7</v>
@@ -2716,7 +2716,7 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>2.58</v>
+        <v>1.78</v>
       </c>
       <c r="O17" t="n">
         <v>1.01</v>
@@ -2728,10 +2728,10 @@
         <v>2.02</v>
       </c>
       <c r="R17" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S17" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="T17" t="n">
         <v>1.01</v>
@@ -2743,7 +2743,7 @@
         <v>1.16</v>
       </c>
       <c r="W17" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G18" t="n">
         <v>2.68</v>
@@ -2842,13 +2842,13 @@
         <v>3.05</v>
       </c>
       <c r="K18" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
         <v>2.86</v>
@@ -2866,7 +2866,7 @@
         <v>1.23</v>
       </c>
       <c r="S18" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="T18" t="n">
         <v>1.9</v>
@@ -2878,61 +2878,61 @@
         <v>1.35</v>
       </c>
       <c r="W18" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -3124,7 +3124,7 @@
         <v>2.42</v>
       </c>
       <c r="O20" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="P20" t="n">
         <v>1.47</v>
@@ -3139,10 +3139,10 @@
         <v>5.7</v>
       </c>
       <c r="T20" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U20" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="V20" t="n">
         <v>1.35</v>
@@ -3280,7 +3280,7 @@
         <v>1.93</v>
       </c>
       <c r="V21" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W21" t="n">
         <v>1.41</v>
@@ -3322,13 +3322,13 @@
         <v>50</v>
       </c>
       <c r="AJ21" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK21" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AL21" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM21" t="n">
         <v>160</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G22" t="n">
         <v>1.87</v>
@@ -3379,7 +3379,7 @@
         <v>6.4</v>
       </c>
       <c r="J22" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K22" t="n">
         <v>4</v>
@@ -3415,7 +3415,7 @@
         <v>1.82</v>
       </c>
       <c r="V22" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W22" t="n">
         <v>2.14</v>
@@ -3427,7 +3427,7 @@
         <v>17.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AA22" t="n">
         <v>200</v>
@@ -3451,7 +3451,7 @@
         <v>11</v>
       </c>
       <c r="AH22" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AI22" t="n">
         <v>120</v>
@@ -3463,7 +3463,7 @@
         <v>22</v>
       </c>
       <c r="AL22" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AM22" t="n">
         <v>190</v>
@@ -3511,7 +3511,7 @@
         <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="J23" t="n">
         <v>3.6</v>
@@ -3547,22 +3547,22 @@
         <v>1.6</v>
       </c>
       <c r="U23" t="n">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="V23" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="W23" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X23" t="n">
         <v>23</v>
       </c>
       <c r="Y23" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="Z23" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
@@ -3574,37 +3574,37 @@
         <v>12.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AG23" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AH23" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AK23" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AL23" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3685,10 +3685,10 @@
         <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="W24" t="n">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3913,7 +3913,7 @@
         <v>2.6</v>
       </c>
       <c r="H26" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="I26" t="n">
         <v>3.3</v>
@@ -3928,13 +3928,13 @@
         <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
         <v>4.3</v>
       </c>
       <c r="O26" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P26" t="n">
         <v>2.08</v>
@@ -3949,7 +3949,7 @@
         <v>2.78</v>
       </c>
       <c r="T26" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U26" t="n">
         <v>2.28</v>
@@ -3961,49 +3961,49 @@
         <v>1.62</v>
       </c>
       <c r="X26" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Y26" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="Z26" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AA26" t="n">
         <v>50</v>
       </c>
       <c r="AB26" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AC26" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD26" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AE26" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AF26" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AG26" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AH26" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AI26" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AJ26" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AK26" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AL26" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AM26" t="n">
         <v>70</v>
@@ -4078,16 +4078,16 @@
         <v>1.97</v>
       </c>
       <c r="R27" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S27" t="n">
         <v>3.1</v>
       </c>
       <c r="T27" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U27" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V27" t="n">
         <v>1.57</v>
@@ -4201,7 +4201,7 @@
         <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="O28" t="n">
         <v>1.2</v>
@@ -4213,10 +4213,10 @@
         <v>1.62</v>
       </c>
       <c r="R28" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="S28" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T28" t="n">
         <v>1.54</v>
@@ -4249,7 +4249,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
         <v>25</v>
@@ -4321,13 +4321,13 @@
         <v>4.3</v>
       </c>
       <c r="I29" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
         <v>3.2</v>
       </c>
       <c r="K29" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L29" t="n">
         <v>1.44</v>
@@ -4339,7 +4339,7 @@
         <v>2.76</v>
       </c>
       <c r="O29" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P29" t="n">
         <v>1.61</v>
@@ -4360,7 +4360,7 @@
         <v>1.79</v>
       </c>
       <c r="V29" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W29" t="n">
         <v>1.87</v>
@@ -4447,112 +4447,112 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="G30" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="I30" t="n">
-        <v>2.28</v>
+        <v>2.06</v>
       </c>
       <c r="J30" t="n">
-        <v>2.82</v>
+        <v>3.2</v>
       </c>
       <c r="K30" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L30" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M30" t="n">
         <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="O30" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P30" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="R30" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S30" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="T30" t="n">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="U30" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="V30" t="n">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="W30" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="X30" t="n">
         <v>10.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z30" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AA30" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB30" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AF30" t="n">
         <v>38</v>
       </c>
       <c r="AG30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH30" t="n">
         <v>28</v>
       </c>
       <c r="AI30" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ30" t="n">
+        <v>170</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN30" t="n">
         <v>140</v>
       </c>
-      <c r="AK30" t="n">
-        <v>95</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>220</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>150</v>
-      </c>
       <c r="AO30" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
@@ -4582,19 +4582,19 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G31" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H31" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I31" t="n">
         <v>5.7</v>
       </c>
       <c r="J31" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="K31" t="n">
         <v>3.7</v>
@@ -4609,13 +4609,13 @@
         <v>1.62</v>
       </c>
       <c r="O31" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="P31" t="n">
         <v>1.62</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R31" t="n">
         <v>1.18</v>
@@ -4633,7 +4633,7 @@
         <v>1.21</v>
       </c>
       <c r="W31" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4723,13 +4723,13 @@
         <v>1.8</v>
       </c>
       <c r="H32" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I32" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J32" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K32" t="n">
         <v>4.3</v>
@@ -4762,7 +4762,7 @@
         <v>1.79</v>
       </c>
       <c r="U32" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="V32" t="n">
         <v>1.22</v>
@@ -4774,10 +4774,10 @@
         <v>21</v>
       </c>
       <c r="Y32" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="Z32" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AA32" t="n">
         <v>150</v>
@@ -4789,7 +4789,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD32" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AE32" t="n">
         <v>80</v>
@@ -4801,19 +4801,19 @@
         <v>10.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AI32" t="n">
         <v>65</v>
       </c>
       <c r="AJ32" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AK32" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AL32" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AM32" t="n">
         <v>120</v>
@@ -4852,13 +4852,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="G33" t="n">
         <v>6.6</v>
       </c>
       <c r="H33" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="I33" t="n">
         <v>1.69</v>
@@ -4870,19 +4870,19 @@
         <v>4.1</v>
       </c>
       <c r="L33" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M33" t="n">
         <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O33" t="n">
         <v>1.34</v>
       </c>
       <c r="P33" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q33" t="n">
         <v>2.04</v>
@@ -4891,7 +4891,7 @@
         <v>1.34</v>
       </c>
       <c r="S33" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T33" t="n">
         <v>2.02</v>
@@ -4903,7 +4903,7 @@
         <v>2.46</v>
       </c>
       <c r="W33" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="X33" t="n">
         <v>14</v>
@@ -4939,7 +4939,7 @@
         <v>23</v>
       </c>
       <c r="AI33" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ33" t="n">
         <v>200</v>
@@ -4951,19 +4951,19 @@
         <v>110</v>
       </c>
       <c r="AM33" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN33" t="n">
         <v>140</v>
       </c>
       <c r="AO33" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Portuguese Liga 3</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Santarem</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.54</v>
+        <v>1.97</v>
       </c>
       <c r="G34" t="n">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="H34" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="I34" t="n">
-        <v>8.800000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="J34" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="K34" t="n">
-        <v>6.2</v>
+        <v>3.65</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M34" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N34" t="n">
-        <v>2.66</v>
+        <v>3.45</v>
       </c>
       <c r="O34" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="P34" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="R34" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="S34" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T34" t="n">
-        <v>1.01</v>
+        <v>1.97</v>
       </c>
       <c r="U34" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V34" t="n">
-        <v>1.12</v>
+        <v>1.27</v>
       </c>
       <c r="W34" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="X34" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y34" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA34" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB34" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC34" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD34" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE34" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF34" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG34" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI34" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK34" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL34" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="G35" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H35" t="n">
         <v>7.4</v>
       </c>
       <c r="I35" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J35" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K35" t="n">
         <v>5.3</v>
-      </c>
-      <c r="K35" t="n">
-        <v>5.5</v>
       </c>
       <c r="L35" t="n">
         <v>1.25</v>
@@ -5152,13 +5152,13 @@
         <v>1.18</v>
       </c>
       <c r="P35" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="Q35" t="n">
         <v>1.55</v>
       </c>
       <c r="R35" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S35" t="n">
         <v>2.4</v>
@@ -5167,16 +5167,16 @@
         <v>1.76</v>
       </c>
       <c r="U35" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V35" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W35" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="X35" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y35" t="n">
         <v>34</v>
@@ -5185,7 +5185,7 @@
         <v>70</v>
       </c>
       <c r="AA35" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AB35" t="n">
         <v>12</v>
@@ -5212,10 +5212,10 @@
         <v>80</v>
       </c>
       <c r="AJ35" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK35" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>14.5</v>
       </c>
       <c r="AL35" t="n">
         <v>30</v>
@@ -5233,7 +5233,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Portuguese Liga 3</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5248,121 +5248,256 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Santarem</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.97</v>
+        <v>1.56</v>
       </c>
       <c r="G36" t="n">
-        <v>1.99</v>
+        <v>1.87</v>
       </c>
       <c r="H36" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="I36" t="n">
-        <v>4.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J36" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="K36" t="n">
-        <v>3.6</v>
+        <v>6.2</v>
       </c>
       <c r="L36" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>3.45</v>
+        <v>2.66</v>
       </c>
       <c r="O36" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="P36" t="n">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="R36" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="S36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W36" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Sporting Lisbon</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H37" t="n">
+        <v>20</v>
+      </c>
+      <c r="I37" t="n">
+        <v>26</v>
+      </c>
+      <c r="J37" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="K37" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N37" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W37" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X37" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>75</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>290</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>95</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>370</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>370</v>
+      </c>
+      <c r="AN37" t="n">
         <v>4</v>
       </c>
-      <c r="T36" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W36" t="n">
-        <v>2</v>
-      </c>
-      <c r="X36" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>80</v>
+      <c r="AO37" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO37"/>
+  <dimension ref="A1:AO38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,7 +673,7 @@
         <v>2.76</v>
       </c>
       <c r="H2" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="I2" t="n">
         <v>3</v>
@@ -706,7 +706,7 @@
         <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T2" t="n">
         <v>1.87</v>
@@ -805,13 +805,13 @@
         <v>2.18</v>
       </c>
       <c r="G3" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
         <v>3.55</v>
       </c>
       <c r="I3" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J3" t="n">
         <v>3.7</v>
@@ -826,13 +826,13 @@
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P3" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q3" t="n">
         <v>2.12</v>
@@ -853,13 +853,13 @@
         <v>1.38</v>
       </c>
       <c r="W3" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X3" t="n">
         <v>12.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="Z3" t="n">
         <v>25</v>
@@ -892,7 +892,7 @@
         <v>60</v>
       </c>
       <c r="AJ3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK3" t="n">
         <v>25</v>
@@ -946,7 +946,7 @@
         <v>2.04</v>
       </c>
       <c r="I4" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="J4" t="n">
         <v>3.65</v>
@@ -985,7 +985,7 @@
         <v>2.34</v>
       </c>
       <c r="V4" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="W4" t="n">
         <v>1.35</v>
@@ -1090,13 +1090,13 @@
         <v>4.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>3.7</v>
+        <v>2.16</v>
       </c>
       <c r="O5" t="n">
         <v>1.23</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="G6" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="H6" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="I6" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="J6" t="n">
         <v>3.75</v>
@@ -1231,7 +1231,7 @@
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O6" t="n">
         <v>1.21</v>
@@ -1255,10 +1255,10 @@
         <v>2.54</v>
       </c>
       <c r="V6" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="W6" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X6" t="n">
         <v>27</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="G7" t="n">
         <v>2.78</v>
@@ -1351,7 +1351,7 @@
         <v>2.64</v>
       </c>
       <c r="I7" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="J7" t="n">
         <v>3.65</v>
@@ -1366,7 +1366,7 @@
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
@@ -1390,7 +1390,7 @@
         <v>2.56</v>
       </c>
       <c r="V7" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="W7" t="n">
         <v>1.56</v>
@@ -1402,7 +1402,7 @@
         <v>16</v>
       </c>
       <c r="Z7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA7" t="n">
         <v>44</v>
@@ -1411,7 +1411,7 @@
         <v>16</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD7" t="n">
         <v>14</v>
@@ -1432,7 +1432,7 @@
         <v>42</v>
       </c>
       <c r="AJ7" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK7" t="n">
         <v>34</v>
@@ -1441,7 +1441,7 @@
         <v>42</v>
       </c>
       <c r="AM7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN7" t="n">
         <v>24</v>
@@ -1483,7 +1483,7 @@
         <v>1.41</v>
       </c>
       <c r="H8" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I8" t="n">
         <v>11</v>
@@ -1495,19 +1495,19 @@
         <v>6.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="Q8" t="n">
         <v>1.52</v>
@@ -1516,7 +1516,7 @@
         <v>1.62</v>
       </c>
       <c r="S8" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="T8" t="n">
         <v>1.86</v>
@@ -1540,7 +1540,7 @@
         <v>110</v>
       </c>
       <c r="AA8" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AB8" t="n">
         <v>11.5</v>
@@ -1576,13 +1576,13 @@
         <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN8" t="n">
         <v>4.9</v>
       </c>
       <c r="AO8" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
@@ -1642,16 +1642,16 @@
         <v>1.21</v>
       </c>
       <c r="P9" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q9" t="n">
         <v>1.63</v>
       </c>
       <c r="R9" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S9" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="T9" t="n">
         <v>1.71</v>
@@ -1750,16 +1750,16 @@
         <v>1.93</v>
       </c>
       <c r="G10" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H10" t="n">
         <v>4.3</v>
       </c>
       <c r="I10" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K10" t="n">
         <v>3.75</v>
@@ -1771,7 +1771,7 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="O10" t="n">
         <v>1.01</v>
@@ -1780,7 +1780,7 @@
         <v>1.69</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R10" t="n">
         <v>1.21</v>
@@ -1795,10 +1795,10 @@
         <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W10" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.25</v>
+        <v>2.96</v>
       </c>
       <c r="G11" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="H11" t="n">
-        <v>2.36</v>
+        <v>1.37</v>
       </c>
       <c r="I11" t="n">
-        <v>2.68</v>
+        <v>2.94</v>
       </c>
       <c r="J11" t="n">
-        <v>2.94</v>
+        <v>1.03</v>
       </c>
       <c r="K11" t="n">
-        <v>3.4</v>
+        <v>1000</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Paris 13 Atletico</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.63</v>
+        <v>2.2</v>
       </c>
       <c r="G12" t="n">
-        <v>1.77</v>
+        <v>2.48</v>
       </c>
       <c r="H12" t="n">
-        <v>5.8</v>
+        <v>3.35</v>
       </c>
       <c r="I12" t="n">
-        <v>7.4</v>
+        <v>3.9</v>
       </c>
       <c r="J12" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O12" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.35</v>
       </c>
-      <c r="P12" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.16</v>
-      </c>
       <c r="W12" t="n">
-        <v>2.28</v>
+        <v>1.68</v>
       </c>
       <c r="X12" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="Z12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>970</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO12" t="n">
         <v>55</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>180</v>
       </c>
     </row>
     <row r="13">
@@ -2143,82 +2143,82 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Le Puy</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.04</v>
+        <v>1.61</v>
       </c>
       <c r="G13" t="n">
-        <v>2.32</v>
+        <v>1.75</v>
       </c>
       <c r="H13" t="n">
-        <v>3.55</v>
+        <v>5.8</v>
       </c>
       <c r="I13" t="n">
-        <v>4.4</v>
+        <v>7.2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="K13" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O13" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="P13" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="R13" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T13" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>1.96</v>
+        <v>1.81</v>
       </c>
       <c r="V13" t="n">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="W13" t="n">
-        <v>1.75</v>
+        <v>2.32</v>
       </c>
       <c r="X13" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="Y13" t="n">
         <v>970</v>
       </c>
       <c r="Z13" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AA13" t="n">
-        <v>95</v>
+        <v>230</v>
       </c>
       <c r="AB13" t="n">
-        <v>10</v>
+        <v>970</v>
       </c>
       <c r="AC13" t="n">
         <v>970</v>
@@ -2227,10 +2227,10 @@
         <v>970</v>
       </c>
       <c r="AE13" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="AF13" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG13" t="n">
         <v>970</v>
@@ -2239,7 +2239,7 @@
         <v>970</v>
       </c>
       <c r="AI13" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AJ13" t="n">
         <v>970</v>
@@ -2248,16 +2248,16 @@
         <v>970</v>
       </c>
       <c r="AL13" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN13" t="n">
         <v>970</v>
       </c>
       <c r="AO13" t="n">
-        <v>75</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Le Puy</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.72</v>
+        <v>2.04</v>
       </c>
       <c r="G14" t="n">
-        <v>3.2</v>
+        <v>2.32</v>
       </c>
       <c r="H14" t="n">
-        <v>2.56</v>
+        <v>3.55</v>
       </c>
       <c r="I14" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="J14" t="n">
         <v>3.25</v>
       </c>
       <c r="K14" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T14" t="n">
         <v>1.83</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V14" t="n">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="W14" t="n">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Aubagne FC</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Paris 13 Atletico</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.2</v>
+        <v>2.72</v>
       </c>
       <c r="G15" t="n">
-        <v>2.48</v>
+        <v>3.1</v>
       </c>
       <c r="H15" t="n">
-        <v>3.35</v>
+        <v>2.58</v>
       </c>
       <c r="I15" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L15" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M15" t="n">
         <v>1.01</v>
       </c>
-      <c r="M15" t="n">
-        <v>1.08</v>
-      </c>
       <c r="N15" t="n">
-        <v>3.1</v>
+        <v>1.83</v>
       </c>
       <c r="O15" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="P15" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="R15" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S15" t="n">
-        <v>3.9</v>
+        <v>3.05</v>
       </c>
       <c r="T15" t="n">
-        <v>1.85</v>
+        <v>1.01</v>
       </c>
       <c r="U15" t="n">
-        <v>1.97</v>
+        <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="W15" t="n">
-        <v>1.68</v>
+        <v>1.47</v>
       </c>
       <c r="X15" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Versailles 78 FC</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.58</v>
+        <v>2.3</v>
       </c>
       <c r="G16" t="n">
-        <v>3.15</v>
+        <v>2.72</v>
       </c>
       <c r="H16" t="n">
-        <v>2.54</v>
+        <v>2.92</v>
       </c>
       <c r="I16" t="n">
-        <v>3.1</v>
+        <v>3.85</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K16" t="n">
-        <v>3.45</v>
+        <v>4.7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>1.62</v>
+        <v>2.86</v>
       </c>
       <c r="O16" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P16" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="R16" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S16" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V16" t="n">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="W16" t="n">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
@@ -2683,55 +2683,55 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Bourg-en-Bresse</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.69</v>
+        <v>2.54</v>
       </c>
       <c r="G17" t="n">
-        <v>1.89</v>
+        <v>3.5</v>
       </c>
       <c r="H17" t="n">
-        <v>5.3</v>
+        <v>2.46</v>
       </c>
       <c r="I17" t="n">
-        <v>7</v>
+        <v>3.35</v>
       </c>
       <c r="J17" t="n">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="O17" t="n">
         <v>1.01</v>
       </c>
       <c r="P17" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.02</v>
+        <v>2.28</v>
       </c>
       <c r="R17" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="S17" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="T17" t="n">
         <v>1.01</v>
@@ -2740,10 +2740,10 @@
         <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>1.16</v>
+        <v>1.42</v>
       </c>
       <c r="W17" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.3</v>
+        <v>1.69</v>
       </c>
       <c r="G18" t="n">
-        <v>2.68</v>
+        <v>1.91</v>
       </c>
       <c r="H18" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S18" t="n">
         <v>3.15</v>
       </c>
-      <c r="I18" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3.9</v>
-      </c>
       <c r="T18" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="U18" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>1.35</v>
+        <v>1.16</v>
       </c>
       <c r="W18" t="n">
-        <v>1.58</v>
+        <v>2.1</v>
       </c>
       <c r="X18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2977,25 +2977,25 @@
         <v>2.72</v>
       </c>
       <c r="K19" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L19" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>2.86</v>
+        <v>2.74</v>
       </c>
       <c r="O19" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="P19" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R19" t="n">
         <v>1.18</v>
@@ -3004,10 +3004,10 @@
         <v>3.9</v>
       </c>
       <c r="T19" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="U19" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="V19" t="n">
         <v>1.42</v>
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Boulogne</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.46</v>
+        <v>3.05</v>
       </c>
       <c r="G20" t="n">
-        <v>2.74</v>
+        <v>3.45</v>
       </c>
       <c r="H20" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J20" t="n">
         <v>3.3</v>
       </c>
-      <c r="I20" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.82</v>
-      </c>
       <c r="K20" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>2.42</v>
+        <v>3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.58</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>1.47</v>
+        <v>1.72</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.68</v>
+        <v>2.16</v>
       </c>
       <c r="R20" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S20" t="n">
-        <v>5.7</v>
+        <v>4.1</v>
       </c>
       <c r="T20" t="n">
-        <v>2.14</v>
+        <v>1.89</v>
       </c>
       <c r="U20" t="n">
-        <v>1.73</v>
+        <v>1.93</v>
       </c>
       <c r="V20" t="n">
-        <v>1.35</v>
+        <v>1.64</v>
       </c>
       <c r="W20" t="n">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="X20" t="n">
-        <v>8.4</v>
+        <v>14.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z20" t="n">
-        <v>25</v>
+        <v>15.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AB20" t="n">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD20" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>65</v>
       </c>
-      <c r="AF20" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>44</v>
-      </c>
       <c r="AK20" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AL20" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AM20" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="AN20" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AO20" t="n">
-        <v>110</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Boulogne</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.05</v>
+        <v>2.46</v>
       </c>
       <c r="G21" t="n">
-        <v>3.45</v>
+        <v>2.74</v>
       </c>
       <c r="H21" t="n">
-        <v>2.34</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.58</v>
+        <v>3.85</v>
       </c>
       <c r="J21" t="n">
-        <v>3.3</v>
+        <v>2.82</v>
       </c>
       <c r="K21" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N21" t="n">
-        <v>3</v>
+        <v>2.42</v>
       </c>
       <c r="O21" t="n">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="P21" t="n">
-        <v>1.72</v>
+        <v>1.52</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.16</v>
+        <v>2.68</v>
       </c>
       <c r="R21" t="n">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="S21" t="n">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="T21" t="n">
-        <v>1.89</v>
+        <v>2.14</v>
       </c>
       <c r="U21" t="n">
-        <v>1.93</v>
+        <v>1.73</v>
       </c>
       <c r="V21" t="n">
-        <v>1.64</v>
+        <v>1.35</v>
       </c>
       <c r="W21" t="n">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="X21" t="n">
-        <v>14.5</v>
+        <v>8.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF21" t="n">
         <v>15.5</v>
       </c>
-      <c r="AA21" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>23</v>
-      </c>
       <c r="AG21" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AI21" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="AJ21" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AK21" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AL21" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AM21" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="AN21" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO21" t="n">
-        <v>29</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="G22" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
       <c r="J22" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="P22" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.14</v>
+        <v>1.79</v>
       </c>
       <c r="R22" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="S22" t="n">
-        <v>3.9</v>
+        <v>2.62</v>
       </c>
       <c r="T22" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W22" t="n">
         <v>2</v>
       </c>
-      <c r="U22" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W22" t="n">
-        <v>2.14</v>
-      </c>
       <c r="X22" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="Y22" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="Z22" t="n">
         <v>970</v>
       </c>
       <c r="AA22" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>7.6</v>
+        <v>13.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AE22" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AH22" t="n">
         <v>970</v>
       </c>
       <c r="AI22" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AK22" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AL22" t="n">
         <v>970</v>
       </c>
       <c r="AM22" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AO22" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Pau</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="G23" t="n">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="H23" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K23" t="n">
         <v>4</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.2</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T23" t="n">
         <v>2</v>
       </c>
-      <c r="O23" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.6</v>
-      </c>
       <c r="U23" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="V23" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="W23" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="X23" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="Z23" t="n">
         <v>970</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB23" t="n">
-        <v>13.5</v>
+        <v>7.6</v>
       </c>
       <c r="AC23" t="n">
-        <v>12.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD23" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF23" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
         <v>970</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ23" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AL23" t="n">
         <v>970</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN23" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.06</v>
+        <v>2.32</v>
       </c>
       <c r="G24" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="H24" t="n">
-        <v>3.15</v>
+        <v>2.86</v>
       </c>
       <c r="I24" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="J24" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K24" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>2.54</v>
+        <v>4.3</v>
       </c>
       <c r="O24" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="P24" t="n">
-        <v>2.54</v>
+        <v>2.08</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.53</v>
+        <v>1.74</v>
       </c>
       <c r="R24" t="n">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="S24" t="n">
-        <v>2.08</v>
+        <v>2.78</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="V24" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="W24" t="n">
-        <v>1.79</v>
+        <v>1.66</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
@@ -3763,31 +3763,31 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.64</v>
+        <v>2.06</v>
       </c>
       <c r="G25" t="n">
-        <v>1.78</v>
+        <v>2.48</v>
       </c>
       <c r="H25" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K25" t="n">
         <v>4.6</v>
-      </c>
-      <c r="I25" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J25" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K25" t="n">
-        <v>5.2</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3796,22 +3796,22 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>2.68</v>
+        <v>2.26</v>
       </c>
       <c r="O25" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P25" t="n">
-        <v>2.68</v>
+        <v>2.26</v>
       </c>
       <c r="Q25" t="n">
         <v>1.47</v>
       </c>
       <c r="R25" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="S25" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="T25" t="n">
         <v>1.01</v>
@@ -3820,10 +3820,10 @@
         <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="W25" t="n">
-        <v>2.28</v>
+        <v>1.67</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.32</v>
+        <v>1.71</v>
       </c>
       <c r="G26" t="n">
-        <v>2.6</v>
+        <v>1.84</v>
       </c>
       <c r="H26" t="n">
-        <v>2.86</v>
+        <v>4.4</v>
       </c>
       <c r="I26" t="n">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="J26" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="K26" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>4.3</v>
+        <v>2.54</v>
       </c>
       <c r="O26" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="P26" t="n">
-        <v>2.08</v>
+        <v>2.52</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.74</v>
+        <v>1.42</v>
       </c>
       <c r="R26" t="n">
-        <v>1.46</v>
+        <v>1.59</v>
       </c>
       <c r="S26" t="n">
-        <v>2.78</v>
+        <v>2.04</v>
       </c>
       <c r="T26" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="U26" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="V26" t="n">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="W26" t="n">
-        <v>1.62</v>
+        <v>2.18</v>
       </c>
       <c r="X26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4057,7 +4057,7 @@
         <v>3.25</v>
       </c>
       <c r="K27" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4075,7 +4075,7 @@
         <v>1.84</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="R27" t="n">
         <v>1.29</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G28" t="n">
         <v>2.78</v>
@@ -4213,10 +4213,10 @@
         <v>1.62</v>
       </c>
       <c r="R28" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S28" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T28" t="n">
         <v>1.54</v>
@@ -4231,7 +4231,7 @@
         <v>1.56</v>
       </c>
       <c r="X28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y28" t="n">
         <v>16</v>
@@ -4276,7 +4276,7 @@
         <v>32</v>
       </c>
       <c r="AM28" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
         <v>16</v>
@@ -4312,28 +4312,28 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="G29" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="H29" t="n">
         <v>4.3</v>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J29" t="n">
         <v>3.2</v>
       </c>
       <c r="K29" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="M29" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N29" t="n">
         <v>2.76</v>
@@ -4342,7 +4342,7 @@
         <v>1.48</v>
       </c>
       <c r="P29" t="n">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="Q29" t="n">
         <v>2.4</v>
@@ -4360,10 +4360,10 @@
         <v>1.79</v>
       </c>
       <c r="V29" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W29" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="X29" t="n">
         <v>12</v>
@@ -4372,10 +4372,10 @@
         <v>13.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AA29" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB29" t="n">
         <v>7.4</v>
@@ -4384,7 +4384,7 @@
         <v>8</v>
       </c>
       <c r="AD29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE29" t="n">
         <v>80</v>
@@ -4399,25 +4399,25 @@
         <v>25</v>
       </c>
       <c r="AI29" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ29" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AK29" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AL29" t="n">
         <v>55</v>
       </c>
       <c r="AM29" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN29" t="n">
         <v>25</v>
       </c>
       <c r="AO29" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
@@ -4447,94 +4447,94 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="G30" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="H30" t="n">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="I30" t="n">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="J30" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K30" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M30" t="n">
         <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>2.68</v>
+        <v>2.86</v>
       </c>
       <c r="O30" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P30" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.4</v>
+        <v>2.26</v>
       </c>
       <c r="R30" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="W30" t="n">
         <v>1.2</v>
       </c>
-      <c r="S30" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.22</v>
-      </c>
       <c r="X30" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="Z30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA30" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AB30" t="n">
         <v>15.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD30" t="n">
         <v>11.5</v>
       </c>
       <c r="AE30" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH30" t="n">
         <v>27</v>
       </c>
-      <c r="AF30" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>28</v>
-      </c>
       <c r="AI30" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ30" t="n">
         <v>170</v>
@@ -4549,10 +4549,10 @@
         <v>210</v>
       </c>
       <c r="AN30" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AO30" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="31">
@@ -4588,10 +4588,10 @@
         <v>2.14</v>
       </c>
       <c r="H31" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I31" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J31" t="n">
         <v>2.96</v>
@@ -4723,7 +4723,7 @@
         <v>1.8</v>
       </c>
       <c r="H32" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="I32" t="n">
         <v>5.4</v>
@@ -4732,7 +4732,7 @@
         <v>3.85</v>
       </c>
       <c r="K32" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L32" t="n">
         <v>1.35</v>
@@ -4858,7 +4858,7 @@
         <v>6.6</v>
       </c>
       <c r="H33" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="I33" t="n">
         <v>1.69</v>
@@ -4876,13 +4876,13 @@
         <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O33" t="n">
         <v>1.34</v>
       </c>
       <c r="P33" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q33" t="n">
         <v>2.04</v>
@@ -4903,7 +4903,7 @@
         <v>2.46</v>
       </c>
       <c r="W33" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="X33" t="n">
         <v>14</v>
@@ -4918,7 +4918,7 @@
         <v>16</v>
       </c>
       <c r="AB33" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC33" t="n">
         <v>8.800000000000001</v>
@@ -4927,7 +4927,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE33" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF33" t="n">
         <v>50</v>
@@ -4942,16 +4942,16 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AK33" t="n">
         <v>100</v>
       </c>
       <c r="AL33" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM33" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN33" t="n">
         <v>140</v>
@@ -4963,7 +4963,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4978,127 +4978,127 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.97</v>
+        <v>1.47</v>
       </c>
       <c r="G34" t="n">
-        <v>1.99</v>
+        <v>1.49</v>
       </c>
       <c r="H34" t="n">
-        <v>4.5</v>
+        <v>7.4</v>
       </c>
       <c r="I34" t="n">
-        <v>4.7</v>
+        <v>7.8</v>
       </c>
       <c r="J34" t="n">
-        <v>3.6</v>
+        <v>5.1</v>
       </c>
       <c r="K34" t="n">
-        <v>3.65</v>
+        <v>5.3</v>
       </c>
       <c r="L34" t="n">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="M34" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>3.45</v>
+        <v>6</v>
       </c>
       <c r="O34" t="n">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="P34" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="R34" t="n">
-        <v>1.3</v>
+        <v>1.67</v>
       </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>2.38</v>
       </c>
       <c r="T34" t="n">
-        <v>1.97</v>
+        <v>1.72</v>
       </c>
       <c r="U34" t="n">
-        <v>1.98</v>
+        <v>2.26</v>
       </c>
       <c r="V34" t="n">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="W34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X34" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB34" t="n">
         <v>12</v>
       </c>
-      <c r="Y34" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>8</v>
-      </c>
       <c r="AC34" t="n">
-        <v>7.6</v>
+        <v>12</v>
       </c>
       <c r="AD34" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AE34" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="AF34" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH34" t="n">
         <v>21</v>
       </c>
       <c r="AI34" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ34" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AK34" t="n">
-        <v>22</v>
+        <v>13.5</v>
       </c>
       <c r="AL34" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="AM34" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AN34" t="n">
-        <v>17</v>
+        <v>5.4</v>
       </c>
       <c r="AO34" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Portuguese Liga 3</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5113,127 +5113,127 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Santarem</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="G35" t="n">
-        <v>1.5</v>
+        <v>1.87</v>
       </c>
       <c r="H35" t="n">
-        <v>7.4</v>
+        <v>5.5</v>
       </c>
       <c r="I35" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J35" t="n">
-        <v>5.1</v>
+        <v>3.35</v>
       </c>
       <c r="K35" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="L35" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>5.8</v>
+        <v>2.66</v>
       </c>
       <c r="O35" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="P35" t="n">
-        <v>2.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.55</v>
+        <v>2.02</v>
       </c>
       <c r="R35" t="n">
-        <v>1.67</v>
+        <v>1.2</v>
       </c>
       <c r="S35" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="T35" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="U35" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="V35" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="W35" t="n">
-        <v>3</v>
+        <v>2.14</v>
       </c>
       <c r="X35" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y35" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Z35" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AA35" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC35" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD35" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AE35" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG35" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AH35" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI35" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Portuguese Liga 3</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5248,121 +5248,121 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Santarem</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.56</v>
+        <v>1.96</v>
       </c>
       <c r="G36" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="H36" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="I36" t="n">
-        <v>8.800000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="J36" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="K36" t="n">
-        <v>6.2</v>
+        <v>3.65</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M36" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N36" t="n">
-        <v>2.66</v>
+        <v>3.45</v>
       </c>
       <c r="O36" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="P36" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="Q36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W36" t="n">
         <v>2.02</v>
       </c>
-      <c r="R36" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W36" t="n">
-        <v>2.14</v>
-      </c>
       <c r="X36" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y36" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA36" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB36" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC36" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD36" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE36" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF36" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG36" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI36" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK36" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM36" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN36" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="G37" t="n">
         <v>1.17</v>
@@ -5416,7 +5416,7 @@
         <v>1.02</v>
       </c>
       <c r="N37" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O37" t="n">
         <v>1.16</v>
@@ -5437,7 +5437,7 @@
         <v>2.42</v>
       </c>
       <c r="U37" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="V37" t="n">
         <v>1.04</v>
@@ -5446,7 +5446,7 @@
         <v>6.8</v>
       </c>
       <c r="X37" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="Y37" t="n">
         <v>75</v>
@@ -5458,10 +5458,10 @@
         <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AC37" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AD37" t="n">
         <v>95</v>
@@ -5470,7 +5470,7 @@
         <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG37" t="n">
         <v>14</v>
@@ -5479,25 +5479,160 @@
         <v>65</v>
       </c>
       <c r="AI37" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="AJ37" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="AK37" t="n">
         <v>18</v>
       </c>
       <c r="AL37" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM37" t="n">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="AN37" t="n">
         <v>4</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>20:20:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Llaneros FC</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="G2" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="H2" t="n">
         <v>2.96</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J2" t="n">
         <v>3.3</v>
@@ -697,7 +697,7 @@
         <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q2" t="n">
         <v>2.12</v>
@@ -706,7 +706,7 @@
         <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="T2" t="n">
         <v>1.87</v>
@@ -715,10 +715,10 @@
         <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W2" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X2" t="n">
         <v>13</v>
@@ -727,10 +727,10 @@
         <v>11.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB2" t="n">
         <v>10.5</v>
@@ -754,7 +754,7 @@
         <v>19</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>30</v>
       </c>
       <c r="AO2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -877,7 +877,7 @@
         <v>15</v>
       </c>
       <c r="AE3" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF3" t="n">
         <v>13.5</v>
@@ -886,7 +886,7 @@
         <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI3" t="n">
         <v>60</v>
@@ -898,7 +898,7 @@
         <v>25</v>
       </c>
       <c r="AL3" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM3" t="n">
         <v>120</v>
@@ -907,7 +907,7 @@
         <v>21</v>
       </c>
       <c r="AO3" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="G4" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
         <v>2.28</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.27</v>
@@ -961,34 +961,34 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="Q4" t="n">
         <v>1.65</v>
       </c>
       <c r="R4" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="T4" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U4" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V4" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="W4" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="X4" t="n">
         <v>970</v>
@@ -1003,31 +1003,31 @@
         <v>970</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
         <v>13.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AF4" t="n">
         <v>970</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI4" t="n">
         <v>970</v>
       </c>
       <c r="AJ4" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK4" t="n">
         <v>970</v>
@@ -1039,10 +1039,10 @@
         <v>80</v>
       </c>
       <c r="AN4" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AO4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G6" t="n">
         <v>2.86</v>
@@ -1240,22 +1240,22 @@
         <v>2.38</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="R6" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="S6" t="n">
         <v>2.56</v>
       </c>
       <c r="T6" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U6" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="V6" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="W6" t="n">
         <v>1.53</v>
@@ -1351,7 +1351,7 @@
         <v>2.64</v>
       </c>
       <c r="I7" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J7" t="n">
         <v>3.65</v>
@@ -1381,7 +1381,7 @@
         <v>1.51</v>
       </c>
       <c r="S7" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T7" t="n">
         <v>1.62</v>
@@ -1441,7 +1441,7 @@
         <v>42</v>
       </c>
       <c r="AM7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN7" t="n">
         <v>24</v>
@@ -1510,10 +1510,10 @@
         <v>2.56</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="R8" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S8" t="n">
         <v>2.26</v>
@@ -1654,7 +1654,7 @@
         <v>2.56</v>
       </c>
       <c r="T9" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U9" t="n">
         <v>2.3</v>
@@ -1693,7 +1693,7 @@
         <v>11.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH9" t="n">
         <v>18.5</v>
@@ -1750,7 +1750,7 @@
         <v>1.93</v>
       </c>
       <c r="G10" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H10" t="n">
         <v>4.3</v>
@@ -1759,7 +1759,7 @@
         <v>5.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
         <v>3.75</v>
@@ -1798,7 +1798,7 @@
         <v>1.23</v>
       </c>
       <c r="W10" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -2155,7 +2155,7 @@
         <v>1.61</v>
       </c>
       <c r="G13" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="H13" t="n">
         <v>5.8</v>
@@ -2203,10 +2203,10 @@
         <v>1.16</v>
       </c>
       <c r="W13" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="X13" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="Y13" t="n">
         <v>970</v>
@@ -2230,7 +2230,7 @@
         <v>120</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AG13" t="n">
         <v>970</v>
@@ -2428,7 +2428,7 @@
         <v>3.1</v>
       </c>
       <c r="H15" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="I15" t="n">
         <v>3.1</v>
@@ -2560,10 +2560,10 @@
         <v>2.3</v>
       </c>
       <c r="G16" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="H16" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="I16" t="n">
         <v>3.85</v>
@@ -2572,7 +2572,7 @@
         <v>3.05</v>
       </c>
       <c r="K16" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="L16" t="n">
         <v>1.43</v>
@@ -2608,7 +2608,7 @@
         <v>1.35</v>
       </c>
       <c r="W16" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X16" t="n">
         <v>970</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H17" t="n">
         <v>2.54</v>
       </c>
-      <c r="G17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2.46</v>
-      </c>
       <c r="I17" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="J17" t="n">
         <v>3</v>
@@ -2740,10 +2740,10 @@
         <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="W17" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2878,7 +2878,7 @@
         <v>1.16</v>
       </c>
       <c r="W18" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="G21" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="H21" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I21" t="n">
         <v>3.85</v>
       </c>
       <c r="J21" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K21" t="n">
         <v>3.2</v>
@@ -3256,10 +3256,10 @@
         <v>1.13</v>
       </c>
       <c r="N21" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="O21" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="P21" t="n">
         <v>1.52</v>
@@ -3283,7 +3283,7 @@
         <v>1.35</v>
       </c>
       <c r="W21" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X21" t="n">
         <v>8.4</v>
@@ -3331,7 +3331,7 @@
         <v>75</v>
       </c>
       <c r="AM21" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AN21" t="n">
         <v>48</v>
@@ -3508,7 +3508,7 @@
         <v>1.86</v>
       </c>
       <c r="H23" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I23" t="n">
         <v>6.4</v>
@@ -3532,13 +3532,13 @@
         <v>1.37</v>
       </c>
       <c r="P23" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q23" t="n">
         <v>2.14</v>
       </c>
       <c r="R23" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S23" t="n">
         <v>3.9</v>
@@ -3547,7 +3547,7 @@
         <v>2</v>
       </c>
       <c r="U23" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V23" t="n">
         <v>1.18</v>
@@ -3565,7 +3565,7 @@
         <v>970</v>
       </c>
       <c r="AA23" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AB23" t="n">
         <v>7.6</v>
@@ -3577,7 +3577,7 @@
         <v>24</v>
       </c>
       <c r="AE23" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF23" t="n">
         <v>10.5</v>
@@ -3589,7 +3589,7 @@
         <v>970</v>
       </c>
       <c r="AI23" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ23" t="n">
         <v>19.5</v>
@@ -3601,13 +3601,13 @@
         <v>970</v>
       </c>
       <c r="AM23" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN23" t="n">
         <v>15</v>
       </c>
       <c r="AO23" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="G27" t="n">
         <v>3.25</v>
@@ -4051,7 +4051,7 @@
         <v>2.44</v>
       </c>
       <c r="I27" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="J27" t="n">
         <v>3.25</v>
@@ -4066,16 +4066,16 @@
         <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O27" t="n">
         <v>1.34</v>
       </c>
       <c r="P27" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q27" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R27" t="n">
         <v>1.29</v>
@@ -4090,7 +4090,7 @@
         <v>2.1</v>
       </c>
       <c r="V27" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="W27" t="n">
         <v>1.44</v>
@@ -4102,7 +4102,7 @@
         <v>15</v>
       </c>
       <c r="Z27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA27" t="n">
         <v>50</v>
@@ -4117,7 +4117,7 @@
         <v>17</v>
       </c>
       <c r="AE27" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF27" t="n">
         <v>30</v>
@@ -4129,7 +4129,7 @@
         <v>24</v>
       </c>
       <c r="AI27" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ27" t="n">
         <v>75</v>
@@ -4276,7 +4276,7 @@
         <v>32</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN28" t="n">
         <v>16</v>
@@ -4324,13 +4324,13 @@
         <v>4.8</v>
       </c>
       <c r="J29" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K29" t="n">
         <v>3.5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="M29" t="n">
         <v>1.11</v>
@@ -4366,7 +4366,7 @@
         <v>1.84</v>
       </c>
       <c r="X29" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Y29" t="n">
         <v>13.5</v>
@@ -4852,16 +4852,16 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="G33" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="H33" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I33" t="n">
         <v>1.67</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1.69</v>
       </c>
       <c r="J33" t="n">
         <v>4</v>
@@ -4900,7 +4900,7 @@
         <v>1.89</v>
       </c>
       <c r="V33" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="W33" t="n">
         <v>1.17</v>
@@ -4942,13 +4942,13 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AK33" t="n">
         <v>100</v>
       </c>
       <c r="AL33" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AM33" t="n">
         <v>150</v>
@@ -4993,10 +4993,10 @@
         <v>1.49</v>
       </c>
       <c r="H34" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I34" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="J34" t="n">
         <v>5.1</v>
@@ -5017,7 +5017,7 @@
         <v>1.18</v>
       </c>
       <c r="P34" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="Q34" t="n">
         <v>1.55</v>
@@ -5032,13 +5032,13 @@
         <v>1.72</v>
       </c>
       <c r="U34" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V34" t="n">
         <v>1.14</v>
       </c>
       <c r="W34" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X34" t="n">
         <v>26</v>
@@ -5050,13 +5050,13 @@
         <v>70</v>
       </c>
       <c r="AA34" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AB34" t="n">
         <v>12</v>
       </c>
       <c r="AC34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD34" t="n">
         <v>28</v>
@@ -5068,13 +5068,13 @@
         <v>10.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AH34" t="n">
         <v>21</v>
       </c>
       <c r="AI34" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ34" t="n">
         <v>14</v>
@@ -5083,7 +5083,7 @@
         <v>13.5</v>
       </c>
       <c r="AL34" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AM34" t="n">
         <v>90</v>
@@ -5125,7 +5125,7 @@
         <v>1.56</v>
       </c>
       <c r="G35" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="H35" t="n">
         <v>5.5</v>
@@ -5137,7 +5137,7 @@
         <v>3.35</v>
       </c>
       <c r="K35" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
@@ -5155,7 +5155,7 @@
         <v>1.68</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R35" t="n">
         <v>1.2</v>
@@ -5173,7 +5173,7 @@
         <v>1.12</v>
       </c>
       <c r="W35" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X35" t="n">
         <v>1000</v>
@@ -5395,16 +5395,16 @@
         <v>1.15</v>
       </c>
       <c r="G37" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="H37" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I37" t="n">
         <v>26</v>
       </c>
       <c r="J37" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="K37" t="n">
         <v>10.5</v>
@@ -5422,28 +5422,28 @@
         <v>1.16</v>
       </c>
       <c r="P37" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="R37" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S37" t="n">
         <v>2.24</v>
       </c>
       <c r="T37" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="U37" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="V37" t="n">
         <v>1.04</v>
       </c>
       <c r="W37" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="X37" t="n">
         <v>970</v>
@@ -5464,7 +5464,7 @@
         <v>970</v>
       </c>
       <c r="AD37" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AE37" t="n">
         <v>1000</v>
@@ -5476,13 +5476,13 @@
         <v>14</v>
       </c>
       <c r="AH37" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI37" t="n">
         <v>360</v>
       </c>
       <c r="AJ37" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AK37" t="n">
         <v>18</v>
@@ -5527,16 +5527,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="G38" t="n">
         <v>2.92</v>
       </c>
       <c r="H38" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="I38" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J38" t="n">
         <v>3.2</v>
@@ -5557,10 +5557,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO38"/>
+  <dimension ref="A1:AO39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,10 +670,10 @@
         <v>2.66</v>
       </c>
       <c r="G2" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="H2" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I2" t="n">
         <v>3.05</v>
@@ -691,34 +691,34 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S2" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="T2" t="n">
         <v>1.87</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V2" t="n">
         <v>1.48</v>
       </c>
       <c r="W2" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X2" t="n">
         <v>13</v>
@@ -841,10 +841,10 @@
         <v>1.31</v>
       </c>
       <c r="S3" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T3" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U3" t="n">
         <v>2.02</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G4" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
@@ -952,7 +952,7 @@
         <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L4" t="n">
         <v>1.27</v>
@@ -961,28 +961,28 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="S4" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T4" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="U4" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="V4" t="n">
         <v>1.79</v>
@@ -1039,10 +1039,10 @@
         <v>80</v>
       </c>
       <c r="AN4" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AO4" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1075,7 +1075,7 @@
         <v>1.59</v>
       </c>
       <c r="G5" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="H5" t="n">
         <v>5.4</v>
@@ -1087,7 +1087,7 @@
         <v>4.1</v>
       </c>
       <c r="K5" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,19 +1096,19 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="O5" t="n">
         <v>1.23</v>
       </c>
       <c r="P5" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q5" t="n">
         <v>1.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S5" t="n">
         <v>2.74</v>
@@ -1117,7 +1117,7 @@
         <v>1.63</v>
       </c>
       <c r="U5" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V5" t="n">
         <v>1.17</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="G6" t="n">
         <v>2.86</v>
@@ -1231,22 +1231,22 @@
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q6" t="n">
         <v>1.63</v>
       </c>
       <c r="R6" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S6" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T6" t="n">
         <v>1.57</v>
@@ -1255,10 +1255,10 @@
         <v>2.52</v>
       </c>
       <c r="V6" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="W6" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X6" t="n">
         <v>27</v>
@@ -1312,7 +1312,7 @@
         <v>970</v>
       </c>
       <c r="AO6" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -1351,7 +1351,7 @@
         <v>2.64</v>
       </c>
       <c r="I7" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="J7" t="n">
         <v>3.65</v>
@@ -1486,10 +1486,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J8" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="K8" t="n">
         <v>6.4</v>
@@ -1501,28 +1501,28 @@
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="O8" t="n">
         <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="R8" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="S8" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="U8" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="V8" t="n">
         <v>1.1</v>
@@ -1531,31 +1531,31 @@
         <v>3.4</v>
       </c>
       <c r="X8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y8" t="n">
         <v>38</v>
       </c>
       <c r="Z8" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA8" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="AB8" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC8" t="n">
         <v>14</v>
       </c>
       <c r="AD8" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AE8" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG8" t="n">
         <v>11.5</v>
@@ -1564,25 +1564,25 @@
         <v>26</v>
       </c>
       <c r="AI8" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ8" t="n">
         <v>12.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM8" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AO8" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9">
@@ -1666,7 +1666,7 @@
         <v>2.44</v>
       </c>
       <c r="X9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
         <v>25</v>
@@ -1693,7 +1693,7 @@
         <v>11.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH9" t="n">
         <v>18.5</v>
@@ -1750,16 +1750,16 @@
         <v>1.93</v>
       </c>
       <c r="G10" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="H10" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I10" t="n">
         <v>5.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
         <v>3.75</v>
@@ -1795,10 +1795,10 @@
         <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="W10" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.96</v>
+        <v>1.54</v>
       </c>
       <c r="G11" t="n">
         <v>1000</v>
@@ -2020,7 +2020,7 @@
         <v>2.2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="H12" t="n">
         <v>3.35</v>
@@ -2041,7 +2041,7 @@
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O12" t="n">
         <v>1.37</v>
@@ -2068,7 +2068,7 @@
         <v>1.35</v>
       </c>
       <c r="W12" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="X12" t="n">
         <v>12.5</v>
@@ -2167,7 +2167,7 @@
         <v>3.7</v>
       </c>
       <c r="K13" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2176,10 +2176,10 @@
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P13" t="n">
         <v>1.79</v>
@@ -2188,7 +2188,7 @@
         <v>2.04</v>
       </c>
       <c r="R13" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S13" t="n">
         <v>3.6</v>
@@ -2314,7 +2314,7 @@
         <v>3.15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P14" t="n">
         <v>1.75</v>
@@ -2338,7 +2338,7 @@
         <v>1.3</v>
       </c>
       <c r="W14" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X14" t="n">
         <v>970</v>
@@ -2425,13 +2425,13 @@
         <v>2.72</v>
       </c>
       <c r="G15" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H15" t="n">
         <v>2.56</v>
       </c>
       <c r="I15" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="J15" t="n">
         <v>3.25</v>
@@ -2446,13 +2446,13 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="O15" t="n">
         <v>1.01</v>
       </c>
       <c r="P15" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q15" t="n">
         <v>1.97</v>
@@ -2470,7 +2470,7 @@
         <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="W15" t="n">
         <v>1.47</v>
@@ -2560,19 +2560,19 @@
         <v>2.3</v>
       </c>
       <c r="G16" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="H16" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J16" t="n">
         <v>3.05</v>
       </c>
       <c r="K16" t="n">
-        <v>4.4</v>
+        <v>3.55</v>
       </c>
       <c r="L16" t="n">
         <v>1.43</v>
@@ -2581,7 +2581,7 @@
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="O16" t="n">
         <v>1.42</v>
@@ -2596,19 +2596,19 @@
         <v>1.23</v>
       </c>
       <c r="S16" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="T16" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U16" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V16" t="n">
         <v>1.35</v>
       </c>
       <c r="W16" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X16" t="n">
         <v>970</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.58</v>
+        <v>2.76</v>
       </c>
       <c r="G17" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="H17" t="n">
-        <v>2.54</v>
+        <v>2.68</v>
       </c>
       <c r="I17" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J17" t="n">
         <v>3</v>
@@ -2716,13 +2716,13 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="O17" t="n">
         <v>1.01</v>
       </c>
       <c r="P17" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="Q17" t="n">
         <v>2.28</v>
@@ -2740,10 +2740,10 @@
         <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="W17" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2830,7 +2830,7 @@
         <v>1.69</v>
       </c>
       <c r="G18" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="H18" t="n">
         <v>4.8</v>
@@ -2839,7 +2839,7 @@
         <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K18" t="n">
         <v>4.2</v>
@@ -2878,7 +2878,7 @@
         <v>1.16</v>
       </c>
       <c r="W18" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2974,13 +2974,13 @@
         <v>3.4</v>
       </c>
       <c r="J19" t="n">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="K19" t="n">
         <v>3.45</v>
       </c>
       <c r="L19" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M19" t="n">
         <v>1.01</v>
@@ -3004,10 +3004,10 @@
         <v>3.9</v>
       </c>
       <c r="T19" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U19" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="V19" t="n">
         <v>1.42</v>
@@ -3109,7 +3109,7 @@
         <v>2.58</v>
       </c>
       <c r="J20" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K20" t="n">
         <v>3.7</v>
@@ -3121,7 +3121,7 @@
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O20" t="n">
         <v>1.4</v>
@@ -3145,7 +3145,7 @@
         <v>1.93</v>
       </c>
       <c r="V20" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="W20" t="n">
         <v>1.41</v>
@@ -3184,7 +3184,7 @@
         <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AJ20" t="n">
         <v>65</v>
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="G21" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="H21" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
         <v>3.85</v>
@@ -3259,7 +3259,7 @@
         <v>2.44</v>
       </c>
       <c r="O21" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="P21" t="n">
         <v>1.52</v>
@@ -3283,7 +3283,7 @@
         <v>1.35</v>
       </c>
       <c r="W21" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X21" t="n">
         <v>8.4</v>
@@ -3295,10 +3295,10 @@
         <v>25</v>
       </c>
       <c r="AA21" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AB21" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC21" t="n">
         <v>7.4</v>
@@ -3322,19 +3322,19 @@
         <v>110</v>
       </c>
       <c r="AJ21" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK21" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL21" t="n">
         <v>75</v>
       </c>
       <c r="AM21" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AN21" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AO21" t="n">
         <v>110</v>
@@ -3370,7 +3370,7 @@
         <v>1.85</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H22" t="n">
         <v>4</v>
@@ -3391,13 +3391,13 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="O22" t="n">
         <v>1.27</v>
       </c>
       <c r="P22" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q22" t="n">
         <v>1.79</v>
@@ -3412,13 +3412,13 @@
         <v>1.6</v>
       </c>
       <c r="U22" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="V22" t="n">
         <v>1.26</v>
       </c>
       <c r="W22" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X22" t="n">
         <v>23</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="G23" t="n">
         <v>1.86</v>
@@ -3514,7 +3514,7 @@
         <v>6.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K23" t="n">
         <v>4</v>
@@ -3529,7 +3529,7 @@
         <v>3.15</v>
       </c>
       <c r="O23" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P23" t="n">
         <v>1.74</v>
@@ -3604,7 +3604,7 @@
         <v>180</v>
       </c>
       <c r="AN23" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO23" t="n">
         <v>150</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G24" t="n">
         <v>2.5</v>
       </c>
       <c r="H24" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="I24" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J24" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K24" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3661,13 +3661,13 @@
         <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="O24" t="n">
         <v>1.25</v>
       </c>
       <c r="P24" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q24" t="n">
         <v>1.74</v>
@@ -3676,16 +3676,16 @@
         <v>1.46</v>
       </c>
       <c r="S24" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="T24" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U24" t="n">
         <v>2.28</v>
       </c>
       <c r="V24" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W24" t="n">
         <v>1.66</v>
@@ -3700,7 +3700,7 @@
         <v>970</v>
       </c>
       <c r="AA24" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB24" t="n">
         <v>970</v>
@@ -3736,13 +3736,13 @@
         <v>970</v>
       </c>
       <c r="AM24" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN24" t="n">
         <v>18.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
     </row>
     <row r="25">
@@ -4042,19 +4042,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="G27" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="H27" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I27" t="n">
         <v>2.7</v>
       </c>
       <c r="J27" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K27" t="n">
         <v>3.6</v>
@@ -4072,73 +4072,73 @@
         <v>1.34</v>
       </c>
       <c r="P27" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R27" t="n">
         <v>1.29</v>
       </c>
       <c r="S27" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="T27" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U27" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V27" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W27" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB27" t="n">
         <v>15</v>
       </c>
-      <c r="Z27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB27" t="n">
+      <c r="AC27" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG27" t="n">
         <v>17</v>
       </c>
-      <c r="AC27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>19</v>
-      </c>
       <c r="AH27" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI27" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL27" t="n">
         <v>55</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>70</v>
       </c>
       <c r="AM27" t="n">
         <v>1000</v>
@@ -4183,7 +4183,7 @@
         <v>2.78</v>
       </c>
       <c r="H28" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I28" t="n">
         <v>2.7</v>
@@ -4213,7 +4213,7 @@
         <v>1.62</v>
       </c>
       <c r="R28" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="S28" t="n">
         <v>2.5</v>
@@ -4315,10 +4315,10 @@
         <v>2.04</v>
       </c>
       <c r="G29" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="H29" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="I29" t="n">
         <v>4.8</v>
@@ -4330,13 +4330,13 @@
         <v>3.5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="M29" t="n">
         <v>1.11</v>
       </c>
       <c r="N29" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="O29" t="n">
         <v>1.48</v>
@@ -4345,16 +4345,16 @@
         <v>1.69</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R29" t="n">
         <v>1.21</v>
       </c>
       <c r="S29" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T29" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U29" t="n">
         <v>1.79</v>
@@ -4363,7 +4363,7 @@
         <v>1.26</v>
       </c>
       <c r="W29" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X29" t="n">
         <v>10.5</v>
@@ -4372,10 +4372,10 @@
         <v>13.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AA29" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB29" t="n">
         <v>7.4</v>
@@ -4411,10 +4411,10 @@
         <v>55</v>
       </c>
       <c r="AM29" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN29" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO29" t="n">
         <v>130</v>
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Team Altamura</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5.1</v>
+        <v>1.92</v>
       </c>
       <c r="G30" t="n">
-        <v>6.2</v>
+        <v>2.14</v>
       </c>
       <c r="H30" t="n">
-        <v>1.76</v>
+        <v>4.3</v>
       </c>
       <c r="I30" t="n">
-        <v>1.91</v>
+        <v>5.6</v>
       </c>
       <c r="J30" t="n">
-        <v>3.4</v>
+        <v>2.96</v>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="L30" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>2.86</v>
+        <v>1.62</v>
       </c>
       <c r="O30" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="P30" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R30" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="S30" t="n">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
       <c r="T30" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="U30" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>2.08</v>
+        <v>1.21</v>
       </c>
       <c r="W30" t="n">
-        <v>1.2</v>
+        <v>1.87</v>
       </c>
       <c r="X30" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Team Altamura</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.92</v>
+        <v>5.1</v>
       </c>
       <c r="G31" t="n">
-        <v>2.14</v>
+        <v>6.2</v>
       </c>
       <c r="H31" t="n">
-        <v>4.3</v>
+        <v>1.76</v>
       </c>
       <c r="I31" t="n">
-        <v>5.6</v>
+        <v>1.91</v>
       </c>
       <c r="J31" t="n">
-        <v>2.96</v>
+        <v>3.4</v>
       </c>
       <c r="K31" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M31" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N31" t="n">
-        <v>1.62</v>
+        <v>2.86</v>
       </c>
       <c r="O31" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="P31" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R31" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S31" t="n">
-        <v>2.3</v>
+        <v>4.4</v>
       </c>
       <c r="T31" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="U31" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="V31" t="n">
-        <v>1.21</v>
+        <v>2.08</v>
       </c>
       <c r="W31" t="n">
-        <v>1.87</v>
+        <v>1.2</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="32">
@@ -4948,7 +4948,7 @@
         <v>100</v>
       </c>
       <c r="AL33" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM33" t="n">
         <v>150</v>
@@ -4990,13 +4990,13 @@
         <v>1.47</v>
       </c>
       <c r="G34" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="H34" t="n">
         <v>7.6</v>
       </c>
       <c r="I34" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J34" t="n">
         <v>5.1</v>
@@ -5005,7 +5005,7 @@
         <v>5.3</v>
       </c>
       <c r="L34" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M34" t="n">
         <v>1.03</v>
@@ -5071,10 +5071,10 @@
         <v>9.4</v>
       </c>
       <c r="AH34" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI34" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ34" t="n">
         <v>14</v>
@@ -5131,13 +5131,13 @@
         <v>5.5</v>
       </c>
       <c r="I35" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J35" t="n">
         <v>3.35</v>
       </c>
       <c r="K35" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
@@ -5170,7 +5170,7 @@
         <v>1.01</v>
       </c>
       <c r="V35" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W35" t="n">
         <v>2.16</v>
@@ -5392,19 +5392,19 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="G37" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="H37" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I37" t="n">
         <v>26</v>
       </c>
       <c r="J37" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="K37" t="n">
         <v>10.5</v>
@@ -5422,10 +5422,10 @@
         <v>1.16</v>
       </c>
       <c r="P37" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="R37" t="n">
         <v>1.68</v>
@@ -5434,7 +5434,7 @@
         <v>2.24</v>
       </c>
       <c r="T37" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="U37" t="n">
         <v>1.55</v>
@@ -5443,7 +5443,7 @@
         <v>1.04</v>
       </c>
       <c r="W37" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="X37" t="n">
         <v>970</v>
@@ -5476,7 +5476,7 @@
         <v>14</v>
       </c>
       <c r="AH37" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI37" t="n">
         <v>360</v>
@@ -5527,16 +5527,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="G38" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="H38" t="n">
         <v>2.68</v>
       </c>
       <c r="I38" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
         <v>3.2</v>
@@ -5560,7 +5560,7 @@
         <v>1.83</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -5632,6 +5632,141 @@
         <v>0</v>
       </c>
       <c r="AO38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Fortaleza FC</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Alianza FC Valledupar</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO39" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
@@ -679,7 +679,7 @@
         <v>3.05</v>
       </c>
       <c r="J2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
         <v>3.45</v>
@@ -694,16 +694,16 @@
         <v>3.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P2" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q2" t="n">
         <v>2.14</v>
       </c>
       <c r="R2" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
         <v>3.9</v>
@@ -715,22 +715,22 @@
         <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="W2" t="n">
         <v>1.58</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
         <v>20</v>
       </c>
       <c r="AA2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
         <v>10.5</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H3" t="n">
         <v>3.55</v>
@@ -820,7 +820,7 @@
         <v>3.75</v>
       </c>
       <c r="L3" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
@@ -832,7 +832,7 @@
         <v>1.38</v>
       </c>
       <c r="P3" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q3" t="n">
         <v>2.12</v>
@@ -841,10 +841,10 @@
         <v>1.31</v>
       </c>
       <c r="S3" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T3" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U3" t="n">
         <v>2.02</v>
@@ -853,13 +853,13 @@
         <v>1.38</v>
       </c>
       <c r="W3" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="X3" t="n">
         <v>12.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
         <v>25</v>
@@ -877,7 +877,7 @@
         <v>15</v>
       </c>
       <c r="AE3" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF3" t="n">
         <v>13.5</v>
@@ -898,7 +898,7 @@
         <v>25</v>
       </c>
       <c r="AL3" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM3" t="n">
         <v>120</v>
@@ -907,7 +907,7 @@
         <v>21</v>
       </c>
       <c r="AO3" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -937,55 +937,55 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G4" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="I4" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="J4" t="n">
         <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="R4" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="T4" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="U4" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="V4" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="W4" t="n">
         <v>1.32</v>
@@ -994,22 +994,22 @@
         <v>970</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA4" t="n">
         <v>970</v>
       </c>
       <c r="AB4" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AC4" t="n">
         <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
         <v>25</v>
@@ -1021,7 +1021,7 @@
         <v>19.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI4" t="n">
         <v>970</v>
@@ -1036,13 +1036,13 @@
         <v>970</v>
       </c>
       <c r="AM4" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN4" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -1087,7 +1087,7 @@
         <v>4.1</v>
       </c>
       <c r="K5" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,28 +1096,28 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="O5" t="n">
         <v>1.23</v>
       </c>
       <c r="P5" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R5" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="S5" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="T5" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U5" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V5" t="n">
         <v>1.17</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="G6" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="H6" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="I6" t="n">
         <v>2.74</v>
@@ -1222,7 +1222,7 @@
         <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L6" t="n">
         <v>1.31</v>
@@ -1240,25 +1240,25 @@
         <v>2.36</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R6" t="n">
         <v>1.55</v>
       </c>
       <c r="S6" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U6" t="n">
         <v>2.52</v>
       </c>
       <c r="V6" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="W6" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X6" t="n">
         <v>27</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="H7" t="n">
         <v>2.62</v>
       </c>
-      <c r="G7" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.64</v>
-      </c>
       <c r="I7" t="n">
-        <v>2.86</v>
+        <v>2.72</v>
       </c>
       <c r="J7" t="n">
         <v>3.65</v>
@@ -1360,7 +1360,7 @@
         <v>3.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
@@ -1375,22 +1375,22 @@
         <v>2.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R7" t="n">
         <v>1.51</v>
       </c>
       <c r="S7" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="T7" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U7" t="n">
         <v>2.56</v>
       </c>
       <c r="V7" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="W7" t="n">
         <v>1.56</v>
@@ -1420,19 +1420,19 @@
         <v>30</v>
       </c>
       <c r="AF7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AG7" t="n">
         <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI7" t="n">
         <v>42</v>
       </c>
       <c r="AJ7" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK7" t="n">
         <v>34</v>
@@ -1444,10 +1444,10 @@
         <v>70</v>
       </c>
       <c r="AN7" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="8">
@@ -1483,7 +1483,7 @@
         <v>1.41</v>
       </c>
       <c r="H8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="I8" t="n">
         <v>10.5</v>
@@ -1501,7 +1501,7 @@
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="O8" t="n">
         <v>1.17</v>
@@ -1510,19 +1510,19 @@
         <v>2.62</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="R8" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S8" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="T8" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U8" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
         <v>1.1</v>
@@ -1540,7 +1540,7 @@
         <v>100</v>
       </c>
       <c r="AA8" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AB8" t="n">
         <v>12</v>
@@ -1561,7 +1561,7 @@
         <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI8" t="n">
         <v>110</v>
@@ -1579,7 +1579,7 @@
         <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AO8" t="n">
         <v>140</v>
@@ -1621,7 +1621,7 @@
         <v>5.4</v>
       </c>
       <c r="I9" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J9" t="n">
         <v>4.4</v>
@@ -1657,7 +1657,7 @@
         <v>1.7</v>
       </c>
       <c r="U9" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V9" t="n">
         <v>1.21</v>
@@ -1666,7 +1666,7 @@
         <v>2.44</v>
       </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y9" t="n">
         <v>25</v>
@@ -1675,7 +1675,7 @@
         <v>46</v>
       </c>
       <c r="AA9" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB9" t="n">
         <v>11.5</v>
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="AK9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL9" t="n">
         <v>28</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="G10" t="n">
         <v>2.24</v>
       </c>
       <c r="H10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I10" t="n">
         <v>5.2</v>
@@ -1762,7 +1762,7 @@
         <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L10" t="n">
         <v>1.35</v>
@@ -1783,10 +1783,10 @@
         <v>2.08</v>
       </c>
       <c r="R10" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S10" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T10" t="n">
         <v>1.01</v>
@@ -1795,10 +1795,10 @@
         <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="W10" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="G11" t="n">
         <v>1000</v>
@@ -1891,7 +1891,7 @@
         <v>1.37</v>
       </c>
       <c r="I11" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="J11" t="n">
         <v>1.03</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G12" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H12" t="n">
         <v>3.35</v>
@@ -2044,13 +2044,13 @@
         <v>3.05</v>
       </c>
       <c r="O12" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P12" t="n">
         <v>1.72</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R12" t="n">
         <v>1.27</v>
@@ -2059,10 +2059,10 @@
         <v>3.9</v>
       </c>
       <c r="T12" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U12" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="V12" t="n">
         <v>1.35</v>
@@ -2119,7 +2119,7 @@
         <v>140</v>
       </c>
       <c r="AN12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO12" t="n">
         <v>55</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="G13" t="n">
         <v>1.74</v>
@@ -2167,7 +2167,7 @@
         <v>3.7</v>
       </c>
       <c r="K13" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2176,28 +2176,28 @@
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="R13" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S13" t="n">
         <v>3.6</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="U13" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="V13" t="n">
         <v>1.16</v>
@@ -2212,13 +2212,13 @@
         <v>970</v>
       </c>
       <c r="Z13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA13" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AB13" t="n">
-        <v>970</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC13" t="n">
         <v>970</v>
@@ -2239,7 +2239,7 @@
         <v>970</v>
       </c>
       <c r="AI13" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ13" t="n">
         <v>970</v>
@@ -2251,13 +2251,13 @@
         <v>970</v>
       </c>
       <c r="AM13" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="n">
         <v>970</v>
       </c>
       <c r="AO13" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
@@ -2290,10 +2290,10 @@
         <v>2.04</v>
       </c>
       <c r="G14" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="H14" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
         <v>4.4</v>
@@ -2302,7 +2302,7 @@
         <v>3.25</v>
       </c>
       <c r="K14" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2314,13 +2314,13 @@
         <v>3.15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P14" t="n">
         <v>1.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R14" t="n">
         <v>1.28</v>
@@ -2329,7 +2329,7 @@
         <v>3.55</v>
       </c>
       <c r="T14" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U14" t="n">
         <v>1.96</v>
@@ -2338,7 +2338,7 @@
         <v>1.3</v>
       </c>
       <c r="W14" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X14" t="n">
         <v>970</v>
@@ -2353,7 +2353,7 @@
         <v>95</v>
       </c>
       <c r="AB14" t="n">
-        <v>10</v>
+        <v>970</v>
       </c>
       <c r="AC14" t="n">
         <v>970</v>
@@ -2425,7 +2425,7 @@
         <v>2.72</v>
       </c>
       <c r="G15" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H15" t="n">
         <v>2.56</v>
@@ -2437,7 +2437,7 @@
         <v>3.25</v>
       </c>
       <c r="K15" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L15" t="n">
         <v>1.32</v>
@@ -2455,7 +2455,7 @@
         <v>1.82</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R15" t="n">
         <v>1.25</v>
@@ -2470,7 +2470,7 @@
         <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="W15" t="n">
         <v>1.47</v>
@@ -2560,19 +2560,19 @@
         <v>2.3</v>
       </c>
       <c r="G16" t="n">
-        <v>2.66</v>
+        <v>2.86</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="I16" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J16" t="n">
         <v>3.05</v>
       </c>
       <c r="K16" t="n">
-        <v>3.55</v>
+        <v>4.7</v>
       </c>
       <c r="L16" t="n">
         <v>1.43</v>
@@ -2593,16 +2593,16 @@
         <v>2.12</v>
       </c>
       <c r="R16" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S16" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="T16" t="n">
         <v>1.89</v>
       </c>
       <c r="U16" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="V16" t="n">
         <v>1.35</v>
@@ -2692,112 +2692,112 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G17" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="H17" t="n">
         <v>2.68</v>
       </c>
       <c r="I17" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K17" t="n">
         <v>3.45</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>1.61</v>
+        <v>2.82</v>
       </c>
       <c r="O17" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="P17" t="n">
         <v>1.61</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R17" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S17" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="U17" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="V17" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="W17" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G18" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H18" t="n">
         <v>4.8</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="J18" t="n">
         <v>3.5</v>
@@ -2845,94 +2845,94 @@
         <v>4.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>1.78</v>
+        <v>3.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P18" t="n">
         <v>1.78</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R18" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="S18" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="U18" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="V18" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W18" t="n">
         <v>2.16</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="G19" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H19" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I19" t="n">
         <v>3.4</v>
@@ -2977,7 +2977,7 @@
         <v>2.88</v>
       </c>
       <c r="K19" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L19" t="n">
         <v>1.51</v>
@@ -2986,7 +2986,7 @@
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O19" t="n">
         <v>1.45</v>
@@ -2995,25 +2995,25 @@
         <v>1.59</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R19" t="n">
         <v>1.18</v>
       </c>
       <c r="S19" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T19" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U19" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V19" t="n">
         <v>1.42</v>
       </c>
       <c r="W19" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -3100,7 +3100,7 @@
         <v>3.05</v>
       </c>
       <c r="G20" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H20" t="n">
         <v>2.34</v>
@@ -3109,7 +3109,7 @@
         <v>2.58</v>
       </c>
       <c r="J20" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K20" t="n">
         <v>3.7</v>
@@ -3127,10 +3127,10 @@
         <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R20" t="n">
         <v>1.26</v>
@@ -3142,13 +3142,13 @@
         <v>1.89</v>
       </c>
       <c r="U20" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V20" t="n">
         <v>1.63</v>
       </c>
       <c r="W20" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X20" t="n">
         <v>14.5</v>
@@ -3160,19 +3160,19 @@
         <v>15.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB20" t="n">
         <v>11</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD20" t="n">
         <v>12</v>
       </c>
       <c r="AE20" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF20" t="n">
         <v>23</v>
@@ -3181,13 +3181,13 @@
         <v>14.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI20" t="n">
         <v>970</v>
       </c>
       <c r="AJ20" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AK20" t="n">
         <v>970</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G21" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
@@ -3244,7 +3244,7 @@
         <v>3.85</v>
       </c>
       <c r="J21" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="K21" t="n">
         <v>3.2</v>
@@ -3256,16 +3256,16 @@
         <v>1.13</v>
       </c>
       <c r="N21" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="O21" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="P21" t="n">
         <v>1.52</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="R21" t="n">
         <v>1.19</v>
@@ -3283,7 +3283,7 @@
         <v>1.35</v>
       </c>
       <c r="W21" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="X21" t="n">
         <v>8.4</v>
@@ -3334,7 +3334,7 @@
         <v>250</v>
       </c>
       <c r="AN21" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AO21" t="n">
         <v>110</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="G22" t="n">
         <v>2.02</v>
@@ -3391,16 +3391,16 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="O22" t="n">
         <v>1.27</v>
       </c>
       <c r="P22" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="R22" t="n">
         <v>1.35</v>
@@ -3412,7 +3412,7 @@
         <v>1.6</v>
       </c>
       <c r="U22" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="V22" t="n">
         <v>1.26</v>
@@ -3421,10 +3421,10 @@
         <v>1.98</v>
       </c>
       <c r="X22" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="Y22" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="Z22" t="n">
         <v>970</v>
@@ -3433,28 +3433,28 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AC22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG22" t="n">
         <v>12.5</v>
       </c>
-      <c r="AD22" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>970</v>
-      </c>
       <c r="AH22" t="n">
         <v>970</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ22" t="n">
         <v>970</v>
@@ -3469,7 +3469,7 @@
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G24" t="n">
         <v>2.5</v>
@@ -3649,13 +3649,13 @@
         <v>3.35</v>
       </c>
       <c r="J24" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K24" t="n">
         <v>4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
@@ -3667,22 +3667,22 @@
         <v>1.25</v>
       </c>
       <c r="P24" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="Q24" t="n">
         <v>1.74</v>
       </c>
       <c r="R24" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="S24" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T24" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U24" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V24" t="n">
         <v>1.43</v>
@@ -3775,16 +3775,16 @@
         <v>2.06</v>
       </c>
       <c r="G25" t="n">
-        <v>2.48</v>
+        <v>2.3</v>
       </c>
       <c r="H25" t="n">
         <v>3.15</v>
       </c>
       <c r="I25" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="J25" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="K25" t="n">
         <v>4.6</v>
@@ -3811,7 +3811,7 @@
         <v>1.66</v>
       </c>
       <c r="S25" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="T25" t="n">
         <v>1.01</v>
@@ -3820,10 +3820,10 @@
         <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="W25" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3913,7 +3913,7 @@
         <v>1.84</v>
       </c>
       <c r="H26" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="I26" t="n">
         <v>5.1</v>
@@ -3922,7 +3922,7 @@
         <v>4.3</v>
       </c>
       <c r="K26" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="G27" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H27" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I27" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="J27" t="n">
         <v>3.3</v>
@@ -4066,22 +4066,22 @@
         <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O27" t="n">
         <v>1.34</v>
       </c>
       <c r="P27" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R27" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S27" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="T27" t="n">
         <v>1.74</v>
@@ -4090,7 +4090,7 @@
         <v>2.12</v>
       </c>
       <c r="V27" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="W27" t="n">
         <v>1.43</v>
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="G28" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H28" t="n">
         <v>2.68</v>
@@ -4207,13 +4207,13 @@
         <v>1.2</v>
       </c>
       <c r="P28" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q28" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R28" t="n">
         <v>1.62</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.61</v>
       </c>
       <c r="S28" t="n">
         <v>2.5</v>
@@ -4261,16 +4261,16 @@
         <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AI28" t="n">
         <v>32</v>
       </c>
       <c r="AJ28" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL28" t="n">
         <v>32</v>
@@ -4279,7 +4279,7 @@
         <v>55</v>
       </c>
       <c r="AN28" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO28" t="n">
         <v>15.5</v>
@@ -4330,37 +4330,37 @@
         <v>3.5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="M29" t="n">
         <v>1.11</v>
       </c>
       <c r="N29" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="O29" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="P29" t="n">
         <v>1.69</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="R29" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S29" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="T29" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="U29" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="V29" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W29" t="n">
         <v>1.83</v>
@@ -4387,10 +4387,10 @@
         <v>20</v>
       </c>
       <c r="AE29" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG29" t="n">
         <v>11.5</v>
@@ -4417,7 +4417,7 @@
         <v>27</v>
       </c>
       <c r="AO29" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G30" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H30" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I30" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="J30" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="K30" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4471,16 +4471,16 @@
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O30" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="P30" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R30" t="n">
         <v>1.18</v>
@@ -4495,10 +4495,10 @@
         <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W30" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4582,40 +4582,40 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="G31" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="H31" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="I31" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J31" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K31" t="n">
         <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="M31" t="n">
         <v>1.1</v>
       </c>
       <c r="N31" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="O31" t="n">
         <v>1.44</v>
       </c>
       <c r="P31" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R31" t="n">
         <v>1.23</v>
@@ -4624,34 +4624,34 @@
         <v>4.4</v>
       </c>
       <c r="T31" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="U31" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="V31" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="W31" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="X31" t="n">
         <v>12.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Z31" t="n">
         <v>10</v>
       </c>
       <c r="AA31" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AB31" t="n">
         <v>15.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD31" t="n">
         <v>11.5</v>
@@ -4660,7 +4660,7 @@
         <v>24</v>
       </c>
       <c r="AF31" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AG31" t="n">
         <v>26</v>
@@ -4672,13 +4672,13 @@
         <v>55</v>
       </c>
       <c r="AJ31" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="AK31" t="n">
         <v>110</v>
       </c>
       <c r="AL31" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AM31" t="n">
         <v>210</v>
@@ -4687,7 +4687,7 @@
         <v>180</v>
       </c>
       <c r="AO31" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="32">
@@ -4720,13 +4720,13 @@
         <v>1.76</v>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H32" t="n">
         <v>5.2</v>
       </c>
       <c r="I32" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="J32" t="n">
         <v>3.85</v>
@@ -4735,28 +4735,28 @@
         <v>4.2</v>
       </c>
       <c r="L32" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M32" t="n">
         <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O32" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P32" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="R32" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S32" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="T32" t="n">
         <v>1.79</v>
@@ -4765,7 +4765,7 @@
         <v>2.16</v>
       </c>
       <c r="V32" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W32" t="n">
         <v>2.24</v>
@@ -4774,7 +4774,7 @@
         <v>21</v>
       </c>
       <c r="Y32" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="Z32" t="n">
         <v>970</v>
@@ -4783,10 +4783,10 @@
         <v>150</v>
       </c>
       <c r="AB32" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC32" t="n">
         <v>9.6</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>9.199999999999999</v>
       </c>
       <c r="AD32" t="n">
         <v>970</v>
@@ -4852,19 +4852,19 @@
         </is>
       </c>
       <c r="F33" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G33" t="n">
         <v>6.6</v>
       </c>
-      <c r="G33" t="n">
-        <v>6.8</v>
-      </c>
       <c r="H33" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="I33" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K33" t="n">
         <v>4.1</v>
@@ -4897,16 +4897,16 @@
         <v>2.02</v>
       </c>
       <c r="U33" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V33" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="W33" t="n">
         <v>1.17</v>
       </c>
       <c r="X33" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y33" t="n">
         <v>7.8</v>
@@ -4918,10 +4918,10 @@
         <v>16</v>
       </c>
       <c r="AB33" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD33" t="n">
         <v>9.800000000000001</v>
@@ -4942,7 +4942,7 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AK33" t="n">
         <v>100</v>
@@ -4951,10 +4951,10 @@
         <v>100</v>
       </c>
       <c r="AM33" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN33" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AO33" t="n">
         <v>11</v>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="G34" t="n">
         <v>1.48</v>
       </c>
       <c r="H34" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="I34" t="n">
         <v>7.8</v>
       </c>
       <c r="J34" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="K34" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L34" t="n">
         <v>1.27</v>
@@ -5026,10 +5026,10 @@
         <v>1.67</v>
       </c>
       <c r="S34" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="T34" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U34" t="n">
         <v>2.24</v>
@@ -5056,7 +5056,7 @@
         <v>12</v>
       </c>
       <c r="AC34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD34" t="n">
         <v>28</v>
@@ -5077,7 +5077,7 @@
         <v>75</v>
       </c>
       <c r="AJ34" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK34" t="n">
         <v>13.5</v>
@@ -5089,7 +5089,7 @@
         <v>90</v>
       </c>
       <c r="AN34" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AO34" t="n">
         <v>85</v>
@@ -5152,7 +5152,7 @@
         <v>1.32</v>
       </c>
       <c r="P35" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q35" t="n">
         <v>2.06</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G36" t="n">
         <v>1.98</v>
@@ -5398,7 +5398,7 @@
         <v>1.17</v>
       </c>
       <c r="H37" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I37" t="n">
         <v>26</v>
@@ -5422,10 +5422,10 @@
         <v>1.16</v>
       </c>
       <c r="P37" t="n">
-        <v>2.78</v>
+        <v>2.66</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="R37" t="n">
         <v>1.68</v>
@@ -5434,10 +5434,10 @@
         <v>2.24</v>
       </c>
       <c r="T37" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="U37" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="V37" t="n">
         <v>1.04</v>
@@ -5449,7 +5449,7 @@
         <v>970</v>
       </c>
       <c r="Y37" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Z37" t="n">
         <v>290</v>
@@ -5473,7 +5473,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AG37" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AH37" t="n">
         <v>55</v>
@@ -5482,7 +5482,7 @@
         <v>360</v>
       </c>
       <c r="AJ37" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AK37" t="n">
         <v>18</v>
@@ -5527,16 +5527,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="G38" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H38" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J38" t="n">
         <v>3.2</v>
@@ -5557,10 +5557,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -5662,16 +5662,16 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="G39" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H39" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I39" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J39" t="n">
         <v>3.2</v>
@@ -5692,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="Q39" t="n">
         <v>2.14</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G2" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="H2" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="I2" t="n">
         <v>3.05</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K2" t="n">
         <v>3.45</v>
@@ -694,16 +694,16 @@
         <v>3.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S2" t="n">
         <v>3.9</v>
@@ -712,13 +712,13 @@
         <v>1.87</v>
       </c>
       <c r="U2" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V2" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="W2" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="X2" t="n">
         <v>12.5</v>
@@ -736,7 +736,7 @@
         <v>10.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD2" t="n">
         <v>13.5</v>
@@ -745,7 +745,7 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
         <v>13</v>
@@ -829,10 +829,10 @@
         <v>3.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P3" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q3" t="n">
         <v>2.12</v>
@@ -841,7 +841,7 @@
         <v>1.31</v>
       </c>
       <c r="S3" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="T3" t="n">
         <v>1.91</v>
@@ -940,13 +940,13 @@
         <v>3.5</v>
       </c>
       <c r="G4" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
         <v>1.99</v>
       </c>
       <c r="I4" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="J4" t="n">
         <v>3.2</v>
@@ -967,13 +967,13 @@
         <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S4" t="n">
         <v>2.68</v>
@@ -988,7 +988,7 @@
         <v>1.81</v>
       </c>
       <c r="W4" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="X4" t="n">
         <v>970</v>
@@ -1018,7 +1018,7 @@
         <v>970</v>
       </c>
       <c r="AG4" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
         <v>19</v>
@@ -1042,7 +1042,7 @@
         <v>36</v>
       </c>
       <c r="AO4" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="5">
@@ -1081,7 +1081,7 @@
         <v>5.4</v>
       </c>
       <c r="I5" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J5" t="n">
         <v>4.1</v>
@@ -1090,28 +1090,28 @@
         <v>4.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>2.22</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
         <v>1.23</v>
       </c>
       <c r="P5" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R5" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T5" t="n">
         <v>1.62</v>
@@ -1120,64 +1120,64 @@
         <v>1.9</v>
       </c>
       <c r="V5" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W5" t="n">
         <v>2.4</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G6" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H6" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I6" t="n">
         <v>2.74</v>
@@ -1222,7 +1222,7 @@
         <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L6" t="n">
         <v>1.31</v>
@@ -1237,7 +1237,7 @@
         <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q6" t="n">
         <v>1.65</v>
@@ -1261,7 +1261,7 @@
         <v>1.55</v>
       </c>
       <c r="X6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y6" t="n">
         <v>970</v>
@@ -1273,7 +1273,7 @@
         <v>970</v>
       </c>
       <c r="AB6" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AC6" t="n">
         <v>9.4</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G7" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="H7" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="I7" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J7" t="n">
         <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L7" t="n">
         <v>1.34</v>
@@ -1372,7 +1372,7 @@
         <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q7" t="n">
         <v>1.73</v>
@@ -1381,19 +1381,19 @@
         <v>1.51</v>
       </c>
       <c r="S7" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T7" t="n">
         <v>1.63</v>
       </c>
       <c r="U7" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="V7" t="n">
         <v>1.58</v>
       </c>
       <c r="W7" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="X7" t="n">
         <v>20</v>
@@ -1402,19 +1402,19 @@
         <v>16</v>
       </c>
       <c r="Z7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA7" t="n">
         <v>44</v>
       </c>
       <c r="AB7" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE7" t="n">
         <v>30</v>
@@ -1426,7 +1426,7 @@
         <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
         <v>42</v>
@@ -1435,16 +1435,16 @@
         <v>48</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL7" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM7" t="n">
         <v>70</v>
       </c>
       <c r="AN7" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AO7" t="n">
         <v>18.5</v>
@@ -1507,28 +1507,28 @@
         <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R8" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="S8" t="n">
         <v>2.24</v>
       </c>
       <c r="T8" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W8" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="X8" t="n">
         <v>30</v>
@@ -1579,7 +1579,7 @@
         <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AO8" t="n">
         <v>140</v>
@@ -1615,16 +1615,16 @@
         <v>1.67</v>
       </c>
       <c r="G9" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="H9" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I9" t="n">
         <v>5.6</v>
       </c>
       <c r="J9" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K9" t="n">
         <v>4.6</v>
@@ -1642,7 +1642,7 @@
         <v>1.21</v>
       </c>
       <c r="P9" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q9" t="n">
         <v>1.63</v>
@@ -1663,7 +1663,7 @@
         <v>1.21</v>
       </c>
       <c r="W9" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="X9" t="n">
         <v>22</v>
@@ -1714,7 +1714,7 @@
         <v>80</v>
       </c>
       <c r="AN9" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AO9" t="n">
         <v>55</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
         <v>4.1</v>
       </c>
       <c r="I10" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="J10" t="n">
         <v>3.2</v>
@@ -1765,28 +1765,28 @@
         <v>3.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P10" t="n">
         <v>1.7</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.69</v>
-      </c>
       <c r="Q10" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="R10" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="S10" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="T10" t="n">
         <v>1.01</v>
@@ -1795,64 +1795,64 @@
         <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="W10" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.55</v>
+        <v>3.35</v>
       </c>
       <c r="G11" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="H11" t="n">
-        <v>1.37</v>
+        <v>2.34</v>
       </c>
       <c r="I11" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J11" t="n">
         <v>2.92</v>
       </c>
-      <c r="J11" t="n">
-        <v>1.03</v>
-      </c>
       <c r="K11" t="n">
-        <v>1000</v>
+        <v>3.4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="G12" t="n">
         <v>2.48</v>
       </c>
       <c r="H12" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J12" t="n">
         <v>3.2</v>
@@ -2041,13 +2041,13 @@
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P12" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Q12" t="n">
         <v>2.14</v>
@@ -2056,13 +2056,13 @@
         <v>1.27</v>
       </c>
       <c r="S12" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T12" t="n">
         <v>1.86</v>
       </c>
       <c r="U12" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V12" t="n">
         <v>1.35</v>
@@ -2122,7 +2122,7 @@
         <v>25</v>
       </c>
       <c r="AO12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -2164,13 +2164,13 @@
         <v>7.2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="n">
         <v>4.3</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
@@ -2197,7 +2197,7 @@
         <v>1.94</v>
       </c>
       <c r="U13" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V13" t="n">
         <v>1.16</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="G14" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="I14" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="J14" t="n">
         <v>3.25</v>
@@ -2305,7 +2305,7 @@
         <v>4.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
@@ -2317,7 +2317,7 @@
         <v>1.37</v>
       </c>
       <c r="P14" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q14" t="n">
         <v>2.06</v>
@@ -2326,19 +2326,19 @@
         <v>1.28</v>
       </c>
       <c r="S14" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T14" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U14" t="n">
         <v>1.96</v>
       </c>
       <c r="V14" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W14" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="X14" t="n">
         <v>970</v>
@@ -2350,7 +2350,7 @@
         <v>970</v>
       </c>
       <c r="AA14" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AB14" t="n">
         <v>970</v>
@@ -2383,7 +2383,7 @@
         <v>970</v>
       </c>
       <c r="AL14" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
@@ -2392,7 +2392,7 @@
         <v>970</v>
       </c>
       <c r="AO14" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
@@ -2440,13 +2440,13 @@
         <v>3.7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="O15" t="n">
         <v>1.01</v>
@@ -2455,13 +2455,13 @@
         <v>1.82</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R15" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S15" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="T15" t="n">
         <v>1.01</v>
@@ -2560,10 +2560,10 @@
         <v>2.3</v>
       </c>
       <c r="G16" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="H16" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
         <v>3.85</v>
@@ -2572,22 +2572,22 @@
         <v>3.05</v>
       </c>
       <c r="K16" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="O16" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P16" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="Q16" t="n">
         <v>2.12</v>
@@ -2596,13 +2596,13 @@
         <v>1.24</v>
       </c>
       <c r="S16" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="T16" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U16" t="n">
         <v>1.89</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.87</v>
       </c>
       <c r="V16" t="n">
         <v>1.35</v>
@@ -2656,7 +2656,7 @@
         <v>65</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN16" t="n">
         <v>970</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.78</v>
+        <v>2.56</v>
       </c>
       <c r="G17" t="n">
         <v>3.2</v>
@@ -2701,7 +2701,7 @@
         <v>2.68</v>
       </c>
       <c r="I17" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J17" t="n">
         <v>3.05</v>
@@ -2722,7 +2722,7 @@
         <v>1.44</v>
       </c>
       <c r="P17" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q17" t="n">
         <v>2.3</v>
@@ -2731,16 +2731,16 @@
         <v>1.23</v>
       </c>
       <c r="S17" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U17" t="n">
         <v>1.89</v>
       </c>
       <c r="V17" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="W17" t="n">
         <v>1.45</v>
@@ -2833,19 +2833,19 @@
         <v>1.85</v>
       </c>
       <c r="H18" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="I18" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K18" t="n">
         <v>4.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
@@ -2860,13 +2860,13 @@
         <v>1.78</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="R18" t="n">
         <v>1.29</v>
       </c>
       <c r="S18" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="T18" t="n">
         <v>1.95</v>
@@ -2875,7 +2875,7 @@
         <v>1.86</v>
       </c>
       <c r="V18" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W18" t="n">
         <v>2.16</v>
@@ -2923,7 +2923,7 @@
         <v>24</v>
       </c>
       <c r="AL18" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM18" t="n">
         <v>170</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="G19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I19" t="n">
         <v>3.3</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.4</v>
       </c>
       <c r="J19" t="n">
         <v>2.88</v>
@@ -2980,10 +2980,10 @@
         <v>3.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N19" t="n">
         <v>2.76</v>
@@ -2998,76 +2998,76 @@
         <v>2.34</v>
       </c>
       <c r="R19" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T19" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U19" t="n">
         <v>1.86</v>
       </c>
       <c r="V19" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="W19" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
@@ -3100,19 +3100,19 @@
         <v>3.05</v>
       </c>
       <c r="G20" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H20" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="I20" t="n">
         <v>2.58</v>
       </c>
       <c r="J20" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K20" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3130,10 +3130,10 @@
         <v>1.74</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R20" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S20" t="n">
         <v>4.1</v>
@@ -3142,7 +3142,7 @@
         <v>1.89</v>
       </c>
       <c r="U20" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V20" t="n">
         <v>1.63</v>
@@ -3166,7 +3166,7 @@
         <v>11</v>
       </c>
       <c r="AC20" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD20" t="n">
         <v>12</v>
@@ -3181,7 +3181,7 @@
         <v>14.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
         <v>970</v>
@@ -3199,10 +3199,10 @@
         <v>160</v>
       </c>
       <c r="AN20" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AO20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G21" t="n">
         <v>2.72</v>
@@ -3241,13 +3241,13 @@
         <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J21" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K21" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3256,10 +3256,10 @@
         <v>1.13</v>
       </c>
       <c r="N21" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="O21" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="P21" t="n">
         <v>1.52</v>
@@ -3280,7 +3280,7 @@
         <v>1.73</v>
       </c>
       <c r="V21" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W21" t="n">
         <v>1.59</v>
@@ -3370,13 +3370,13 @@
         <v>1.84</v>
       </c>
       <c r="G22" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I22" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J22" t="n">
         <v>3.7</v>
@@ -3385,76 +3385,76 @@
         <v>4.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>2.06</v>
+        <v>4.1</v>
       </c>
       <c r="O22" t="n">
         <v>1.27</v>
       </c>
       <c r="P22" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q22" t="n">
         <v>1.75</v>
       </c>
       <c r="R22" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="S22" t="n">
-        <v>2.62</v>
+        <v>2.9</v>
       </c>
       <c r="T22" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="U22" t="n">
-        <v>1.95</v>
+        <v>2.18</v>
       </c>
       <c r="V22" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W22" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="X22" t="n">
         <v>970</v>
       </c>
       <c r="Y22" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Z22" t="n">
         <v>970</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC22" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AD22" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AE22" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AF22" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AG22" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AH22" t="n">
         <v>970</v>
       </c>
       <c r="AI22" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AJ22" t="n">
         <v>970</v>
@@ -3466,13 +3466,13 @@
         <v>970</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN22" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23">
@@ -3505,7 +3505,7 @@
         <v>1.71</v>
       </c>
       <c r="G23" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H23" t="n">
         <v>5.3</v>
@@ -3517,10 +3517,10 @@
         <v>3.55</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
@@ -3580,7 +3580,7 @@
         <v>110</v>
       </c>
       <c r="AF23" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG23" t="n">
         <v>11</v>
@@ -3592,10 +3592,10 @@
         <v>110</v>
       </c>
       <c r="AJ23" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AK23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL23" t="n">
         <v>970</v>
@@ -3646,16 +3646,16 @@
         <v>2.92</v>
       </c>
       <c r="I24" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J24" t="n">
         <v>3.5</v>
       </c>
       <c r="K24" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L24" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
@@ -3667,13 +3667,13 @@
         <v>1.25</v>
       </c>
       <c r="P24" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R24" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S24" t="n">
         <v>2.84</v>
@@ -3775,13 +3775,13 @@
         <v>2.06</v>
       </c>
       <c r="G25" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="H25" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="J25" t="n">
         <v>3.85</v>
@@ -3790,94 +3790,94 @@
         <v>4.6</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M25" t="n">
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>2.26</v>
+        <v>5.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P25" t="n">
-        <v>2.26</v>
+        <v>2.52</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="R25" t="n">
         <v>1.66</v>
       </c>
       <c r="S25" t="n">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="U25" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="V25" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="W25" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G26" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="H26" t="n">
         <v>4.1</v>
       </c>
       <c r="I26" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="J26" t="n">
         <v>4.3</v>
@@ -3925,94 +3925,94 @@
         <v>5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>2.54</v>
+        <v>5.9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P26" t="n">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="R26" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="S26" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="T26" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="U26" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="V26" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W26" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="G27" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H27" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="I27" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="J27" t="n">
         <v>3.3</v>
       </c>
       <c r="K27" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4066,22 +4066,22 @@
         <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O27" t="n">
         <v>1.34</v>
       </c>
       <c r="P27" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R27" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S27" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="T27" t="n">
         <v>1.74</v>
@@ -4090,64 +4090,64 @@
         <v>2.12</v>
       </c>
       <c r="V27" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="W27" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="X27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y27" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB27" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z27" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA27" t="n">
+      <c r="AC27" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI27" t="n">
         <v>44</v>
       </c>
-      <c r="AB27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>48</v>
-      </c>
       <c r="AJ27" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AK27" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AL27" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G28" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="H28" t="n">
         <v>2.68</v>
@@ -4195,7 +4195,7 @@
         <v>3.8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
@@ -4207,13 +4207,13 @@
         <v>1.2</v>
       </c>
       <c r="P28" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q28" t="n">
         <v>1.61</v>
       </c>
       <c r="R28" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="S28" t="n">
         <v>2.5</v>
@@ -4234,37 +4234,37 @@
         <v>23</v>
       </c>
       <c r="Y28" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z28" t="n">
         <v>21</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB28" t="n">
         <v>16.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH28" t="n">
         <v>14</v>
       </c>
       <c r="AI28" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ28" t="n">
         <v>38</v>
@@ -4273,7 +4273,7 @@
         <v>25</v>
       </c>
       <c r="AL28" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM28" t="n">
         <v>55</v>
@@ -4282,7 +4282,7 @@
         <v>15.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G29" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="H29" t="n">
         <v>4.1</v>
       </c>
       <c r="I29" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J29" t="n">
         <v>3.15</v>
       </c>
       <c r="K29" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L29" t="n">
         <v>1.44</v>
@@ -4336,34 +4336,34 @@
         <v>1.11</v>
       </c>
       <c r="N29" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="O29" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="P29" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="R29" t="n">
         <v>1.22</v>
       </c>
       <c r="S29" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="T29" t="n">
         <v>2.02</v>
       </c>
       <c r="U29" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="V29" t="n">
         <v>1.27</v>
       </c>
       <c r="W29" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X29" t="n">
         <v>10.5</v>
@@ -4384,7 +4384,7 @@
         <v>8</v>
       </c>
       <c r="AD29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE29" t="n">
         <v>75</v>
@@ -4396,7 +4396,7 @@
         <v>11.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI29" t="n">
         <v>110</v>
@@ -4414,7 +4414,7 @@
         <v>200</v>
       </c>
       <c r="AN29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO29" t="n">
         <v>120</v>
@@ -4450,109 +4450,109 @@
         <v>1.91</v>
       </c>
       <c r="G30" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="H30" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I30" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J30" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="K30" t="n">
         <v>3.65</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>1.6</v>
+        <v>2.74</v>
       </c>
       <c r="O30" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="P30" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="R30" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S30" t="n">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="T30" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="U30" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="V30" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W30" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31">
@@ -4582,28 +4582,28 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="G31" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="H31" t="n">
         <v>1.71</v>
       </c>
       <c r="I31" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="J31" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K31" t="n">
         <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="M31" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N31" t="n">
         <v>2.84</v>
@@ -4624,49 +4624,49 @@
         <v>4.4</v>
       </c>
       <c r="T31" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U31" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="V31" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="W31" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="X31" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Z31" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AA31" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AB31" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC31" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD31" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AF31" t="n">
         <v>970</v>
       </c>
       <c r="AG31" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AH31" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AI31" t="n">
         <v>55</v>
@@ -4675,19 +4675,19 @@
         <v>220</v>
       </c>
       <c r="AK31" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AL31" t="n">
         <v>140</v>
       </c>
       <c r="AM31" t="n">
+        <v>240</v>
+      </c>
+      <c r="AN31" t="n">
         <v>210</v>
       </c>
-      <c r="AN31" t="n">
-        <v>180</v>
-      </c>
       <c r="AO31" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
@@ -4720,16 +4720,16 @@
         <v>1.76</v>
       </c>
       <c r="G32" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
         <v>5.2</v>
       </c>
       <c r="I32" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="J32" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K32" t="n">
         <v>4.2</v>
@@ -4744,28 +4744,28 @@
         <v>4.1</v>
       </c>
       <c r="O32" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P32" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="n">
         <v>1.78</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.79</v>
       </c>
       <c r="U32" t="n">
         <v>2.16</v>
       </c>
       <c r="V32" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W32" t="n">
         <v>2.24</v>
@@ -4774,7 +4774,7 @@
         <v>21</v>
       </c>
       <c r="Y32" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="Z32" t="n">
         <v>970</v>
@@ -4783,10 +4783,10 @@
         <v>150</v>
       </c>
       <c r="AB32" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD32" t="n">
         <v>970</v>
@@ -4864,7 +4864,7 @@
         <v>1.69</v>
       </c>
       <c r="J33" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
         <v>4.1</v>
@@ -4882,7 +4882,7 @@
         <v>1.34</v>
       </c>
       <c r="P33" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q33" t="n">
         <v>2.04</v>
@@ -4903,7 +4903,7 @@
         <v>2.46</v>
       </c>
       <c r="W33" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="X33" t="n">
         <v>13</v>
@@ -4921,7 +4921,7 @@
         <v>19.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD33" t="n">
         <v>9.800000000000001</v>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="G34" t="n">
         <v>1.48</v>
@@ -4999,7 +4999,7 @@
         <v>7.8</v>
       </c>
       <c r="J34" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K34" t="n">
         <v>5.4</v>
@@ -5017,25 +5017,25 @@
         <v>1.18</v>
       </c>
       <c r="P34" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="Q34" t="n">
         <v>1.55</v>
       </c>
       <c r="R34" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S34" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="T34" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U34" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V34" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W34" t="n">
         <v>3.05</v>
@@ -5068,7 +5068,7 @@
         <v>10.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AH34" t="n">
         <v>20</v>
@@ -5089,7 +5089,7 @@
         <v>90</v>
       </c>
       <c r="AN34" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AO34" t="n">
         <v>85</v>
@@ -5122,10 +5122,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="G35" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H35" t="n">
         <v>5.5</v>
@@ -5137,94 +5137,94 @@
         <v>3.35</v>
       </c>
       <c r="K35" t="n">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
       <c r="L35" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M35" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N35" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="O35" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="P35" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q35" t="n">
         <v>2.06</v>
       </c>
       <c r="R35" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="S35" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="T35" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="U35" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="V35" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W35" t="n">
         <v>2.16</v>
       </c>
       <c r="X35" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y35" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z35" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA35" t="n">
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC35" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD35" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE35" t="n">
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG35" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH35" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI35" t="n">
         <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK35" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL35" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM35" t="n">
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="G36" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
         <v>4.5</v>
@@ -5275,7 +5275,7 @@
         <v>3.65</v>
       </c>
       <c r="L36" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M36" t="n">
         <v>1.09</v>
@@ -5284,7 +5284,7 @@
         <v>3.45</v>
       </c>
       <c r="O36" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P36" t="n">
         <v>1.8</v>
@@ -5302,13 +5302,13 @@
         <v>1.97</v>
       </c>
       <c r="U36" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V36" t="n">
         <v>1.27</v>
       </c>
       <c r="W36" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X36" t="n">
         <v>12</v>
@@ -5329,7 +5329,7 @@
         <v>7.6</v>
       </c>
       <c r="AD36" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE36" t="n">
         <v>65</v>
@@ -5410,34 +5410,34 @@
         <v>10.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M37" t="n">
         <v>1.02</v>
       </c>
       <c r="N37" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="O37" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P37" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R37" t="n">
         <v>1.68</v>
       </c>
       <c r="S37" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="T37" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="U37" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="V37" t="n">
         <v>1.04</v>
@@ -5458,7 +5458,7 @@
         <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC37" t="n">
         <v>970</v>
@@ -5470,7 +5470,7 @@
         <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AG37" t="n">
         <v>970</v>
@@ -5485,7 +5485,7 @@
         <v>8.4</v>
       </c>
       <c r="AK37" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL37" t="n">
         <v>60</v>
@@ -5494,7 +5494,7 @@
         <v>380</v>
       </c>
       <c r="AN37" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5527,16 +5527,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="G38" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="H38" t="n">
         <v>2.62</v>
       </c>
       <c r="I38" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
         <v>3.2</v>
@@ -5560,7 +5560,7 @@
         <v>1.84</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -5671,7 +5671,7 @@
         <v>3.9</v>
       </c>
       <c r="I39" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
         <v>3.2</v>
@@ -5692,10 +5692,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
@@ -682,7 +682,7 @@
         <v>3.3</v>
       </c>
       <c r="K2" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L2" t="n">
         <v>1.45</v>
@@ -694,13 +694,13 @@
         <v>3.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P2" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R2" t="n">
         <v>1.31</v>
@@ -712,7 +712,7 @@
         <v>1.87</v>
       </c>
       <c r="U2" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V2" t="n">
         <v>1.48</v>
@@ -745,7 +745,7 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG2" t="n">
         <v>13</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="H3" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I3" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="J3" t="n">
         <v>3.7</v>
@@ -820,19 +820,19 @@
         <v>3.75</v>
       </c>
       <c r="L3" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O3" t="n">
         <v>1.37</v>
       </c>
       <c r="P3" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q3" t="n">
         <v>2.12</v>
@@ -841,7 +841,7 @@
         <v>1.31</v>
       </c>
       <c r="S3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="T3" t="n">
         <v>1.91</v>
@@ -850,10 +850,10 @@
         <v>2.02</v>
       </c>
       <c r="V3" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="W3" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="X3" t="n">
         <v>12.5</v>
@@ -865,22 +865,22 @@
         <v>25</v>
       </c>
       <c r="AA3" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC3" t="n">
         <v>7.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG3" t="n">
         <v>11</v>
@@ -889,13 +889,13 @@
         <v>19.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AK3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL3" t="n">
         <v>42</v>
@@ -904,10 +904,10 @@
         <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -937,67 +937,67 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G4" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="H4" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="K4" t="n">
         <v>4.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="R4" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="S4" t="n">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="T4" t="n">
         <v>1.6</v>
       </c>
       <c r="U4" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V4" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="X4" t="n">
         <v>970</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
         <v>970</v>
@@ -1006,28 +1006,28 @@
         <v>970</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AF4" t="n">
         <v>970</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>970</v>
       </c>
       <c r="AJ4" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AK4" t="n">
         <v>970</v>
@@ -1036,13 +1036,13 @@
         <v>970</v>
       </c>
       <c r="AM4" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AN4" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AO4" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="5">
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="G5" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="H5" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="I5" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
         <v>4.9</v>
@@ -1096,37 +1096,37 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O5" t="n">
         <v>1.23</v>
       </c>
       <c r="P5" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="Q5" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.66</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.62</v>
       </c>
       <c r="U5" t="n">
         <v>1.9</v>
       </c>
       <c r="V5" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W5" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="X5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y5" t="n">
         <v>28</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC5" t="n">
         <v>12.5</v>
@@ -1150,7 +1150,7 @@
         <v>85</v>
       </c>
       <c r="AF5" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG5" t="n">
         <v>12.5</v>
@@ -1162,10 +1162,10 @@
         <v>80</v>
       </c>
       <c r="AJ5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL5" t="n">
         <v>38</v>
@@ -1177,7 +1177,7 @@
         <v>9.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="G6" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="H6" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I6" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K6" t="n">
         <v>3.8</v>
@@ -1234,7 +1234,7 @@
         <v>5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P6" t="n">
         <v>2.38</v>
@@ -1243,7 +1243,7 @@
         <v>1.65</v>
       </c>
       <c r="R6" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S6" t="n">
         <v>2.6</v>
@@ -1252,16 +1252,16 @@
         <v>1.58</v>
       </c>
       <c r="U6" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V6" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="W6" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y6" t="n">
         <v>970</v>
@@ -1297,7 +1297,7 @@
         <v>970</v>
       </c>
       <c r="AJ6" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AK6" t="n">
         <v>970</v>
@@ -1309,7 +1309,7 @@
         <v>60</v>
       </c>
       <c r="AN6" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AO6" t="n">
         <v>19</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="G7" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="H7" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I7" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="J7" t="n">
         <v>3.65</v>
@@ -1360,13 +1360,13 @@
         <v>3.75</v>
       </c>
       <c r="L7" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
@@ -1375,7 +1375,7 @@
         <v>2.22</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R7" t="n">
         <v>1.51</v>
@@ -1387,16 +1387,16 @@
         <v>1.63</v>
       </c>
       <c r="U7" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V7" t="n">
         <v>1.58</v>
       </c>
       <c r="W7" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X7" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y7" t="n">
         <v>16</v>
@@ -1414,7 +1414,7 @@
         <v>9.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
         <v>30</v>
@@ -1429,7 +1429,7 @@
         <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ7" t="n">
         <v>48</v>
@@ -1444,10 +1444,10 @@
         <v>70</v>
       </c>
       <c r="AN7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO7" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="G8" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="H8" t="n">
         <v>8.4</v>
       </c>
       <c r="I8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K8" t="n">
         <v>6.4</v>
@@ -1501,25 +1501,25 @@
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P8" t="n">
         <v>2.58</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R8" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="S8" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="T8" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U8" t="n">
         <v>2.02</v>
@@ -1528,28 +1528,28 @@
         <v>1.11</v>
       </c>
       <c r="W8" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="X8" t="n">
         <v>30</v>
       </c>
       <c r="Y8" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z8" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AA8" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AB8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE8" t="n">
         <v>140</v>
@@ -1558,7 +1558,7 @@
         <v>10.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
         <v>25</v>
@@ -1579,7 +1579,7 @@
         <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AO8" t="n">
         <v>140</v>
@@ -1639,7 +1639,7 @@
         <v>5.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
         <v>2.5</v>
@@ -1648,7 +1648,7 @@
         <v>1.63</v>
       </c>
       <c r="R9" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S9" t="n">
         <v>2.56</v>
@@ -1657,7 +1657,7 @@
         <v>1.7</v>
       </c>
       <c r="U9" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V9" t="n">
         <v>1.21</v>
@@ -1747,28 +1747,28 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="H10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I10" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L10" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N10" t="n">
         <v>3.05</v>
@@ -1786,7 +1786,7 @@
         <v>1.26</v>
       </c>
       <c r="S10" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="T10" t="n">
         <v>1.01</v>
@@ -1795,22 +1795,22 @@
         <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W10" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="X10" t="n">
         <v>14</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z10" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AA10" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB10" t="n">
         <v>9.4</v>
@@ -1819,28 +1819,28 @@
         <v>9.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE10" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG10" t="n">
         <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
         <v>95</v>
       </c>
       <c r="AJ10" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AK10" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AL10" t="n">
         <v>55</v>
@@ -1849,7 +1849,7 @@
         <v>170</v>
       </c>
       <c r="AN10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO10" t="n">
         <v>110</v>
@@ -1882,23 +1882,23 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.35</v>
       </c>
-      <c r="G11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.4</v>
-      </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="G12" t="n">
         <v>2.48</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I12" t="n">
         <v>3.85</v>
@@ -2038,7 +2038,7 @@
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
         <v>3.1</v>
@@ -2047,16 +2047,16 @@
         <v>1.39</v>
       </c>
       <c r="P12" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R12" t="n">
         <v>1.27</v>
       </c>
       <c r="S12" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T12" t="n">
         <v>1.86</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G13" t="n">
         <v>1.74</v>
@@ -2170,22 +2170,22 @@
         <v>4.3</v>
       </c>
       <c r="L13" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P13" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
         <v>1.31</v>
@@ -2194,10 +2194,10 @@
         <v>3.6</v>
       </c>
       <c r="T13" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="U13" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="V13" t="n">
         <v>1.16</v>
@@ -2215,10 +2215,10 @@
         <v>60</v>
       </c>
       <c r="AA13" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AC13" t="n">
         <v>970</v>
@@ -2287,58 +2287,58 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="G14" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I14" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="J14" t="n">
         <v>3.25</v>
       </c>
       <c r="K14" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="L14" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P14" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q14" t="n">
         <v>2.06</v>
       </c>
       <c r="R14" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S14" t="n">
         <v>3.6</v>
       </c>
       <c r="T14" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U14" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V14" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W14" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="X14" t="n">
         <v>970</v>
@@ -2392,7 +2392,7 @@
         <v>970</v>
       </c>
       <c r="AO14" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
@@ -2422,46 +2422,46 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="G15" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H15" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="I15" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K15" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>1.83</v>
+        <v>3.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="P15" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.99</v>
+        <v>2.12</v>
       </c>
       <c r="R15" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="S15" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="T15" t="n">
         <v>1.01</v>
@@ -2470,7 +2470,7 @@
         <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="W15" t="n">
         <v>1.47</v>
@@ -2557,58 +2557,58 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G16" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N16" t="n">
         <v>2.88</v>
       </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.92</v>
-      </c>
       <c r="O16" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P16" t="n">
         <v>1.66</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="R16" t="n">
         <v>1.24</v>
       </c>
       <c r="S16" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="T16" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U16" t="n">
         <v>1.89</v>
       </c>
       <c r="V16" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W16" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X16" t="n">
         <v>970</v>
@@ -2656,7 +2656,7 @@
         <v>65</v>
       </c>
       <c r="AM16" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN16" t="n">
         <v>970</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.56</v>
+        <v>2.78</v>
       </c>
       <c r="G17" t="n">
         <v>3.2</v>
@@ -2701,7 +2701,7 @@
         <v>2.68</v>
       </c>
       <c r="I17" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J17" t="n">
         <v>3.05</v>
@@ -2722,7 +2722,7 @@
         <v>1.44</v>
       </c>
       <c r="P17" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="Q17" t="n">
         <v>2.3</v>
@@ -2731,22 +2731,22 @@
         <v>1.23</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U17" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="V17" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W17" t="n">
         <v>1.46</v>
       </c>
-      <c r="W17" t="n">
-        <v>1.45</v>
-      </c>
       <c r="X17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y17" t="n">
         <v>11.5</v>
@@ -2767,7 +2767,7 @@
         <v>16</v>
       </c>
       <c r="AE17" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF17" t="n">
         <v>23</v>
@@ -2788,7 +2788,7 @@
         <v>50</v>
       </c>
       <c r="AL17" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AM17" t="n">
         <v>170</v>
@@ -2833,7 +2833,7 @@
         <v>1.85</v>
       </c>
       <c r="H18" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I18" t="n">
         <v>7</v>
@@ -2860,22 +2860,22 @@
         <v>1.78</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R18" t="n">
         <v>1.29</v>
       </c>
       <c r="S18" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="T18" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="U18" t="n">
         <v>1.86</v>
       </c>
       <c r="V18" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="W18" t="n">
         <v>2.16</v>
@@ -2893,7 +2893,7 @@
         <v>190</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC18" t="n">
         <v>9.800000000000001</v>
@@ -2905,7 +2905,7 @@
         <v>110</v>
       </c>
       <c r="AF18" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG18" t="n">
         <v>12</v>
@@ -2923,7 +2923,7 @@
         <v>24</v>
       </c>
       <c r="AL18" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM18" t="n">
         <v>170</v>
@@ -2932,7 +2932,7 @@
         <v>15.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19">
@@ -2962,112 +2962,112 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="G19" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H19" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I19" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J19" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="M19" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>2.76</v>
+        <v>2.94</v>
       </c>
       <c r="O19" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="P19" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="S19" t="n">
         <v>4.2</v>
       </c>
       <c r="T19" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="U19" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="V19" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W19" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X19" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y19" t="n">
         <v>12</v>
       </c>
-      <c r="Y19" t="n">
-        <v>11.5</v>
-      </c>
       <c r="Z19" t="n">
         <v>970</v>
       </c>
       <c r="AA19" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE19" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AF19" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AG19" t="n">
         <v>16</v>
       </c>
       <c r="AH19" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AI19" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ19" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="n">
         <v>970</v>
       </c>
       <c r="AL19" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM19" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AN19" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AO19" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G20" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H20" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="I20" t="n">
         <v>2.58</v>
@@ -3118,7 +3118,7 @@
         <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N20" t="n">
         <v>3.05</v>
@@ -3148,10 +3148,10 @@
         <v>1.63</v>
       </c>
       <c r="W20" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y20" t="n">
         <v>9.199999999999999</v>
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="G21" t="n">
-        <v>2.72</v>
+        <v>2.58</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I21" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="K21" t="n">
         <v>3.1</v>
@@ -3262,7 +3262,7 @@
         <v>1.58</v>
       </c>
       <c r="P21" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="Q21" t="n">
         <v>2.74</v>
@@ -3280,10 +3280,10 @@
         <v>1.73</v>
       </c>
       <c r="V21" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W21" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="X21" t="n">
         <v>8.4</v>
@@ -3367,25 +3367,25 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="G22" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="H22" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K22" t="n">
         <v>4.1</v>
       </c>
-      <c r="I22" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L22" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
@@ -3400,25 +3400,25 @@
         <v>2.08</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R22" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S22" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="T22" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U22" t="n">
         <v>2.18</v>
       </c>
       <c r="V22" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W22" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="X22" t="n">
         <v>970</v>
@@ -3433,10 +3433,10 @@
         <v>110</v>
       </c>
       <c r="AB22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>970</v>
+        <v>9.4</v>
       </c>
       <c r="AD22" t="n">
         <v>970</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="G23" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="H23" t="n">
         <v>5.3</v>
@@ -3517,7 +3517,7 @@
         <v>3.55</v>
       </c>
       <c r="K23" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L23" t="n">
         <v>1.46</v>
@@ -3553,7 +3553,7 @@
         <v>1.18</v>
       </c>
       <c r="W23" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X23" t="n">
         <v>14.5</v>
@@ -3637,61 +3637,61 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="G24" t="n">
-        <v>2.5</v>
+        <v>2.74</v>
       </c>
       <c r="H24" t="n">
-        <v>2.92</v>
+        <v>2.78</v>
       </c>
       <c r="I24" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="J24" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K24" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O24" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P24" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="R24" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="S24" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="T24" t="n">
         <v>1.64</v>
       </c>
       <c r="U24" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V24" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="W24" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="X24" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="Y24" t="n">
         <v>970</v>
@@ -3700,13 +3700,13 @@
         <v>970</v>
       </c>
       <c r="AA24" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB24" t="n">
         <v>970</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD24" t="n">
         <v>970</v>
@@ -3721,7 +3721,7 @@
         <v>970</v>
       </c>
       <c r="AH24" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
         <v>970</v>
@@ -3736,10 +3736,10 @@
         <v>970</v>
       </c>
       <c r="AM24" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AN24" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AO24" t="n">
         <v>970</v>
@@ -3772,25 +3772,25 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="G25" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="H25" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="J25" t="n">
         <v>3.85</v>
       </c>
       <c r="K25" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M25" t="n">
         <v>1.01</v>
@@ -3811,7 +3811,7 @@
         <v>1.66</v>
       </c>
       <c r="S25" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T25" t="n">
         <v>1.52</v>
@@ -3820,10 +3820,10 @@
         <v>2.56</v>
       </c>
       <c r="V25" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="W25" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="X25" t="n">
         <v>32</v>
@@ -3856,25 +3856,25 @@
         <v>14</v>
       </c>
       <c r="AH25" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI25" t="n">
         <v>42</v>
       </c>
       <c r="AJ25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK25" t="n">
         <v>24</v>
       </c>
       <c r="AL25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM25" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO25" t="n">
         <v>26</v>
@@ -3913,7 +3913,7 @@
         <v>1.86</v>
       </c>
       <c r="H26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I26" t="n">
         <v>4.9</v>
@@ -3922,10 +3922,10 @@
         <v>4.3</v>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L26" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="M26" t="n">
         <v>1.02</v>
@@ -3943,7 +3943,7 @@
         <v>1.5</v>
       </c>
       <c r="R26" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S26" t="n">
         <v>2.22</v>
@@ -3955,7 +3955,7 @@
         <v>2.46</v>
       </c>
       <c r="V26" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W26" t="n">
         <v>2.16</v>
@@ -4009,7 +4009,7 @@
         <v>70</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AO26" t="n">
         <v>38</v>
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H27" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="I27" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="J27" t="n">
         <v>3.3</v>
@@ -4090,10 +4090,10 @@
         <v>2.12</v>
       </c>
       <c r="V27" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W27" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="X27" t="n">
         <v>14</v>
@@ -4105,7 +4105,7 @@
         <v>17.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB27" t="n">
         <v>12.5</v>
@@ -4147,7 +4147,7 @@
         <v>40</v>
       </c>
       <c r="AO27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
@@ -4183,16 +4183,16 @@
         <v>2.78</v>
       </c>
       <c r="H28" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="I28" t="n">
         <v>2.7</v>
       </c>
       <c r="J28" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K28" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L28" t="n">
         <v>1.3</v>
@@ -4225,7 +4225,7 @@
         <v>2.74</v>
       </c>
       <c r="V28" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W28" t="n">
         <v>1.56</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G29" t="n">
         <v>2.18</v>
       </c>
       <c r="H29" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I29" t="n">
         <v>4.7</v>
       </c>
       <c r="J29" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K29" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L29" t="n">
         <v>1.44</v>
@@ -4336,28 +4336,28 @@
         <v>1.11</v>
       </c>
       <c r="N29" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="O29" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P29" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="R29" t="n">
         <v>1.22</v>
       </c>
       <c r="S29" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T29" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U29" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="V29" t="n">
         <v>1.27</v>
@@ -4366,10 +4366,10 @@
         <v>1.84</v>
       </c>
       <c r="X29" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z29" t="n">
         <v>34</v>
@@ -4390,7 +4390,7 @@
         <v>75</v>
       </c>
       <c r="AF29" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG29" t="n">
         <v>11.5</v>
@@ -4450,55 +4450,55 @@
         <v>1.91</v>
       </c>
       <c r="G30" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="H30" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I30" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J30" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K30" t="n">
         <v>3.65</v>
       </c>
       <c r="L30" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M30" t="n">
         <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="O30" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P30" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="R30" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S30" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T30" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U30" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V30" t="n">
         <v>1.22</v>
       </c>
       <c r="W30" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="X30" t="n">
         <v>11.5</v>
@@ -4510,10 +4510,10 @@
         <v>970</v>
       </c>
       <c r="AA30" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB30" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC30" t="n">
         <v>8.800000000000001</v>
@@ -4534,7 +4534,7 @@
         <v>970</v>
       </c>
       <c r="AI30" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ30" t="n">
         <v>970</v>
@@ -4543,16 +4543,16 @@
         <v>970</v>
       </c>
       <c r="AL30" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM30" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN30" t="n">
         <v>970</v>
       </c>
       <c r="AO30" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31">
@@ -4582,28 +4582,28 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="G31" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="H31" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="I31" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="J31" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K31" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L31" t="n">
         <v>1.49</v>
       </c>
       <c r="M31" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N31" t="n">
         <v>2.84</v>
@@ -4624,43 +4624,43 @@
         <v>4.4</v>
       </c>
       <c r="T31" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="U31" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="V31" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="W31" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="X31" t="n">
         <v>11.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AA31" t="n">
         <v>22</v>
       </c>
       <c r="AB31" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="AF31" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AG31" t="n">
         <v>970</v>
@@ -4672,19 +4672,19 @@
         <v>55</v>
       </c>
       <c r="AJ31" t="n">
+        <v>180</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM31" t="n">
         <v>220</v>
       </c>
-      <c r="AK31" t="n">
-        <v>130</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>140</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>240</v>
-      </c>
       <c r="AN31" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AO31" t="n">
         <v>19</v>
@@ -4717,13 +4717,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="G32" t="n">
         <v>1.8</v>
       </c>
       <c r="H32" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="I32" t="n">
         <v>5.4</v>
@@ -4747,25 +4747,25 @@
         <v>1.27</v>
       </c>
       <c r="P32" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R32" t="n">
         <v>1.43</v>
       </c>
       <c r="S32" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T32" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U32" t="n">
         <v>2.16</v>
       </c>
       <c r="V32" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W32" t="n">
         <v>2.24</v>
@@ -4780,10 +4780,10 @@
         <v>970</v>
       </c>
       <c r="AA32" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB32" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC32" t="n">
         <v>9.4</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="G33" t="n">
         <v>6.6</v>
       </c>
       <c r="H33" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="I33" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="J33" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K33" t="n">
         <v>4</v>
-      </c>
-      <c r="K33" t="n">
-        <v>4.1</v>
       </c>
       <c r="L33" t="n">
         <v>1.39</v>
@@ -4900,16 +4900,16 @@
         <v>1.9</v>
       </c>
       <c r="V33" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="W33" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="X33" t="n">
         <v>13</v>
       </c>
       <c r="Y33" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Z33" t="n">
         <v>9</v>
@@ -4918,7 +4918,7 @@
         <v>16</v>
       </c>
       <c r="AB33" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC33" t="n">
         <v>8.800000000000001</v>
@@ -4942,19 +4942,19 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AK33" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AL33" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AM33" t="n">
         <v>140</v>
       </c>
       <c r="AN33" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AO33" t="n">
         <v>11</v>
@@ -4993,10 +4993,10 @@
         <v>1.48</v>
       </c>
       <c r="H34" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I34" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="J34" t="n">
         <v>5.2</v>
@@ -5017,16 +5017,16 @@
         <v>1.18</v>
       </c>
       <c r="P34" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="Q34" t="n">
         <v>1.55</v>
       </c>
       <c r="R34" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S34" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T34" t="n">
         <v>1.74</v>
@@ -5035,13 +5035,13 @@
         <v>2.26</v>
       </c>
       <c r="V34" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W34" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="X34" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y34" t="n">
         <v>34</v>
@@ -5053,7 +5053,7 @@
         <v>220</v>
       </c>
       <c r="AB34" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC34" t="n">
         <v>12</v>
@@ -5083,7 +5083,7 @@
         <v>13.5</v>
       </c>
       <c r="AL34" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM34" t="n">
         <v>90</v>
@@ -5122,94 +5122,94 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="G35" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="H35" t="n">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="I35" t="n">
-        <v>8.6</v>
+        <v>6.6</v>
       </c>
       <c r="J35" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K35" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="L35" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="M35" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="O35" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="P35" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="R35" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="S35" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="T35" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="U35" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="V35" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="W35" t="n">
-        <v>2.16</v>
+        <v>1.97</v>
       </c>
       <c r="X35" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="Y35" t="n">
         <v>970</v>
       </c>
       <c r="Z35" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AA35" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AB35" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC35" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD35" t="n">
         <v>970</v>
       </c>
       <c r="AE35" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF35" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AG35" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AH35" t="n">
         <v>970</v>
       </c>
       <c r="AI35" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ35" t="n">
         <v>970</v>
@@ -5221,13 +5221,13 @@
         <v>60</v>
       </c>
       <c r="AM35" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN35" t="n">
         <v>970</v>
       </c>
       <c r="AO35" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36">
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H36" t="n">
         <v>4.5</v>
@@ -5275,7 +5275,7 @@
         <v>3.65</v>
       </c>
       <c r="L36" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M36" t="n">
         <v>1.09</v>
@@ -5308,7 +5308,7 @@
         <v>1.27</v>
       </c>
       <c r="W36" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X36" t="n">
         <v>12</v>
@@ -5326,7 +5326,7 @@
         <v>8</v>
       </c>
       <c r="AC36" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD36" t="n">
         <v>18.5</v>
@@ -5398,16 +5398,16 @@
         <v>1.17</v>
       </c>
       <c r="H37" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J37" t="n">
         <v>9.6</v>
       </c>
       <c r="K37" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="L37" t="n">
         <v>1.25</v>
@@ -5416,28 +5416,28 @@
         <v>1.02</v>
       </c>
       <c r="N37" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="O37" t="n">
         <v>1.17</v>
       </c>
       <c r="P37" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="Q37" t="n">
         <v>1.5</v>
       </c>
       <c r="R37" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="S37" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="T37" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="U37" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="V37" t="n">
         <v>1.04</v>
@@ -5464,13 +5464,13 @@
         <v>970</v>
       </c>
       <c r="AD37" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AE37" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AF37" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AG37" t="n">
         <v>970</v>
@@ -5485,16 +5485,16 @@
         <v>8.4</v>
       </c>
       <c r="AK37" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL37" t="n">
         <v>60</v>
       </c>
       <c r="AM37" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AN37" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5527,16 +5527,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="G38" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="H38" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J38" t="n">
         <v>3.2</v>
@@ -5557,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q38" t="n">
         <v>1.97</v>
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G39" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H39" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I39" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J39" t="n">
         <v>3.2</v>
       </c>
       <c r="K39" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -5692,10 +5692,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO39"/>
+  <dimension ref="A1:AO45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="G2" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="H2" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
         <v>3.05</v>
@@ -685,43 +685,43 @@
         <v>3.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="P2" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="R2" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="S2" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U2" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="V2" t="n">
         <v>1.48</v>
       </c>
       <c r="W2" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
@@ -733,7 +733,7 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC2" t="n">
         <v>7.4</v>
@@ -742,10 +742,10 @@
         <v>13.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF2" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG2" t="n">
         <v>13</v>
@@ -754,7 +754,7 @@
         <v>19</v>
       </c>
       <c r="AI2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -763,16 +763,16 @@
         <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
         <v>120</v>
       </c>
       <c r="AN2" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -805,10 +805,10 @@
         <v>2.14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H3" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
         <v>3.75</v>
@@ -817,67 +817,67 @@
         <v>3.7</v>
       </c>
       <c r="K3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.37</v>
       </c>
       <c r="P3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S3" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="T3" t="n">
         <v>1.91</v>
       </c>
       <c r="U3" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V3" t="n">
         <v>1.36</v>
       </c>
       <c r="W3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X3" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y3" t="n">
         <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB3" t="n">
         <v>9</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
         <v>15.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF3" t="n">
         <v>13</v>
@@ -907,13 +907,13 @@
         <v>19.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:40:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Ujpest</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Mezokovesd-Zsory</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.55</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>2.26</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>4.7</v>
+        <v>1.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="P4" t="n">
-        <v>2.26</v>
+        <v>1.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="R4" t="n">
-        <v>1.51</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>2.58</v>
+        <v>1.12</v>
       </c>
       <c r="T4" t="n">
-        <v>1.6</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>2.36</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
         <v>970</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
         <v>970</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:45:00</t>
+          <t>09:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Al-Arabi Al-Saudi</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.56</v>
+        <v>2.4</v>
       </c>
       <c r="G5" t="n">
-        <v>1.67</v>
+        <v>3.35</v>
       </c>
       <c r="H5" t="n">
-        <v>5.8</v>
+        <v>2.46</v>
       </c>
       <c r="I5" t="n">
-        <v>7.4</v>
+        <v>3.45</v>
       </c>
       <c r="J5" t="n">
-        <v>4.2</v>
+        <v>2.92</v>
       </c>
       <c r="K5" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>4.1</v>
+        <v>1.52</v>
       </c>
       <c r="O5" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>2.2</v>
+        <v>1.52</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.68</v>
+        <v>2.04</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>2.74</v>
+        <v>2.04</v>
       </c>
       <c r="T5" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="W5" t="n">
-        <v>2.5</v>
+        <v>1.42</v>
       </c>
       <c r="X5" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>09:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FC Magdeburg</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.64</v>
+        <v>1.72</v>
       </c>
       <c r="G6" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
-        <v>2.64</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>2.8</v>
+        <v>6.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="K6" t="n">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="O6" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>2.38</v>
+        <v>1.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="R6" t="n">
-        <v>1.56</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>2.6</v>
+        <v>1.79</v>
       </c>
       <c r="T6" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>2.54</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.56</v>
+        <v>1.19</v>
       </c>
       <c r="W6" t="n">
-        <v>1.56</v>
+        <v>1.84</v>
       </c>
       <c r="X6" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>10:40:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.72</v>
+        <v>3.7</v>
       </c>
       <c r="G7" t="n">
-        <v>2.86</v>
+        <v>3.9</v>
       </c>
       <c r="H7" t="n">
-        <v>2.62</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.72</v>
+        <v>2.2</v>
       </c>
       <c r="J7" t="n">
         <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="P7" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="R7" t="n">
         <v>1.51</v>
       </c>
       <c r="S7" t="n">
-        <v>2.84</v>
+        <v>2.56</v>
       </c>
       <c r="T7" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="U7" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V7" t="n">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="W7" t="n">
-        <v>1.54</v>
+        <v>1.34</v>
       </c>
       <c r="X7" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="Y7" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="Z7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB7" t="n">
         <v>22</v>
       </c>
-      <c r="AA7" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AC7" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AF7" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AJ7" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AK7" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AL7" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AM7" t="n">
         <v>70</v>
       </c>
       <c r="AN7" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AO7" t="n">
-        <v>18</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="8">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>11:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
       <c r="G8" t="n">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="H8" t="n">
-        <v>8.4</v>
+        <v>5.8</v>
       </c>
       <c r="I8" t="n">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="J8" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="K8" t="n">
-        <v>6.4</v>
+        <v>4.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>2.58</v>
+        <v>2.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.51</v>
+        <v>1.67</v>
       </c>
       <c r="R8" t="n">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
       <c r="S8" t="n">
-        <v>2.26</v>
+        <v>2.74</v>
       </c>
       <c r="T8" t="n">
-        <v>1.81</v>
+        <v>1.66</v>
       </c>
       <c r="U8" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="V8" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="W8" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="X8" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="Z8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE8" t="n">
         <v>85</v>
       </c>
-      <c r="AA8" t="n">
-        <v>300</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>140</v>
-      </c>
       <c r="AF8" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM8" t="n">
         <v>110</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>120</v>
-      </c>
       <c r="AN8" t="n">
-        <v>5</v>
+        <v>9.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>11:50:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Al-Adalh</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.67</v>
+        <v>2.8</v>
       </c>
       <c r="G9" t="n">
-        <v>1.68</v>
+        <v>4.4</v>
       </c>
       <c r="H9" t="n">
-        <v>5.5</v>
+        <v>2.06</v>
       </c>
       <c r="I9" t="n">
-        <v>5.6</v>
+        <v>2.94</v>
       </c>
       <c r="J9" t="n">
-        <v>4.5</v>
+        <v>2.88</v>
       </c>
       <c r="K9" t="n">
-        <v>4.6</v>
+        <v>6.4</v>
       </c>
       <c r="L9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W9" t="n">
         <v>1.29</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N9" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2.46</v>
-      </c>
       <c r="X9" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,60 +1733,60 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Academico de Viseu</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Al Draih</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.95</v>
+        <v>3.9</v>
       </c>
       <c r="G10" t="n">
-        <v>2.14</v>
+        <v>7.2</v>
       </c>
       <c r="H10" t="n">
-        <v>4.2</v>
+        <v>1.61</v>
       </c>
       <c r="I10" t="n">
-        <v>5.1</v>
+        <v>2.04</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K10" t="n">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>3.05</v>
+        <v>1.82</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="P10" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.16</v>
+        <v>1.72</v>
       </c>
       <c r="R10" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>1.72</v>
       </c>
       <c r="T10" t="n">
         <v>1.01</v>
@@ -1795,70 +1795,70 @@
         <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>1.25</v>
+        <v>1.96</v>
       </c>
       <c r="W10" t="n">
-        <v>1.89</v>
+        <v>1.16</v>
       </c>
       <c r="X10" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.4</v>
+        <v>1.35</v>
       </c>
       <c r="G11" t="n">
-        <v>4.3</v>
+        <v>1.43</v>
       </c>
       <c r="H11" t="n">
-        <v>2.32</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>2.6</v>
+        <v>10</v>
       </c>
       <c r="J11" t="n">
-        <v>2.94</v>
+        <v>5.5</v>
       </c>
       <c r="K11" t="n">
-        <v>3.35</v>
+        <v>6.4</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P11" t="n">
-        <v>1.55</v>
+        <v>2.66</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.44</v>
+        <v>1.48</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Aubagne FC</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Paris 13 Atletico</t>
+          <t>FC Magdeburg</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="G12" t="n">
-        <v>2.48</v>
+        <v>2.9</v>
       </c>
       <c r="H12" t="n">
-        <v>3.35</v>
+        <v>2.56</v>
       </c>
       <c r="I12" t="n">
-        <v>3.85</v>
+        <v>2.62</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="K12" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>3.1</v>
+        <v>5.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.39</v>
+        <v>1.21</v>
       </c>
       <c r="P12" t="n">
-        <v>1.71</v>
+        <v>2.46</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.12</v>
+        <v>1.63</v>
       </c>
       <c r="R12" t="n">
-        <v>1.27</v>
+        <v>1.6</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>2.52</v>
       </c>
       <c r="T12" t="n">
-        <v>1.86</v>
+        <v>1.55</v>
       </c>
       <c r="U12" t="n">
-        <v>1.96</v>
+        <v>2.68</v>
       </c>
       <c r="V12" t="n">
-        <v>1.35</v>
+        <v>1.61</v>
       </c>
       <c r="W12" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="X12" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>970</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD12" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>16</v>
-      </c>
       <c r="AE12" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AF12" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AJ12" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="AK12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL12" t="n">
         <v>970</v>
       </c>
       <c r="AM12" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="AN12" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AO12" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.61</v>
+        <v>2.72</v>
       </c>
       <c r="G13" t="n">
-        <v>1.74</v>
+        <v>2.86</v>
       </c>
       <c r="H13" t="n">
-        <v>5.8</v>
+        <v>2.62</v>
       </c>
       <c r="I13" t="n">
-        <v>7.2</v>
+        <v>2.72</v>
       </c>
       <c r="J13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.75</v>
       </c>
-      <c r="K13" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L13" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>1.83</v>
+        <v>2.22</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="R13" t="n">
-        <v>1.31</v>
+        <v>1.51</v>
       </c>
       <c r="S13" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="T13" t="n">
-        <v>1.99</v>
+        <v>1.63</v>
       </c>
       <c r="U13" t="n">
-        <v>1.84</v>
+        <v>2.42</v>
       </c>
       <c r="V13" t="n">
-        <v>1.16</v>
+        <v>1.58</v>
       </c>
       <c r="W13" t="n">
-        <v>2.34</v>
+        <v>1.54</v>
       </c>
       <c r="X13" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="Z13" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.4</v>
+        <v>15.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>970</v>
+        <v>9.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="AF13" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AG13" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AH13" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="AJ13" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AK13" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AL13" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AM13" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="AN13" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AO13" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Le Puy</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.98</v>
+        <v>1.67</v>
       </c>
       <c r="G14" t="n">
-        <v>2.18</v>
+        <v>1.69</v>
       </c>
       <c r="H14" t="n">
-        <v>3.85</v>
+        <v>5.5</v>
       </c>
       <c r="I14" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K14" t="n">
         <v>4.6</v>
       </c>
-      <c r="J14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.85</v>
-      </c>
       <c r="L14" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>3.2</v>
+        <v>5.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>1.77</v>
+        <v>2.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.06</v>
+        <v>1.63</v>
       </c>
       <c r="R14" t="n">
-        <v>1.29</v>
+        <v>1.6</v>
       </c>
       <c r="S14" t="n">
-        <v>3.6</v>
+        <v>2.56</v>
       </c>
       <c r="T14" t="n">
-        <v>1.85</v>
+        <v>1.69</v>
       </c>
       <c r="U14" t="n">
-        <v>1.97</v>
+        <v>2.34</v>
       </c>
       <c r="V14" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="W14" t="n">
-        <v>1.84</v>
+        <v>2.44</v>
       </c>
       <c r="X14" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="Y14" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="Z14" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AA14" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AB14" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="AD14" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AE14" t="n">
         <v>65</v>
       </c>
       <c r="AF14" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH14" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AJ14" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AK14" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AL14" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="n">
-        <v>970</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,60 +2408,60 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>Jahn Regensburg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Ingolstadt</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.76</v>
+        <v>2.12</v>
       </c>
       <c r="G15" t="n">
-        <v>3.15</v>
+        <v>2.66</v>
       </c>
       <c r="H15" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="I15" t="n">
-        <v>2.98</v>
+        <v>3.7</v>
       </c>
       <c r="J15" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K15" t="n">
-        <v>3.6</v>
+        <v>6.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>3.1</v>
+        <v>2.26</v>
       </c>
       <c r="O15" t="n">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="P15" t="n">
-        <v>1.72</v>
+        <v>2.26</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.12</v>
+        <v>1.46</v>
       </c>
       <c r="R15" t="n">
-        <v>1.2</v>
+        <v>1.52</v>
       </c>
       <c r="S15" t="n">
-        <v>3.55</v>
+        <v>2.14</v>
       </c>
       <c r="T15" t="n">
         <v>1.01</v>
@@ -2470,10 +2470,10 @@
         <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="W15" t="n">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Academico de Viseu</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.32</v>
+        <v>1.96</v>
       </c>
       <c r="G16" t="n">
-        <v>2.64</v>
+        <v>2.14</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="I16" t="n">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K16" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="L16" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="O16" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P16" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="R16" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S16" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="U16" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="W16" t="n">
-        <v>1.61</v>
+        <v>1.88</v>
       </c>
       <c r="X16" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="Y16" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="Z16" t="n">
         <v>970</v>
       </c>
       <c r="AA16" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE16" t="n">
         <v>85</v>
       </c>
-      <c r="AB16" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>60</v>
-      </c>
       <c r="AF16" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AG16" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AI16" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AJ16" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AK16" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AL16" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM16" t="n">
         <v>170</v>
       </c>
       <c r="AN16" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,126 +2678,126 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Versailles 78 FC</t>
+          <t>Arges Pitesti</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.78</v>
+        <v>3.55</v>
       </c>
       <c r="G17" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="H17" t="n">
-        <v>2.68</v>
+        <v>2.24</v>
       </c>
       <c r="I17" t="n">
-        <v>3.1</v>
+        <v>2.46</v>
       </c>
       <c r="J17" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L17" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="R17" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Bourg-en-Bresse</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="G18" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H18" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="K18" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O18" t="n">
         <v>1.35</v>
       </c>
       <c r="P18" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S18" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T18" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="U18" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="V18" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="W18" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="X18" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Z18" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA18" t="n">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AE18" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AF18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG18" t="n">
         <v>12</v>
       </c>
       <c r="AH18" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AI18" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ18" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AK18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL18" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AM18" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN18" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Fleury Merogis</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Paris 13 Atletico</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.7</v>
+        <v>2.22</v>
       </c>
       <c r="G19" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J19" t="n">
         <v>3.2</v>
       </c>
-      <c r="H19" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3</v>
-      </c>
       <c r="K19" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="P19" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="R19" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="S19" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="T19" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U19" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="V19" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="W19" t="n">
-        <v>1.46</v>
+        <v>1.67</v>
       </c>
       <c r="X19" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AA19" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE19" t="n">
         <v>60</v>
       </c>
-      <c r="AB19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>46</v>
-      </c>
       <c r="AF19" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH19" t="n">
         <v>24</v>
       </c>
       <c r="AI19" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ19" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK19" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AL19" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AM19" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN19" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AO19" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Boulogne</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="F20" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N20" t="n">
         <v>3.1</v>
       </c>
-      <c r="G20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N20" t="n">
-        <v>3.05</v>
-      </c>
       <c r="O20" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="P20" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="R20" t="n">
         <v>1.27</v>
       </c>
       <c r="S20" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="T20" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="U20" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="W20" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="X20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="Z20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG20" t="n">
         <v>15.5</v>
       </c>
-      <c r="AA20" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH20" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AJ20" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AL20" t="n">
         <v>60</v>
       </c>
       <c r="AM20" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AN20" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AO20" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Le Puy</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.38</v>
+        <v>1.98</v>
       </c>
       <c r="G21" t="n">
-        <v>2.58</v>
+        <v>2.2</v>
       </c>
       <c r="H21" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="J21" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="K21" t="n">
-        <v>3.1</v>
+        <v>3.85</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M21" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>2.44</v>
+        <v>3.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.58</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>1.49</v>
+        <v>1.77</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.74</v>
+        <v>2.06</v>
       </c>
       <c r="R21" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="S21" t="n">
-        <v>5.7</v>
+        <v>3.7</v>
       </c>
       <c r="T21" t="n">
-        <v>2.14</v>
+        <v>1.84</v>
       </c>
       <c r="U21" t="n">
-        <v>1.73</v>
+        <v>1.96</v>
       </c>
       <c r="V21" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="W21" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="X21" t="n">
-        <v>8.4</v>
+        <v>970</v>
       </c>
       <c r="Y21" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB21" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="Z21" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AC21" t="n">
-        <v>7.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AE21" t="n">
         <v>65</v>
       </c>
       <c r="AF21" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AG21" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AH21" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AI21" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AJ21" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AK21" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AL21" t="n">
-        <v>75</v>
+        <v>970</v>
       </c>
       <c r="AM21" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AO21" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Pau</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.81</v>
+        <v>2.78</v>
       </c>
       <c r="G22" t="n">
-        <v>1.93</v>
+        <v>3.2</v>
       </c>
       <c r="H22" t="n">
-        <v>4.3</v>
+        <v>2.66</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="K22" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="L22" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>4.1</v>
+        <v>2.82</v>
       </c>
       <c r="O22" t="n">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="P22" t="n">
-        <v>2.08</v>
+        <v>1.61</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.43</v>
+        <v>1.23</v>
       </c>
       <c r="S22" t="n">
-        <v>2.96</v>
+        <v>4.4</v>
       </c>
       <c r="T22" t="n">
-        <v>1.71</v>
+        <v>1.92</v>
       </c>
       <c r="U22" t="n">
-        <v>2.18</v>
+        <v>1.89</v>
       </c>
       <c r="V22" t="n">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
       <c r="W22" t="n">
-        <v>2.06</v>
+        <v>1.45</v>
       </c>
       <c r="X22" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="Y22" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AA22" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AB22" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AE22" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN22" t="n">
         <v>55</v>
       </c>
-      <c r="AF22" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>970</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>970</v>
-      </c>
       <c r="AO22" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.73</v>
+        <v>2.7</v>
       </c>
       <c r="G23" t="n">
-        <v>1.84</v>
+        <v>3.15</v>
       </c>
       <c r="H23" t="n">
-        <v>5.3</v>
+        <v>2.72</v>
       </c>
       <c r="I23" t="n">
-        <v>6.4</v>
+        <v>3.25</v>
       </c>
       <c r="J23" t="n">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="O23" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P23" t="n">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="R23" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="S23" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="T23" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="U23" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="V23" t="n">
-        <v>1.18</v>
+        <v>1.45</v>
       </c>
       <c r="W23" t="n">
-        <v>2.18</v>
+        <v>1.47</v>
       </c>
       <c r="X23" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Y23" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Z23" t="n">
         <v>970</v>
       </c>
       <c r="AA23" t="n">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="AB23" t="n">
-        <v>7.6</v>
+        <v>12</v>
       </c>
       <c r="AC23" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH23" t="n">
         <v>24</v>
       </c>
-      <c r="AE23" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>970</v>
-      </c>
       <c r="AI23" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AJ23" t="n">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="AK23" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AL23" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AM23" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AN23" t="n">
-        <v>14.5</v>
+        <v>48</v>
       </c>
       <c r="AO23" t="n">
-        <v>150</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.46</v>
+        <v>1.7</v>
       </c>
       <c r="G24" t="n">
-        <v>2.74</v>
+        <v>1.86</v>
       </c>
       <c r="H24" t="n">
-        <v>2.78</v>
+        <v>5.2</v>
       </c>
       <c r="I24" t="n">
-        <v>3.15</v>
+        <v>6.8</v>
       </c>
       <c r="J24" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="K24" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="O24" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="P24" t="n">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.66</v>
+        <v>2.02</v>
       </c>
       <c r="R24" t="n">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="S24" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="T24" t="n">
-        <v>1.64</v>
+        <v>1.95</v>
       </c>
       <c r="U24" t="n">
-        <v>2.28</v>
+        <v>1.87</v>
       </c>
       <c r="V24" t="n">
-        <v>1.47</v>
+        <v>1.17</v>
       </c>
       <c r="W24" t="n">
-        <v>1.57</v>
+        <v>2.16</v>
       </c>
       <c r="X24" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Y24" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="Z24" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AA24" t="n">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="AB24" t="n">
-        <v>970</v>
+        <v>8.6</v>
       </c>
       <c r="AC24" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AE24" t="n">
-        <v>970</v>
+        <v>110</v>
       </c>
       <c r="AF24" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AG24" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AH24" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AI24" t="n">
-        <v>970</v>
+        <v>110</v>
       </c>
       <c r="AJ24" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AK24" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AL24" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AM24" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="AN24" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>970</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.02</v>
+        <v>2.32</v>
       </c>
       <c r="G25" t="n">
-        <v>2.2</v>
+        <v>2.64</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I25" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K25" t="n">
         <v>4.1</v>
       </c>
-      <c r="J25" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K25" t="n">
-        <v>4.5</v>
-      </c>
       <c r="L25" t="n">
-        <v>1.23</v>
+        <v>1.42</v>
       </c>
       <c r="M25" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>5.5</v>
+        <v>2.88</v>
       </c>
       <c r="O25" t="n">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="P25" t="n">
-        <v>2.52</v>
+        <v>1.66</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.53</v>
+        <v>2.24</v>
       </c>
       <c r="R25" t="n">
-        <v>1.66</v>
+        <v>1.24</v>
       </c>
       <c r="S25" t="n">
-        <v>2.32</v>
+        <v>4.3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.52</v>
+        <v>1.89</v>
       </c>
       <c r="U25" t="n">
-        <v>2.56</v>
+        <v>1.89</v>
       </c>
       <c r="V25" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="W25" t="n">
-        <v>1.83</v>
+        <v>1.61</v>
       </c>
       <c r="X25" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="Y25" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="Z25" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AA25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>970</v>
+      </c>
+      <c r="AO25" t="n">
         <v>70</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="F26" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="n">
         <v>1.72</v>
       </c>
-      <c r="G26" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="H26" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J26" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N26" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.55</v>
-      </c>
       <c r="U26" t="n">
-        <v>2.46</v>
+        <v>2.12</v>
       </c>
       <c r="V26" t="n">
         <v>1.26</v>
       </c>
       <c r="W26" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="X26" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="Y26" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="Z26" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AA26" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB26" t="n">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AE26" t="n">
         <v>55</v>
       </c>
       <c r="AF26" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AG26" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AH26" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AI26" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AJ26" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AK26" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AL26" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="AM26" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AN26" t="n">
-        <v>7.8</v>
+        <v>970</v>
       </c>
       <c r="AO26" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
@@ -4033,127 +4033,127 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Boulogne</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G27" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H27" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="I27" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="J27" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K27" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="O27" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="P27" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="Q27" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="R27" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="S27" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="T27" t="n">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="U27" t="n">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="V27" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="W27" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="X27" t="n">
         <v>14</v>
       </c>
       <c r="Y27" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB27" t="n">
         <v>11</v>
       </c>
-      <c r="Z27" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AC27" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE27" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AJ27" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AK27" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AL27" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AM27" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AN27" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AO27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.74</v>
+        <v>1.73</v>
       </c>
       <c r="G28" t="n">
-        <v>2.78</v>
+        <v>1.86</v>
       </c>
       <c r="H28" t="n">
-        <v>2.66</v>
+        <v>5.4</v>
       </c>
       <c r="I28" t="n">
-        <v>2.7</v>
+        <v>6.4</v>
       </c>
       <c r="J28" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="K28" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L28" t="n">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="M28" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>5.6</v>
+        <v>3.15</v>
       </c>
       <c r="O28" t="n">
-        <v>1.2</v>
+        <v>1.39</v>
       </c>
       <c r="P28" t="n">
-        <v>2.52</v>
+        <v>1.74</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.61</v>
+        <v>2.14</v>
       </c>
       <c r="R28" t="n">
-        <v>1.61</v>
+        <v>1.28</v>
       </c>
       <c r="S28" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="T28" t="n">
-        <v>1.54</v>
+        <v>2</v>
       </c>
       <c r="U28" t="n">
-        <v>2.74</v>
+        <v>1.82</v>
       </c>
       <c r="V28" t="n">
-        <v>1.59</v>
+        <v>1.19</v>
       </c>
       <c r="W28" t="n">
-        <v>1.56</v>
+        <v>2.18</v>
       </c>
       <c r="X28" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z28" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="AA28" t="n">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="AB28" t="n">
-        <v>16.5</v>
+        <v>7.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>12.5</v>
+        <v>28</v>
       </c>
       <c r="AE28" t="n">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="AF28" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AG28" t="n">
         <v>12.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AI28" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="AJ28" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="AK28" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AL28" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AM28" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AN28" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>15</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="G29" t="n">
-        <v>2.18</v>
+        <v>2.58</v>
       </c>
       <c r="H29" t="n">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="I29" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="K29" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L29" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N29" t="n">
-        <v>2.8</v>
+        <v>2.44</v>
       </c>
       <c r="O29" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P29" t="n">
         <v>1.49</v>
       </c>
-      <c r="P29" t="n">
+      <c r="Q29" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W29" t="n">
         <v>1.63</v>
       </c>
-      <c r="Q29" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.84</v>
-      </c>
       <c r="X29" t="n">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="Y29" t="n">
-        <v>13</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z29" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AA29" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AB29" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC29" t="n">
         <v>7.4</v>
       </c>
-      <c r="AC29" t="n">
-        <v>8</v>
-      </c>
       <c r="AD29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE29" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AF29" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI29" t="n">
         <v>110</v>
       </c>
       <c r="AJ29" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AK29" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AL29" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AM29" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AN29" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="AO29" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Team Altamura</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="G30" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="H30" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="I30" t="n">
-        <v>5.8</v>
+        <v>4.1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.92</v>
+        <v>3.85</v>
       </c>
       <c r="K30" t="n">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="M30" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>2.78</v>
+        <v>5.5</v>
       </c>
       <c r="O30" t="n">
-        <v>1.45</v>
+        <v>1.18</v>
       </c>
       <c r="P30" t="n">
-        <v>1.6</v>
+        <v>2.52</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.32</v>
+        <v>1.53</v>
       </c>
       <c r="R30" t="n">
-        <v>1.22</v>
+        <v>1.66</v>
       </c>
       <c r="S30" t="n">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="T30" t="n">
-        <v>2.02</v>
+        <v>1.52</v>
       </c>
       <c r="U30" t="n">
-        <v>1.78</v>
+        <v>2.56</v>
       </c>
       <c r="V30" t="n">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="W30" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="X30" t="n">
-        <v>11.5</v>
+        <v>32</v>
       </c>
       <c r="Y30" t="n">
-        <v>15.5</v>
+        <v>25</v>
       </c>
       <c r="Z30" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AA30" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.199999999999999</v>
+        <v>18</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AE30" t="n">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="AF30" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AG30" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AI30" t="n">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="AJ30" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AK30" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AL30" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AM30" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AO30" t="n">
-        <v>140</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F31" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I31" t="n">
         <v>4.9</v>
       </c>
-      <c r="G31" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1.94</v>
-      </c>
       <c r="J31" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="K31" t="n">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
       <c r="L31" t="n">
-        <v>1.49</v>
+        <v>1.26</v>
       </c>
       <c r="M31" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="N31" t="n">
-        <v>2.84</v>
+        <v>5.9</v>
       </c>
       <c r="O31" t="n">
-        <v>1.44</v>
+        <v>1.16</v>
       </c>
       <c r="P31" t="n">
-        <v>1.63</v>
+        <v>2.66</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.28</v>
+        <v>1.5</v>
       </c>
       <c r="R31" t="n">
-        <v>1.23</v>
+        <v>1.68</v>
       </c>
       <c r="S31" t="n">
-        <v>4.4</v>
+        <v>2.22</v>
       </c>
       <c r="T31" t="n">
-        <v>2.08</v>
+        <v>1.55</v>
       </c>
       <c r="U31" t="n">
-        <v>1.75</v>
+        <v>2.46</v>
       </c>
       <c r="V31" t="n">
-        <v>2.06</v>
+        <v>1.26</v>
       </c>
       <c r="W31" t="n">
-        <v>1.2</v>
+        <v>2.16</v>
       </c>
       <c r="X31" t="n">
-        <v>11.5</v>
+        <v>34</v>
       </c>
       <c r="Y31" t="n">
-        <v>7.4</v>
+        <v>29</v>
       </c>
       <c r="Z31" t="n">
-        <v>10.5</v>
+        <v>46</v>
       </c>
       <c r="AA31" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD31" t="n">
         <v>22</v>
       </c>
-      <c r="AB31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AE31" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="AF31" t="n">
-        <v>46</v>
+        <v>16.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AI31" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ31" t="n">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="AK31" t="n">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="AL31" t="n">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="AM31" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="AN31" t="n">
-        <v>170</v>
+        <v>7.8</v>
       </c>
       <c r="AO31" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,36 +4703,36 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>CD Castellon</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.78</v>
+        <v>2.46</v>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>2.72</v>
       </c>
       <c r="H32" t="n">
-        <v>4.9</v>
+        <v>2.8</v>
       </c>
       <c r="I32" t="n">
-        <v>5.4</v>
+        <v>3.1</v>
       </c>
       <c r="J32" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="K32" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L32" t="n">
         <v>1.36</v>
@@ -4741,37 +4741,37 @@
         <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O32" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P32" t="n">
         <v>2.08</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="R32" t="n">
         <v>1.43</v>
       </c>
       <c r="S32" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="T32" t="n">
-        <v>1.79</v>
+        <v>1.64</v>
       </c>
       <c r="U32" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="V32" t="n">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="W32" t="n">
-        <v>2.24</v>
+        <v>1.58</v>
       </c>
       <c r="X32" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Y32" t="n">
         <v>970</v>
@@ -4780,55 +4780,55 @@
         <v>970</v>
       </c>
       <c r="AA32" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="AB32" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC32" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AD32" t="n">
         <v>970</v>
       </c>
       <c r="AE32" t="n">
+        <v>970</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>970</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>970</v>
+      </c>
+      <c r="AM32" t="n">
         <v>80</v>
       </c>
-      <c r="AF32" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>970</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>120</v>
-      </c>
       <c r="AN32" t="n">
-        <v>10.5</v>
+        <v>19.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>70</v>
+        <v>970</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>6.2</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>6.6</v>
+        <v>3.3</v>
       </c>
       <c r="H33" t="n">
-        <v>1.69</v>
+        <v>2.46</v>
       </c>
       <c r="I33" t="n">
-        <v>1.7</v>
+        <v>2.64</v>
       </c>
       <c r="J33" t="n">
-        <v>3.95</v>
+        <v>3.3</v>
       </c>
       <c r="K33" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="L33" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M33" t="n">
         <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="O33" t="n">
         <v>1.34</v>
       </c>
       <c r="P33" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="R33" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S33" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="T33" t="n">
-        <v>2.02</v>
+        <v>1.74</v>
       </c>
       <c r="U33" t="n">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="V33" t="n">
-        <v>2.44</v>
+        <v>1.6</v>
       </c>
       <c r="W33" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="X33" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Y33" t="n">
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AA33" t="n">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="AB33" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD33" t="n">
-        <v>9.800000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AF33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI33" t="n">
         <v>50</v>
       </c>
-      <c r="AG33" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI33" t="n">
+      <c r="AJ33" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK33" t="n">
         <v>42</v>
       </c>
-      <c r="AJ33" t="n">
-        <v>170</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>95</v>
-      </c>
       <c r="AL33" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="AM33" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN33" t="n">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="AO33" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,132 +4973,132 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.47</v>
+        <v>2.74</v>
       </c>
       <c r="G34" t="n">
-        <v>1.48</v>
+        <v>2.78</v>
       </c>
       <c r="H34" t="n">
-        <v>7.6</v>
+        <v>2.64</v>
       </c>
       <c r="I34" t="n">
-        <v>8</v>
+        <v>2.68</v>
       </c>
       <c r="J34" t="n">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
       <c r="K34" t="n">
-        <v>5.4</v>
+        <v>3.85</v>
       </c>
       <c r="L34" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M34" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="O34" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P34" t="n">
-        <v>2.68</v>
+        <v>2.52</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="R34" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="S34" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="T34" t="n">
-        <v>1.74</v>
+        <v>1.54</v>
       </c>
       <c r="U34" t="n">
-        <v>2.26</v>
+        <v>2.72</v>
       </c>
       <c r="V34" t="n">
-        <v>1.14</v>
+        <v>1.59</v>
       </c>
       <c r="W34" t="n">
-        <v>3.1</v>
+        <v>1.56</v>
       </c>
       <c r="X34" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK34" t="n">
         <v>25</v>
       </c>
-      <c r="Y34" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>220</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AL34" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AM34" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AN34" t="n">
-        <v>5.4</v>
+        <v>15.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>85</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Portuguese Liga 3</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Santarem</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.74</v>
+        <v>2.1</v>
       </c>
       <c r="G35" t="n">
-        <v>1.96</v>
+        <v>2.18</v>
       </c>
       <c r="H35" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="I35" t="n">
-        <v>6.6</v>
+        <v>4.7</v>
       </c>
       <c r="J35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K35" t="n">
         <v>3.3</v>
       </c>
-      <c r="K35" t="n">
-        <v>3.9</v>
-      </c>
       <c r="L35" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N35" t="n">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="O35" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="P35" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="R35" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S35" t="n">
-        <v>3.85</v>
+        <v>4.8</v>
       </c>
       <c r="T35" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U35" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="V35" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="W35" t="n">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="X35" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y35" t="n">
         <v>13</v>
       </c>
-      <c r="Y35" t="n">
-        <v>970</v>
-      </c>
       <c r="Z35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL35" t="n">
         <v>55</v>
       </c>
-      <c r="AA35" t="n">
-        <v>210</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE35" t="n">
+      <c r="AM35" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO35" t="n">
         <v>120</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>220</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>970</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>190</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,132 +5243,132 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Team Altamura</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="G36" t="n">
-        <v>1.99</v>
+        <v>2.12</v>
       </c>
       <c r="H36" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I36" t="n">
-        <v>4.7</v>
+        <v>5.8</v>
       </c>
       <c r="J36" t="n">
-        <v>3.6</v>
+        <v>2.92</v>
       </c>
       <c r="K36" t="n">
         <v>3.65</v>
       </c>
       <c r="L36" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M36" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N36" t="n">
-        <v>3.45</v>
+        <v>2.78</v>
       </c>
       <c r="O36" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="P36" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="R36" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="S36" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="T36" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="V36" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="W36" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="X36" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AA36" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AB36" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC36" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD36" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AE36" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="AF36" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG36" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AI36" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AJ36" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AK36" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AL36" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AM36" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="AN36" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AO36" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,132 +5378,132 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.16</v>
+        <v>4.8</v>
       </c>
       <c r="G37" t="n">
-        <v>1.17</v>
+        <v>5.8</v>
       </c>
       <c r="H37" t="n">
-        <v>23</v>
+        <v>1.79</v>
       </c>
       <c r="I37" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X37" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH37" t="n">
         <v>29</v>
       </c>
-      <c r="J37" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K37" t="n">
-        <v>10</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N37" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P37" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="T37" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W37" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="X37" t="n">
-        <v>970</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>290</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>90</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>580</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>55</v>
-      </c>
       <c r="AI37" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="AJ37" t="n">
-        <v>8.4</v>
+        <v>180</v>
       </c>
       <c r="AK37" t="n">
-        <v>15.5</v>
+        <v>110</v>
       </c>
       <c r="AL37" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AM37" t="n">
-        <v>370</v>
+        <v>220</v>
       </c>
       <c r="AN37" t="n">
-        <v>3.45</v>
+        <v>170</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,260 +5513,1070 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>CD Castellon</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Llaneros FC</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.72</v>
+        <v>1.77</v>
       </c>
       <c r="G38" t="n">
-        <v>3.25</v>
+        <v>1.81</v>
       </c>
       <c r="H38" t="n">
-        <v>2.66</v>
+        <v>4.9</v>
       </c>
       <c r="I38" t="n">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="J38" t="n">
-        <v>3.2</v>
+        <v>3.95</v>
       </c>
       <c r="K38" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P38" t="n">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.97</v>
+        <v>1.82</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Z38" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AA38" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AI38" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AK38" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AL38" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AM38" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN38" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AO38" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G39" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K39" t="n">
+        <v>4</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X39" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>180</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>130</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>French Ligue 1</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Paris St-G</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H40" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I40" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J40" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K40" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N40" t="n">
+        <v>6</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W40" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="X40" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Portuguese Liga 3</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Mafra</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Santarem</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I41" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W41" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="X41" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>970</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Girona</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H42" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W42" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="X42" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Sporting Lisbon</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H43" t="n">
+        <v>24</v>
+      </c>
+      <c r="I43" t="n">
+        <v>27</v>
+      </c>
+      <c r="J43" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="K43" t="n">
+        <v>10</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N43" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="W43" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X43" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>290</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>90</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>580</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>360</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>370</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>2026-01-16</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>20:20:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Llaneros FC</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>22:30:00</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>Fortaleza FC</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>Alianza FC Valledupar</t>
         </is>
       </c>
-      <c r="F39" t="n">
+      <c r="F45" t="n">
         <v>2.08</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G45" t="n">
         <v>2.34</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H45" t="n">
         <v>3.85</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I45" t="n">
         <v>4.9</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J45" t="n">
         <v>3.2</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K45" t="n">
         <v>3.6</v>
       </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>1.64</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="Q45" t="n">
         <v>2.3</v>
       </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO39" t="n">
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO45" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G2" t="n">
         <v>2.72</v>
@@ -682,7 +682,7 @@
         <v>3.3</v>
       </c>
       <c r="K2" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L2" t="n">
         <v>1.48</v>
@@ -709,10 +709,10 @@
         <v>4.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U2" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V2" t="n">
         <v>1.48</v>
@@ -721,7 +721,7 @@
         <v>1.58</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
@@ -730,34 +730,34 @@
         <v>20</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB2" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD2" t="n">
         <v>13.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
         <v>19</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK2" t="n">
         <v>34</v>
@@ -769,10 +769,10 @@
         <v>120</v>
       </c>
       <c r="AN2" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AO2" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -805,7 +805,7 @@
         <v>2.14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H3" t="n">
         <v>3.7</v>
@@ -826,25 +826,25 @@
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O3" t="n">
         <v>1.37</v>
       </c>
       <c r="P3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R3" t="n">
         <v>1.32</v>
       </c>
       <c r="S3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U3" t="n">
         <v>2.04</v>
@@ -853,13 +853,13 @@
         <v>1.36</v>
       </c>
       <c r="W3" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="X3" t="n">
         <v>13.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z3" t="n">
         <v>26</v>
@@ -880,7 +880,7 @@
         <v>50</v>
       </c>
       <c r="AF3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG3" t="n">
         <v>11</v>
@@ -889,10 +889,10 @@
         <v>19.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK3" t="n">
         <v>24</v>
@@ -961,16 +961,16 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="O4" t="n">
         <v>1.13</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="R4" t="n">
         <v>1.18</v>
@@ -1072,64 +1072,64 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="G5" t="n">
-        <v>3.35</v>
+        <v>2.96</v>
       </c>
       <c r="H5" t="n">
-        <v>2.46</v>
+        <v>2.66</v>
       </c>
       <c r="I5" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="J5" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.52</v>
+        <v>2.8</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.52</v>
+        <v>1.72</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S5" t="n">
-        <v>2.04</v>
+        <v>2.88</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="W5" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,13 +1138,13 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
@@ -1153,10 +1153,10 @@
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1225,13 +1225,13 @@
         <v>7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.75</v>
+        <v>2.92</v>
       </c>
       <c r="O6" t="n">
         <v>1.01</v>
@@ -1243,16 +1243,16 @@
         <v>1.79</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S6" t="n">
-        <v>1.79</v>
+        <v>2.62</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V6" t="n">
         <v>1.19</v>
@@ -1261,10 +1261,10 @@
         <v>1.84</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1273,13 +1273,13 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1288,10 +1288,10 @@
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1342,97 +1342,97 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="G7" t="n">
         <v>3.9</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I7" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J7" t="n">
         <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O7" t="n">
         <v>1.21</v>
       </c>
       <c r="P7" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q7" t="n">
         <v>1.64</v>
       </c>
       <c r="R7" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S7" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T7" t="n">
         <v>1.6</v>
       </c>
       <c r="U7" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W7" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X7" t="n">
         <v>26</v>
       </c>
       <c r="Y7" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="Z7" t="n">
         <v>19</v>
       </c>
       <c r="AA7" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AB7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD7" t="n">
         <v>13.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AF7" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH7" t="n">
         <v>19</v>
       </c>
       <c r="AI7" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AJ7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK7" t="n">
         <v>970</v>
@@ -1447,7 +1447,7 @@
         <v>36</v>
       </c>
       <c r="AO7" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1480,22 +1480,22 @@
         <v>1.56</v>
       </c>
       <c r="G8" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H8" t="n">
         <v>5.8</v>
       </c>
       <c r="I8" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="J8" t="n">
         <v>4.2</v>
       </c>
       <c r="K8" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1507,13 +1507,13 @@
         <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q8" t="n">
         <v>1.67</v>
       </c>
       <c r="R8" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S8" t="n">
         <v>2.74</v>
@@ -1528,7 +1528,7 @@
         <v>1.17</v>
       </c>
       <c r="W8" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="X8" t="n">
         <v>24</v>
@@ -1615,61 +1615,61 @@
         <v>2.8</v>
       </c>
       <c r="G9" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.06</v>
+        <v>1.31</v>
       </c>
       <c r="I9" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="J9" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="K9" t="n">
-        <v>6.4</v>
+        <v>500</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O9" t="n">
         <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="R9" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S9" t="n">
-        <v>1.02</v>
+        <v>2.58</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="W9" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1678,13 +1678,13 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
@@ -1693,10 +1693,10 @@
         <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1771,22 +1771,22 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.82</v>
+        <v>1.24</v>
       </c>
       <c r="O10" t="n">
         <v>1.01</v>
       </c>
       <c r="P10" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R10" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S10" t="n">
-        <v>1.72</v>
+        <v>2.46</v>
       </c>
       <c r="T10" t="n">
         <v>1.01</v>
@@ -1885,10 +1885,10 @@
         <v>1.35</v>
       </c>
       <c r="G11" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="H11" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="I11" t="n">
         <v>10</v>
@@ -1900,7 +1900,7 @@
         <v>6.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
@@ -1909,34 +1909,34 @@
         <v>5.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="S11" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="T11" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U11" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V11" t="n">
         <v>1.11</v>
       </c>
       <c r="W11" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="X11" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y11" t="n">
         <v>38</v>
@@ -1948,22 +1948,22 @@
         <v>310</v>
       </c>
       <c r="AB11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD11" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AE11" t="n">
         <v>140</v>
       </c>
       <c r="AF11" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
         <v>25</v>
@@ -1972,7 +1972,7 @@
         <v>110</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AK11" t="n">
         <v>16.5</v>
@@ -2056,7 +2056,7 @@
         <v>1.6</v>
       </c>
       <c r="S12" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T12" t="n">
         <v>1.55</v>
@@ -2083,7 +2083,7 @@
         <v>970</v>
       </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC12" t="n">
         <v>9.4</v>
@@ -2110,7 +2110,7 @@
         <v>48</v>
       </c>
       <c r="AK12" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AL12" t="n">
         <v>970</v>
@@ -2122,7 +2122,7 @@
         <v>21</v>
       </c>
       <c r="AO12" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -2155,55 +2155,55 @@
         <v>2.72</v>
       </c>
       <c r="G13" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I13" t="n">
         <v>2.86</v>
       </c>
-      <c r="H13" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.72</v>
-      </c>
       <c r="J13" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L13" t="n">
         <v>1.35</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
         <v>4.6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P13" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R13" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="S13" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="T13" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U13" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="V13" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="W13" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="X13" t="n">
         <v>19.5</v>
@@ -2212,7 +2212,7 @@
         <v>16</v>
       </c>
       <c r="Z13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="n">
         <v>42</v>
@@ -2224,22 +2224,22 @@
         <v>9.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AE13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF13" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
         <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ13" t="n">
         <v>48</v>
@@ -2254,10 +2254,10 @@
         <v>70</v>
       </c>
       <c r="AN13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AO13" t="n">
         <v>21</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="G14" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="H14" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I14" t="n">
         <v>5.5</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5.7</v>
       </c>
       <c r="J14" t="n">
         <v>4.4</v>
@@ -2332,13 +2332,13 @@
         <v>1.69</v>
       </c>
       <c r="U14" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V14" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W14" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="X14" t="n">
         <v>22</v>
@@ -2350,7 +2350,7 @@
         <v>46</v>
       </c>
       <c r="AA14" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB14" t="n">
         <v>11.5</v>
@@ -2371,7 +2371,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH14" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
         <v>60</v>
@@ -2389,7 +2389,7 @@
         <v>80</v>
       </c>
       <c r="AN14" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AO14" t="n">
         <v>55</v>
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G15" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H15" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I15" t="n">
         <v>3.7</v>
@@ -2437,7 +2437,7 @@
         <v>3.35</v>
       </c>
       <c r="K15" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2560,7 +2560,7 @@
         <v>1.96</v>
       </c>
       <c r="G16" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H16" t="n">
         <v>4.2</v>
@@ -2572,7 +2572,7 @@
         <v>3.3</v>
       </c>
       <c r="K16" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L16" t="n">
         <v>1.46</v>
@@ -2590,7 +2590,7 @@
         <v>1.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R16" t="n">
         <v>1.26</v>
@@ -2608,7 +2608,7 @@
         <v>1.25</v>
       </c>
       <c r="W16" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="X16" t="n">
         <v>14</v>
@@ -2887,7 +2887,7 @@
         <v>22</v>
       </c>
       <c r="Z18" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AA18" t="n">
         <v>240</v>
@@ -2971,7 +2971,7 @@
         <v>3.35</v>
       </c>
       <c r="I19" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J19" t="n">
         <v>3.2</v>
@@ -3001,10 +3001,10 @@
         <v>1.27</v>
       </c>
       <c r="S19" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T19" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U19" t="n">
         <v>1.96</v>
@@ -3106,7 +3106,7 @@
         <v>2.62</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="J20" t="n">
         <v>3.15</v>
@@ -3115,7 +3115,7 @@
         <v>3.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
@@ -3139,13 +3139,13 @@
         <v>3.85</v>
       </c>
       <c r="T20" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="V20" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W20" t="n">
         <v>1.47</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="G21" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="H21" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J21" t="n">
         <v>3.25</v>
@@ -3256,7 +3256,7 @@
         <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O21" t="n">
         <v>1.36</v>
@@ -3268,22 +3268,22 @@
         <v>2.06</v>
       </c>
       <c r="R21" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S21" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="T21" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U21" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V21" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="W21" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="X21" t="n">
         <v>970</v>
@@ -3295,10 +3295,10 @@
         <v>970</v>
       </c>
       <c r="AA21" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC21" t="n">
         <v>9.199999999999999</v>
@@ -3307,7 +3307,7 @@
         <v>970</v>
       </c>
       <c r="AE21" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF21" t="n">
         <v>970</v>
@@ -3319,7 +3319,7 @@
         <v>970</v>
       </c>
       <c r="AI21" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ21" t="n">
         <v>970</v>
@@ -3331,13 +3331,13 @@
         <v>970</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN21" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AO21" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -3373,7 +3373,7 @@
         <v>3.2</v>
       </c>
       <c r="H22" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I22" t="n">
         <v>3.1</v>
@@ -3385,7 +3385,7 @@
         <v>3.45</v>
       </c>
       <c r="L22" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="M22" t="n">
         <v>1.1</v>
@@ -3415,7 +3415,7 @@
         <v>1.89</v>
       </c>
       <c r="V22" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W22" t="n">
         <v>1.45</v>
@@ -3505,13 +3505,13 @@
         <v>2.7</v>
       </c>
       <c r="G23" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H23" t="n">
         <v>2.72</v>
       </c>
       <c r="I23" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J23" t="n">
         <v>3</v>
@@ -3541,7 +3541,7 @@
         <v>1.24</v>
       </c>
       <c r="S23" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="T23" t="n">
         <v>1.86</v>
@@ -3550,10 +3550,10 @@
         <v>1.9</v>
       </c>
       <c r="V23" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W23" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X23" t="n">
         <v>13</v>
@@ -3646,16 +3646,16 @@
         <v>5.2</v>
       </c>
       <c r="I24" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J24" t="n">
         <v>3.55</v>
       </c>
       <c r="K24" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L24" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M24" t="n">
         <v>1.08</v>
@@ -3679,13 +3679,13 @@
         <v>3.7</v>
       </c>
       <c r="T24" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="U24" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V24" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W24" t="n">
         <v>2.16</v>
@@ -3703,7 +3703,7 @@
         <v>190</v>
       </c>
       <c r="AB24" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AC24" t="n">
         <v>9.800000000000001</v>
@@ -4045,7 +4045,7 @@
         <v>3.1</v>
       </c>
       <c r="G27" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H27" t="n">
         <v>2.38</v>
@@ -4189,7 +4189,7 @@
         <v>6.4</v>
       </c>
       <c r="J28" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K28" t="n">
         <v>3.9</v>
@@ -4228,7 +4228,7 @@
         <v>1.19</v>
       </c>
       <c r="W28" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="X28" t="n">
         <v>14.5</v>
@@ -4237,10 +4237,10 @@
         <v>17</v>
       </c>
       <c r="Z28" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AA28" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AB28" t="n">
         <v>7.8</v>
@@ -4249,7 +4249,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AE28" t="n">
         <v>120</v>
@@ -4261,7 +4261,7 @@
         <v>12.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AI28" t="n">
         <v>120</v>
@@ -4276,7 +4276,7 @@
         <v>50</v>
       </c>
       <c r="AM28" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN28" t="n">
         <v>16.5</v>
@@ -4315,7 +4315,7 @@
         <v>2.38</v>
       </c>
       <c r="G29" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="H29" t="n">
         <v>3.45</v>
@@ -4324,7 +4324,7 @@
         <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K29" t="n">
         <v>3.1</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
         <v>2.2</v>
@@ -4456,13 +4456,13 @@
         <v>3.3</v>
       </c>
       <c r="I30" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J30" t="n">
         <v>3.85</v>
       </c>
       <c r="K30" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L30" t="n">
         <v>1.24</v>
@@ -4600,7 +4600,7 @@
         <v>4.9</v>
       </c>
       <c r="L31" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="M31" t="n">
         <v>1.02</v>
@@ -4717,28 +4717,28 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="G32" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="H32" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="I32" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J32" t="n">
         <v>3.5</v>
       </c>
       <c r="K32" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N32" t="n">
         <v>4</v>
@@ -4747,28 +4747,28 @@
         <v>1.26</v>
       </c>
       <c r="P32" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R32" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="S32" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="T32" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U32" t="n">
         <v>2.28</v>
       </c>
       <c r="V32" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="W32" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X32" t="n">
         <v>970</v>
@@ -4819,7 +4819,7 @@
         <v>80</v>
       </c>
       <c r="AN32" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AO32" t="n">
         <v>970</v>
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="G34" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H34" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="I34" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J34" t="n">
         <v>3.8</v>
@@ -5011,31 +5011,31 @@
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O34" t="n">
         <v>1.2</v>
       </c>
       <c r="P34" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="Q34" t="n">
         <v>1.61</v>
       </c>
       <c r="R34" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="S34" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T34" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U34" t="n">
         <v>2.72</v>
       </c>
       <c r="V34" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W34" t="n">
         <v>1.56</v>
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G35" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H35" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I35" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J35" t="n">
         <v>3.25</v>
@@ -5173,7 +5173,7 @@
         <v>1.27</v>
       </c>
       <c r="W35" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="X35" t="n">
         <v>11.5</v>
@@ -5260,7 +5260,7 @@
         <v>1.91</v>
       </c>
       <c r="G36" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H36" t="n">
         <v>4.4</v>
@@ -5275,7 +5275,7 @@
         <v>3.65</v>
       </c>
       <c r="L36" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M36" t="n">
         <v>1.1</v>
@@ -5308,7 +5308,7 @@
         <v>1.22</v>
       </c>
       <c r="W36" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="X36" t="n">
         <v>11.5</v>
@@ -5395,10 +5395,10 @@
         <v>4.8</v>
       </c>
       <c r="G37" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="H37" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="I37" t="n">
         <v>1.95</v>
@@ -5407,13 +5407,13 @@
         <v>3.35</v>
       </c>
       <c r="K37" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L37" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M37" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N37" t="n">
         <v>2.84</v>
@@ -5422,7 +5422,7 @@
         <v>1.44</v>
       </c>
       <c r="P37" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q37" t="n">
         <v>2.28</v>
@@ -5446,10 +5446,10 @@
         <v>1.21</v>
       </c>
       <c r="X37" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y37" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z37" t="n">
         <v>10.5</v>
@@ -5470,7 +5470,7 @@
         <v>27</v>
       </c>
       <c r="AF37" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AG37" t="n">
         <v>25</v>
@@ -5479,7 +5479,7 @@
         <v>29</v>
       </c>
       <c r="AI37" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ37" t="n">
         <v>180</v>
@@ -5530,7 +5530,7 @@
         <v>1.77</v>
       </c>
       <c r="G38" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="H38" t="n">
         <v>4.9</v>
@@ -5560,7 +5560,7 @@
         <v>2.08</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R38" t="n">
         <v>1.42</v>
@@ -5572,13 +5572,13 @@
         <v>1.79</v>
       </c>
       <c r="U38" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V38" t="n">
         <v>1.22</v>
       </c>
       <c r="W38" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="X38" t="n">
         <v>21</v>
@@ -5680,25 +5680,25 @@
         <v>4</v>
       </c>
       <c r="L39" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M39" t="n">
         <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O39" t="n">
         <v>1.34</v>
       </c>
       <c r="P39" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R39" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S39" t="n">
         <v>3.65</v>
@@ -5707,7 +5707,7 @@
         <v>2.02</v>
       </c>
       <c r="U39" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V39" t="n">
         <v>2.44</v>
@@ -5758,13 +5758,13 @@
         <v>95</v>
       </c>
       <c r="AL39" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AM39" t="n">
         <v>140</v>
       </c>
       <c r="AN39" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AO39" t="n">
         <v>11</v>
@@ -5797,28 +5797,28 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="G40" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H40" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I40" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="J40" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="K40" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L40" t="n">
         <v>1.26</v>
       </c>
       <c r="M40" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N40" t="n">
         <v>6</v>
@@ -5830,40 +5830,40 @@
         <v>2.72</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="R40" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="S40" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="T40" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U40" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V40" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W40" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="X40" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Y40" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Z40" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AA40" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="AB40" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC40" t="n">
         <v>12</v>
@@ -5881,10 +5881,10 @@
         <v>9.6</v>
       </c>
       <c r="AH40" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI40" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ40" t="n">
         <v>13.5</v>
@@ -5896,10 +5896,10 @@
         <v>26</v>
       </c>
       <c r="AM40" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN40" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AO40" t="n">
         <v>85</v>
@@ -5935,10 +5935,10 @@
         <v>1.75</v>
       </c>
       <c r="G41" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H41" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I41" t="n">
         <v>6.4</v>
@@ -5953,10 +5953,10 @@
         <v>1.48</v>
       </c>
       <c r="M41" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="O41" t="n">
         <v>1.42</v>
@@ -5980,7 +5980,7 @@
         <v>1.76</v>
       </c>
       <c r="V41" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W41" t="n">
         <v>2.02</v>
@@ -6070,7 +6070,7 @@
         <v>1.96</v>
       </c>
       <c r="G42" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="H42" t="n">
         <v>4.6</v>
@@ -6091,22 +6091,22 @@
         <v>1.09</v>
       </c>
       <c r="N42" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O42" t="n">
         <v>1.39</v>
       </c>
       <c r="P42" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R42" t="n">
         <v>1.3</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T42" t="n">
         <v>1.99</v>
@@ -6133,7 +6133,7 @@
         <v>120</v>
       </c>
       <c r="AB42" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC42" t="n">
         <v>7.8</v>
@@ -6166,10 +6166,10 @@
         <v>42</v>
       </c>
       <c r="AM42" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN42" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO42" t="n">
         <v>85</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="G43" t="n">
         <v>1.17</v>
       </c>
       <c r="H43" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I43" t="n">
         <v>27</v>
       </c>
       <c r="J43" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="K43" t="n">
         <v>10</v>
@@ -6229,19 +6229,19 @@
         <v>6.2</v>
       </c>
       <c r="O43" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P43" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="R43" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="S43" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="T43" t="n">
         <v>2.46</v>
@@ -6256,7 +6256,7 @@
         <v>6.8</v>
       </c>
       <c r="X43" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="Y43" t="n">
         <v>70</v>
@@ -6475,19 +6475,19 @@
         <v>2.08</v>
       </c>
       <c r="G45" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="H45" t="n">
         <v>3.85</v>
       </c>
       <c r="I45" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="J45" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K45" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -6505,7 +6505,7 @@
         <v>1.64</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
@@ -685,19 +685,19 @@
         <v>3.35</v>
       </c>
       <c r="L2" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="M2" t="n">
         <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O2" t="n">
         <v>1.41</v>
       </c>
       <c r="P2" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q2" t="n">
         <v>2.24</v>
@@ -721,7 +721,7 @@
         <v>1.58</v>
       </c>
       <c r="X2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
@@ -769,10 +769,10 @@
         <v>120</v>
       </c>
       <c r="AN2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO2" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G3" t="n">
         <v>2.18</v>
@@ -817,7 +817,7 @@
         <v>3.7</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L3" t="n">
         <v>1.44</v>
@@ -880,7 +880,7 @@
         <v>50</v>
       </c>
       <c r="AF3" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG3" t="n">
         <v>11</v>
@@ -892,7 +892,7 @@
         <v>60</v>
       </c>
       <c r="AJ3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK3" t="n">
         <v>24</v>
@@ -904,10 +904,10 @@
         <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -1096,16 +1096,16 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>2.8</v>
+        <v>3.35</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="P5" t="n">
         <v>1.72</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="R5" t="n">
         <v>1.23</v>
@@ -1213,16 +1213,16 @@
         <v>2.2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L6" t="n">
         <v>1.32</v>
@@ -1237,7 +1237,7 @@
         <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q6" t="n">
         <v>1.79</v>
@@ -1345,10 +1345,10 @@
         <v>3.45</v>
       </c>
       <c r="G7" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
         <v>2.18</v>
@@ -1372,7 +1372,7 @@
         <v>1.21</v>
       </c>
       <c r="P7" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q7" t="n">
         <v>1.64</v>
@@ -1393,7 +1393,7 @@
         <v>1.84</v>
       </c>
       <c r="W7" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="X7" t="n">
         <v>26</v>
@@ -1489,7 +1489,7 @@
         <v>6.8</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K8" t="n">
         <v>4.8</v>
@@ -1516,10 +1516,10 @@
         <v>1.49</v>
       </c>
       <c r="S8" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="T8" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="U8" t="n">
         <v>1.9</v>
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="G9" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="H9" t="n">
-        <v>1.31</v>
+        <v>2.26</v>
       </c>
       <c r="I9" t="n">
-        <v>2.84</v>
+        <v>2.6</v>
       </c>
       <c r="J9" t="n">
-        <v>2.96</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>500</v>
+        <v>3.9</v>
       </c>
       <c r="L9" t="n">
         <v>1.31</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.28</v>
+        <v>1.9</v>
       </c>
       <c r="R9" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="S9" t="n">
-        <v>2.58</v>
+        <v>3.25</v>
       </c>
       <c r="T9" t="n">
-        <v>1.04</v>
+        <v>1.72</v>
       </c>
       <c r="U9" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="V9" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="W9" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="X9" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB9" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AC9" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AG9" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -1747,64 +1747,64 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="G10" t="n">
         <v>7.2</v>
       </c>
       <c r="H10" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="I10" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
         <v>8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.24</v>
+        <v>3.1</v>
       </c>
       <c r="O10" t="n">
         <v>1.01</v>
       </c>
       <c r="P10" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="R10" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="S10" t="n">
         <v>2.46</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
         <v>1.16</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1813,13 +1813,13 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
@@ -1828,10 +1828,10 @@
         <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1885,7 +1885,7 @@
         <v>1.35</v>
       </c>
       <c r="G11" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H11" t="n">
         <v>8.4</v>
@@ -1900,7 +1900,7 @@
         <v>6.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
@@ -1918,7 +1918,7 @@
         <v>1.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S11" t="n">
         <v>2.24</v>
@@ -2020,10 +2020,10 @@
         <v>2.8</v>
       </c>
       <c r="G12" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H12" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="I12" t="n">
         <v>2.62</v>
@@ -2047,7 +2047,7 @@
         <v>1.21</v>
       </c>
       <c r="P12" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q12" t="n">
         <v>1.63</v>
@@ -2068,7 +2068,7 @@
         <v>1.61</v>
       </c>
       <c r="W12" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X12" t="n">
         <v>970</v>
@@ -2155,13 +2155,13 @@
         <v>2.72</v>
       </c>
       <c r="G13" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="H13" t="n">
         <v>2.76</v>
       </c>
       <c r="I13" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J13" t="n">
         <v>3.55</v>
@@ -2182,13 +2182,13 @@
         <v>1.26</v>
       </c>
       <c r="P13" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="Q13" t="n">
         <v>1.78</v>
       </c>
       <c r="R13" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="S13" t="n">
         <v>2.92</v>
@@ -2197,7 +2197,7 @@
         <v>1.64</v>
       </c>
       <c r="U13" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V13" t="n">
         <v>1.54</v>
@@ -2218,7 +2218,7 @@
         <v>42</v>
       </c>
       <c r="AB13" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC13" t="n">
         <v>9.6</v>
@@ -2233,7 +2233,7 @@
         <v>19.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH13" t="n">
         <v>17</v>
@@ -2242,7 +2242,7 @@
         <v>42</v>
       </c>
       <c r="AJ13" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AK13" t="n">
         <v>32</v>
@@ -2254,7 +2254,7 @@
         <v>70</v>
       </c>
       <c r="AN13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AO13" t="n">
         <v>21</v>
@@ -2290,13 +2290,13 @@
         <v>1.69</v>
       </c>
       <c r="G14" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="H14" t="n">
         <v>5.3</v>
       </c>
       <c r="I14" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J14" t="n">
         <v>4.4</v>
@@ -2320,25 +2320,25 @@
         <v>2.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R14" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S14" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="T14" t="n">
         <v>1.69</v>
       </c>
       <c r="U14" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V14" t="n">
         <v>1.22</v>
       </c>
       <c r="W14" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="X14" t="n">
         <v>22</v>
@@ -2353,7 +2353,7 @@
         <v>130</v>
       </c>
       <c r="AB14" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC14" t="n">
         <v>10</v>
@@ -2365,7 +2365,7 @@
         <v>65</v>
       </c>
       <c r="AF14" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG14" t="n">
         <v>9.800000000000001</v>
@@ -2377,7 +2377,7 @@
         <v>60</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK14" t="n">
         <v>15</v>
@@ -2392,7 +2392,7 @@
         <v>7.2</v>
       </c>
       <c r="AO14" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
@@ -2425,13 +2425,13 @@
         <v>2.1</v>
       </c>
       <c r="G15" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="H15" t="n">
         <v>2.72</v>
       </c>
       <c r="I15" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J15" t="n">
         <v>3.35</v>
@@ -2470,10 +2470,10 @@
         <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="W15" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G16" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H16" t="n">
         <v>4.2</v>
@@ -2590,7 +2590,7 @@
         <v>1.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R16" t="n">
         <v>1.26</v>
@@ -2608,7 +2608,7 @@
         <v>1.25</v>
       </c>
       <c r="W16" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="X16" t="n">
         <v>14</v>
@@ -2698,10 +2698,10 @@
         <v>4.6</v>
       </c>
       <c r="H17" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="I17" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J17" t="n">
         <v>3</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G18" t="n">
         <v>1.75</v>
@@ -2845,7 +2845,7 @@
         <v>4.3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
@@ -2857,7 +2857,7 @@
         <v>1.35</v>
       </c>
       <c r="P18" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q18" t="n">
         <v>2</v>
@@ -2866,7 +2866,7 @@
         <v>1.3</v>
       </c>
       <c r="S18" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T18" t="n">
         <v>1.98</v>
@@ -2992,10 +2992,10 @@
         <v>1.39</v>
       </c>
       <c r="P19" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R19" t="n">
         <v>1.27</v>
@@ -3109,13 +3109,13 @@
         <v>2.96</v>
       </c>
       <c r="J20" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K20" t="n">
         <v>3.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="G21" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="H21" t="n">
         <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J21" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K21" t="n">
         <v>3.85</v>
@@ -3259,7 +3259,7 @@
         <v>3.15</v>
       </c>
       <c r="O21" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P21" t="n">
         <v>1.77</v>
@@ -3280,10 +3280,10 @@
         <v>1.94</v>
       </c>
       <c r="V21" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W21" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="X21" t="n">
         <v>970</v>
@@ -3295,10 +3295,10 @@
         <v>970</v>
       </c>
       <c r="AA21" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC21" t="n">
         <v>9.199999999999999</v>
@@ -3382,7 +3382,7 @@
         <v>3.05</v>
       </c>
       <c r="K22" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L22" t="n">
         <v>1.5</v>
@@ -3409,7 +3409,7 @@
         <v>4.4</v>
       </c>
       <c r="T22" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U22" t="n">
         <v>1.89</v>
@@ -3421,37 +3421,37 @@
         <v>1.45</v>
       </c>
       <c r="X22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA22" t="n">
         <v>60</v>
       </c>
       <c r="AB22" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF22" t="n">
         <v>23</v>
       </c>
       <c r="AG22" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI22" t="n">
         <v>70</v>
@@ -3463,7 +3463,7 @@
         <v>50</v>
       </c>
       <c r="AL22" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM22" t="n">
         <v>170</v>
@@ -3472,7 +3472,7 @@
         <v>55</v>
       </c>
       <c r="AO22" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="G23" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H23" t="n">
         <v>2.72</v>
       </c>
       <c r="I23" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="K23" t="n">
         <v>3.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
         <v>2.94</v>
@@ -3532,16 +3532,16 @@
         <v>1.41</v>
       </c>
       <c r="P23" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="R23" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="S23" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="T23" t="n">
         <v>1.86</v>
@@ -3550,10 +3550,10 @@
         <v>1.9</v>
       </c>
       <c r="V23" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="W23" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X23" t="n">
         <v>13</v>
@@ -3778,7 +3778,7 @@
         <v>2.64</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I25" t="n">
         <v>3.8</v>
@@ -3787,7 +3787,7 @@
         <v>3.1</v>
       </c>
       <c r="K25" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="L25" t="n">
         <v>1.42</v>
@@ -3796,7 +3796,7 @@
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O25" t="n">
         <v>1.42</v>
@@ -3907,25 +3907,25 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="G26" t="n">
         <v>1.94</v>
       </c>
       <c r="H26" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I26" t="n">
         <v>4.8</v>
       </c>
       <c r="J26" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K26" t="n">
         <v>4.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M26" t="n">
         <v>1.05</v>
@@ -3934,19 +3934,19 @@
         <v>4.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P26" t="n">
         <v>2.08</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="R26" t="n">
         <v>1.42</v>
       </c>
       <c r="S26" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="T26" t="n">
         <v>1.72</v>
@@ -3982,7 +3982,7 @@
         <v>970</v>
       </c>
       <c r="AE26" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF26" t="n">
         <v>970</v>
@@ -4012,7 +4012,7 @@
         <v>970</v>
       </c>
       <c r="AO26" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="G28" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="H28" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="I28" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J28" t="n">
         <v>3.55</v>
@@ -4195,7 +4195,7 @@
         <v>3.9</v>
       </c>
       <c r="L28" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
         <v>1.08</v>
@@ -4228,13 +4228,13 @@
         <v>1.19</v>
       </c>
       <c r="W28" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="X28" t="n">
         <v>14.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z28" t="n">
         <v>970</v>
@@ -4252,7 +4252,7 @@
         <v>24</v>
       </c>
       <c r="AE28" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF28" t="n">
         <v>10</v>
@@ -4267,22 +4267,22 @@
         <v>120</v>
       </c>
       <c r="AJ28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK28" t="n">
         <v>22</v>
       </c>
       <c r="AL28" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM28" t="n">
         <v>190</v>
       </c>
       <c r="AN28" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AO28" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29">
@@ -4720,13 +4720,13 @@
         <v>2.36</v>
       </c>
       <c r="G32" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="H32" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="I32" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J32" t="n">
         <v>3.5</v>
@@ -4735,7 +4735,7 @@
         <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="M32" t="n">
         <v>1.06</v>
@@ -4744,19 +4744,19 @@
         <v>4</v>
       </c>
       <c r="O32" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P32" t="n">
         <v>2.06</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R32" t="n">
         <v>1.41</v>
       </c>
       <c r="S32" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="T32" t="n">
         <v>1.66</v>
@@ -4765,10 +4765,10 @@
         <v>2.28</v>
       </c>
       <c r="V32" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="W32" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="X32" t="n">
         <v>970</v>
@@ -4780,19 +4780,19 @@
         <v>970</v>
       </c>
       <c r="AA32" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC32" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD32" t="n">
         <v>970</v>
       </c>
       <c r="AE32" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AF32" t="n">
         <v>970</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="G33" t="n">
         <v>3.3</v>
@@ -4861,7 +4861,7 @@
         <v>2.46</v>
       </c>
       <c r="I33" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="J33" t="n">
         <v>3.3</v>
@@ -4876,7 +4876,7 @@
         <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O33" t="n">
         <v>1.34</v>
@@ -4906,13 +4906,13 @@
         <v>1.43</v>
       </c>
       <c r="X33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y33" t="n">
         <v>12.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA33" t="n">
         <v>42</v>
@@ -4921,13 +4921,13 @@
         <v>15</v>
       </c>
       <c r="AC33" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD33" t="n">
         <v>14.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AF33" t="n">
         <v>23</v>
@@ -4939,7 +4939,7 @@
         <v>20</v>
       </c>
       <c r="AI33" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ33" t="n">
         <v>65</v>
@@ -4957,7 +4957,7 @@
         <v>36</v>
       </c>
       <c r="AO33" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H34" t="n">
         <v>2.72</v>
       </c>
-      <c r="G34" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2.66</v>
-      </c>
       <c r="I34" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="J34" t="n">
         <v>3.8</v>
@@ -5017,7 +5017,7 @@
         <v>1.2</v>
       </c>
       <c r="P34" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="Q34" t="n">
         <v>1.61</v>
@@ -5029,16 +5029,16 @@
         <v>2.52</v>
       </c>
       <c r="T34" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="U34" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="V34" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W34" t="n">
         <v>1.58</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.56</v>
       </c>
       <c r="X34" t="n">
         <v>23</v>
@@ -5050,7 +5050,7 @@
         <v>21</v>
       </c>
       <c r="AA34" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB34" t="n">
         <v>16.5</v>
@@ -5062,7 +5062,7 @@
         <v>12.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF34" t="n">
         <v>21</v>
@@ -5089,10 +5089,10 @@
         <v>55</v>
       </c>
       <c r="AN34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO34" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G35" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="H35" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I35" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J35" t="n">
         <v>3.25</v>
@@ -5167,13 +5167,13 @@
         <v>2.06</v>
       </c>
       <c r="U35" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V35" t="n">
         <v>1.27</v>
       </c>
       <c r="W35" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="X35" t="n">
         <v>11.5</v>
@@ -5182,7 +5182,7 @@
         <v>13</v>
       </c>
       <c r="Z35" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AA35" t="n">
         <v>130</v>
@@ -5191,7 +5191,7 @@
         <v>7.4</v>
       </c>
       <c r="AC35" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD35" t="n">
         <v>19</v>
@@ -5260,7 +5260,7 @@
         <v>1.91</v>
       </c>
       <c r="G36" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H36" t="n">
         <v>4.4</v>
@@ -5305,10 +5305,10 @@
         <v>1.78</v>
       </c>
       <c r="V36" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W36" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X36" t="n">
         <v>11.5</v>
@@ -5461,7 +5461,7 @@
         <v>15</v>
       </c>
       <c r="AC37" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD37" t="n">
         <v>11.5</v>
@@ -5530,13 +5530,13 @@
         <v>1.77</v>
       </c>
       <c r="G38" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H38" t="n">
         <v>4.9</v>
       </c>
       <c r="I38" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="J38" t="n">
         <v>3.95</v>
@@ -5560,7 +5560,7 @@
         <v>2.08</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R38" t="n">
         <v>1.42</v>
@@ -5575,7 +5575,7 @@
         <v>2.2</v>
       </c>
       <c r="V38" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W38" t="n">
         <v>2.2</v>
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="G39" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="H39" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="I39" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="J39" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K39" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L39" t="n">
         <v>1.42</v>
@@ -5686,58 +5686,58 @@
         <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O39" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P39" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R39" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S39" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T39" t="n">
         <v>2.02</v>
       </c>
       <c r="U39" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V39" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="W39" t="n">
         <v>1.17</v>
       </c>
       <c r="X39" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
       </c>
       <c r="Z39" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA39" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB39" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC39" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD39" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE39" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF39" t="n">
         <v>50</v>
@@ -5749,7 +5749,7 @@
         <v>23</v>
       </c>
       <c r="AI39" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ39" t="n">
         <v>180</v>
@@ -5767,7 +5767,7 @@
         <v>120</v>
       </c>
       <c r="AO39" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="40">
@@ -5800,19 +5800,19 @@
         <v>1.44</v>
       </c>
       <c r="G40" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="H40" t="n">
         <v>7.8</v>
       </c>
       <c r="I40" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J40" t="n">
         <v>5.4</v>
       </c>
       <c r="K40" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L40" t="n">
         <v>1.26</v>
@@ -5827,7 +5827,7 @@
         <v>1.18</v>
       </c>
       <c r="P40" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q40" t="n">
         <v>1.54</v>
@@ -5842,13 +5842,13 @@
         <v>1.76</v>
       </c>
       <c r="U40" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V40" t="n">
         <v>1.14</v>
       </c>
       <c r="W40" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="X40" t="n">
         <v>28</v>
@@ -5860,7 +5860,7 @@
         <v>75</v>
       </c>
       <c r="AA40" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AB40" t="n">
         <v>12</v>
@@ -5896,7 +5896,7 @@
         <v>26</v>
       </c>
       <c r="AM40" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN40" t="n">
         <v>5.1</v>
@@ -5935,10 +5935,10 @@
         <v>1.75</v>
       </c>
       <c r="G41" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="H41" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I41" t="n">
         <v>6.4</v>
@@ -5950,13 +5950,13 @@
         <v>3.9</v>
       </c>
       <c r="L41" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M41" t="n">
         <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>2.64</v>
+        <v>2.82</v>
       </c>
       <c r="O41" t="n">
         <v>1.42</v>
@@ -5980,7 +5980,7 @@
         <v>1.76</v>
       </c>
       <c r="V41" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W41" t="n">
         <v>2.02</v>
@@ -6091,10 +6091,10 @@
         <v>1.09</v>
       </c>
       <c r="N42" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O42" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P42" t="n">
         <v>1.81</v>
@@ -6109,10 +6109,10 @@
         <v>4.1</v>
       </c>
       <c r="T42" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="U42" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V42" t="n">
         <v>1.26</v>
@@ -6136,7 +6136,7 @@
         <v>8</v>
       </c>
       <c r="AC42" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD42" t="n">
         <v>18.5</v>
@@ -6205,19 +6205,19 @@
         <v>1.15</v>
       </c>
       <c r="G43" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="H43" t="n">
         <v>23</v>
       </c>
       <c r="I43" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J43" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="K43" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="L43" t="n">
         <v>1.24</v>
@@ -6232,19 +6232,19 @@
         <v>1.16</v>
       </c>
       <c r="P43" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R43" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S43" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="T43" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="U43" t="n">
         <v>1.61</v>
@@ -6253,16 +6253,16 @@
         <v>1.03</v>
       </c>
       <c r="W43" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="X43" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y43" t="n">
         <v>70</v>
       </c>
       <c r="Z43" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="AA43" t="n">
         <v>1000</v>
@@ -6277,7 +6277,7 @@
         <v>90</v>
       </c>
       <c r="AE43" t="n">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="AF43" t="n">
         <v>8</v>
@@ -6289,7 +6289,7 @@
         <v>55</v>
       </c>
       <c r="AI43" t="n">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="AJ43" t="n">
         <v>8.4</v>
@@ -6337,22 +6337,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.74</v>
+        <v>2.58</v>
       </c>
       <c r="G44" t="n">
-        <v>3.05</v>
+        <v>2.72</v>
       </c>
       <c r="H44" t="n">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="I44" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K44" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -6505,7 +6505,7 @@
         <v>1.64</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
@@ -694,13 +694,13 @@
         <v>3.35</v>
       </c>
       <c r="O2" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
         <v>1.76</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R2" t="n">
         <v>1.28</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.16</v>
       </c>
-      <c r="G3" t="n">
-        <v>2.18</v>
-      </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J3" t="n">
         <v>3.7</v>
@@ -832,7 +832,7 @@
         <v>1.37</v>
       </c>
       <c r="P3" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="Q3" t="n">
         <v>2.08</v>
@@ -850,10 +850,10 @@
         <v>2.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W3" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="X3" t="n">
         <v>13.5</v>
@@ -868,7 +868,7 @@
         <v>80</v>
       </c>
       <c r="AB3" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC3" t="n">
         <v>8.199999999999999</v>
@@ -880,7 +880,7 @@
         <v>50</v>
       </c>
       <c r="AF3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG3" t="n">
         <v>11</v>
@@ -892,7 +892,7 @@
         <v>60</v>
       </c>
       <c r="AJ3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK3" t="n">
         <v>24</v>
@@ -904,10 +904,10 @@
         <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO3" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -961,13 +961,13 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="O4" t="n">
         <v>1.13</v>
       </c>
       <c r="P4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="Q4" t="n">
         <v>1.13</v>
@@ -976,7 +976,7 @@
         <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="T4" t="n">
         <v>1.04</v>
@@ -1105,7 +1105,7 @@
         <v>1.72</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
         <v>1.23</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="H6" t="n">
         <v>3.7</v>
@@ -1222,7 +1222,7 @@
         <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.32</v>
@@ -1237,13 +1237,13 @@
         <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R6" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S6" t="n">
         <v>2.62</v>
@@ -1255,10 +1255,10 @@
         <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="X6" t="n">
         <v>970</v>
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="G7" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="I7" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="J7" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K7" t="n">
         <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="R7" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="S7" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="T7" t="n">
         <v>1.6</v>
       </c>
       <c r="U7" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="V7" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="W7" t="n">
         <v>1.32</v>
       </c>
       <c r="X7" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
         <v>970</v>
       </c>
       <c r="AB7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>970</v>
       </c>
       <c r="AF7" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AG7" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
         <v>970</v>
       </c>
       <c r="AJ7" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AK7" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AL7" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AN7" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="8">
@@ -1501,13 +1501,13 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q8" t="n">
         <v>1.67</v>
@@ -1522,7 +1522,7 @@
         <v>1.64</v>
       </c>
       <c r="U8" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="V8" t="n">
         <v>1.17</v>
@@ -1615,19 +1615,19 @@
         <v>3.1</v>
       </c>
       <c r="G9" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="H9" t="n">
         <v>2.26</v>
       </c>
       <c r="I9" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="L9" t="n">
         <v>1.31</v>
@@ -1654,16 +1654,16 @@
         <v>3.25</v>
       </c>
       <c r="T9" t="n">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="U9" t="n">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="V9" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W9" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="X9" t="n">
         <v>17.5</v>
@@ -1753,10 +1753,10 @@
         <v>7.2</v>
       </c>
       <c r="H10" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="J10" t="n">
         <v>3.5</v>
@@ -1771,19 +1771,19 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O10" t="n">
         <v>1.01</v>
       </c>
       <c r="P10" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R10" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S10" t="n">
         <v>2.46</v>
@@ -1795,7 +1795,7 @@
         <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W10" t="n">
         <v>1.16</v>
@@ -1927,7 +1927,7 @@
         <v>1.8</v>
       </c>
       <c r="U11" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V11" t="n">
         <v>1.11</v>
@@ -1954,7 +1954,7 @@
         <v>14</v>
       </c>
       <c r="AD11" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE11" t="n">
         <v>140</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="G12" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="H12" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="I12" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="J12" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K12" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L12" t="n">
         <v>1.31</v>
@@ -2041,58 +2041,58 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="R12" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S12" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="U12" t="n">
         <v>2.68</v>
       </c>
       <c r="V12" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="W12" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X12" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="Y12" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="Z12" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AA12" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AB12" t="n">
         <v>20</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD12" t="n">
         <v>12.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="AF12" t="n">
         <v>27</v>
@@ -2101,10 +2101,10 @@
         <v>15.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AJ12" t="n">
         <v>48</v>
@@ -2113,16 +2113,16 @@
         <v>34</v>
       </c>
       <c r="AL12" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AM12" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="13">
@@ -2152,31 +2152,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="G13" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="H13" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="I13" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="J13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
         <v>3.7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.26</v>
@@ -2188,76 +2188,76 @@
         <v>1.78</v>
       </c>
       <c r="R13" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S13" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="T13" t="n">
         <v>1.64</v>
       </c>
       <c r="U13" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="V13" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="W13" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="X13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z13" t="n">
         <v>21</v>
       </c>
       <c r="AA13" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AB13" t="n">
         <v>13.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF13" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AK13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM13" t="n">
         <v>70</v>
       </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="G14" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="H14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I14" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="J14" t="n">
         <v>4.4</v>
@@ -2314,7 +2314,7 @@
         <v>5.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P14" t="n">
         <v>2.5</v>
@@ -2323,22 +2323,22 @@
         <v>1.62</v>
       </c>
       <c r="R14" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S14" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="T14" t="n">
         <v>1.69</v>
       </c>
       <c r="U14" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V14" t="n">
         <v>1.22</v>
       </c>
       <c r="W14" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="X14" t="n">
         <v>22</v>
@@ -2353,7 +2353,7 @@
         <v>130</v>
       </c>
       <c r="AB14" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC14" t="n">
         <v>10</v>
@@ -2365,10 +2365,10 @@
         <v>65</v>
       </c>
       <c r="AF14" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="n">
         <v>18</v>
@@ -2377,7 +2377,7 @@
         <v>60</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AK14" t="n">
         <v>15</v>
@@ -2389,10 +2389,10 @@
         <v>80</v>
       </c>
       <c r="AN14" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AO14" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="G15" t="n">
         <v>2.62</v>
@@ -2434,10 +2434,10 @@
         <v>3.6</v>
       </c>
       <c r="J15" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K15" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2458,28 +2458,28 @@
         <v>1.46</v>
       </c>
       <c r="R15" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S15" t="n">
         <v>2.14</v>
       </c>
       <c r="T15" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="U15" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V15" t="n">
         <v>1.39</v>
       </c>
       <c r="W15" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z15" t="n">
         <v>1000</v>
@@ -2488,13 +2488,13 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
@@ -2503,10 +2503,10 @@
         <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
@@ -2560,13 +2560,13 @@
         <v>1.95</v>
       </c>
       <c r="G16" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H16" t="n">
         <v>4.2</v>
       </c>
       <c r="I16" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
         <v>3.3</v>
@@ -2575,10 +2575,10 @@
         <v>3.7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M16" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
         <v>3.05</v>
@@ -2587,10 +2587,10 @@
         <v>1.4</v>
       </c>
       <c r="P16" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R16" t="n">
         <v>1.26</v>
@@ -2599,22 +2599,22 @@
         <v>4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V16" t="n">
         <v>1.25</v>
       </c>
       <c r="W16" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="X16" t="n">
         <v>14</v>
       </c>
       <c r="Y16" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z16" t="n">
         <v>970</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="G17" t="n">
         <v>4.6</v>
@@ -2707,97 +2707,97 @@
         <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P17" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="G18" t="n">
         <v>1.75</v>
@@ -2836,7 +2836,7 @@
         <v>5.9</v>
       </c>
       <c r="I18" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
         <v>3.75</v>
@@ -2872,7 +2872,7 @@
         <v>1.98</v>
       </c>
       <c r="U18" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V18" t="n">
         <v>1.16</v>
@@ -2887,10 +2887,10 @@
         <v>22</v>
       </c>
       <c r="Z18" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA18" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AB18" t="n">
         <v>8.4</v>
@@ -2902,7 +2902,7 @@
         <v>970</v>
       </c>
       <c r="AE18" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF18" t="n">
         <v>11</v>
@@ -2962,28 +2962,28 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G19" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H19" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J19" t="n">
         <v>3.2</v>
       </c>
       <c r="K19" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N19" t="n">
         <v>3.1</v>
@@ -2995,7 +2995,7 @@
         <v>1.72</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R19" t="n">
         <v>1.27</v>
@@ -3004,7 +3004,7 @@
         <v>3.9</v>
       </c>
       <c r="T19" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U19" t="n">
         <v>1.96</v>
@@ -3013,10 +3013,10 @@
         <v>1.35</v>
       </c>
       <c r="W19" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X19" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y19" t="n">
         <v>14.5</v>
@@ -3028,13 +3028,13 @@
         <v>90</v>
       </c>
       <c r="AB19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC19" t="n">
         <v>9</v>
       </c>
       <c r="AD19" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE19" t="n">
         <v>60</v>
@@ -3046,7 +3046,7 @@
         <v>14</v>
       </c>
       <c r="AH19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI19" t="n">
         <v>65</v>
@@ -3061,13 +3061,13 @@
         <v>55</v>
       </c>
       <c r="AM19" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN19" t="n">
         <v>29</v>
       </c>
       <c r="AO19" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G20" t="n">
         <v>3.15</v>
@@ -3109,10 +3109,10 @@
         <v>2.96</v>
       </c>
       <c r="J20" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K20" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L20" t="n">
         <v>1.38</v>
@@ -3136,13 +3136,13 @@
         <v>1.27</v>
       </c>
       <c r="S20" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="T20" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U20" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
         <v>1.51</v>
@@ -3175,7 +3175,7 @@
         <v>40</v>
       </c>
       <c r="AF20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG20" t="n">
         <v>15.5</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="G21" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="H21" t="n">
         <v>4</v>
@@ -3244,10 +3244,10 @@
         <v>4.7</v>
       </c>
       <c r="J21" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K21" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L21" t="n">
         <v>1.44</v>
@@ -3256,19 +3256,19 @@
         <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O21" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q21" t="n">
         <v>2.06</v>
       </c>
       <c r="R21" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S21" t="n">
         <v>3.8</v>
@@ -3277,13 +3277,13 @@
         <v>1.86</v>
       </c>
       <c r="U21" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V21" t="n">
         <v>1.27</v>
       </c>
       <c r="W21" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="X21" t="n">
         <v>970</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="G22" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H22" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I22" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J22" t="n">
         <v>3.05</v>
@@ -3385,22 +3385,22 @@
         <v>3.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M22" t="n">
         <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="O22" t="n">
         <v>1.44</v>
       </c>
       <c r="P22" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="R22" t="n">
         <v>1.23</v>
@@ -3418,28 +3418,28 @@
         <v>1.48</v>
       </c>
       <c r="W22" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X22" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y22" t="n">
         <v>11</v>
       </c>
-      <c r="Y22" t="n">
-        <v>10.5</v>
-      </c>
       <c r="Z22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA22" t="n">
         <v>60</v>
       </c>
       <c r="AB22" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE22" t="n">
         <v>46</v>
@@ -3448,10 +3448,10 @@
         <v>23</v>
       </c>
       <c r="AG22" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI22" t="n">
         <v>70</v>
@@ -3472,7 +3472,7 @@
         <v>55</v>
       </c>
       <c r="AO22" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H23" t="n">
         <v>2.66</v>
-      </c>
-      <c r="G23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2.72</v>
       </c>
       <c r="I23" t="n">
         <v>3.25</v>
@@ -3526,13 +3526,13 @@
         <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="O23" t="n">
         <v>1.41</v>
       </c>
       <c r="P23" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="Q23" t="n">
         <v>2.06</v>
@@ -3544,13 +3544,13 @@
         <v>3.55</v>
       </c>
       <c r="T23" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U23" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V23" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W23" t="n">
         <v>1.45</v>
@@ -3598,7 +3598,7 @@
         <v>970</v>
       </c>
       <c r="AL23" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM23" t="n">
         <v>160</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="G24" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H24" t="n">
         <v>5.2</v>
       </c>
       <c r="I24" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J24" t="n">
         <v>3.55</v>
@@ -3661,16 +3661,16 @@
         <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O24" t="n">
         <v>1.35</v>
       </c>
       <c r="P24" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R24" t="n">
         <v>1.29</v>
@@ -3679,13 +3679,13 @@
         <v>3.7</v>
       </c>
       <c r="T24" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U24" t="n">
         <v>1.86</v>
       </c>
       <c r="V24" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W24" t="n">
         <v>2.16</v>
@@ -3694,13 +3694,13 @@
         <v>15</v>
       </c>
       <c r="Y24" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA24" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB24" t="n">
         <v>8</v>
@@ -3712,7 +3712,7 @@
         <v>26</v>
       </c>
       <c r="AE24" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF24" t="n">
         <v>12</v>
@@ -3736,7 +3736,7 @@
         <v>48</v>
       </c>
       <c r="AM24" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN24" t="n">
         <v>15.5</v>
@@ -3796,7 +3796,7 @@
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="O25" t="n">
         <v>1.42</v>
@@ -3805,7 +3805,7 @@
         <v>1.66</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R25" t="n">
         <v>1.24</v>
@@ -3910,7 +3910,7 @@
         <v>1.83</v>
       </c>
       <c r="G26" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="H26" t="n">
         <v>4.4</v>
@@ -3919,10 +3919,10 @@
         <v>4.8</v>
       </c>
       <c r="J26" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K26" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L26" t="n">
         <v>1.35</v>
@@ -3937,10 +3937,10 @@
         <v>1.26</v>
       </c>
       <c r="P26" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R26" t="n">
         <v>1.42</v>
@@ -3955,10 +3955,10 @@
         <v>2.12</v>
       </c>
       <c r="V26" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W26" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X26" t="n">
         <v>970</v>
@@ -4045,16 +4045,16 @@
         <v>3.1</v>
       </c>
       <c r="G27" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H27" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="I27" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J27" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K27" t="n">
         <v>3.5</v>
@@ -4069,13 +4069,13 @@
         <v>3.05</v>
       </c>
       <c r="O27" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P27" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R27" t="n">
         <v>1.27</v>
@@ -4090,7 +4090,7 @@
         <v>1.96</v>
       </c>
       <c r="V27" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W27" t="n">
         <v>1.41</v>
@@ -4105,7 +4105,7 @@
         <v>15.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AB27" t="n">
         <v>11</v>
@@ -4117,7 +4117,7 @@
         <v>12</v>
       </c>
       <c r="AE27" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF27" t="n">
         <v>23</v>
@@ -4141,13 +4141,13 @@
         <v>60</v>
       </c>
       <c r="AM27" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN27" t="n">
         <v>970</v>
       </c>
       <c r="AO27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
@@ -4180,7 +4180,7 @@
         <v>1.76</v>
       </c>
       <c r="G28" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="H28" t="n">
         <v>5.2</v>
@@ -4225,10 +4225,10 @@
         <v>1.82</v>
       </c>
       <c r="V28" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="W28" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X28" t="n">
         <v>14.5</v>
@@ -4237,7 +4237,7 @@
         <v>16.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AA28" t="n">
         <v>200</v>
@@ -4249,7 +4249,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE28" t="n">
         <v>110</v>
@@ -4315,13 +4315,13 @@
         <v>2.38</v>
       </c>
       <c r="G29" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H29" t="n">
         <v>3.45</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J29" t="n">
         <v>2.92</v>
@@ -4336,7 +4336,7 @@
         <v>1.13</v>
       </c>
       <c r="N29" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="O29" t="n">
         <v>1.58</v>
@@ -4345,7 +4345,7 @@
         <v>1.49</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="R29" t="n">
         <v>1.19</v>
@@ -4354,7 +4354,7 @@
         <v>5.7</v>
       </c>
       <c r="T29" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U29" t="n">
         <v>1.73</v>
@@ -4450,13 +4450,13 @@
         <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H30" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J30" t="n">
         <v>3.85</v>
@@ -4465,13 +4465,13 @@
         <v>4.4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O30" t="n">
         <v>1.18</v>
@@ -4480,7 +4480,7 @@
         <v>2.52</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R30" t="n">
         <v>1.66</v>
@@ -4489,13 +4489,13 @@
         <v>2.3</v>
       </c>
       <c r="T30" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="U30" t="n">
         <v>2.56</v>
       </c>
       <c r="V30" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W30" t="n">
         <v>1.84</v>
@@ -4516,7 +4516,7 @@
         <v>18</v>
       </c>
       <c r="AC30" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD30" t="n">
         <v>19</v>
@@ -4528,7 +4528,7 @@
         <v>21</v>
       </c>
       <c r="AG30" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH30" t="n">
         <v>18</v>
@@ -4585,13 +4585,13 @@
         <v>1.72</v>
       </c>
       <c r="G31" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H31" t="n">
         <v>4.2</v>
       </c>
       <c r="I31" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J31" t="n">
         <v>4.3</v>
@@ -4600,10 +4600,10 @@
         <v>4.9</v>
       </c>
       <c r="L31" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M31" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N31" t="n">
         <v>5.9</v>
@@ -4624,10 +4624,10 @@
         <v>2.22</v>
       </c>
       <c r="T31" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U31" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="V31" t="n">
         <v>1.26</v>
@@ -4717,10 +4717,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="G32" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="H32" t="n">
         <v>2.96</v>
@@ -4750,16 +4750,16 @@
         <v>2.06</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R32" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S32" t="n">
         <v>2.96</v>
       </c>
       <c r="T32" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U32" t="n">
         <v>2.28</v>
@@ -4774,7 +4774,7 @@
         <v>970</v>
       </c>
       <c r="Y32" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="Z32" t="n">
         <v>970</v>
@@ -4852,13 +4852,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
         <v>3.3</v>
       </c>
       <c r="H33" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I33" t="n">
         <v>2.66</v>
@@ -4906,22 +4906,22 @@
         <v>1.43</v>
       </c>
       <c r="X33" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z33" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA33" t="n">
         <v>42</v>
       </c>
       <c r="AB33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC33" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD33" t="n">
         <v>14.5</v>
@@ -4933,19 +4933,19 @@
         <v>23</v>
       </c>
       <c r="AG33" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH33" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI33" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ33" t="n">
         <v>65</v>
       </c>
       <c r="AK33" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AL33" t="n">
         <v>60</v>
@@ -4957,7 +4957,7 @@
         <v>36</v>
       </c>
       <c r="AO33" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
@@ -4990,10 +4990,10 @@
         <v>2.68</v>
       </c>
       <c r="G34" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H34" t="n">
         <v>2.7</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2.72</v>
       </c>
       <c r="I34" t="n">
         <v>2.74</v>
@@ -5005,34 +5005,34 @@
         <v>3.85</v>
       </c>
       <c r="L34" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M34" t="n">
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="O34" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P34" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="R34" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="S34" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="T34" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U34" t="n">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="V34" t="n">
         <v>1.57</v>
@@ -5053,10 +5053,10 @@
         <v>40</v>
       </c>
       <c r="AB34" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC34" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD34" t="n">
         <v>12.5</v>
@@ -5071,7 +5071,7 @@
         <v>12.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI34" t="n">
         <v>30</v>
@@ -5089,7 +5089,7 @@
         <v>55</v>
       </c>
       <c r="AN34" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AO34" t="n">
         <v>15.5</v>
@@ -5146,19 +5146,19 @@
         <v>1.11</v>
       </c>
       <c r="N35" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="O35" t="n">
         <v>1.49</v>
       </c>
       <c r="P35" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q35" t="n">
         <v>2.42</v>
       </c>
       <c r="R35" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S35" t="n">
         <v>4.8</v>
@@ -5224,7 +5224,7 @@
         <v>200</v>
       </c>
       <c r="AN35" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO35" t="n">
         <v>120</v>
@@ -5260,13 +5260,13 @@
         <v>1.91</v>
       </c>
       <c r="G36" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H36" t="n">
         <v>4.4</v>
       </c>
       <c r="I36" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J36" t="n">
         <v>2.92</v>
@@ -5296,7 +5296,7 @@
         <v>1.22</v>
       </c>
       <c r="S36" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="T36" t="n">
         <v>2.02</v>
@@ -5308,7 +5308,7 @@
         <v>1.2</v>
       </c>
       <c r="W36" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="X36" t="n">
         <v>11.5</v>
@@ -5527,25 +5527,25 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="G38" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="H38" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="I38" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="J38" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L38" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M38" t="n">
         <v>1.05</v>
@@ -5569,40 +5569,40 @@
         <v>3.05</v>
       </c>
       <c r="T38" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U38" t="n">
         <v>2.2</v>
       </c>
       <c r="V38" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W38" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="X38" t="n">
         <v>21</v>
       </c>
       <c r="Y38" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="Z38" t="n">
         <v>970</v>
       </c>
       <c r="AA38" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB38" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC38" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD38" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF38" t="n">
         <v>11.5</v>
@@ -5614,7 +5614,7 @@
         <v>970</v>
       </c>
       <c r="AI38" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ38" t="n">
         <v>970</v>
@@ -5668,10 +5668,10 @@
         <v>6.8</v>
       </c>
       <c r="H39" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I39" t="n">
         <v>1.66</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1.67</v>
       </c>
       <c r="J39" t="n">
         <v>4</v>
@@ -5695,16 +5695,16 @@
         <v>1.95</v>
       </c>
       <c r="Q39" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R39" t="n">
         <v>1.36</v>
       </c>
       <c r="S39" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="T39" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U39" t="n">
         <v>1.91</v>
@@ -5716,7 +5716,7 @@
         <v>1.17</v>
       </c>
       <c r="X39" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
@@ -5752,7 +5752,7 @@
         <v>40</v>
       </c>
       <c r="AJ39" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AK39" t="n">
         <v>95</v>
@@ -5800,10 +5800,10 @@
         <v>1.44</v>
       </c>
       <c r="G40" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="H40" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="I40" t="n">
         <v>8.199999999999999</v>
@@ -5812,7 +5812,7 @@
         <v>5.4</v>
       </c>
       <c r="K40" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L40" t="n">
         <v>1.26</v>
@@ -5821,37 +5821,37 @@
         <v>1.03</v>
       </c>
       <c r="N40" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O40" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P40" t="n">
         <v>2.74</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R40" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S40" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="T40" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U40" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V40" t="n">
         <v>1.14</v>
       </c>
       <c r="W40" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="X40" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y40" t="n">
         <v>36</v>
@@ -5860,7 +5860,7 @@
         <v>75</v>
       </c>
       <c r="AA40" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AB40" t="n">
         <v>12</v>
@@ -5884,10 +5884,10 @@
         <v>21</v>
       </c>
       <c r="AI40" t="n">
-        <v>80</v>
+        <v>990</v>
       </c>
       <c r="AJ40" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK40" t="n">
         <v>13.5</v>
@@ -5896,10 +5896,10 @@
         <v>26</v>
       </c>
       <c r="AM40" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN40" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AO40" t="n">
         <v>85</v>
@@ -5935,7 +5935,7 @@
         <v>1.75</v>
       </c>
       <c r="G41" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="H41" t="n">
         <v>4.5</v>
@@ -5956,13 +5956,13 @@
         <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>2.82</v>
+        <v>2.62</v>
       </c>
       <c r="O41" t="n">
         <v>1.42</v>
       </c>
       <c r="P41" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q41" t="n">
         <v>2.24</v>
@@ -5971,7 +5971,7 @@
         <v>1.2</v>
       </c>
       <c r="S41" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="T41" t="n">
         <v>2.04</v>
@@ -5983,7 +5983,7 @@
         <v>1.19</v>
       </c>
       <c r="W41" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X41" t="n">
         <v>13</v>
@@ -5995,7 +5995,7 @@
         <v>55</v>
       </c>
       <c r="AA41" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AB41" t="n">
         <v>8.4</v>
@@ -6010,7 +6010,7 @@
         <v>120</v>
       </c>
       <c r="AF41" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG41" t="n">
         <v>13</v>
@@ -6070,16 +6070,16 @@
         <v>1.96</v>
       </c>
       <c r="G42" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H42" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I42" t="n">
         <v>4.8</v>
       </c>
       <c r="J42" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K42" t="n">
         <v>3.65</v>
@@ -6136,7 +6136,7 @@
         <v>8</v>
       </c>
       <c r="AC42" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD42" t="n">
         <v>18.5</v>
@@ -6241,7 +6241,7 @@
         <v>1.7</v>
       </c>
       <c r="S43" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T43" t="n">
         <v>2.44</v>
@@ -6268,10 +6268,10 @@
         <v>1000</v>
       </c>
       <c r="AB43" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC43" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AD43" t="n">
         <v>90</v>
@@ -6280,16 +6280,16 @@
         <v>590</v>
       </c>
       <c r="AF43" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG43" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AH43" t="n">
         <v>55</v>
       </c>
       <c r="AI43" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AJ43" t="n">
         <v>8.4</v>
@@ -6301,10 +6301,10 @@
         <v>55</v>
       </c>
       <c r="AM43" t="n">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="AN43" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="AO43" t="n">
         <v>1000</v>
@@ -6337,13 +6337,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="G44" t="n">
         <v>2.72</v>
       </c>
       <c r="H44" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I44" t="n">
         <v>3</v>
@@ -6352,7 +6352,7 @@
         <v>3.3</v>
       </c>
       <c r="K44" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -6475,7 +6475,7 @@
         <v>2.08</v>
       </c>
       <c r="G45" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H45" t="n">
         <v>3.85</v>
@@ -6505,7 +6505,7 @@
         <v>1.64</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO45"/>
+  <dimension ref="A1:AO57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,7 +673,7 @@
         <v>2.72</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="I2" t="n">
         <v>3.05</v>
@@ -682,10 +682,10 @@
         <v>3.3</v>
       </c>
       <c r="K2" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="M2" t="n">
         <v>1.09</v>
@@ -697,25 +697,25 @@
         <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="R2" t="n">
         <v>1.28</v>
       </c>
       <c r="S2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T2" t="n">
         <v>1.9</v>
       </c>
       <c r="U2" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V2" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="W2" t="n">
         <v>1.58</v>
@@ -733,7 +733,7 @@
         <v>50</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AC2" t="n">
         <v>7.2</v>
@@ -763,13 +763,13 @@
         <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM2" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO2" t="n">
         <v>38</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G3" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I3" t="n">
         <v>3.75</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.8</v>
       </c>
       <c r="J3" t="n">
         <v>3.7</v>
@@ -832,31 +832,31 @@
         <v>1.37</v>
       </c>
       <c r="P3" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W3" t="n">
         <v>1.85</v>
       </c>
-      <c r="Q3" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.86</v>
-      </c>
       <c r="X3" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y3" t="n">
         <v>13.5</v>
@@ -868,10 +868,10 @@
         <v>80</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
         <v>15.5</v>
@@ -880,7 +880,7 @@
         <v>50</v>
       </c>
       <c r="AF3" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG3" t="n">
         <v>11</v>
@@ -892,10 +892,10 @@
         <v>60</v>
       </c>
       <c r="AJ3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
         <v>42</v>
@@ -907,7 +907,7 @@
         <v>18</v>
       </c>
       <c r="AO3" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -928,31 +928,31 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Ujpest</t>
+          <t>Grazer AK</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Mezokovesd-Zsory</t>
+          <t>Admira Wacker</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="H4" t="n">
         <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J4" t="n">
         <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,22 +961,22 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="O4" t="n">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="P4" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="R4" t="n">
         <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="T4" t="n">
         <v>1.04</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,72 +1058,72 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09:45:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Jndal</t>
+          <t>Ujpest</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Arabi Al-Saudi</t>
+          <t>Mezokovesd-Zsory</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.2</v>
+        <v>1.04</v>
       </c>
       <c r="G5" t="n">
-        <v>2.96</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>2.66</v>
+        <v>1.04</v>
       </c>
       <c r="I5" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>3.05</v>
+        <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>3.35</v>
+        <v>1.31</v>
       </c>
       <c r="O5" t="n">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="P5" t="n">
-        <v>1.72</v>
+        <v>1.31</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>1.13</v>
       </c>
       <c r="R5" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>2.88</v>
+        <v>1.13</v>
       </c>
       <c r="T5" t="n">
         <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
         <v>970</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,60 +1193,60 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09:45:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al Jabalain</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>Aarhus Fremad</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.74</v>
+        <v>1.04</v>
       </c>
       <c r="G6" t="n">
-        <v>2.24</v>
+        <v>610</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>6.2</v>
+        <v>870</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>1.02</v>
       </c>
       <c r="K6" t="n">
-        <v>6.4</v>
+        <v>500</v>
       </c>
       <c r="L6" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>2.92</v>
+        <v>1.24</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>1.75</v>
+        <v>1.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.8</v>
+        <v>1.16</v>
       </c>
       <c r="R6" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>2.62</v>
+        <v>1.15</v>
       </c>
       <c r="T6" t="n">
         <v>1.04</v>
@@ -1255,10 +1255,10 @@
         <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
         <v>970</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10:40:00</t>
+          <t>09:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Al-Arabi Al-Saudi</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="G7" t="n">
-        <v>4.6</v>
+        <v>2.96</v>
       </c>
       <c r="H7" t="n">
-        <v>1.92</v>
+        <v>2.66</v>
       </c>
       <c r="I7" t="n">
-        <v>2.08</v>
+        <v>3.7</v>
       </c>
       <c r="J7" t="n">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>5.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>4.6</v>
+        <v>3.35</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="P7" t="n">
-        <v>2.24</v>
+        <v>1.72</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="R7" t="n">
-        <v>1.49</v>
+        <v>1.23</v>
       </c>
       <c r="S7" t="n">
-        <v>2.62</v>
+        <v>2.88</v>
       </c>
       <c r="T7" t="n">
-        <v>1.6</v>
+        <v>1.04</v>
       </c>
       <c r="U7" t="n">
-        <v>2.32</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.92</v>
+        <v>1.37</v>
       </c>
       <c r="W7" t="n">
-        <v>1.32</v>
+        <v>1.51</v>
       </c>
       <c r="X7" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AE7" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH7" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AI7" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11:45:00</t>
+          <t>09:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.56</v>
+        <v>1.74</v>
       </c>
       <c r="G8" t="n">
-        <v>1.65</v>
+        <v>2.24</v>
       </c>
       <c r="H8" t="n">
-        <v>5.8</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="J8" t="n">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>4.8</v>
+        <v>6.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="M8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T8" t="n">
         <v>1.04</v>
       </c>
-      <c r="N8" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.64</v>
-      </c>
       <c r="U8" t="n">
-        <v>1.96</v>
+        <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W8" t="n">
-        <v>2.52</v>
+        <v>1.81</v>
       </c>
       <c r="X8" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="Y8" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="Z8" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AC8" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AD8" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AE8" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AI8" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>11:50:00</t>
+          <t>10:40:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al-Adalh</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="G9" t="n">
-        <v>3.55</v>
+        <v>4.7</v>
       </c>
       <c r="H9" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P9" t="n">
         <v>2.26</v>
       </c>
-      <c r="I9" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.89</v>
-      </c>
       <c r="Q9" t="n">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="R9" t="n">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="S9" t="n">
-        <v>3.25</v>
+        <v>2.62</v>
       </c>
       <c r="T9" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U9" t="n">
-        <v>1.95</v>
+        <v>2.34</v>
       </c>
       <c r="V9" t="n">
-        <v>1.64</v>
+        <v>1.98</v>
       </c>
       <c r="W9" t="n">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="X9" t="n">
-        <v>17.5</v>
+        <v>24</v>
       </c>
       <c r="Y9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AB9" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AF9" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="AG9" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AJ9" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AK9" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AL9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AN9" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AO9" t="n">
-        <v>24</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,60 +1733,60 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>Dunajska Streda</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al Draih</t>
+          <t>Karcagi SE</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.1</v>
+        <v>1.04</v>
       </c>
       <c r="G10" t="n">
-        <v>7.2</v>
+        <v>610</v>
       </c>
       <c r="H10" t="n">
-        <v>1.59</v>
+        <v>1.04</v>
       </c>
       <c r="I10" t="n">
-        <v>1.98</v>
+        <v>870</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>1.02</v>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>500</v>
       </c>
       <c r="L10" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>3.15</v>
+        <v>1.24</v>
       </c>
       <c r="O10" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>1.86</v>
+        <v>1.24</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.8</v>
+        <v>1.22</v>
       </c>
       <c r="R10" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="S10" t="n">
-        <v>2.46</v>
+        <v>1.21</v>
       </c>
       <c r="T10" t="n">
         <v>1.04</v>
@@ -1795,10 +1795,10 @@
         <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="X10" t="n">
         <v>970</v>
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>11:45:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.35</v>
+        <v>1.56</v>
       </c>
       <c r="G11" t="n">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="H11" t="n">
-        <v>8.4</v>
+        <v>5.8</v>
       </c>
       <c r="I11" t="n">
-        <v>10</v>
+        <v>6.8</v>
       </c>
       <c r="J11" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="K11" t="n">
-        <v>6.4</v>
+        <v>4.9</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5.7</v>
+        <v>4.1</v>
       </c>
       <c r="O11" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.17</v>
       </c>
-      <c r="P11" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.11</v>
-      </c>
       <c r="W11" t="n">
-        <v>3.35</v>
+        <v>2.52</v>
       </c>
       <c r="X11" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Y11" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Z11" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="AA11" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
         <v>12</v>
       </c>
       <c r="AC11" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AE11" t="n">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="AF11" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM11" t="n">
         <v>110</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>120</v>
-      </c>
       <c r="AN11" t="n">
-        <v>4.8</v>
+        <v>9.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>11:50:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FC Magdeburg</t>
+          <t>Al-Adalh</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="G12" t="n">
-        <v>2.96</v>
+        <v>3.55</v>
       </c>
       <c r="H12" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I12" t="n">
         <v>2.52</v>
       </c>
-      <c r="I12" t="n">
-        <v>2.56</v>
-      </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="L12" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O12" t="n">
         <v>1.31</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.2</v>
-      </c>
       <c r="P12" t="n">
-        <v>2.5</v>
+        <v>1.89</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.6</v>
+        <v>1.91</v>
       </c>
       <c r="R12" t="n">
-        <v>1.61</v>
+        <v>1.34</v>
       </c>
       <c r="S12" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.54</v>
+        <v>1.72</v>
       </c>
       <c r="U12" t="n">
-        <v>2.68</v>
+        <v>2.1</v>
       </c>
       <c r="V12" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W12" t="n">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="X12" t="n">
-        <v>28</v>
+        <v>17.5</v>
       </c>
       <c r="Y12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB12" t="n">
         <v>16</v>
       </c>
-      <c r="Z12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA12" t="n">
+      <c r="AC12" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN12" t="n">
         <v>44</v>
       </c>
-      <c r="AB12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>20</v>
-      </c>
       <c r="AO12" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.6</v>
+        <v>1.04</v>
       </c>
       <c r="G13" t="n">
-        <v>2.66</v>
+        <v>610</v>
       </c>
       <c r="H13" t="n">
-        <v>2.84</v>
+        <v>1.04</v>
       </c>
       <c r="I13" t="n">
-        <v>2.94</v>
+        <v>870</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>1.02</v>
       </c>
       <c r="K13" t="n">
-        <v>3.7</v>
+        <v>500</v>
       </c>
       <c r="L13" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>4.5</v>
+        <v>1.17</v>
       </c>
       <c r="O13" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>2.22</v>
+        <v>1.18</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="R13" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S13" t="n">
-        <v>2.94</v>
+        <v>1.17</v>
       </c>
       <c r="T13" t="n">
-        <v>1.64</v>
+        <v>1.04</v>
       </c>
       <c r="U13" t="n">
-        <v>2.4</v>
+        <v>1.04</v>
       </c>
       <c r="V13" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="W13" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="X13" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="Z13" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AE13" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AH13" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AI13" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Zaglebie Lubin</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.67</v>
+        <v>1.04</v>
       </c>
       <c r="G14" t="n">
-        <v>1.68</v>
+        <v>610</v>
       </c>
       <c r="H14" t="n">
-        <v>5.4</v>
+        <v>1.04</v>
       </c>
       <c r="I14" t="n">
-        <v>5.6</v>
+        <v>870</v>
       </c>
       <c r="J14" t="n">
-        <v>4.4</v>
+        <v>1.02</v>
       </c>
       <c r="K14" t="n">
-        <v>4.6</v>
+        <v>500</v>
       </c>
       <c r="L14" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T14" t="n">
         <v>1.04</v>
       </c>
-      <c r="N14" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.69</v>
-      </c>
       <c r="U14" t="n">
-        <v>2.36</v>
+        <v>1.04</v>
       </c>
       <c r="V14" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="W14" t="n">
-        <v>2.46</v>
+        <v>1.01</v>
       </c>
       <c r="X14" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="Y14" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="Z14" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>970</v>
       </c>
       <c r="AD14" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AE14" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>970</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AI14" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,36 +2408,36 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jahn Regensburg</t>
+          <t>SK Sturm Graz II</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Ingolstadt</t>
+          <t>SV Lafnitz</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.18</v>
+        <v>1.04</v>
       </c>
       <c r="G15" t="n">
-        <v>2.62</v>
+        <v>610</v>
       </c>
       <c r="H15" t="n">
-        <v>2.72</v>
+        <v>1.04</v>
       </c>
       <c r="I15" t="n">
-        <v>3.6</v>
+        <v>870</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5</v>
+        <v>1.02</v>
       </c>
       <c r="K15" t="n">
-        <v>6</v>
+        <v>500</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2446,34 +2446,34 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>2.26</v>
+        <v>1.24</v>
       </c>
       <c r="O15" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="P15" t="n">
-        <v>2.26</v>
+        <v>1.24</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.46</v>
+        <v>1.08</v>
       </c>
       <c r="R15" t="n">
-        <v>1.54</v>
+        <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>2.14</v>
+        <v>1.08</v>
       </c>
       <c r="T15" t="n">
-        <v>1.55</v>
+        <v>1.04</v>
       </c>
       <c r="U15" t="n">
         <v>1.04</v>
       </c>
       <c r="V15" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="W15" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="X15" t="n">
         <v>970</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Academico de Viseu</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Al Draih</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="G16" t="n">
-        <v>2.12</v>
+        <v>6.8</v>
       </c>
       <c r="H16" t="n">
-        <v>4.2</v>
+        <v>1.68</v>
       </c>
       <c r="I16" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K16" t="n">
         <v>5</v>
       </c>
-      <c r="J16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.7</v>
-      </c>
       <c r="L16" t="n">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="P16" t="n">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.18</v>
+        <v>1.8</v>
       </c>
       <c r="R16" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>2.46</v>
       </c>
       <c r="T16" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U16" t="n">
         <v>1.04</v>
       </c>
       <c r="V16" t="n">
-        <v>1.25</v>
+        <v>2.18</v>
       </c>
       <c r="W16" t="n">
-        <v>1.89</v>
+        <v>1.17</v>
       </c>
       <c r="X16" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="Z16" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AE16" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AH16" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AI16" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,36 +2678,36 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>FCM TQS Traiskirchen</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>St Polten</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.65</v>
+        <v>1.04</v>
       </c>
       <c r="G17" t="n">
-        <v>4.6</v>
+        <v>610</v>
       </c>
       <c r="H17" t="n">
-        <v>2.22</v>
+        <v>1.04</v>
       </c>
       <c r="I17" t="n">
-        <v>2.44</v>
+        <v>870</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>1.02</v>
       </c>
       <c r="K17" t="n">
-        <v>3.4</v>
+        <v>500</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2716,34 +2716,34 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>2.34</v>
+        <v>25</v>
       </c>
       <c r="O17" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="P17" t="n">
-        <v>1.58</v>
+        <v>1.24</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.44</v>
+        <v>1.1</v>
       </c>
       <c r="R17" t="n">
         <v>1.18</v>
       </c>
       <c r="S17" t="n">
-        <v>4.1</v>
+        <v>1.11</v>
       </c>
       <c r="T17" t="n">
         <v>1.04</v>
       </c>
       <c r="U17" t="n">
-        <v>1.7</v>
+        <v>1.04</v>
       </c>
       <c r="V17" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="W17" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="X17" t="n">
         <v>970</v>
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>First Vienna Fc 1894</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>SV Leobendorf</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.61</v>
+        <v>1.04</v>
       </c>
       <c r="G18" t="n">
-        <v>1.75</v>
+        <v>610</v>
       </c>
       <c r="H18" t="n">
-        <v>5.9</v>
+        <v>1.04</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>870</v>
       </c>
       <c r="J18" t="n">
-        <v>3.75</v>
+        <v>1.02</v>
       </c>
       <c r="K18" t="n">
-        <v>4.3</v>
+        <v>500</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
       </c>
       <c r="M18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O18" t="n">
         <v>1.07</v>
       </c>
-      <c r="N18" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.35</v>
-      </c>
       <c r="P18" t="n">
-        <v>1.84</v>
+        <v>1.24</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>1.07</v>
       </c>
       <c r="R18" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>3.6</v>
+        <v>1.07</v>
       </c>
       <c r="T18" t="n">
-        <v>1.98</v>
+        <v>1.04</v>
       </c>
       <c r="U18" t="n">
-        <v>1.81</v>
+        <v>1.04</v>
       </c>
       <c r="V18" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="W18" t="n">
-        <v>2.32</v>
+        <v>1.01</v>
       </c>
       <c r="X18" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="Y18" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="Z18" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.4</v>
+        <v>970</v>
       </c>
       <c r="AC18" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AD18" t="n">
         <v>970</v>
       </c>
       <c r="AE18" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AH18" t="n">
         <v>970</v>
       </c>
       <c r="AI18" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Aubagne FC</t>
+          <t>St.Anna</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Paris 13 Atletico</t>
+          <t>SV Lebring</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.24</v>
+        <v>1.04</v>
       </c>
       <c r="G19" t="n">
-        <v>2.46</v>
+        <v>610</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>1.04</v>
       </c>
       <c r="I19" t="n">
-        <v>3.85</v>
+        <v>870</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>1.02</v>
       </c>
       <c r="K19" t="n">
-        <v>3.55</v>
+        <v>500</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>3.1</v>
+        <v>1.24</v>
       </c>
       <c r="O19" t="n">
-        <v>1.39</v>
+        <v>1.04</v>
       </c>
       <c r="P19" t="n">
-        <v>1.72</v>
+        <v>1.24</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.16</v>
+        <v>1.04</v>
       </c>
       <c r="R19" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="S19" t="n">
-        <v>3.9</v>
+        <v>1.04</v>
       </c>
       <c r="T19" t="n">
-        <v>1.86</v>
+        <v>1.04</v>
       </c>
       <c r="U19" t="n">
-        <v>1.96</v>
+        <v>1.04</v>
       </c>
       <c r="V19" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="W19" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="X19" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="Y19" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="Z19" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AC19" t="n">
-        <v>9</v>
+        <v>970</v>
       </c>
       <c r="AD19" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AE19" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AI19" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>Rapid Vienna (Am)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>SV Donau</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.78</v>
+        <v>1.04</v>
       </c>
       <c r="G20" t="n">
-        <v>3.15</v>
+        <v>610</v>
       </c>
       <c r="H20" t="n">
-        <v>2.62</v>
+        <v>1.04</v>
       </c>
       <c r="I20" t="n">
-        <v>2.96</v>
+        <v>870</v>
       </c>
       <c r="J20" t="n">
-        <v>3.15</v>
+        <v>1.02</v>
       </c>
       <c r="K20" t="n">
-        <v>3.55</v>
+        <v>500</v>
       </c>
       <c r="L20" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O20" t="n">
         <v>1.08</v>
       </c>
-      <c r="N20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.38</v>
-      </c>
       <c r="P20" t="n">
-        <v>1.72</v>
+        <v>1.24</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.12</v>
+        <v>1.07</v>
       </c>
       <c r="R20" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S20" t="n">
-        <v>3.95</v>
+        <v>1.08</v>
       </c>
       <c r="T20" t="n">
-        <v>1.84</v>
+        <v>1.04</v>
       </c>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="V20" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="W20" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="X20" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="Y20" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="Z20" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="AD20" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AE20" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AI20" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,72 +3218,72 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Austria Wien (A)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Le Puy</t>
+          <t>SC Wiener Neustadt</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.96</v>
+        <v>1.04</v>
       </c>
       <c r="G21" t="n">
-        <v>2.12</v>
+        <v>610</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>1.04</v>
       </c>
       <c r="I21" t="n">
-        <v>4.7</v>
+        <v>870</v>
       </c>
       <c r="J21" t="n">
-        <v>3.35</v>
+        <v>1.02</v>
       </c>
       <c r="K21" t="n">
-        <v>3.8</v>
+        <v>500</v>
       </c>
       <c r="L21" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>3.25</v>
+        <v>1.24</v>
       </c>
       <c r="O21" t="n">
-        <v>1.36</v>
+        <v>1.02</v>
       </c>
       <c r="P21" t="n">
-        <v>1.78</v>
+        <v>1.24</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="R21" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="S21" t="n">
-        <v>3.8</v>
+        <v>1.02</v>
       </c>
       <c r="T21" t="n">
-        <v>1.86</v>
+        <v>1.04</v>
       </c>
       <c r="U21" t="n">
-        <v>1.96</v>
+        <v>1.04</v>
       </c>
       <c r="V21" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="W21" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="X21" t="n">
         <v>970</v>
@@ -3292,25 +3292,25 @@
         <v>970</v>
       </c>
       <c r="Z21" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AD21" t="n">
         <v>970</v>
       </c>
       <c r="AE21" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
         <v>970</v>
@@ -3319,31 +3319,31 @@
         <v>970</v>
       </c>
       <c r="AI21" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Versailles 78 FC</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>FC Magdeburg</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="G22" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="H22" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="I22" t="n">
-        <v>3.05</v>
+        <v>2.56</v>
       </c>
       <c r="J22" t="n">
-        <v>3.05</v>
+        <v>3.75</v>
       </c>
       <c r="K22" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="L22" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="W22" t="n">
         <v>1.51</v>
       </c>
-      <c r="M22" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.46</v>
-      </c>
       <c r="X22" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD22" t="n">
         <v>12</v>
       </c>
-      <c r="Y22" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA22" t="n">
+      <c r="AE22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM22" t="n">
         <v>60</v>
       </c>
-      <c r="AB22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>170</v>
-      </c>
       <c r="AN22" t="n">
-        <v>55</v>
+        <v>18.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>44</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Fleury Merogis</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="F23" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G23" t="n">
         <v>2.7</v>
       </c>
-      <c r="G23" t="n">
-        <v>3.2</v>
-      </c>
       <c r="H23" t="n">
-        <v>2.66</v>
+        <v>2.82</v>
       </c>
       <c r="I23" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="J23" t="n">
-        <v>2.82</v>
+        <v>3.65</v>
       </c>
       <c r="K23" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M23" t="n">
         <v>1.06</v>
       </c>
       <c r="N23" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S23" t="n">
         <v>2.96</v>
       </c>
-      <c r="O23" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P23" t="n">
+      <c r="T23" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W23" t="n">
         <v>1.59</v>
       </c>
-      <c r="Q23" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.45</v>
-      </c>
       <c r="X23" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>970</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD23" t="n">
         <v>13</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="AE23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG23" t="n">
         <v>12</v>
       </c>
-      <c r="Z23" t="n">
-        <v>970</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>16</v>
-      </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>15.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="AJ23" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK23" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="AL23" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AM23" t="n">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="AN23" t="n">
-        <v>48</v>
+        <v>18.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,123 +3623,123 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Bourg-en-Bresse</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.72</v>
+        <v>1.35</v>
       </c>
       <c r="G24" t="n">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="H24" t="n">
-        <v>5.2</v>
+        <v>8.4</v>
       </c>
       <c r="I24" t="n">
+        <v>10</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K24" t="n">
         <v>6.4</v>
       </c>
-      <c r="J24" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K24" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L24" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>3.3</v>
+        <v>5.8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="P24" t="n">
-        <v>1.79</v>
+        <v>2.66</v>
       </c>
       <c r="Q24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U24" t="n">
         <v>2.04</v>
       </c>
-      <c r="R24" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.86</v>
-      </c>
       <c r="V24" t="n">
-        <v>1.19</v>
+        <v>1.11</v>
       </c>
       <c r="W24" t="n">
-        <v>2.16</v>
+        <v>3.35</v>
       </c>
       <c r="X24" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="Z24" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="AA24" t="n">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="AB24" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AD24" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AE24" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AF24" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI24" t="n">
         <v>110</v>
       </c>
       <c r="AJ24" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="AK24" t="n">
-        <v>24</v>
+        <v>16.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AM24" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AN24" t="n">
-        <v>15.5</v>
+        <v>4.8</v>
       </c>
       <c r="AO24" t="n">
         <v>140</v>
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.32</v>
+        <v>1.71</v>
       </c>
       <c r="G25" t="n">
-        <v>2.64</v>
+        <v>1.73</v>
       </c>
       <c r="H25" t="n">
-        <v>3.15</v>
+        <v>5.3</v>
       </c>
       <c r="I25" t="n">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="J25" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="K25" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="M25" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>2.92</v>
+        <v>5.4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
       <c r="P25" t="n">
-        <v>1.66</v>
+        <v>2.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.26</v>
+        <v>1.63</v>
       </c>
       <c r="R25" t="n">
-        <v>1.24</v>
+        <v>1.59</v>
       </c>
       <c r="S25" t="n">
-        <v>4.3</v>
+        <v>2.58</v>
       </c>
       <c r="T25" t="n">
-        <v>1.89</v>
+        <v>1.68</v>
       </c>
       <c r="U25" t="n">
-        <v>1.89</v>
+        <v>2.38</v>
       </c>
       <c r="V25" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="W25" t="n">
-        <v>1.61</v>
+        <v>2.36</v>
       </c>
       <c r="X25" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="Y25" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="Z25" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AA25" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AB25" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD25" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AE25" t="n">
         <v>60</v>
       </c>
       <c r="AF25" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AG25" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AI25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM25" t="n">
         <v>80</v>
       </c>
-      <c r="AJ25" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>170</v>
-      </c>
       <c r="AN25" t="n">
-        <v>970</v>
+        <v>7.4</v>
       </c>
       <c r="AO25" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,72 +3893,72 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Jahn Regensburg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Pau</t>
+          <t>Ingolstadt</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.83</v>
+        <v>2.18</v>
       </c>
       <c r="G26" t="n">
-        <v>1.91</v>
+        <v>2.62</v>
       </c>
       <c r="H26" t="n">
-        <v>4.4</v>
+        <v>2.72</v>
       </c>
       <c r="I26" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="J26" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="K26" t="n">
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="L26" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="P26" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.74</v>
+        <v>1.46</v>
       </c>
       <c r="R26" t="n">
-        <v>1.42</v>
+        <v>1.61</v>
       </c>
       <c r="S26" t="n">
-        <v>2.96</v>
+        <v>2.36</v>
       </c>
       <c r="T26" t="n">
-        <v>1.72</v>
+        <v>1.58</v>
       </c>
       <c r="U26" t="n">
-        <v>2.12</v>
+        <v>1.04</v>
       </c>
       <c r="V26" t="n">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="W26" t="n">
-        <v>2.08</v>
+        <v>1.62</v>
       </c>
       <c r="X26" t="n">
         <v>970</v>
@@ -3967,25 +3967,25 @@
         <v>970</v>
       </c>
       <c r="Z26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="AD26" t="n">
         <v>970</v>
       </c>
       <c r="AE26" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
         <v>970</v>
@@ -3994,31 +3994,31 @@
         <v>970</v>
       </c>
       <c r="AI26" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Boulogne</t>
+          <t>Academico de Viseu</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.1</v>
+        <v>1.96</v>
       </c>
       <c r="G27" t="n">
-        <v>3.4</v>
+        <v>2.12</v>
       </c>
       <c r="H27" t="n">
-        <v>2.44</v>
+        <v>4.2</v>
       </c>
       <c r="I27" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
         <v>3.3</v>
       </c>
       <c r="K27" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>3.05</v>
+        <v>2.58</v>
       </c>
       <c r="O27" t="n">
-        <v>1.41</v>
+        <v>1.06</v>
       </c>
       <c r="P27" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="R27" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="S27" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="T27" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W27" t="n">
         <v>1.89</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.41</v>
       </c>
       <c r="X27" t="n">
         <v>14</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.199999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AA27" t="n">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="AB27" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AE27" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="AF27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN27" t="n">
         <v>23</v>
       </c>
-      <c r="AG27" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>970</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>970</v>
-      </c>
       <c r="AO27" t="n">
-        <v>29</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Arges Pitesti</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.76</v>
+        <v>3.65</v>
       </c>
       <c r="G28" t="n">
-        <v>1.87</v>
+        <v>4.6</v>
       </c>
       <c r="H28" t="n">
-        <v>5.2</v>
+        <v>2.22</v>
       </c>
       <c r="I28" t="n">
-        <v>6.2</v>
+        <v>2.46</v>
       </c>
       <c r="J28" t="n">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="K28" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>3.15</v>
+        <v>2.38</v>
       </c>
       <c r="O28" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="P28" t="n">
-        <v>1.74</v>
+        <v>1.58</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.14</v>
+        <v>2.44</v>
       </c>
       <c r="R28" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="S28" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="T28" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="U28" t="n">
-        <v>1.82</v>
+        <v>1.69</v>
       </c>
       <c r="V28" t="n">
-        <v>1.22</v>
+        <v>1.68</v>
       </c>
       <c r="W28" t="n">
-        <v>2.14</v>
+        <v>1.31</v>
       </c>
       <c r="X28" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="Z28" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>7.8</v>
+        <v>970</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AE28" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AH28" t="n">
         <v>970</v>
       </c>
       <c r="AI28" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Paris 13 Atletico</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="G29" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="H29" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="J29" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="K29" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="N29" t="n">
-        <v>2.46</v>
+        <v>3.1</v>
       </c>
       <c r="O29" t="n">
-        <v>1.58</v>
+        <v>1.43</v>
       </c>
       <c r="P29" t="n">
-        <v>1.49</v>
+        <v>1.74</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.76</v>
+        <v>2.18</v>
       </c>
       <c r="R29" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="S29" t="n">
-        <v>5.7</v>
+        <v>4.1</v>
       </c>
       <c r="T29" t="n">
-        <v>2.16</v>
+        <v>1.87</v>
       </c>
       <c r="U29" t="n">
-        <v>1.73</v>
+        <v>1.96</v>
       </c>
       <c r="V29" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W29" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="X29" t="n">
-        <v>8.4</v>
+        <v>14</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.800000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AA29" t="n">
         <v>90</v>
       </c>
       <c r="AB29" t="n">
-        <v>7.6</v>
+        <v>10.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="AD29" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AE29" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI29" t="n">
         <v>65</v>
       </c>
-      <c r="AF29" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>110</v>
-      </c>
       <c r="AJ29" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK29" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AL29" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AM29" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="AN29" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AO29" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="F30" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I30" t="n">
+        <v>7</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q30" t="n">
         <v>2</v>
       </c>
-      <c r="G30" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="H30" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K30" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N30" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.54</v>
-      </c>
       <c r="R30" t="n">
-        <v>1.66</v>
+        <v>1.3</v>
       </c>
       <c r="S30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W30" t="n">
         <v>2.3</v>
       </c>
-      <c r="T30" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U30" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.84</v>
-      </c>
       <c r="X30" t="n">
-        <v>32</v>
+        <v>15.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z30" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AA30" t="n">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="AB30" t="n">
-        <v>18</v>
+        <v>8.4</v>
       </c>
       <c r="AC30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG30" t="n">
         <v>12</v>
       </c>
-      <c r="AD30" t="n">
+      <c r="AH30" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>19</v>
       </c>
-      <c r="AE30" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG30" t="n">
+      <c r="AK30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>970</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN30" t="n">
         <v>13.5</v>
       </c>
-      <c r="AH30" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>12</v>
-      </c>
       <c r="AO30" t="n">
-        <v>27</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Le Puy</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.72</v>
+        <v>1.96</v>
       </c>
       <c r="G31" t="n">
-        <v>1.85</v>
+        <v>2.12</v>
       </c>
       <c r="H31" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J31" t="n">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="K31" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="L31" t="n">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="M31" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>5.9</v>
+        <v>3.25</v>
       </c>
       <c r="O31" t="n">
-        <v>1.16</v>
+        <v>1.36</v>
       </c>
       <c r="P31" t="n">
-        <v>2.66</v>
+        <v>1.78</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.5</v>
+        <v>2.06</v>
       </c>
       <c r="R31" t="n">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="S31" t="n">
-        <v>2.22</v>
+        <v>3.8</v>
       </c>
       <c r="T31" t="n">
-        <v>1.56</v>
+        <v>1.87</v>
       </c>
       <c r="U31" t="n">
-        <v>2.5</v>
+        <v>1.96</v>
       </c>
       <c r="V31" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W31" t="n">
-        <v>2.16</v>
+        <v>1.89</v>
       </c>
       <c r="X31" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="Y31" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="Z31" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AA31" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB31" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AC31" t="n">
-        <v>13</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AE31" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AF31" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AG31" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AH31" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AI31" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AJ31" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AK31" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AL31" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="AM31" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="AN31" t="n">
-        <v>7.8</v>
+        <v>970</v>
       </c>
       <c r="AO31" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,81 +4703,81 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.3</v>
+        <v>2.78</v>
       </c>
       <c r="G32" t="n">
-        <v>2.56</v>
+        <v>3.15</v>
       </c>
       <c r="H32" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I32" t="n">
         <v>2.96</v>
       </c>
-      <c r="I32" t="n">
-        <v>3.3</v>
-      </c>
       <c r="J32" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="L32" t="n">
         <v>1.37</v>
       </c>
       <c r="M32" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="O32" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R32" t="n">
         <v>1.27</v>
       </c>
-      <c r="P32" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.43</v>
-      </c>
       <c r="S32" t="n">
-        <v>2.96</v>
+        <v>3.95</v>
       </c>
       <c r="T32" t="n">
-        <v>1.67</v>
+        <v>1.84</v>
       </c>
       <c r="U32" t="n">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="W32" t="n">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
       <c r="X32" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AA32" t="n">
         <v>55</v>
@@ -4786,49 +4786,49 @@
         <v>12</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD32" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AE32" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>42</v>
+      </c>
+      <c r="AO32" t="n">
         <v>38</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>970</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>970</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>970</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>970</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="F33" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H33" t="n">
         <v>3</v>
       </c>
-      <c r="G33" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2.48</v>
-      </c>
       <c r="I33" t="n">
-        <v>2.66</v>
+        <v>3.8</v>
       </c>
       <c r="J33" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K33" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M33" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N33" t="n">
-        <v>3.55</v>
+        <v>2.94</v>
       </c>
       <c r="O33" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="P33" t="n">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="R33" t="n">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="S33" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="T33" t="n">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="U33" t="n">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="V33" t="n">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="W33" t="n">
-        <v>1.43</v>
+        <v>1.61</v>
       </c>
       <c r="X33" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="Y33" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="Z33" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AA33" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AB33" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD33" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AE33" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AF33" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AG33" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AH33" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AI33" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AJ33" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL33" t="n">
         <v>65</v>
       </c>
-      <c r="AK33" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>60</v>
-      </c>
       <c r="AM33" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AN33" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AO33" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,132 +4973,132 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="G34" t="n">
-        <v>2.72</v>
+        <v>3.15</v>
       </c>
       <c r="H34" t="n">
         <v>2.7</v>
       </c>
       <c r="I34" t="n">
-        <v>2.74</v>
+        <v>3.05</v>
       </c>
       <c r="J34" t="n">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="K34" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="L34" t="n">
-        <v>1.31</v>
+        <v>1.51</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>5.5</v>
+        <v>2.84</v>
       </c>
       <c r="O34" t="n">
-        <v>1.21</v>
+        <v>1.44</v>
       </c>
       <c r="P34" t="n">
-        <v>2.48</v>
+        <v>1.62</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.65</v>
+        <v>2.34</v>
       </c>
       <c r="R34" t="n">
-        <v>1.59</v>
+        <v>1.23</v>
       </c>
       <c r="S34" t="n">
-        <v>2.62</v>
+        <v>4.4</v>
       </c>
       <c r="T34" t="n">
-        <v>1.55</v>
+        <v>1.94</v>
       </c>
       <c r="U34" t="n">
-        <v>2.68</v>
+        <v>1.89</v>
       </c>
       <c r="V34" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="W34" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="X34" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF34" t="n">
         <v>23</v>
       </c>
-      <c r="Y34" t="n">
+      <c r="AG34" t="n">
         <v>16.5</v>
       </c>
-      <c r="Z34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE34" t="n">
+      <c r="AH34" t="n">
         <v>25</v>
       </c>
-      <c r="AF34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AI34" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AJ34" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AK34" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="AL34" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AM34" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN34" t="n">
         <v>55</v>
       </c>
-      <c r="AN34" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AO34" t="n">
-        <v>15.5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.06</v>
+        <v>1.72</v>
       </c>
       <c r="G35" t="n">
-        <v>2.12</v>
+        <v>1.85</v>
       </c>
       <c r="H35" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="I35" t="n">
-        <v>4.8</v>
+        <v>6.4</v>
       </c>
       <c r="J35" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K35" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N35" t="n">
         <v>3.3</v>
       </c>
-      <c r="L35" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N35" t="n">
-        <v>2.88</v>
-      </c>
       <c r="O35" t="n">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="P35" t="n">
-        <v>1.64</v>
+        <v>1.79</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.42</v>
+        <v>2.04</v>
       </c>
       <c r="R35" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="S35" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="T35" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="U35" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="V35" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="W35" t="n">
-        <v>1.89</v>
+        <v>2.16</v>
       </c>
       <c r="X35" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="Y35" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="AA35" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="AB35" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AC35" t="n">
-        <v>7.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD35" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AE35" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AF35" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG35" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI35" t="n">
         <v>110</v>
       </c>
       <c r="AJ35" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AK35" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AL35" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM35" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AN35" t="n">
-        <v>24</v>
+        <v>15.5</v>
       </c>
       <c r="AO35" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,132 +5243,132 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Team Altamura</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.91</v>
+        <v>2.68</v>
       </c>
       <c r="G36" t="n">
-        <v>2.14</v>
+        <v>3.25</v>
       </c>
       <c r="H36" t="n">
-        <v>4.4</v>
+        <v>2.74</v>
       </c>
       <c r="I36" t="n">
-        <v>5.7</v>
+        <v>3.25</v>
       </c>
       <c r="J36" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="K36" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V36" t="n">
         <v>1.45</v>
       </c>
-      <c r="M36" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N36" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="O36" t="n">
+      <c r="W36" t="n">
         <v>1.45</v>
       </c>
-      <c r="P36" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S36" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T36" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1.87</v>
-      </c>
       <c r="X36" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Y36" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="Z36" t="n">
         <v>970</v>
       </c>
       <c r="AA36" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AB36" t="n">
-        <v>8.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="AC36" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD36" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AE36" t="n">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="AF36" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AG36" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="AH36" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AI36" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AJ36" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AK36" t="n">
         <v>970</v>
       </c>
       <c r="AL36" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM36" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AN36" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AO36" t="n">
-        <v>140</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,132 +5378,132 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4.8</v>
+        <v>2.32</v>
       </c>
       <c r="G37" t="n">
-        <v>5.7</v>
+        <v>2.54</v>
       </c>
       <c r="H37" t="n">
-        <v>1.8</v>
+        <v>2.96</v>
       </c>
       <c r="I37" t="n">
-        <v>1.95</v>
+        <v>3.3</v>
       </c>
       <c r="J37" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K37" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L37" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="M37" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>2.84</v>
+        <v>4.1</v>
       </c>
       <c r="O37" t="n">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="P37" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.28</v>
+        <v>1.78</v>
       </c>
       <c r="R37" t="n">
-        <v>1.23</v>
+        <v>1.42</v>
       </c>
       <c r="S37" t="n">
-        <v>4.4</v>
+        <v>2.96</v>
       </c>
       <c r="T37" t="n">
-        <v>2.08</v>
+        <v>1.65</v>
       </c>
       <c r="U37" t="n">
-        <v>1.75</v>
+        <v>2.32</v>
       </c>
       <c r="V37" t="n">
-        <v>2.04</v>
+        <v>1.43</v>
       </c>
       <c r="W37" t="n">
-        <v>1.21</v>
+        <v>1.64</v>
       </c>
       <c r="X37" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB37" t="n">
         <v>12</v>
       </c>
-      <c r="Y37" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>15</v>
-      </c>
       <c r="AC37" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD37" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AE37" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AF37" t="n">
         <v>970</v>
       </c>
       <c r="AG37" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AH37" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="AI37" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AJ37" t="n">
-        <v>180</v>
+        <v>970</v>
       </c>
       <c r="AK37" t="n">
-        <v>110</v>
+        <v>970</v>
       </c>
       <c r="AL37" t="n">
-        <v>120</v>
+        <v>970</v>
       </c>
       <c r="AM37" t="n">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="AN37" t="n">
-        <v>170</v>
+        <v>970</v>
       </c>
       <c r="AO37" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,132 +5513,132 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>CD Castellon</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="G38" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="H38" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I38" t="n">
         <v>5</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="K38" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="L38" t="n">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="M38" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N38" t="n">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="O38" t="n">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="P38" t="n">
-        <v>2.08</v>
+        <v>2.68</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="R38" t="n">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="S38" t="n">
-        <v>3.05</v>
+        <v>2.22</v>
       </c>
       <c r="T38" t="n">
-        <v>1.78</v>
+        <v>1.58</v>
       </c>
       <c r="U38" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="V38" t="n">
         <v>1.25</v>
       </c>
       <c r="W38" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X38" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="Y38" t="n">
-        <v>17.5</v>
+        <v>29</v>
       </c>
       <c r="Z38" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AA38" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AB38" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>9.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="AD38" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AE38" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AF38" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AI38" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ38" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AK38" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AL38" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AM38" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AN38" t="n">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="AO38" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,132 +5648,132 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>6.6</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>6.8</v>
+        <v>2.18</v>
       </c>
       <c r="H39" t="n">
-        <v>1.65</v>
+        <v>3.4</v>
       </c>
       <c r="I39" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K39" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N39" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R39" t="n">
         <v>1.66</v>
       </c>
-      <c r="J39" t="n">
-        <v>4</v>
-      </c>
-      <c r="K39" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N39" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.36</v>
-      </c>
       <c r="S39" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="T39" t="n">
-        <v>2.04</v>
+        <v>1.58</v>
       </c>
       <c r="U39" t="n">
-        <v>1.91</v>
+        <v>2.58</v>
       </c>
       <c r="V39" t="n">
-        <v>2.5</v>
+        <v>1.35</v>
       </c>
       <c r="W39" t="n">
-        <v>1.17</v>
+        <v>1.84</v>
       </c>
       <c r="X39" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG39" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y39" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG39" t="n">
+      <c r="AH39" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK39" t="n">
         <v>24</v>
       </c>
-      <c r="AH39" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>190</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>95</v>
-      </c>
       <c r="AL39" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="AM39" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>120</v>
+        <v>11.5</v>
       </c>
       <c r="AO39" t="n">
-        <v>9.6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,132 +5783,132 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.44</v>
+        <v>2.94</v>
       </c>
       <c r="G40" t="n">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="H40" t="n">
-        <v>8</v>
+        <v>2.48</v>
       </c>
       <c r="I40" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X40" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC40" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="J40" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K40" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N40" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P40" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U40" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W40" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="X40" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>240</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>12</v>
-      </c>
       <c r="AD40" t="n">
-        <v>28</v>
+        <v>14.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="AF40" t="n">
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="AG40" t="n">
-        <v>9.6</v>
+        <v>14</v>
       </c>
       <c r="AH40" t="n">
         <v>21</v>
       </c>
       <c r="AI40" t="n">
-        <v>990</v>
+        <v>50</v>
       </c>
       <c r="AJ40" t="n">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="AK40" t="n">
-        <v>13.5</v>
+        <v>38</v>
       </c>
       <c r="AL40" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AM40" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AN40" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="AO40" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Portuguese Liga 3</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,36 +5918,36 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Santarem</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="G41" t="n">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="H41" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="I41" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="J41" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="K41" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -5956,94 +5956,94 @@
         <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>2.62</v>
+        <v>3.15</v>
       </c>
       <c r="O41" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="P41" t="n">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="R41" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V41" t="n">
         <v>1.2</v>
       </c>
-      <c r="S41" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T41" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.19</v>
-      </c>
       <c r="W41" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="X41" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AA41" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB41" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AC41" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD41" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AE41" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG41" t="n">
         <v>12.5</v>
       </c>
-      <c r="AG41" t="n">
-        <v>13</v>
-      </c>
       <c r="AH41" t="n">
         <v>970</v>
       </c>
       <c r="AI41" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AJ41" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AK41" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AL41" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AM41" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN41" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AO41" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,132 +6053,132 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Boulogne</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.96</v>
+        <v>3.1</v>
       </c>
       <c r="G42" t="n">
-        <v>1.97</v>
+        <v>3.4</v>
       </c>
       <c r="H42" t="n">
-        <v>4.7</v>
+        <v>2.44</v>
       </c>
       <c r="I42" t="n">
-        <v>4.8</v>
+        <v>2.62</v>
       </c>
       <c r="J42" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="K42" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="L42" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="M42" t="n">
         <v>1.09</v>
       </c>
       <c r="N42" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="O42" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P42" t="n">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="Q42" t="n">
         <v>2.2</v>
       </c>
       <c r="R42" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="S42" t="n">
         <v>4.1</v>
       </c>
       <c r="T42" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V42" t="n">
-        <v>1.26</v>
+        <v>1.61</v>
       </c>
       <c r="W42" t="n">
-        <v>2.02</v>
+        <v>1.41</v>
       </c>
       <c r="X42" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD42" t="n">
         <v>12</v>
       </c>
-      <c r="Y42" t="n">
+      <c r="AE42" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG42" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z42" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH42" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI42" t="n">
-        <v>80</v>
+        <v>970</v>
       </c>
       <c r="AJ42" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="AK42" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AL42" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AM42" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AN42" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AO42" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,132 +6188,132 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.15</v>
+        <v>1.83</v>
       </c>
       <c r="G43" t="n">
-        <v>1.16</v>
+        <v>1.89</v>
       </c>
       <c r="H43" t="n">
-        <v>23</v>
+        <v>4.4</v>
       </c>
       <c r="I43" t="n">
-        <v>28</v>
+        <v>4.8</v>
       </c>
       <c r="J43" t="n">
-        <v>10</v>
+        <v>3.9</v>
       </c>
       <c r="K43" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N43" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W43" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="X43" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB43" t="n">
         <v>10.5</v>
       </c>
-      <c r="L43" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N43" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P43" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S43" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T43" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W43" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="X43" t="n">
-        <v>48</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>310</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>10</v>
-      </c>
       <c r="AC43" t="n">
-        <v>25</v>
+        <v>9.4</v>
       </c>
       <c r="AD43" t="n">
-        <v>90</v>
+        <v>970</v>
       </c>
       <c r="AE43" t="n">
-        <v>590</v>
+        <v>60</v>
       </c>
       <c r="AF43" t="n">
-        <v>9</v>
+        <v>970</v>
       </c>
       <c r="AG43" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AH43" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AI43" t="n">
-        <v>380</v>
+        <v>60</v>
       </c>
       <c r="AJ43" t="n">
-        <v>8.4</v>
+        <v>970</v>
       </c>
       <c r="AK43" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AL43" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AM43" t="n">
-        <v>380</v>
+        <v>100</v>
       </c>
       <c r="AN43" t="n">
-        <v>3.55</v>
+        <v>970</v>
       </c>
       <c r="AO43" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6323,132 +6323,132 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Llaneros FC</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.62</v>
+        <v>2.38</v>
       </c>
       <c r="G44" t="n">
-        <v>2.72</v>
+        <v>2.58</v>
       </c>
       <c r="H44" t="n">
-        <v>2.78</v>
+        <v>3.45</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>3.95</v>
       </c>
       <c r="J44" t="n">
-        <v>3.3</v>
+        <v>2.98</v>
       </c>
       <c r="K44" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="P44" t="n">
-        <v>1.84</v>
+        <v>1.52</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.97</v>
+        <v>2.76</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z44" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA44" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AB44" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC44" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD44" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE44" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF44" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG44" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI44" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ44" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AK44" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AL44" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM44" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AN44" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AO44" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6458,126 +6458,1746 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>22:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>CD Castellon</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Alianza FC Valledupar</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.08</v>
+        <v>1.77</v>
       </c>
       <c r="G45" t="n">
-        <v>2.38</v>
+        <v>1.81</v>
       </c>
       <c r="H45" t="n">
-        <v>3.85</v>
+        <v>4.7</v>
       </c>
       <c r="I45" t="n">
         <v>5.1</v>
       </c>
       <c r="J45" t="n">
+        <v>4</v>
+      </c>
+      <c r="K45" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N45" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W45" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="X45" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>970</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Pesaro</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Arezzo</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G46" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V46" t="n">
+        <v>2</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X46" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>970</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>170</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>160</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>German Bundesliga</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N47" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X47" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Italian Serie B</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Entella</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T48" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="X48" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Cavese 1919</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Team Altamura</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H49" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I49" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J49" t="n">
         <v>3.1</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K49" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="X49" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>970</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G50" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N50" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V50" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X50" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>200</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>130</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>French Ligue 1</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Paris St-G</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+      <c r="I51" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J51" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K51" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N51" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W51" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="X51" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>240</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>990</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Portuguese Liga 3</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Mafra</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Santarem</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H52" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I52" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K52" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T52" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W52" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="X52" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>970</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Girona</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H53" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I53" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J53" t="n">
         <v>3.55</v>
       </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
+      <c r="K53" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N53" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W53" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="X53" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Sporting Lisbon</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H54" t="n">
+        <v>23</v>
+      </c>
+      <c r="I54" t="n">
+        <v>27</v>
+      </c>
+      <c r="J54" t="n">
+        <v>10</v>
+      </c>
+      <c r="K54" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N54" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="T54" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="W54" t="n">
+        <v>7</v>
+      </c>
+      <c r="X54" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>85</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>330</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>25</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>620</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>400</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>400</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Friendly Matches</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>18:15:00</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Cucuta Deportivo</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>CA Huracan</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G55" t="n">
+        <v>610</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I55" t="n">
+        <v>870</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K55" t="n">
+        <v>500</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X55" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>20:20:00</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Llaneros FC</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N56" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X56" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Fortaleza FC</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Alianza FC Valledupar</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I57" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K57" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N57" t="n">
         <v>1.64</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="O57" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q57" t="n">
         <v>2.28</v>
       </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>0</v>
+      <c r="R57" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="G2" t="n">
         <v>2.78</v>
@@ -676,16 +676,16 @@
         <v>2.92</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="J2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K2" t="n">
         <v>3.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M2" t="n">
         <v>1.09</v>
@@ -700,13 +700,13 @@
         <v>1.81</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T2" t="n">
         <v>1.87</v>
@@ -715,10 +715,10 @@
         <v>2.06</v>
       </c>
       <c r="V2" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W2" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X2" t="n">
         <v>12.5</v>
@@ -727,7 +727,7 @@
         <v>10.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA2" t="n">
         <v>50</v>
@@ -736,7 +736,7 @@
         <v>10</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD2" t="n">
         <v>13</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.32</v>
+        <v>2.58</v>
       </c>
       <c r="G3" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="H3" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>2.92</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
         <v>1.34</v>
@@ -826,7 +826,7 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.28</v>
@@ -841,25 +841,25 @@
         <v>1.38</v>
       </c>
       <c r="S3" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="T3" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U3" t="n">
         <v>2.12</v>
       </c>
       <c r="V3" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="W3" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="X3" t="n">
         <v>20</v>
       </c>
       <c r="Y3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
         <v>25</v>
@@ -886,7 +886,7 @@
         <v>14.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI3" t="n">
         <v>48</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G4" t="n">
         <v>2.18</v>
@@ -946,7 +946,7 @@
         <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J4" t="n">
         <v>3.7</v>
@@ -955,7 +955,7 @@
         <v>3.75</v>
       </c>
       <c r="L4" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -967,7 +967,7 @@
         <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q4" t="n">
         <v>2.06</v>
@@ -985,7 +985,7 @@
         <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W4" t="n">
         <v>1.85</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.63</v>
+        <v>1.81</v>
       </c>
       <c r="G5" t="n">
-        <v>600</v>
+        <v>8.4</v>
       </c>
       <c r="H5" t="n">
         <v>1.92</v>
       </c>
       <c r="I5" t="n">
-        <v>870</v>
+        <v>5.2</v>
       </c>
       <c r="J5" t="n">
         <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1120,10 +1120,10 @@
         <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.26</v>
+        <v>1.43</v>
       </c>
       <c r="W5" t="n">
-        <v>1.52</v>
+        <v>1.29</v>
       </c>
       <c r="X5" t="n">
         <v>970</v>
@@ -1132,52 +1132,52 @@
         <v>970</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB5" t="n">
         <v>970</v>
       </c>
       <c r="AC5" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AD5" t="n">
         <v>970</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG5" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AH5" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6">
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="G6" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
         <v>4.7</v>
@@ -1219,13 +1219,13 @@
         <v>7.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
@@ -1234,85 +1234,85 @@
         <v>1.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="P6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S6" t="n">
         <v>2.36</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.06</v>
-      </c>
       <c r="T6" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="U6" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="V6" t="n">
         <v>1.16</v>
       </c>
       <c r="W6" t="n">
-        <v>2.52</v>
+        <v>2.34</v>
       </c>
       <c r="X6" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Y6" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Z6" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="AA6" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>500</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI6" t="n">
         <v>170</v>
       </c>
-      <c r="AB6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE6" t="n">
+      <c r="AJ6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO6" t="n">
         <v>80</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>500</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1342,25 +1342,25 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1369,46 +1369,46 @@
         <v>4.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="R7" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="S7" t="n">
-        <v>2.4</v>
+        <v>2.64</v>
       </c>
       <c r="T7" t="n">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="U7" t="n">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="V7" t="n">
         <v>1.33</v>
       </c>
       <c r="W7" t="n">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="X7" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
         <v>970</v>
       </c>
       <c r="Z7" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AA7" t="n">
         <v>960</v>
       </c>
       <c r="AB7" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AC7" t="n">
         <v>970</v>
@@ -1417,10 +1417,10 @@
         <v>970</v>
       </c>
       <c r="AE7" t="n">
-        <v>440</v>
+        <v>980</v>
       </c>
       <c r="AF7" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
         <v>24</v>
@@ -1429,25 +1429,25 @@
         <v>970</v>
       </c>
       <c r="AI7" t="n">
-        <v>880</v>
+        <v>980</v>
       </c>
       <c r="AJ7" t="n">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="AK7" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AL7" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AM7" t="n">
-        <v>540</v>
+        <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>600</v>
+        <v>55</v>
       </c>
       <c r="AO7" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1477,91 +1477,91 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.2</v>
+        <v>2.46</v>
       </c>
       <c r="G8" t="n">
-        <v>3.05</v>
+        <v>2.76</v>
       </c>
       <c r="H8" t="n">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="I8" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="J8" t="n">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
-        <v>5.8</v>
+        <v>3.7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
         <v>3.35</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="Q8" t="n">
         <v>2.02</v>
       </c>
       <c r="R8" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="S8" t="n">
-        <v>2.62</v>
+        <v>3.65</v>
       </c>
       <c r="T8" t="n">
-        <v>1.05</v>
+        <v>1.79</v>
       </c>
       <c r="U8" t="n">
-        <v>1.04</v>
+        <v>2.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="W8" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="X8" t="n">
-        <v>500</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="Z8" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="AA8" t="n">
         <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AC8" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AE8" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="AF8" t="n">
-        <v>500</v>
+        <v>95</v>
       </c>
       <c r="AG8" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AH8" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AI8" t="n">
         <v>500</v>
@@ -1573,16 +1573,16 @@
         <v>500</v>
       </c>
       <c r="AL8" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AM8" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AO8" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
@@ -1615,109 +1615,109 @@
         <v>1.87</v>
       </c>
       <c r="G9" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H9" t="n">
         <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O9" t="n">
         <v>1.32</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.01</v>
       </c>
       <c r="P9" t="n">
         <v>1.87</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R9" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>2.62</v>
+        <v>3.35</v>
       </c>
       <c r="T9" t="n">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="U9" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="V9" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W9" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X9" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>500</v>
+        <v>85</v>
       </c>
       <c r="AA9" t="n">
         <v>900</v>
       </c>
       <c r="AB9" t="n">
-        <v>970</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>42</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
         <v>500</v>
       </c>
       <c r="AF9" t="n">
-        <v>500</v>
+        <v>12.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AI9" t="n">
         <v>500</v>
       </c>
       <c r="AJ9" t="n">
-        <v>900</v>
+        <v>24</v>
       </c>
       <c r="AK9" t="n">
-        <v>500</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="AM9" t="n">
         <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>500</v>
+        <v>15</v>
       </c>
       <c r="AO9" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10">
@@ -1747,25 +1747,25 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G10" t="n">
         <v>4.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="I10" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="J10" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K10" t="n">
         <v>4.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -1777,82 +1777,82 @@
         <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q10" t="n">
         <v>1.67</v>
       </c>
       <c r="R10" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S10" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="T10" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U10" t="n">
         <v>2.36</v>
       </c>
       <c r="V10" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="W10" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="X10" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="Y10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AB10" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
         <v>9.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>500</v>
+        <v>18</v>
       </c>
       <c r="AF10" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ10" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AK10" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AL10" t="n">
-        <v>970</v>
+        <v>160</v>
       </c>
       <c r="AM10" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="AN10" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AO10" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="11">
@@ -1882,58 +1882,58 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.04</v>
+        <v>3.15</v>
       </c>
       <c r="G11" t="n">
-        <v>610</v>
+        <v>4.3</v>
       </c>
       <c r="H11" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="I11" t="n">
-        <v>870</v>
+        <v>2.22</v>
       </c>
       <c r="J11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M11" t="n">
         <v>1.02</v>
       </c>
-      <c r="K11" t="n">
-        <v>500</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.01</v>
-      </c>
       <c r="N11" t="n">
-        <v>1.24</v>
+        <v>3.45</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>1.24</v>
+        <v>2.32</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="R11" t="n">
-        <v>1.18</v>
+        <v>1.56</v>
       </c>
       <c r="S11" t="n">
-        <v>1.36</v>
+        <v>2.26</v>
       </c>
       <c r="T11" t="n">
-        <v>1.04</v>
+        <v>1.52</v>
       </c>
       <c r="U11" t="n">
-        <v>1.04</v>
+        <v>2.4</v>
       </c>
       <c r="V11" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="W11" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="X11" t="n">
         <v>970</v>
@@ -1942,10 +1942,10 @@
         <v>970</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AB11" t="n">
         <v>970</v>
@@ -1957,10 +1957,10 @@
         <v>970</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG11" t="n">
         <v>970</v>
@@ -1969,25 +1969,25 @@
         <v>970</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="12">
@@ -2017,112 +2017,112 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G12" t="n">
-        <v>600</v>
+        <v>1.68</v>
       </c>
       <c r="H12" t="n">
-        <v>2.52</v>
+        <v>4.9</v>
       </c>
       <c r="I12" t="n">
-        <v>870</v>
+        <v>7.4</v>
       </c>
       <c r="J12" t="n">
-        <v>2.96</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>500</v>
+        <v>5.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P12" t="n">
-        <v>1.24</v>
+        <v>2.12</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.22</v>
+        <v>1.54</v>
       </c>
       <c r="R12" t="n">
-        <v>1.18</v>
+        <v>1.52</v>
       </c>
       <c r="S12" t="n">
-        <v>1.21</v>
+        <v>2.36</v>
       </c>
       <c r="T12" t="n">
-        <v>1.04</v>
+        <v>1.67</v>
       </c>
       <c r="U12" t="n">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="V12" t="n">
         <v>1.17</v>
       </c>
       <c r="W12" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="X12" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="Y12" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB12" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AC12" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
@@ -2155,7 +2155,7 @@
         <v>1.04</v>
       </c>
       <c r="G13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="H13" t="n">
         <v>1.04</v>
@@ -2170,25 +2170,25 @@
         <v>1000</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1.24</v>
+        <v>1.02</v>
       </c>
       <c r="O13" t="n">
         <v>1.09</v>
       </c>
       <c r="P13" t="n">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="Q13" t="n">
         <v>1.09</v>
       </c>
       <c r="R13" t="n">
-        <v>1.18</v>
+        <v>1.45</v>
       </c>
       <c r="S13" t="n">
         <v>1.09</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="G14" t="n">
         <v>1.67</v>
       </c>
       <c r="H14" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="I14" t="n">
-        <v>8.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="J14" t="n">
         <v>4.3</v>
@@ -2305,37 +2305,37 @@
         <v>4.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="O14" t="n">
         <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="R14" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="S14" t="n">
-        <v>2.46</v>
+        <v>2.66</v>
       </c>
       <c r="T14" t="n">
-        <v>1.63</v>
+        <v>1.77</v>
       </c>
       <c r="U14" t="n">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="V14" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="W14" t="n">
         <v>2.5</v>
@@ -2344,10 +2344,10 @@
         <v>24</v>
       </c>
       <c r="Y14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
@@ -2359,7 +2359,7 @@
         <v>12.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE14" t="n">
         <v>85</v>
@@ -2368,28 +2368,28 @@
         <v>12.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
         <v>24</v>
       </c>
       <c r="AI14" t="n">
-        <v>190</v>
+        <v>330</v>
       </c>
       <c r="AJ14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK14" t="n">
         <v>19</v>
       </c>
-      <c r="AK14" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AL14" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM14" t="n">
         <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AO14" t="n">
         <v>95</v>
@@ -2440,7 +2440,7 @@
         <v>3.85</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
@@ -2455,7 +2455,7 @@
         <v>1.89</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R15" t="n">
         <v>1.34</v>
@@ -2476,46 +2476,46 @@
         <v>1.39</v>
       </c>
       <c r="X15" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y15" t="n">
         <v>12.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF15" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AG15" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ15" t="n">
         <v>70</v>
       </c>
       <c r="AK15" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL15" t="n">
         <v>60</v>
@@ -2524,7 +2524,7 @@
         <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO15" t="n">
         <v>24</v>
@@ -2560,19 +2560,19 @@
         <v>1.41</v>
       </c>
       <c r="G16" t="n">
-        <v>600</v>
+        <v>970</v>
       </c>
       <c r="H16" t="n">
         <v>2.34</v>
       </c>
       <c r="I16" t="n">
-        <v>870</v>
+        <v>970</v>
       </c>
       <c r="J16" t="n">
         <v>3.15</v>
       </c>
       <c r="K16" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2695,19 +2695,19 @@
         <v>2.06</v>
       </c>
       <c r="G17" t="n">
-        <v>600</v>
+        <v>970</v>
       </c>
       <c r="H17" t="n">
         <v>1.7</v>
       </c>
       <c r="I17" t="n">
-        <v>870</v>
+        <v>970</v>
       </c>
       <c r="J17" t="n">
         <v>2.82</v>
       </c>
       <c r="K17" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2752,16 +2752,16 @@
         <v>970</v>
       </c>
       <c r="Z17" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AA17" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB17" t="n">
         <v>970</v>
       </c>
       <c r="AC17" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD17" t="n">
         <v>970</v>
@@ -2791,13 +2791,13 @@
         <v>500</v>
       </c>
       <c r="AM17" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
         <v>500</v>
       </c>
       <c r="AO17" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
     </row>
     <row r="18">
@@ -2830,19 +2830,19 @@
         <v>1.52</v>
       </c>
       <c r="G18" t="n">
-        <v>600</v>
+        <v>970</v>
       </c>
       <c r="H18" t="n">
         <v>2.38</v>
       </c>
       <c r="I18" t="n">
-        <v>870</v>
+        <v>970</v>
       </c>
       <c r="J18" t="n">
         <v>3.05</v>
       </c>
       <c r="K18" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2968,10 +2968,10 @@
         <v>6.8</v>
       </c>
       <c r="H19" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="I19" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="J19" t="n">
         <v>3.75</v>
@@ -2992,10 +2992,10 @@
         <v>1.01</v>
       </c>
       <c r="P19" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R19" t="n">
         <v>1.29</v>
@@ -3010,7 +3010,7 @@
         <v>1.04</v>
       </c>
       <c r="V19" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="W19" t="n">
         <v>1.17</v>
@@ -3022,7 +3022,7 @@
         <v>970</v>
       </c>
       <c r="Z19" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AA19" t="n">
         <v>900</v>
@@ -3124,19 +3124,19 @@
         <v>1.24</v>
       </c>
       <c r="O20" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="P20" t="n">
         <v>1.24</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="R20" t="n">
         <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="T20" t="n">
         <v>1.01</v>
@@ -3235,7 +3235,7 @@
         <v>3.8</v>
       </c>
       <c r="G21" t="n">
-        <v>600</v>
+        <v>970</v>
       </c>
       <c r="H21" t="n">
         <v>1.19</v>
@@ -3247,7 +3247,7 @@
         <v>5.4</v>
       </c>
       <c r="K21" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3259,19 +3259,19 @@
         <v>25</v>
       </c>
       <c r="O21" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P21" t="n">
         <v>1.24</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="R21" t="n">
         <v>1.18</v>
       </c>
       <c r="S21" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="T21" t="n">
         <v>1.04</v>
@@ -3292,10 +3292,10 @@
         <v>970</v>
       </c>
       <c r="Z21" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AA21" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AB21" t="n">
         <v>970</v>
@@ -3307,7 +3307,7 @@
         <v>970</v>
       </c>
       <c r="AE21" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AF21" t="n">
         <v>400</v>
@@ -3337,7 +3337,7 @@
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>420</v>
+        <v>700</v>
       </c>
     </row>
     <row r="22">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="G22" t="n">
         <v>1000</v>
@@ -3394,19 +3394,19 @@
         <v>1.24</v>
       </c>
       <c r="O22" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P22" t="n">
         <v>1.24</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="R22" t="n">
         <v>1.18</v>
       </c>
       <c r="S22" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="T22" t="n">
         <v>1.01</v>
@@ -3916,13 +3916,13 @@
         <v>4.5</v>
       </c>
       <c r="I26" t="n">
-        <v>870</v>
+        <v>970</v>
       </c>
       <c r="J26" t="n">
         <v>6</v>
       </c>
       <c r="K26" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -3946,7 +3946,7 @@
         <v>1.18</v>
       </c>
       <c r="S26" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="T26" t="n">
         <v>1.04</v>
@@ -4312,19 +4312,19 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="G29" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="H29" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="I29" t="n">
         <v>2.58</v>
       </c>
       <c r="J29" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K29" t="n">
         <v>3.85</v>
@@ -4345,7 +4345,7 @@
         <v>2.48</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="R29" t="n">
         <v>1.6</v>
@@ -4354,7 +4354,7 @@
         <v>2.52</v>
       </c>
       <c r="T29" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="U29" t="n">
         <v>2.68</v>
@@ -4363,7 +4363,7 @@
         <v>1.63</v>
       </c>
       <c r="W29" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X29" t="n">
         <v>22</v>
@@ -4378,7 +4378,7 @@
         <v>36</v>
       </c>
       <c r="AB29" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC29" t="n">
         <v>8.800000000000001</v>
@@ -4387,7 +4387,7 @@
         <v>12</v>
       </c>
       <c r="AE29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF29" t="n">
         <v>23</v>
@@ -4399,10 +4399,10 @@
         <v>14.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ29" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AK29" t="n">
         <v>27</v>
@@ -4411,10 +4411,10 @@
         <v>32</v>
       </c>
       <c r="AM29" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN29" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO29" t="n">
         <v>14.5</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G30" t="n">
         <v>2.68</v>
@@ -4465,7 +4465,7 @@
         <v>3.7</v>
       </c>
       <c r="L30" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="M30" t="n">
         <v>1.06</v>
@@ -4492,7 +4492,7 @@
         <v>1.65</v>
       </c>
       <c r="U30" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="V30" t="n">
         <v>1.52</v>
@@ -4501,7 +4501,7 @@
         <v>1.59</v>
       </c>
       <c r="X30" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y30" t="n">
         <v>14</v>
@@ -4720,22 +4720,22 @@
         <v>3.8</v>
       </c>
       <c r="G32" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H32" t="n">
         <v>1.71</v>
       </c>
       <c r="I32" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="J32" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K32" t="n">
         <v>7</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M32" t="n">
         <v>1.01</v>
@@ -4744,7 +4744,7 @@
         <v>2.36</v>
       </c>
       <c r="O32" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="P32" t="n">
         <v>1.51</v>
@@ -4765,10 +4765,10 @@
         <v>1.69</v>
       </c>
       <c r="V32" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="W32" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="X32" t="n">
         <v>12.5</v>
@@ -4777,7 +4777,7 @@
         <v>970</v>
       </c>
       <c r="Z32" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AA32" t="n">
         <v>900</v>
@@ -4816,7 +4816,7 @@
         <v>500</v>
       </c>
       <c r="AM32" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN32" t="n">
         <v>500</v>
@@ -4852,19 +4852,19 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="G33" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H33" t="n">
         <v>4.2</v>
       </c>
       <c r="I33" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J33" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="K33" t="n">
         <v>3.6</v>
@@ -4885,10 +4885,10 @@
         <v>1.48</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R33" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="S33" t="n">
         <v>3.55</v>
@@ -4900,7 +4900,7 @@
         <v>1.04</v>
       </c>
       <c r="V33" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W33" t="n">
         <v>1.9</v>
@@ -4915,7 +4915,7 @@
         <v>95</v>
       </c>
       <c r="AA33" t="n">
-        <v>140</v>
+        <v>900</v>
       </c>
       <c r="AB33" t="n">
         <v>8</v>
@@ -4948,10 +4948,10 @@
         <v>29</v>
       </c>
       <c r="AL33" t="n">
-        <v>190</v>
+        <v>970</v>
       </c>
       <c r="AM33" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN33" t="n">
         <v>23</v>
@@ -4990,10 +4990,10 @@
         <v>2.24</v>
       </c>
       <c r="G34" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="H34" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I34" t="n">
         <v>3.6</v>
@@ -5002,7 +5002,7 @@
         <v>3.5</v>
       </c>
       <c r="K34" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
@@ -5011,7 +5011,7 @@
         <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O34" t="n">
         <v>1.18</v>
@@ -5038,7 +5038,7 @@
         <v>1.39</v>
       </c>
       <c r="W34" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X34" t="n">
         <v>970</v>
@@ -5089,10 +5089,10 @@
         <v>580</v>
       </c>
       <c r="AN34" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AO34" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
     </row>
     <row r="35">
@@ -5146,7 +5146,7 @@
         <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O35" t="n">
         <v>1.21</v>
@@ -5158,13 +5158,13 @@
         <v>1.63</v>
       </c>
       <c r="R35" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S35" t="n">
         <v>2.58</v>
       </c>
       <c r="T35" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U35" t="n">
         <v>2.38</v>
@@ -5194,7 +5194,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD35" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE35" t="n">
         <v>60</v>
@@ -5224,7 +5224,7 @@
         <v>75</v>
       </c>
       <c r="AN35" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO35" t="n">
         <v>46</v>
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.4</v>
+        <v>2.26</v>
       </c>
       <c r="G36" t="n">
-        <v>2.68</v>
+        <v>2.52</v>
       </c>
       <c r="H36" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="I36" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="J36" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K36" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L36" t="n">
         <v>1.41</v>
@@ -5287,7 +5287,7 @@
         <v>1.42</v>
       </c>
       <c r="P36" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q36" t="n">
         <v>2.2</v>
@@ -5305,10 +5305,10 @@
         <v>1.9</v>
       </c>
       <c r="V36" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="W36" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="X36" t="n">
         <v>21</v>
@@ -5332,7 +5332,7 @@
         <v>970</v>
       </c>
       <c r="AE36" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AF36" t="n">
         <v>970</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="G37" t="n">
         <v>1.86</v>
@@ -5404,10 +5404,10 @@
         <v>6.2</v>
       </c>
       <c r="J37" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K37" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L37" t="n">
         <v>1.43</v>
@@ -5422,7 +5422,7 @@
         <v>1.35</v>
       </c>
       <c r="P37" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q37" t="n">
         <v>1.95</v>
@@ -5554,7 +5554,7 @@
         <v>2.84</v>
       </c>
       <c r="O38" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P38" t="n">
         <v>1.62</v>
@@ -5632,7 +5632,7 @@
         <v>55</v>
       </c>
       <c r="AO38" t="n">
-        <v>110</v>
+        <v>970</v>
       </c>
     </row>
     <row r="39">
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G39" t="n">
         <v>3.3</v>
       </c>
       <c r="H39" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="I39" t="n">
         <v>3.25</v>
       </c>
       <c r="J39" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="K39" t="n">
-        <v>7</v>
+        <v>4.8</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
@@ -5692,10 +5692,10 @@
         <v>1.05</v>
       </c>
       <c r="P39" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R39" t="n">
         <v>1.21</v>
@@ -5713,7 +5713,7 @@
         <v>1.44</v>
       </c>
       <c r="W39" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X39" t="n">
         <v>11.5</v>
@@ -5737,13 +5737,13 @@
         <v>28</v>
       </c>
       <c r="AE39" t="n">
-        <v>120</v>
+        <v>970</v>
       </c>
       <c r="AF39" t="n">
         <v>23</v>
       </c>
       <c r="AG39" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AH39" t="n">
         <v>44</v>
@@ -5764,10 +5764,10 @@
         <v>500</v>
       </c>
       <c r="AN39" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AO39" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
     </row>
     <row r="40">
@@ -5800,7 +5800,7 @@
         <v>2.76</v>
       </c>
       <c r="G40" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H40" t="n">
         <v>2.6</v>
@@ -5839,7 +5839,7 @@
         <v>3.75</v>
       </c>
       <c r="T40" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U40" t="n">
         <v>2.04</v>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="G41" t="n">
         <v>2.1</v>
@@ -5965,7 +5965,7 @@
         <v>1.78</v>
       </c>
       <c r="Q41" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R41" t="n">
         <v>1.29</v>
@@ -5974,7 +5974,7 @@
         <v>3.8</v>
       </c>
       <c r="T41" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U41" t="n">
         <v>1.96</v>
@@ -5995,7 +5995,7 @@
         <v>970</v>
       </c>
       <c r="AA41" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB41" t="n">
         <v>8.6</v>
@@ -6010,31 +6010,31 @@
         <v>500</v>
       </c>
       <c r="AF41" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AG41" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AH41" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AI41" t="n">
         <v>500</v>
       </c>
       <c r="AJ41" t="n">
-        <v>970</v>
+        <v>900</v>
       </c>
       <c r="AK41" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="AL41" t="n">
         <v>970</v>
       </c>
       <c r="AM41" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN41" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AO41" t="n">
         <v>500</v>
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="G42" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="H42" t="n">
         <v>5.3</v>
@@ -6082,7 +6082,7 @@
         <v>3.45</v>
       </c>
       <c r="K42" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L42" t="n">
         <v>1.33</v>
@@ -6097,7 +6097,7 @@
         <v>1.35</v>
       </c>
       <c r="P42" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q42" t="n">
         <v>2.02</v>
@@ -6106,10 +6106,10 @@
         <v>1.26</v>
       </c>
       <c r="S42" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T42" t="n">
-        <v>1.05</v>
+        <v>1.83</v>
       </c>
       <c r="U42" t="n">
         <v>1.04</v>
@@ -6208,19 +6208,19 @@
         <v>2.74</v>
       </c>
       <c r="H43" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I43" t="n">
         <v>4.5</v>
       </c>
       <c r="J43" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K43" t="n">
-        <v>7</v>
+        <v>4.8</v>
       </c>
       <c r="L43" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M43" t="n">
         <v>1.09</v>
@@ -6232,10 +6232,10 @@
         <v>1.43</v>
       </c>
       <c r="P43" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R43" t="n">
         <v>1.27</v>
@@ -6271,13 +6271,13 @@
         <v>970</v>
       </c>
       <c r="AC43" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD43" t="n">
         <v>970</v>
       </c>
       <c r="AE43" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AF43" t="n">
         <v>970</v>
@@ -6361,16 +6361,16 @@
         <v>1.11</v>
       </c>
       <c r="N44" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="O44" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="P44" t="n">
         <v>1.52</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="R44" t="n">
         <v>1.19</v>
@@ -6379,10 +6379,10 @@
         <v>5.5</v>
       </c>
       <c r="T44" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="U44" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="V44" t="n">
         <v>1.36</v>
@@ -6472,13 +6472,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="G45" t="n">
         <v>1.91</v>
       </c>
       <c r="H45" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I45" t="n">
         <v>4.6</v>
@@ -6514,7 +6514,7 @@
         <v>2.96</v>
       </c>
       <c r="T45" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="U45" t="n">
         <v>2.1</v>
@@ -6526,7 +6526,7 @@
         <v>2.08</v>
       </c>
       <c r="X45" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y45" t="n">
         <v>23</v>
@@ -6535,7 +6535,7 @@
         <v>36</v>
       </c>
       <c r="AA45" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AB45" t="n">
         <v>11</v>
@@ -6553,7 +6553,7 @@
         <v>12.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH45" t="n">
         <v>20</v>
@@ -6577,7 +6577,7 @@
         <v>11.5</v>
       </c>
       <c r="AO45" t="n">
-        <v>65</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46">
@@ -6619,7 +6619,7 @@
         <v>5.8</v>
       </c>
       <c r="J46" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K46" t="n">
         <v>3.85</v>
@@ -6640,7 +6640,7 @@
         <v>1.74</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R46" t="n">
         <v>1.27</v>
@@ -6667,7 +6667,7 @@
         <v>16.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>970</v>
+        <v>130</v>
       </c>
       <c r="AA46" t="n">
         <v>500</v>
@@ -6682,7 +6682,7 @@
         <v>23</v>
       </c>
       <c r="AE46" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="AF46" t="n">
         <v>12</v>
@@ -6703,10 +6703,10 @@
         <v>26</v>
       </c>
       <c r="AL46" t="n">
-        <v>970</v>
+        <v>200</v>
       </c>
       <c r="AM46" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN46" t="n">
         <v>16</v>
@@ -6742,16 +6742,16 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G47" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H47" t="n">
         <v>2.42</v>
       </c>
       <c r="I47" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J47" t="n">
         <v>3.25</v>
@@ -6790,10 +6790,10 @@
         <v>1.98</v>
       </c>
       <c r="V47" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W47" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X47" t="n">
         <v>11.5</v>
@@ -6802,10 +6802,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Z47" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA47" t="n">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="AB47" t="n">
         <v>11</v>
@@ -6814,7 +6814,7 @@
         <v>7.8</v>
       </c>
       <c r="AD47" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE47" t="n">
         <v>32</v>
@@ -6832,13 +6832,13 @@
         <v>50</v>
       </c>
       <c r="AJ47" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="AK47" t="n">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="AL47" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="AM47" t="n">
         <v>580</v>
@@ -6877,10 +6877,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="G48" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="H48" t="n">
         <v>3.55</v>
@@ -6889,7 +6889,7 @@
         <v>4.6</v>
       </c>
       <c r="J48" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K48" t="n">
         <v>4.3</v>
@@ -6901,34 +6901,34 @@
         <v>1.03</v>
       </c>
       <c r="N48" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="O48" t="n">
         <v>1.16</v>
       </c>
       <c r="P48" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R48" t="n">
         <v>1.66</v>
       </c>
       <c r="S48" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T48" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U48" t="n">
         <v>2.58</v>
       </c>
       <c r="V48" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W48" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X48" t="n">
         <v>32</v>
@@ -7018,7 +7018,7 @@
         <v>3.15</v>
       </c>
       <c r="H49" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I49" t="n">
         <v>2.72</v>
@@ -7039,10 +7039,10 @@
         <v>3.55</v>
       </c>
       <c r="O49" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P49" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q49" t="n">
         <v>2</v>
@@ -7054,13 +7054,13 @@
         <v>3.5</v>
       </c>
       <c r="T49" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U49" t="n">
         <v>2.1</v>
       </c>
       <c r="V49" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="W49" t="n">
         <v>1.46</v>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="G50" t="n">
         <v>1.87</v>
@@ -7156,7 +7156,7 @@
         <v>4.1</v>
       </c>
       <c r="I50" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J50" t="n">
         <v>4.2</v>
@@ -7183,10 +7183,10 @@
         <v>1.41</v>
       </c>
       <c r="R50" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S50" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T50" t="n">
         <v>1.58</v>
@@ -7219,7 +7219,7 @@
         <v>12</v>
       </c>
       <c r="AD50" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE50" t="n">
         <v>55</v>
@@ -7285,7 +7285,7 @@
         <v>2.4</v>
       </c>
       <c r="G51" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H51" t="n">
         <v>2.88</v>
@@ -7300,7 +7300,7 @@
         <v>3.9</v>
       </c>
       <c r="L51" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="M51" t="n">
         <v>1.05</v>
@@ -7315,22 +7315,22 @@
         <v>2.28</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R51" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="S51" t="n">
         <v>2.84</v>
       </c>
       <c r="T51" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="U51" t="n">
         <v>2.46</v>
       </c>
       <c r="V51" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W51" t="n">
         <v>1.65</v>
@@ -7345,7 +7345,7 @@
         <v>970</v>
       </c>
       <c r="AA51" t="n">
-        <v>290</v>
+        <v>970</v>
       </c>
       <c r="AB51" t="n">
         <v>21</v>
@@ -7354,28 +7354,28 @@
         <v>12.5</v>
       </c>
       <c r="AD51" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AE51" t="n">
         <v>970</v>
       </c>
       <c r="AF51" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AG51" t="n">
         <v>12</v>
       </c>
       <c r="AH51" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI51" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AJ51" t="n">
         <v>130</v>
       </c>
       <c r="AK51" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AL51" t="n">
         <v>500</v>
@@ -7384,7 +7384,7 @@
         <v>580</v>
       </c>
       <c r="AN51" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AO51" t="n">
         <v>970</v>
@@ -7435,31 +7435,31 @@
         <v>3.55</v>
       </c>
       <c r="L52" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="M52" t="n">
         <v>1.11</v>
       </c>
       <c r="N52" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="O52" t="n">
         <v>1.46</v>
       </c>
       <c r="P52" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="R52" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S52" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T52" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U52" t="n">
         <v>1.79</v>
@@ -7471,10 +7471,10 @@
         <v>1.26</v>
       </c>
       <c r="X52" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y52" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z52" t="n">
         <v>12</v>
@@ -7483,19 +7483,19 @@
         <v>46</v>
       </c>
       <c r="AB52" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC52" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD52" t="n">
         <v>12</v>
       </c>
       <c r="AE52" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="AF52" t="n">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="AG52" t="n">
         <v>19.5</v>
@@ -7510,7 +7510,7 @@
         <v>900</v>
       </c>
       <c r="AK52" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="AL52" t="n">
         <v>500</v>
@@ -7522,7 +7522,7 @@
         <v>500</v>
       </c>
       <c r="AO52" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G53" t="n">
         <v>2.28</v>
@@ -7564,7 +7564,7 @@
         <v>6.6</v>
       </c>
       <c r="J53" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="K53" t="n">
         <v>5.5</v>
@@ -7687,16 +7687,16 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G54" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="H54" t="n">
         <v>5</v>
       </c>
       <c r="I54" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="J54" t="n">
         <v>4.1</v>
@@ -7705,7 +7705,7 @@
         <v>4.3</v>
       </c>
       <c r="L54" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M54" t="n">
         <v>1.05</v>
@@ -7735,13 +7735,13 @@
         <v>2.2</v>
       </c>
       <c r="V54" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W54" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="X54" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y54" t="n">
         <v>21</v>
@@ -7771,10 +7771,10 @@
         <v>10</v>
       </c>
       <c r="AH54" t="n">
-        <v>34</v>
+        <v>19.5</v>
       </c>
       <c r="AI54" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="AJ54" t="n">
         <v>18</v>
@@ -7852,7 +7852,7 @@
         <v>1.21</v>
       </c>
       <c r="P55" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q55" t="n">
         <v>1.65</v>
@@ -7867,7 +7867,7 @@
         <v>1.56</v>
       </c>
       <c r="U55" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="V55" t="n">
         <v>1.6</v>
@@ -7960,7 +7960,7 @@
         <v>2.04</v>
       </c>
       <c r="G56" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H56" t="n">
         <v>4.5</v>
@@ -7975,13 +7975,13 @@
         <v>3.35</v>
       </c>
       <c r="L56" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M56" t="n">
         <v>1.11</v>
       </c>
       <c r="N56" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O56" t="n">
         <v>1.49</v>
@@ -8008,10 +8008,10 @@
         <v>1.26</v>
       </c>
       <c r="W56" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X56" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y56" t="n">
         <v>13</v>
@@ -8026,7 +8026,7 @@
         <v>7.2</v>
       </c>
       <c r="AC56" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD56" t="n">
         <v>19.5</v>
@@ -8119,16 +8119,16 @@
         <v>3.85</v>
       </c>
       <c r="O57" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P57" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q57" t="n">
         <v>2.02</v>
       </c>
       <c r="R57" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S57" t="n">
         <v>3.6</v>
@@ -8137,7 +8137,7 @@
         <v>2.06</v>
       </c>
       <c r="U57" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V57" t="n">
         <v>2.56</v>
@@ -8161,7 +8161,7 @@
         <v>20</v>
       </c>
       <c r="AC57" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD57" t="n">
         <v>10</v>
@@ -8191,7 +8191,7 @@
         <v>100</v>
       </c>
       <c r="AM57" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN57" t="n">
         <v>140</v>
@@ -8329,10 +8329,10 @@
         <v>90</v>
       </c>
       <c r="AN58" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AO58" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59">
@@ -8362,22 +8362,22 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.62</v>
+        <v>1.82</v>
       </c>
       <c r="G59" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H59" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I59" t="n">
         <v>7.2</v>
       </c>
       <c r="J59" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K59" t="n">
-        <v>950</v>
+        <v>4.4</v>
       </c>
       <c r="L59" t="n">
         <v>1.4</v>
@@ -8413,7 +8413,7 @@
         <v>1.18</v>
       </c>
       <c r="W59" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="X59" t="n">
         <v>21</v>
@@ -8422,7 +8422,7 @@
         <v>970</v>
       </c>
       <c r="Z59" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AA59" t="n">
         <v>900</v>
@@ -8446,7 +8446,7 @@
         <v>13</v>
       </c>
       <c r="AH59" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI59" t="n">
         <v>500</v>
@@ -8461,7 +8461,7 @@
         <v>500</v>
       </c>
       <c r="AM59" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN59" t="n">
         <v>36</v>
@@ -8500,16 +8500,16 @@
         <v>1.94</v>
       </c>
       <c r="G60" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="H60" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I60" t="n">
         <v>4.8</v>
       </c>
       <c r="J60" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K60" t="n">
         <v>3.65</v>
@@ -8641,13 +8641,13 @@
         <v>24</v>
       </c>
       <c r="I61" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J61" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K61" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="L61" t="n">
         <v>1.25</v>
@@ -8656,49 +8656,49 @@
         <v>1.02</v>
       </c>
       <c r="N61" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="O61" t="n">
         <v>1.16</v>
       </c>
       <c r="P61" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="R61" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S61" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="T61" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="U61" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="V61" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="W61" t="n">
         <v>7</v>
       </c>
       <c r="X61" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Y61" t="n">
         <v>970</v>
       </c>
       <c r="Z61" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="AA61" t="n">
         <v>1000</v>
       </c>
       <c r="AB61" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC61" t="n">
         <v>970</v>
@@ -8707,19 +8707,19 @@
         <v>970</v>
       </c>
       <c r="AE61" t="n">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="AF61" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AG61" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH61" t="n">
         <v>1000</v>
       </c>
       <c r="AI61" t="n">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="AJ61" t="n">
         <v>8.4</v>
@@ -8728,13 +8728,13 @@
         <v>15</v>
       </c>
       <c r="AL61" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AM61" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="AN61" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AO61" t="n">
         <v>1000</v>
@@ -8770,7 +8770,7 @@
         <v>2.44</v>
       </c>
       <c r="G62" t="n">
-        <v>600</v>
+        <v>970</v>
       </c>
       <c r="H62" t="n">
         <v>1.43</v>
@@ -8782,7 +8782,7 @@
         <v>2.6</v>
       </c>
       <c r="K62" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="L62" t="n">
         <v>1.01</v>
@@ -8905,7 +8905,7 @@
         <v>2.64</v>
       </c>
       <c r="G63" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="H63" t="n">
         <v>2.82</v>
@@ -8914,7 +8914,7 @@
         <v>3</v>
       </c>
       <c r="J63" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K63" t="n">
         <v>3.65</v>
@@ -8941,7 +8941,7 @@
         <v>1.32</v>
       </c>
       <c r="S63" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T63" t="n">
         <v>1.75</v>
@@ -8953,7 +8953,7 @@
         <v>1.5</v>
       </c>
       <c r="W63" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X63" t="n">
         <v>14.5</v>
@@ -9037,22 +9037,22 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.92</v>
+        <v>1.48</v>
       </c>
       <c r="G64" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="H64" t="n">
         <v>3.8</v>
       </c>
       <c r="I64" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="J64" t="n">
-        <v>2.84</v>
+        <v>1.01</v>
       </c>
       <c r="K64" t="n">
-        <v>4.7</v>
+        <v>980</v>
       </c>
       <c r="L64" t="n">
         <v>1.01</v>
@@ -9061,16 +9061,16 @@
         <v>1.01</v>
       </c>
       <c r="N64" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="O64" t="n">
         <v>1.01</v>
       </c>
       <c r="P64" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R64" t="n">
         <v>1.18</v>
@@ -9085,10 +9085,10 @@
         <v>1.01</v>
       </c>
       <c r="V64" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W64" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X64" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
@@ -667,73 +667,73 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G2" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H2" t="n">
         <v>2.92</v>
       </c>
       <c r="I2" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="J2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.35</v>
       </c>
-      <c r="K2" t="n">
-        <v>3.4</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="P2" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="S2" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="U2" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
         <v>1.51</v>
       </c>
       <c r="W2" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X2" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
         <v>18</v>
       </c>
       <c r="AA2" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AB2" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC2" t="n">
         <v>7.4</v>
@@ -745,31 +745,31 @@
         <v>36</v>
       </c>
       <c r="AF2" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG2" t="n">
         <v>12.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ2" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK2" t="n">
         <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN2" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AO2" t="n">
         <v>36</v>
@@ -802,70 +802,70 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="G3" t="n">
-        <v>2.86</v>
+        <v>2.74</v>
       </c>
       <c r="H3" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="I3" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
         <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="O3" t="n">
         <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="R3" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S3" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="U3" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V3" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
         <v>1.57</v>
       </c>
       <c r="X3" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y3" t="n">
         <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB3" t="n">
         <v>14.5</v>
@@ -877,7 +877,7 @@
         <v>16</v>
       </c>
       <c r="AE3" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF3" t="n">
         <v>22</v>
@@ -886,19 +886,19 @@
         <v>14.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ3" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AK3" t="n">
         <v>34</v>
       </c>
       <c r="AL3" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM3" t="n">
         <v>95</v>
@@ -907,7 +907,7 @@
         <v>25</v>
       </c>
       <c r="AO3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="G4" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
         <v>3.7</v>
@@ -955,67 +955,67 @@
         <v>3.75</v>
       </c>
       <c r="L4" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.33</v>
       </c>
-      <c r="S4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.35</v>
-      </c>
       <c r="W4" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA4" t="n">
         <v>80</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD4" t="n">
         <v>15.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
@@ -1024,25 +1024,25 @@
         <v>18.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM4" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO4" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="G5" t="n">
-        <v>8.4</v>
+        <v>2.34</v>
       </c>
       <c r="H5" t="n">
-        <v>1.92</v>
+        <v>3.05</v>
       </c>
       <c r="I5" t="n">
-        <v>5.2</v>
+        <v>3.75</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="K5" t="n">
-        <v>980</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.55</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.04</v>
-      </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>2.38</v>
       </c>
       <c r="V5" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="W5" t="n">
-        <v>1.29</v>
+        <v>1.79</v>
       </c>
       <c r="X5" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="Y5" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="Z5" t="n">
-        <v>500</v>
+        <v>29</v>
       </c>
       <c r="AA5" t="n">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="AB5" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>500</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AE5" t="n">
-        <v>500</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="n">
-        <v>500</v>
+        <v>17.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="AJ5" t="n">
-        <v>900</v>
+        <v>30</v>
       </c>
       <c r="AK5" t="n">
-        <v>500</v>
+        <v>23</v>
       </c>
       <c r="AL5" t="n">
-        <v>500</v>
+        <v>32</v>
       </c>
       <c r="AM5" t="n">
-        <v>580</v>
+        <v>70</v>
       </c>
       <c r="AN5" t="n">
-        <v>600</v>
+        <v>12.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>600</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -1207,58 +1207,58 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="H6" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="I6" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.18</v>
       </c>
-      <c r="P6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.16</v>
-      </c>
       <c r="W6" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="X6" t="n">
         <v>980</v>
@@ -1270,13 +1270,13 @@
         <v>160</v>
       </c>
       <c r="AA6" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB6" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AC6" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AD6" t="n">
         <v>980</v>
@@ -1288,19 +1288,19 @@
         <v>500</v>
       </c>
       <c r="AG6" t="n">
-        <v>500</v>
+        <v>22</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AI6" t="n">
         <v>170</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL6" t="n">
         <v>980</v>
@@ -1342,46 +1342,46 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="G7" t="n">
         <v>2.1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K7" t="n">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S7" t="n">
-        <v>2.64</v>
+        <v>2.78</v>
       </c>
       <c r="T7" t="n">
         <v>1.62</v>
@@ -1393,52 +1393,52 @@
         <v>1.33</v>
       </c>
       <c r="W7" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="Y7" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="Z7" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AA7" t="n">
         <v>960</v>
       </c>
       <c r="AB7" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="AC7" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AD7" t="n">
-        <v>970</v>
+        <v>95</v>
       </c>
       <c r="AE7" t="n">
         <v>980</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG7" t="n">
         <v>24</v>
       </c>
       <c r="AH7" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
         <v>980</v>
       </c>
       <c r="AJ7" t="n">
-        <v>900</v>
+        <v>65</v>
       </c>
       <c r="AK7" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AL7" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AM7" t="n">
         <v>580</v>
@@ -1477,25 +1477,25 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="G8" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="H8" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="I8" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
         <v>3.2</v>
       </c>
       <c r="K8" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L8" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1504,85 +1504,85 @@
         <v>3.35</v>
       </c>
       <c r="O8" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="R8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S8" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="T8" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U8" t="n">
         <v>2.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W8" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Z8" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="AA8" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB8" t="n">
-        <v>36</v>
+        <v>10.5</v>
       </c>
       <c r="AC8" t="n">
         <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AE8" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AF8" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AH8" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AI8" t="n">
         <v>500</v>
       </c>
       <c r="AJ8" t="n">
-        <v>900</v>
+        <v>130</v>
       </c>
       <c r="AK8" t="n">
+        <v>210</v>
+      </c>
+      <c r="AL8" t="n">
         <v>500</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>970</v>
       </c>
       <c r="AM8" t="n">
         <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AO8" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9">
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="G9" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
         <v>5</v>
@@ -1630,28 +1630,28 @@
         <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="O9" t="n">
         <v>1.32</v>
       </c>
       <c r="P9" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="R9" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S9" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T9" t="n">
         <v>1.8</v>
@@ -1660,19 +1660,19 @@
         <v>2.02</v>
       </c>
       <c r="V9" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W9" t="n">
         <v>1.96</v>
       </c>
       <c r="X9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z9" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AA9" t="n">
         <v>900</v>
@@ -1681,10 +1681,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE9" t="n">
         <v>500</v>
@@ -1696,19 +1696,19 @@
         <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AI9" t="n">
         <v>500</v>
       </c>
       <c r="AJ9" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AK9" t="n">
         <v>22</v>
       </c>
       <c r="AL9" t="n">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="AM9" t="n">
         <v>580</v>
@@ -1717,7 +1717,7 @@
         <v>15</v>
       </c>
       <c r="AO9" t="n">
-        <v>600</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10">
@@ -1747,55 +1747,55 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="G10" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="I10" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="J10" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>4.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
         <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R10" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S10" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="T10" t="n">
         <v>1.62</v>
       </c>
       <c r="U10" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="V10" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="W10" t="n">
         <v>1.29</v>
@@ -1807,10 +1807,10 @@
         <v>12.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB10" t="n">
         <v>21</v>
@@ -1831,28 +1831,28 @@
         <v>17</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>16.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="n">
-        <v>900</v>
+        <v>90</v>
       </c>
       <c r="AK10" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL10" t="n">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="AM10" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="AN10" t="n">
         <v>36</v>
       </c>
       <c r="AO10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1882,58 +1882,58 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="G11" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H11" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="I11" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K11" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L11" t="n">
         <v>1.27</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>3.45</v>
+        <v>5.2</v>
       </c>
       <c r="O11" t="n">
         <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="R11" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="S11" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="T11" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U11" t="n">
         <v>2.4</v>
       </c>
       <c r="V11" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="W11" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="X11" t="n">
         <v>970</v>
@@ -2017,64 +2017,64 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G12" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="H12" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N12" t="n">
         <v>4.9</v>
       </c>
-      <c r="I12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1.1</v>
-      </c>
       <c r="O12" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R12" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="S12" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="T12" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="U12" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V12" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W12" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="X12" t="n">
         <v>26</v>
       </c>
       <c r="Y12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z12" t="n">
         <v>60</v>
@@ -2086,10 +2086,10 @@
         <v>12</v>
       </c>
       <c r="AC12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE12" t="n">
         <v>230</v>
@@ -2098,7 +2098,7 @@
         <v>12</v>
       </c>
       <c r="AG12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
         <v>22</v>
@@ -2107,10 +2107,10 @@
         <v>75</v>
       </c>
       <c r="AJ12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK12" t="n">
         <v>16.5</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>17</v>
       </c>
       <c r="AL12" t="n">
         <v>32</v>
@@ -2119,10 +2119,10 @@
         <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AO12" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G14" t="n">
         <v>1.57</v>
       </c>
-      <c r="G14" t="n">
-        <v>1.67</v>
-      </c>
       <c r="H14" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="I14" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="J14" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="K14" t="n">
         <v>4.9</v>
@@ -2311,88 +2311,88 @@
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
         <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R14" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S14" t="n">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="T14" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="U14" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="V14" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W14" t="n">
-        <v>2.5</v>
+        <v>2.74</v>
       </c>
       <c r="X14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y14" t="n">
         <v>27</v>
       </c>
       <c r="Z14" t="n">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD14" t="n">
         <v>26</v>
       </c>
       <c r="AE14" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AK14" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AL14" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM14" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>8.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO14" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2434,100 +2434,100 @@
         <v>2.52</v>
       </c>
       <c r="J15" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K15" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O15" t="n">
         <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="R15" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S15" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="T15" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U15" t="n">
         <v>2.12</v>
       </c>
       <c r="V15" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="W15" t="n">
         <v>1.39</v>
       </c>
       <c r="X15" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y15" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AB15" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE15" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF15" t="n">
         <v>25</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH15" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AI15" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AJ15" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK15" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AL15" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM15" t="n">
-        <v>110</v>
+        <v>450</v>
       </c>
       <c r="AN15" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO15" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
@@ -2557,58 +2557,58 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="G16" t="n">
-        <v>970</v>
+        <v>1.62</v>
       </c>
       <c r="H16" t="n">
-        <v>2.34</v>
+        <v>4.9</v>
       </c>
       <c r="I16" t="n">
-        <v>970</v>
+        <v>6.2</v>
       </c>
       <c r="J16" t="n">
-        <v>3.15</v>
+        <v>5.1</v>
       </c>
       <c r="K16" t="n">
-        <v>970</v>
+        <v>6.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="M16" t="n">
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>1.24</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O16" t="n">
         <v>1.08</v>
       </c>
       <c r="P16" t="n">
-        <v>1.24</v>
+        <v>3.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.08</v>
+        <v>1.26</v>
       </c>
       <c r="R16" t="n">
-        <v>1.18</v>
+        <v>2.24</v>
       </c>
       <c r="S16" t="n">
-        <v>1.08</v>
+        <v>1.66</v>
       </c>
       <c r="T16" t="n">
-        <v>1.04</v>
+        <v>1.4</v>
       </c>
       <c r="U16" t="n">
-        <v>1.04</v>
+        <v>2.9</v>
       </c>
       <c r="V16" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W16" t="n">
-        <v>1.01</v>
+        <v>2.58</v>
       </c>
       <c r="X16" t="n">
         <v>970</v>
@@ -2617,52 +2617,52 @@
         <v>970</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB16" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AC16" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF16" t="n">
-        <v>500</v>
+        <v>19.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ16" t="n">
-        <v>500</v>
+        <v>21</v>
       </c>
       <c r="AK16" t="n">
-        <v>500</v>
+        <v>16</v>
       </c>
       <c r="AL16" t="n">
-        <v>500</v>
+        <v>22</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AN16" t="n">
-        <v>500</v>
+        <v>4.1</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -2704,10 +2704,10 @@
         <v>970</v>
       </c>
       <c r="J17" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="K17" t="n">
-        <v>970</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2716,22 +2716,22 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>1.24</v>
+        <v>1.55</v>
       </c>
       <c r="O17" t="n">
         <v>1.19</v>
       </c>
       <c r="P17" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q17" t="n">
         <v>1.19</v>
       </c>
       <c r="R17" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S17" t="n">
-        <v>1.18</v>
+        <v>1.05</v>
       </c>
       <c r="T17" t="n">
         <v>1.04</v>
@@ -2740,7 +2740,7 @@
         <v>1.04</v>
       </c>
       <c r="V17" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="W17" t="n">
         <v>1.27</v>
@@ -2761,7 +2761,7 @@
         <v>970</v>
       </c>
       <c r="AC17" t="n">
-        <v>42</v>
+        <v>500</v>
       </c>
       <c r="AD17" t="n">
         <v>970</v>
@@ -2794,7 +2794,7 @@
         <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO17" t="n">
         <v>970</v>
@@ -2827,58 +2827,58 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.52</v>
+        <v>1.85</v>
       </c>
       <c r="G18" t="n">
-        <v>970</v>
+        <v>2.04</v>
       </c>
       <c r="H18" t="n">
-        <v>2.38</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
-        <v>970</v>
+        <v>4.6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="K18" t="n">
-        <v>970</v>
+        <v>5.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>3.25</v>
+        <v>5.3</v>
       </c>
       <c r="O18" t="n">
         <v>1.18</v>
       </c>
       <c r="P18" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.18</v>
+        <v>1.54</v>
       </c>
       <c r="R18" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="S18" t="n">
-        <v>1.17</v>
+        <v>2.36</v>
       </c>
       <c r="T18" t="n">
-        <v>1.04</v>
+        <v>1.46</v>
       </c>
       <c r="U18" t="n">
-        <v>1.04</v>
+        <v>2.26</v>
       </c>
       <c r="V18" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="W18" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="X18" t="n">
         <v>970</v>
@@ -2887,25 +2887,25 @@
         <v>970</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB18" t="n">
         <v>970</v>
       </c>
       <c r="AC18" t="n">
-        <v>970</v>
+        <v>100</v>
       </c>
       <c r="AD18" t="n">
         <v>970</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AF18" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AG18" t="n">
         <v>970</v>
@@ -2914,25 +2914,25 @@
         <v>970</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AJ18" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AK18" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AL18" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="19">
@@ -2962,91 +2962,91 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="G19" t="n">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="H19" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="I19" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="J19" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K19" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="L19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O19" t="n">
         <v>1.3</v>
       </c>
-      <c r="M19" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.01</v>
-      </c>
       <c r="P19" t="n">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.71</v>
+        <v>1.9</v>
       </c>
       <c r="R19" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="S19" t="n">
-        <v>2.42</v>
+        <v>3.3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.05</v>
+        <v>1.83</v>
       </c>
       <c r="U19" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="W19" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="X19" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="Y19" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AA19" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="AB19" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AC19" t="n">
-        <v>500</v>
+        <v>9.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="AF19" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AG19" t="n">
-        <v>970</v>
+        <v>150</v>
       </c>
       <c r="AH19" t="n">
-        <v>970</v>
+        <v>230</v>
       </c>
       <c r="AI19" t="n">
         <v>500</v>
@@ -3064,10 +3064,10 @@
         <v>580</v>
       </c>
       <c r="AN19" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO19" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
@@ -3097,112 +3097,112 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.04</v>
+        <v>1.29</v>
       </c>
       <c r="G20" t="n">
-        <v>1000</v>
+        <v>1.41</v>
       </c>
       <c r="H20" t="n">
-        <v>1.04</v>
+        <v>6</v>
       </c>
       <c r="I20" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="J20" t="n">
-        <v>1.02</v>
+        <v>5.2</v>
       </c>
       <c r="K20" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="M20" t="n">
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.24</v>
+        <v>1.02</v>
       </c>
       <c r="O20" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="P20" t="n">
-        <v>1.24</v>
+        <v>3.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.06</v>
+        <v>1.23</v>
       </c>
       <c r="R20" t="n">
-        <v>1.18</v>
+        <v>2.2</v>
       </c>
       <c r="S20" t="n">
-        <v>1.06</v>
+        <v>1.59</v>
       </c>
       <c r="T20" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>2.36</v>
       </c>
       <c r="V20" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="W20" t="n">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>3.35</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21">
@@ -3232,58 +3232,58 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.8</v>
+        <v>7.8</v>
       </c>
       <c r="G21" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="H21" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="I21" t="n">
-        <v>1.78</v>
+        <v>1.38</v>
       </c>
       <c r="J21" t="n">
         <v>5.4</v>
       </c>
       <c r="K21" t="n">
-        <v>970</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M21" t="n">
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>25</v>
+        <v>7.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="P21" t="n">
-        <v>1.24</v>
+        <v>3.2</v>
       </c>
       <c r="Q21" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W21" t="n">
         <v>1.09</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.07</v>
       </c>
       <c r="X21" t="n">
         <v>970</v>
@@ -3319,7 +3319,7 @@
         <v>970</v>
       </c>
       <c r="AI21" t="n">
-        <v>80</v>
+        <v>970</v>
       </c>
       <c r="AJ21" t="n">
         <v>1000</v>
@@ -3337,7 +3337,7 @@
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>700</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -3367,64 +3367,64 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="G22" t="n">
-        <v>1000</v>
+        <v>1.33</v>
       </c>
       <c r="H22" t="n">
-        <v>1.04</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="J22" t="n">
         <v>6.8</v>
       </c>
       <c r="K22" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="M22" t="n">
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
+        <v>4</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q22" t="n">
         <v>1.24</v>
       </c>
-      <c r="O22" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.05</v>
-      </c>
       <c r="R22" t="n">
-        <v>1.18</v>
+        <v>2.22</v>
       </c>
       <c r="S22" t="n">
-        <v>1.05</v>
+        <v>1.66</v>
       </c>
       <c r="T22" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="V22" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="W22" t="n">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
@@ -3433,43 +3433,43 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE22" t="n">
         <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,112 +3502,112 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.04</v>
+        <v>1.58</v>
       </c>
       <c r="G23" t="n">
-        <v>610</v>
+        <v>1.81</v>
       </c>
       <c r="H23" t="n">
-        <v>1.04</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>870</v>
+        <v>5.3</v>
       </c>
       <c r="J23" t="n">
-        <v>1.02</v>
+        <v>3.85</v>
       </c>
       <c r="K23" t="n">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="M23" t="n">
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>1.24</v>
+        <v>3.45</v>
       </c>
       <c r="O23" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="P23" t="n">
-        <v>1.24</v>
+        <v>3.35</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.07</v>
+        <v>1.27</v>
       </c>
       <c r="R23" t="n">
-        <v>1.18</v>
+        <v>2.02</v>
       </c>
       <c r="S23" t="n">
-        <v>1.07</v>
+        <v>1.7</v>
       </c>
       <c r="T23" t="n">
-        <v>1.04</v>
+        <v>1.36</v>
       </c>
       <c r="U23" t="n">
-        <v>1.04</v>
+        <v>2.78</v>
       </c>
       <c r="V23" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="W23" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="X23" t="n">
         <v>970</v>
       </c>
       <c r="Y23" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB23" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AC23" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AD23" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG23" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AH23" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
@@ -3637,112 +3637,112 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.04</v>
+        <v>2.76</v>
       </c>
       <c r="G24" t="n">
-        <v>610</v>
+        <v>3.4</v>
       </c>
       <c r="H24" t="n">
-        <v>1.04</v>
+        <v>2.04</v>
       </c>
       <c r="I24" t="n">
-        <v>870</v>
+        <v>2.28</v>
       </c>
       <c r="J24" t="n">
-        <v>1.02</v>
+        <v>4.6</v>
       </c>
       <c r="K24" t="n">
-        <v>500</v>
+        <v>5.7</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="M24" t="n">
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>1.24</v>
+        <v>12</v>
       </c>
       <c r="O24" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="P24" t="n">
-        <v>1.24</v>
+        <v>4.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.04</v>
+        <v>1.21</v>
       </c>
       <c r="R24" t="n">
-        <v>1.18</v>
+        <v>2.54</v>
       </c>
       <c r="S24" t="n">
-        <v>1.04</v>
+        <v>1.54</v>
       </c>
       <c r="T24" t="n">
-        <v>1.04</v>
+        <v>1.26</v>
       </c>
       <c r="U24" t="n">
-        <v>1.04</v>
+        <v>3.7</v>
       </c>
       <c r="V24" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="W24" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="X24" t="n">
-        <v>970</v>
+        <v>95</v>
       </c>
       <c r="Y24" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB24" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="AC24" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AD24" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AG24" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AH24" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -3772,58 +3772,58 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="G25" t="n">
-        <v>1000</v>
+        <v>1.76</v>
       </c>
       <c r="H25" t="n">
-        <v>1.04</v>
+        <v>4.2</v>
       </c>
       <c r="I25" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="K25" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M25" t="n">
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>1.24</v>
+        <v>1.02</v>
       </c>
       <c r="O25" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P25" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q25" t="n">
         <v>1.1</v>
       </c>
       <c r="R25" t="n">
-        <v>1.18</v>
+        <v>1.78</v>
       </c>
       <c r="S25" t="n">
-        <v>1.1</v>
+        <v>1.83</v>
       </c>
       <c r="T25" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="U25" t="n">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="V25" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="W25" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3907,109 +3907,109 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.15</v>
+        <v>1.36</v>
       </c>
       <c r="G26" t="n">
         <v>1.62</v>
       </c>
       <c r="H26" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="I26" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="J26" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="K26" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="M26" t="n">
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q26" t="n">
         <v>1.24</v>
       </c>
-      <c r="O26" t="n">
+      <c r="R26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="V26" t="n">
         <v>1.06</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.05</v>
       </c>
       <c r="W26" t="n">
         <v>2.62</v>
       </c>
       <c r="X26" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="Y26" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AC26" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AD26" t="n">
         <v>970</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AM26" t="n">
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>29</v>
+        <v>4.1</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4042,58 +4042,58 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.04</v>
+        <v>1.32</v>
       </c>
       <c r="G27" t="n">
-        <v>610</v>
+        <v>1.41</v>
       </c>
       <c r="H27" t="n">
-        <v>1.04</v>
+        <v>7.2</v>
       </c>
       <c r="I27" t="n">
-        <v>870</v>
+        <v>11</v>
       </c>
       <c r="J27" t="n">
-        <v>1.02</v>
+        <v>5.5</v>
       </c>
       <c r="K27" t="n">
-        <v>500</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="M27" t="n">
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>1.24</v>
+        <v>15</v>
       </c>
       <c r="O27" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="P27" t="n">
-        <v>1.24</v>
+        <v>6.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="R27" t="n">
-        <v>1.18</v>
+        <v>3.25</v>
       </c>
       <c r="S27" t="n">
-        <v>1.02</v>
+        <v>1.35</v>
       </c>
       <c r="T27" t="n">
-        <v>1.04</v>
+        <v>1.26</v>
       </c>
       <c r="U27" t="n">
-        <v>1.04</v>
+        <v>3.25</v>
       </c>
       <c r="V27" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="W27" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="X27" t="n">
         <v>970</v>
@@ -4120,7 +4120,7 @@
         <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG27" t="n">
         <v>970</v>
@@ -4129,25 +4129,25 @@
         <v>970</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>2.56</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="28">
@@ -4315,13 +4315,13 @@
         <v>2.82</v>
       </c>
       <c r="G29" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="H29" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="I29" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J29" t="n">
         <v>3.8</v>
@@ -4339,31 +4339,31 @@
         <v>5.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P29" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R29" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="S29" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="T29" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U29" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="V29" t="n">
         <v>1.63</v>
       </c>
       <c r="W29" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X29" t="n">
         <v>22</v>
@@ -4414,7 +4414,7 @@
         <v>60</v>
       </c>
       <c r="AN29" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO29" t="n">
         <v>14.5</v>
@@ -4450,13 +4450,13 @@
         <v>2.64</v>
       </c>
       <c r="G30" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="H30" t="n">
         <v>2.84</v>
       </c>
       <c r="I30" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J30" t="n">
         <v>3.6</v>
@@ -4465,37 +4465,37 @@
         <v>3.7</v>
       </c>
       <c r="L30" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="M30" t="n">
         <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O30" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P30" t="n">
         <v>2.16</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="R30" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="S30" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="T30" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U30" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="V30" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W30" t="n">
         <v>1.59</v>
@@ -4504,7 +4504,7 @@
         <v>16.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z30" t="n">
         <v>21</v>
@@ -4516,7 +4516,7 @@
         <v>13</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD30" t="n">
         <v>13</v>
@@ -4531,7 +4531,7 @@
         <v>12</v>
       </c>
       <c r="AH30" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI30" t="n">
         <v>38</v>
@@ -4549,10 +4549,10 @@
         <v>75</v>
       </c>
       <c r="AN30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
@@ -4582,112 +4582,112 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="G31" t="n">
         <v>1.41</v>
       </c>
       <c r="H31" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="I31" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="J31" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K31" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P31" t="n">
-        <v>2.66</v>
+        <v>2.84</v>
       </c>
       <c r="Q31" t="n">
         <v>1.5</v>
       </c>
       <c r="R31" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="S31" t="n">
         <v>2.26</v>
       </c>
       <c r="T31" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U31" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="V31" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W31" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="X31" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="Y31" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AB31" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AF31" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AG31" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AJ31" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AK31" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AL31" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN31" t="n">
-        <v>29</v>
+        <v>4.7</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
@@ -4720,58 +4720,58 @@
         <v>3.8</v>
       </c>
       <c r="G32" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="H32" t="n">
-        <v>1.71</v>
+        <v>2.3</v>
       </c>
       <c r="I32" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="J32" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K32" t="n">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="L32" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="M32" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N32" t="n">
-        <v>2.36</v>
+        <v>2.94</v>
       </c>
       <c r="O32" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="P32" t="n">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="R32" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S32" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="T32" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="U32" t="n">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="V32" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="W32" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="X32" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="Y32" t="n">
         <v>970</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
         <v>2.1</v>
@@ -4861,52 +4861,52 @@
         <v>4.2</v>
       </c>
       <c r="I33" t="n">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
       <c r="J33" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K33" t="n">
         <v>3.6</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M33" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N33" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="O33" t="n">
-        <v>1.06</v>
+        <v>1.41</v>
       </c>
       <c r="P33" t="n">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.06</v>
+        <v>2.28</v>
       </c>
       <c r="R33" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="S33" t="n">
-        <v>3.55</v>
+        <v>4.4</v>
       </c>
       <c r="T33" t="n">
-        <v>1.8</v>
+        <v>1.05</v>
       </c>
       <c r="U33" t="n">
         <v>1.04</v>
       </c>
       <c r="V33" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W33" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="X33" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y33" t="n">
         <v>16.5</v>
@@ -4918,7 +4918,7 @@
         <v>900</v>
       </c>
       <c r="AB33" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC33" t="n">
         <v>9.4</v>
@@ -4987,58 +4987,58 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="G34" t="n">
-        <v>2.74</v>
+        <v>2.5</v>
       </c>
       <c r="H34" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="I34" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="J34" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="K34" t="n">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M34" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="O34" t="n">
         <v>1.18</v>
       </c>
       <c r="P34" t="n">
-        <v>2.34</v>
+        <v>2.6</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="R34" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="S34" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="T34" t="n">
         <v>1.55</v>
       </c>
       <c r="U34" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="V34" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="W34" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="X34" t="n">
         <v>970</v>
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G35" t="n">
         <v>1.72</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1.73</v>
       </c>
       <c r="H35" t="n">
         <v>5.2</v>
       </c>
       <c r="I35" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J35" t="n">
         <v>4.3</v>
@@ -5140,19 +5140,19 @@
         <v>4.4</v>
       </c>
       <c r="L35" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M35" t="n">
         <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O35" t="n">
         <v>1.21</v>
       </c>
       <c r="P35" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q35" t="n">
         <v>1.63</v>
@@ -5161,16 +5161,16 @@
         <v>1.6</v>
       </c>
       <c r="S35" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T35" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U35" t="n">
         <v>2.38</v>
       </c>
       <c r="V35" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W35" t="n">
         <v>2.36</v>
@@ -5179,7 +5179,7 @@
         <v>23</v>
       </c>
       <c r="Y35" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z35" t="n">
         <v>44</v>
@@ -5188,10 +5188,10 @@
         <v>120</v>
       </c>
       <c r="AB35" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD35" t="n">
         <v>19</v>
@@ -5203,7 +5203,7 @@
         <v>12</v>
       </c>
       <c r="AG35" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH35" t="n">
         <v>17</v>
@@ -5212,7 +5212,7 @@
         <v>55</v>
       </c>
       <c r="AJ35" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AK35" t="n">
         <v>15.5</v>
@@ -5227,7 +5227,7 @@
         <v>7.4</v>
       </c>
       <c r="AO35" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36">
@@ -5257,46 +5257,46 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="G36" t="n">
         <v>2.52</v>
       </c>
       <c r="H36" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J36" t="n">
         <v>3.2</v>
       </c>
-      <c r="I36" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K36" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L36" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="M36" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N36" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="O36" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P36" t="n">
         <v>1.67</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="R36" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S36" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="T36" t="n">
         <v>1.89</v>
@@ -5305,7 +5305,7 @@
         <v>1.9</v>
       </c>
       <c r="V36" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W36" t="n">
         <v>1.65</v>
@@ -5392,46 +5392,46 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="G37" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="H37" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I37" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="J37" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K37" t="n">
         <v>4</v>
       </c>
       <c r="L37" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M37" t="n">
         <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P37" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="R37" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S37" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="T37" t="n">
         <v>1.95</v>
@@ -5440,10 +5440,10 @@
         <v>1.86</v>
       </c>
       <c r="V37" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="W37" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X37" t="n">
         <v>13.5</v>
@@ -5482,10 +5482,10 @@
         <v>380</v>
       </c>
       <c r="AJ37" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL37" t="n">
         <v>290</v>
@@ -5494,10 +5494,10 @@
         <v>580</v>
       </c>
       <c r="AN37" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AO37" t="n">
-        <v>140</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38">
@@ -5527,79 +5527,79 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G38" t="n">
         <v>3.15</v>
       </c>
       <c r="H38" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="I38" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="J38" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K38" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L38" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M38" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N38" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="O38" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P38" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="R38" t="n">
         <v>1.23</v>
       </c>
       <c r="S38" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="T38" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U38" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V38" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="W38" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X38" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y38" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA38" t="n">
         <v>60</v>
       </c>
       <c r="AB38" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC38" t="n">
         <v>8.6</v>
       </c>
       <c r="AD38" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE38" t="n">
         <v>46</v>
@@ -5614,10 +5614,10 @@
         <v>25</v>
       </c>
       <c r="AI38" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AJ38" t="n">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="AK38" t="n">
         <v>50</v>
@@ -5626,13 +5626,13 @@
         <v>460</v>
       </c>
       <c r="AM38" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="AN38" t="n">
         <v>55</v>
       </c>
       <c r="AO38" t="n">
-        <v>970</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39">
@@ -5662,61 +5662,61 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.5</v>
+        <v>2.74</v>
       </c>
       <c r="G39" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N39" t="n">
         <v>3.3</v>
       </c>
-      <c r="H39" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="K39" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N39" t="n">
-        <v>3</v>
-      </c>
       <c r="O39" t="n">
-        <v>1.05</v>
+        <v>1.4</v>
       </c>
       <c r="P39" t="n">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="R39" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="S39" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="T39" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="U39" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="V39" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W39" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="X39" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y39" t="n">
         <v>10.5</v>
@@ -5743,16 +5743,16 @@
         <v>23</v>
       </c>
       <c r="AG39" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="AH39" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AI39" t="n">
         <v>380</v>
       </c>
       <c r="AJ39" t="n">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="AK39" t="n">
         <v>970</v>
@@ -5761,7 +5761,7 @@
         <v>380</v>
       </c>
       <c r="AM39" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN39" t="n">
         <v>970</v>
@@ -5797,112 +5797,112 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
       <c r="G40" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H40" t="n">
-        <v>2.6</v>
+        <v>2.74</v>
       </c>
       <c r="I40" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="J40" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N40" t="n">
         <v>3.15</v>
       </c>
-      <c r="K40" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N40" t="n">
-        <v>3.25</v>
-      </c>
       <c r="O40" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="P40" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.08</v>
+        <v>2.32</v>
       </c>
       <c r="R40" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S40" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="T40" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="U40" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="V40" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W40" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X40" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Y40" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z40" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA40" t="n">
         <v>46</v>
       </c>
       <c r="AB40" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC40" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD40" t="n">
         <v>13</v>
       </c>
       <c r="AE40" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AF40" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG40" t="n">
         <v>13.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI40" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ40" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL40" t="n">
         <v>130</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>55</v>
       </c>
       <c r="AM40" t="n">
         <v>580</v>
       </c>
       <c r="AN40" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AO40" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41">
@@ -5932,58 +5932,58 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="G41" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H41" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I41" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="J41" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K41" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L41" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M41" t="n">
         <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O41" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P41" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="R41" t="n">
         <v>1.29</v>
       </c>
       <c r="S41" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="T41" t="n">
         <v>1.87</v>
       </c>
       <c r="U41" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V41" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W41" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="X41" t="n">
         <v>25</v>
@@ -5998,10 +5998,10 @@
         <v>900</v>
       </c>
       <c r="AB41" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="AC41" t="n">
-        <v>9.4</v>
+        <v>14.5</v>
       </c>
       <c r="AD41" t="n">
         <v>970</v>
@@ -6010,10 +6010,10 @@
         <v>500</v>
       </c>
       <c r="AF41" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG41" t="n">
         <v>40</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>23</v>
       </c>
       <c r="AH41" t="n">
         <v>65</v>
@@ -6025,7 +6025,7 @@
         <v>900</v>
       </c>
       <c r="AK41" t="n">
-        <v>85</v>
+        <v>970</v>
       </c>
       <c r="AL41" t="n">
         <v>970</v>
@@ -6067,46 +6067,46 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="G42" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="H42" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I42" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J42" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="K42" t="n">
-        <v>980</v>
+        <v>4.2</v>
       </c>
       <c r="L42" t="n">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="M42" t="n">
         <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O42" t="n">
         <v>1.35</v>
       </c>
       <c r="P42" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="R42" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="S42" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="T42" t="n">
         <v>1.83</v>
@@ -6115,10 +6115,10 @@
         <v>1.04</v>
       </c>
       <c r="V42" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="W42" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="X42" t="n">
         <v>22</v>
@@ -6133,7 +6133,7 @@
         <v>900</v>
       </c>
       <c r="AB42" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC42" t="n">
         <v>9.4</v>
@@ -6145,10 +6145,10 @@
         <v>480</v>
       </c>
       <c r="AF42" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH42" t="n">
         <v>46</v>
@@ -6160,16 +6160,16 @@
         <v>36</v>
       </c>
       <c r="AK42" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL42" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AM42" t="n">
         <v>580</v>
       </c>
       <c r="AN42" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AO42" t="n">
         <v>880</v>
@@ -6202,58 +6202,58 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="G43" t="n">
-        <v>2.74</v>
+        <v>2.42</v>
       </c>
       <c r="H43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J43" t="n">
         <v>3.2</v>
       </c>
-      <c r="I43" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2.92</v>
-      </c>
       <c r="K43" t="n">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="L43" t="n">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="M43" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N43" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O43" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P43" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="R43" t="n">
         <v>1.27</v>
       </c>
       <c r="S43" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T43" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="U43" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="V43" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="W43" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="X43" t="n">
         <v>970</v>
@@ -6337,16 +6337,16 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G44" t="n">
-        <v>2.64</v>
+        <v>2.54</v>
       </c>
       <c r="H44" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I44" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J44" t="n">
         <v>2.98</v>
@@ -6355,73 +6355,73 @@
         <v>3.1</v>
       </c>
       <c r="L44" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="M44" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N44" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="O44" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="P44" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.68</v>
+        <v>2.92</v>
       </c>
       <c r="R44" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S44" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="T44" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="U44" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="V44" t="n">
         <v>1.36</v>
       </c>
       <c r="W44" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="X44" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="Y44" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z44" t="n">
         <v>24</v>
       </c>
       <c r="AA44" t="n">
-        <v>85</v>
+        <v>500</v>
       </c>
       <c r="AB44" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AC44" t="n">
         <v>7.2</v>
       </c>
       <c r="AD44" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AE44" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AF44" t="n">
         <v>15</v>
       </c>
       <c r="AG44" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH44" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI44" t="n">
         <v>230</v>
@@ -6430,16 +6430,16 @@
         <v>42</v>
       </c>
       <c r="AK44" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL44" t="n">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="AM44" t="n">
-        <v>210</v>
+        <v>500</v>
       </c>
       <c r="AN44" t="n">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="AO44" t="n">
         <v>360</v>
@@ -6472,49 +6472,49 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G45" t="n">
         <v>1.91</v>
       </c>
       <c r="H45" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I45" t="n">
         <v>4.6</v>
       </c>
       <c r="J45" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K45" t="n">
         <v>4.1</v>
       </c>
       <c r="L45" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="M45" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N45" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="O45" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P45" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="R45" t="n">
         <v>1.43</v>
       </c>
       <c r="S45" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="T45" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U45" t="n">
         <v>2.1</v>
@@ -6526,10 +6526,10 @@
         <v>2.08</v>
       </c>
       <c r="X45" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="Z45" t="n">
         <v>36</v>
@@ -6574,7 +6574,7 @@
         <v>95</v>
       </c>
       <c r="AN45" t="n">
-        <v>11.5</v>
+        <v>25</v>
       </c>
       <c r="AO45" t="n">
         <v>260</v>
@@ -6607,64 +6607,64 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="G46" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="H46" t="n">
         <v>5.1</v>
       </c>
       <c r="I46" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J46" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K46" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L46" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M46" t="n">
         <v>1.09</v>
       </c>
       <c r="N46" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O46" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="P46" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="R46" t="n">
         <v>1.27</v>
       </c>
       <c r="S46" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="T46" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U46" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="V46" t="n">
         <v>1.22</v>
       </c>
       <c r="W46" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="X46" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z46" t="n">
         <v>130</v>
@@ -6673,7 +6673,7 @@
         <v>500</v>
       </c>
       <c r="AB46" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AC46" t="n">
         <v>8.6</v>
@@ -6685,7 +6685,7 @@
         <v>480</v>
       </c>
       <c r="AF46" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AG46" t="n">
         <v>11</v>
@@ -6700,7 +6700,7 @@
         <v>21</v>
       </c>
       <c r="AK46" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AL46" t="n">
         <v>200</v>
@@ -6709,7 +6709,7 @@
         <v>580</v>
       </c>
       <c r="AN46" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AO46" t="n">
         <v>500</v>
@@ -6742,100 +6742,100 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="G47" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H47" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="I47" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="J47" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K47" t="n">
         <v>3.4</v>
       </c>
       <c r="L47" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M47" t="n">
         <v>1.09</v>
       </c>
       <c r="N47" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="O47" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P47" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="R47" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S47" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="T47" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U47" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="V47" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="W47" t="n">
         <v>1.4</v>
       </c>
       <c r="X47" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y47" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z47" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA47" t="n">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="AB47" t="n">
         <v>11</v>
       </c>
       <c r="AC47" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD47" t="n">
         <v>12</v>
       </c>
       <c r="AE47" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AF47" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG47" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH47" t="n">
         <v>19.5</v>
       </c>
       <c r="AI47" t="n">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="AJ47" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="AK47" t="n">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="AL47" t="n">
         <v>150</v>
@@ -6844,10 +6844,10 @@
         <v>580</v>
       </c>
       <c r="AN47" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AO47" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
@@ -6877,46 +6877,46 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="G48" t="n">
-        <v>2.36</v>
+        <v>2.16</v>
       </c>
       <c r="H48" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I48" t="n">
-        <v>4.6</v>
+        <v>3.95</v>
       </c>
       <c r="J48" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K48" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="L48" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M48" t="n">
         <v>1.03</v>
       </c>
       <c r="N48" t="n">
-        <v>2.34</v>
+        <v>5.8</v>
       </c>
       <c r="O48" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P48" t="n">
-        <v>2.34</v>
+        <v>2.66</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="R48" t="n">
         <v>1.66</v>
       </c>
       <c r="S48" t="n">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="T48" t="n">
         <v>1.57</v>
@@ -6925,37 +6925,37 @@
         <v>2.58</v>
       </c>
       <c r="V48" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="W48" t="n">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="X48" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="Y48" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z48" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AA48" t="n">
         <v>190</v>
       </c>
       <c r="AB48" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD48" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF48" t="n">
         <v>17</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>21</v>
       </c>
       <c r="AG48" t="n">
         <v>12</v>
@@ -6964,19 +6964,19 @@
         <v>15.5</v>
       </c>
       <c r="AI48" t="n">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="AJ48" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AK48" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AL48" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AM48" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN48" t="n">
         <v>11.5</v>
@@ -7012,70 +7012,70 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="G49" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H49" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="I49" t="n">
-        <v>2.72</v>
+        <v>2.54</v>
       </c>
       <c r="J49" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K49" t="n">
         <v>3.45</v>
       </c>
       <c r="L49" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M49" t="n">
         <v>1.07</v>
       </c>
       <c r="N49" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="O49" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P49" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Q49" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R49" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S49" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="T49" t="n">
         <v>1.75</v>
       </c>
       <c r="U49" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V49" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="W49" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="X49" t="n">
         <v>14.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z49" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA49" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AB49" t="n">
         <v>12.5</v>
@@ -7084,13 +7084,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD49" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AF49" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG49" t="n">
         <v>14</v>
@@ -7099,10 +7099,10 @@
         <v>18</v>
       </c>
       <c r="AI49" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ49" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK49" t="n">
         <v>38</v>
@@ -7111,13 +7111,13 @@
         <v>48</v>
       </c>
       <c r="AM49" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN49" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AO49" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
@@ -7147,46 +7147,46 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="G50" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="H50" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J50" t="n">
         <v>4.1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J50" t="n">
-        <v>4.2</v>
       </c>
       <c r="K50" t="n">
         <v>4.5</v>
       </c>
       <c r="L50" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M50" t="n">
         <v>1.03</v>
       </c>
       <c r="N50" t="n">
-        <v>2.48</v>
+        <v>6.2</v>
       </c>
       <c r="O50" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P50" t="n">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="R50" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="S50" t="n">
-        <v>2.06</v>
+        <v>2.28</v>
       </c>
       <c r="T50" t="n">
         <v>1.58</v>
@@ -7195,25 +7195,25 @@
         <v>2.52</v>
       </c>
       <c r="V50" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="W50" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="X50" t="n">
         <v>32</v>
       </c>
       <c r="Y50" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="Z50" t="n">
         <v>190</v>
       </c>
       <c r="AA50" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB50" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AC50" t="n">
         <v>12</v>
@@ -7222,7 +7222,7 @@
         <v>20</v>
       </c>
       <c r="AE50" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AF50" t="n">
         <v>15</v>
@@ -7231,13 +7231,13 @@
         <v>11.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI50" t="n">
         <v>160</v>
       </c>
       <c r="AJ50" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK50" t="n">
         <v>17</v>
@@ -7246,13 +7246,13 @@
         <v>26</v>
       </c>
       <c r="AM50" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN50" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AO50" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
@@ -7282,31 +7282,31 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G51" t="n">
         <v>2.52</v>
       </c>
       <c r="H51" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="I51" t="n">
         <v>3.1</v>
       </c>
       <c r="J51" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K51" t="n">
         <v>3.9</v>
       </c>
       <c r="L51" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="M51" t="n">
         <v>1.05</v>
       </c>
       <c r="N51" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O51" t="n">
         <v>1.25</v>
@@ -7315,19 +7315,19 @@
         <v>2.28</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R51" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S51" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="T51" t="n">
         <v>1.6</v>
       </c>
       <c r="U51" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V51" t="n">
         <v>1.48</v>
@@ -7417,70 +7417,70 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G52" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="H52" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="I52" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="J52" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K52" t="n">
         <v>3.55</v>
       </c>
       <c r="L52" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M52" t="n">
         <v>1.11</v>
       </c>
       <c r="N52" t="n">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="O52" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P52" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="R52" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S52" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="T52" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U52" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="V52" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="W52" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X52" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y52" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Z52" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA52" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AB52" t="n">
         <v>12.5</v>
@@ -7492,13 +7492,13 @@
         <v>12</v>
       </c>
       <c r="AE52" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AF52" t="n">
         <v>170</v>
       </c>
       <c r="AG52" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AH52" t="n">
         <v>24</v>
@@ -7522,7 +7522,7 @@
         <v>500</v>
       </c>
       <c r="AO52" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53">
@@ -7552,58 +7552,58 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="G53" t="n">
-        <v>2.28</v>
+        <v>2.06</v>
       </c>
       <c r="H53" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K53" t="n">
         <v>3.9</v>
       </c>
-      <c r="I53" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="K53" t="n">
-        <v>5.5</v>
-      </c>
       <c r="L53" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="M53" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N53" t="n">
-        <v>2.76</v>
+        <v>3.15</v>
       </c>
       <c r="O53" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="P53" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="R53" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="S53" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="T53" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="U53" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="V53" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="W53" t="n">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="X53" t="n">
         <v>19</v>
@@ -7618,19 +7618,19 @@
         <v>900</v>
       </c>
       <c r="AB53" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AC53" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD53" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AE53" t="n">
         <v>500</v>
       </c>
       <c r="AF53" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG53" t="n">
         <v>23</v>
@@ -7648,13 +7648,13 @@
         <v>75</v>
       </c>
       <c r="AL53" t="n">
-        <v>290</v>
+        <v>970</v>
       </c>
       <c r="AM53" t="n">
         <v>580</v>
       </c>
       <c r="AN53" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AO53" t="n">
         <v>500</v>
@@ -7687,16 +7687,16 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="G54" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="H54" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="I54" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="J54" t="n">
         <v>4.1</v>
@@ -7705,94 +7705,94 @@
         <v>4.3</v>
       </c>
       <c r="L54" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="M54" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N54" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="O54" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="P54" t="n">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.8</v>
+        <v>1.99</v>
       </c>
       <c r="R54" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="S54" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="T54" t="n">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="U54" t="n">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="V54" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="W54" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="X54" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Y54" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="AA54" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AB54" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>200</v>
+      </c>
+      <c r="AF54" t="n">
         <v>9.6</v>
       </c>
-      <c r="AC54" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>11</v>
-      </c>
       <c r="AG54" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH54" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AI54" t="n">
-        <v>330</v>
+        <v>85</v>
       </c>
       <c r="AJ54" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK54" t="n">
         <v>17.5</v>
       </c>
       <c r="AL54" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AM54" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AN54" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AO54" t="n">
-        <v>75</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55">
@@ -7846,28 +7846,28 @@
         <v>1.04</v>
       </c>
       <c r="N55" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O55" t="n">
         <v>1.21</v>
       </c>
       <c r="P55" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R55" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S55" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="T55" t="n">
         <v>1.56</v>
       </c>
       <c r="U55" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="V55" t="n">
         <v>1.6</v>
@@ -7876,7 +7876,7 @@
         <v>1.55</v>
       </c>
       <c r="X55" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y55" t="n">
         <v>15</v>
@@ -7885,7 +7885,7 @@
         <v>19.5</v>
       </c>
       <c r="AA55" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB55" t="n">
         <v>15.5</v>
@@ -7897,13 +7897,13 @@
         <v>12</v>
       </c>
       <c r="AE55" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF55" t="n">
         <v>21</v>
       </c>
       <c r="AG55" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH55" t="n">
         <v>14.5</v>
@@ -7921,10 +7921,10 @@
         <v>32</v>
       </c>
       <c r="AM55" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN55" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO55" t="n">
         <v>15</v>
@@ -7957,10 +7957,10 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G56" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H56" t="n">
         <v>4.5</v>
@@ -7969,19 +7969,19 @@
         <v>4.8</v>
       </c>
       <c r="J56" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K56" t="n">
         <v>3.35</v>
       </c>
       <c r="L56" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="M56" t="n">
         <v>1.11</v>
       </c>
       <c r="N56" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="O56" t="n">
         <v>1.49</v>
@@ -7990,13 +7990,13 @@
         <v>1.64</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="R56" t="n">
         <v>1.22</v>
       </c>
       <c r="S56" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="T56" t="n">
         <v>2.1</v>
@@ -8005,13 +8005,13 @@
         <v>1.81</v>
       </c>
       <c r="V56" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W56" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="X56" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Y56" t="n">
         <v>13</v>
@@ -8023,13 +8023,13 @@
         <v>120</v>
       </c>
       <c r="AB56" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC56" t="n">
         <v>7.8</v>
       </c>
       <c r="AD56" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE56" t="n">
         <v>75</v>
@@ -8038,7 +8038,7 @@
         <v>11</v>
       </c>
       <c r="AG56" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH56" t="n">
         <v>44</v>
@@ -8056,10 +8056,10 @@
         <v>55</v>
       </c>
       <c r="AM56" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="AN56" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO56" t="n">
         <v>110</v>
@@ -8098,10 +8098,10 @@
         <v>7</v>
       </c>
       <c r="H57" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I57" t="n">
         <v>1.63</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1.64</v>
       </c>
       <c r="J57" t="n">
         <v>4.1</v>
@@ -8110,7 +8110,7 @@
         <v>4.2</v>
       </c>
       <c r="L57" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M57" t="n">
         <v>1.07</v>
@@ -8119,28 +8119,28 @@
         <v>3.85</v>
       </c>
       <c r="O57" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P57" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="R57" t="n">
         <v>1.37</v>
       </c>
       <c r="S57" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T57" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U57" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V57" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="W57" t="n">
         <v>1.16</v>
@@ -8152,25 +8152,25 @@
         <v>7.8</v>
       </c>
       <c r="Z57" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA57" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AB57" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC57" t="n">
         <v>9</v>
       </c>
       <c r="AD57" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AE57" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF57" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG57" t="n">
         <v>25</v>
@@ -8182,16 +8182,16 @@
         <v>42</v>
       </c>
       <c r="AJ57" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AK57" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AL57" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AM57" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN57" t="n">
         <v>140</v>
@@ -8227,70 +8227,70 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="G58" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H58" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="I58" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="J58" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K58" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L58" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M58" t="n">
         <v>1.03</v>
       </c>
       <c r="N58" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O58" t="n">
         <v>1.17</v>
       </c>
       <c r="P58" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R58" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S58" t="n">
         <v>2.28</v>
       </c>
       <c r="T58" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="U58" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="V58" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W58" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="X58" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y58" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z58" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AA58" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="AB58" t="n">
         <v>12.5</v>
@@ -8299,40 +8299,40 @@
         <v>12.5</v>
       </c>
       <c r="AD58" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE58" t="n">
         <v>95</v>
       </c>
       <c r="AF58" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG58" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>10</v>
       </c>
       <c r="AH58" t="n">
         <v>21</v>
       </c>
       <c r="AI58" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AJ58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK58" t="n">
         <v>13.5</v>
       </c>
       <c r="AL58" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM58" t="n">
         <v>90</v>
       </c>
       <c r="AN58" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="AO58" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59">
@@ -8365,43 +8365,43 @@
         <v>1.82</v>
       </c>
       <c r="G59" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="H59" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="I59" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="J59" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K59" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="L59" t="n">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="M59" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N59" t="n">
-        <v>2.62</v>
+        <v>3.05</v>
       </c>
       <c r="O59" t="n">
         <v>1.43</v>
       </c>
       <c r="P59" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="R59" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="S59" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="T59" t="n">
         <v>1.04</v>
@@ -8410,16 +8410,16 @@
         <v>1.04</v>
       </c>
       <c r="V59" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="W59" t="n">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="X59" t="n">
         <v>21</v>
       </c>
       <c r="Y59" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="Z59" t="n">
         <v>970</v>
@@ -8428,7 +8428,7 @@
         <v>900</v>
       </c>
       <c r="AB59" t="n">
-        <v>8.4</v>
+        <v>14.5</v>
       </c>
       <c r="AC59" t="n">
         <v>14</v>
@@ -8440,13 +8440,13 @@
         <v>500</v>
       </c>
       <c r="AF59" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AG59" t="n">
         <v>13</v>
       </c>
       <c r="AH59" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI59" t="n">
         <v>500</v>
@@ -8455,7 +8455,7 @@
         <v>900</v>
       </c>
       <c r="AK59" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AL59" t="n">
         <v>500</v>
@@ -8527,10 +8527,10 @@
         <v>1.4</v>
       </c>
       <c r="P60" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R60" t="n">
         <v>1.3</v>
@@ -8539,7 +8539,7 @@
         <v>4.1</v>
       </c>
       <c r="T60" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U60" t="n">
         <v>2</v>
@@ -8551,10 +8551,10 @@
         <v>2.04</v>
       </c>
       <c r="X60" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y60" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z60" t="n">
         <v>32</v>
@@ -8563,7 +8563,7 @@
         <v>120</v>
       </c>
       <c r="AB60" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC60" t="n">
         <v>7.8</v>
@@ -8581,7 +8581,7 @@
         <v>10.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI60" t="n">
         <v>75</v>
@@ -8599,7 +8599,7 @@
         <v>130</v>
       </c>
       <c r="AN60" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO60" t="n">
         <v>85</v>
@@ -8632,112 +8632,112 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="G61" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="H61" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="I61" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J61" t="n">
-        <v>9.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K61" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L61" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M61" t="n">
         <v>1.02</v>
       </c>
       <c r="N61" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="O61" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="P61" t="n">
-        <v>2.78</v>
+        <v>2.64</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="R61" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="S61" t="n">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
       <c r="T61" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="U61" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="V61" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="W61" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="X61" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Y61" t="n">
-        <v>970</v>
+        <v>390</v>
       </c>
       <c r="Z61" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="AA61" t="n">
         <v>1000</v>
       </c>
       <c r="AB61" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC61" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AD61" t="n">
         <v>970</v>
       </c>
       <c r="AE61" t="n">
-        <v>590</v>
+        <v>430</v>
       </c>
       <c r="AF61" t="n">
         <v>7.6</v>
       </c>
       <c r="AG61" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH61" t="n">
         <v>1000</v>
       </c>
       <c r="AI61" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="AJ61" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK61" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL61" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AM61" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="AN61" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="AO61" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
     </row>
     <row r="62">
@@ -8902,10 +8902,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G63" t="n">
-        <v>2.68</v>
+        <v>2.82</v>
       </c>
       <c r="H63" t="n">
         <v>2.82</v>
@@ -8914,34 +8914,34 @@
         <v>3</v>
       </c>
       <c r="J63" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K63" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L63" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M63" t="n">
         <v>1.07</v>
       </c>
       <c r="N63" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="O63" t="n">
         <v>1.34</v>
       </c>
       <c r="P63" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="R63" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S63" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="T63" t="n">
         <v>1.75</v>
@@ -8950,16 +8950,16 @@
         <v>2.1</v>
       </c>
       <c r="V63" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W63" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="X63" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y63" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z63" t="n">
         <v>20</v>
@@ -8968,10 +8968,10 @@
         <v>48</v>
       </c>
       <c r="AB63" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC63" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD63" t="n">
         <v>13.5</v>
@@ -8980,7 +8980,7 @@
         <v>34</v>
       </c>
       <c r="AF63" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG63" t="n">
         <v>13.5</v>
@@ -9037,46 +9037,46 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.48</v>
+        <v>2.1</v>
       </c>
       <c r="G64" t="n">
-        <v>2.42</v>
+        <v>2.26</v>
       </c>
       <c r="H64" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I64" t="n">
-        <v>6.4</v>
+        <v>4.3</v>
       </c>
       <c r="J64" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="K64" t="n">
-        <v>980</v>
+        <v>3.7</v>
       </c>
       <c r="L64" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M64" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N64" t="n">
-        <v>1.52</v>
+        <v>3.05</v>
       </c>
       <c r="O64" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="P64" t="n">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="R64" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S64" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="T64" t="n">
         <v>1.01</v>
@@ -9085,10 +9085,10 @@
         <v>1.01</v>
       </c>
       <c r="V64" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="W64" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="X64" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="G2" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H2" t="n">
         <v>2.92</v>
@@ -679,13 +679,13 @@
         <v>2.94</v>
       </c>
       <c r="J2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.3</v>
       </c>
-      <c r="K2" t="n">
-        <v>3.35</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M2" t="n">
         <v>1.09</v>
@@ -709,10 +709,10 @@
         <v>4.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V2" t="n">
         <v>1.51</v>
@@ -727,16 +727,16 @@
         <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD2" t="n">
         <v>13</v>
@@ -745,7 +745,7 @@
         <v>36</v>
       </c>
       <c r="AF2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG2" t="n">
         <v>12.5</v>
@@ -769,10 +769,10 @@
         <v>120</v>
       </c>
       <c r="AN2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO2" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.54</v>
+        <v>2.28</v>
       </c>
       <c r="G3" t="n">
-        <v>2.74</v>
+        <v>2.46</v>
       </c>
       <c r="H3" t="n">
-        <v>2.72</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.98</v>
+        <v>3.55</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
         <v>3.8</v>
       </c>
       <c r="L3" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.35</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.39</v>
-      </c>
       <c r="S3" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="U3" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="W3" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="X3" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI3" t="n">
         <v>60</v>
       </c>
-      <c r="AB3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>50</v>
-      </c>
       <c r="AJ3" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AL3" t="n">
         <v>44</v>
       </c>
       <c r="AM3" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AO3" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="G4" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J4" t="n">
         <v>3.7</v>
@@ -955,94 +955,94 @@
         <v>3.75</v>
       </c>
       <c r="L4" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="P4" t="n">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="R4" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="U4" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="V4" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="W4" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z4" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA4" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AF4" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK4" t="n">
         <v>22</v>
       </c>
       <c r="AL4" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AM4" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AN4" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1072,34 +1072,34 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="G5" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.05</v>
+        <v>2.62</v>
       </c>
       <c r="I5" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J5" t="n">
         <v>3.75</v>
       </c>
-      <c r="J5" t="n">
-        <v>3.65</v>
-      </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="L5" t="n">
         <v>1.29</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.5</v>
+        <v>2.32</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P5" t="n">
         <v>2.28</v>
@@ -1111,73 +1111,73 @@
         <v>1.51</v>
       </c>
       <c r="S5" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="W5" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X5" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="Y5" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AA5" t="n">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="AB5" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AF5" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AI5" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AJ5" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AM5" t="n">
-        <v>70</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>12.5</v>
+        <v>85</v>
       </c>
       <c r="AO5" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
     </row>
     <row r="6">
@@ -1207,61 +1207,61 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="G6" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="H6" t="n">
         <v>5.3</v>
       </c>
       <c r="I6" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
         <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="P6" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="S6" t="n">
-        <v>2.5</v>
+        <v>2.68</v>
       </c>
       <c r="T6" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="U6" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="V6" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="W6" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="X6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
         <v>980</v>
@@ -1270,13 +1270,13 @@
         <v>160</v>
       </c>
       <c r="AA6" t="n">
-        <v>170</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="AD6" t="n">
         <v>980</v>
@@ -1285,13 +1285,13 @@
         <v>190</v>
       </c>
       <c r="AF6" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AH6" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AI6" t="n">
         <v>170</v>
@@ -1300,7 +1300,7 @@
         <v>500</v>
       </c>
       <c r="AK6" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AL6" t="n">
         <v>980</v>
@@ -1312,7 +1312,7 @@
         <v>15</v>
       </c>
       <c r="AO6" t="n">
-        <v>80</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7">
@@ -1342,103 +1342,103 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J7" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P7" t="n">
-        <v>2.16</v>
+        <v>2.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="R7" t="n">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="S7" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
       <c r="U7" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="V7" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W7" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="X7" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="Z7" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AA7" t="n">
         <v>960</v>
       </c>
       <c r="AB7" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AC7" t="n">
         <v>21</v>
       </c>
       <c r="AD7" t="n">
-        <v>95</v>
+        <v>970</v>
       </c>
       <c r="AE7" t="n">
         <v>980</v>
       </c>
       <c r="AF7" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AG7" t="n">
         <v>24</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI7" t="n">
         <v>980</v>
       </c>
       <c r="AJ7" t="n">
-        <v>65</v>
+        <v>900</v>
       </c>
       <c r="AK7" t="n">
         <v>65</v>
       </c>
       <c r="AL7" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AM7" t="n">
         <v>580</v>
@@ -1477,61 +1477,61 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="G8" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="H8" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I8" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="L8" t="n">
         <v>1.45</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="O8" t="n">
         <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="R8" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="S8" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="T8" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="U8" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="V8" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="W8" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="X8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
         <v>20</v>
@@ -1543,25 +1543,25 @@
         <v>500</v>
       </c>
       <c r="AB8" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE8" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AF8" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AH8" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AI8" t="n">
         <v>500</v>
@@ -1582,7 +1582,7 @@
         <v>500</v>
       </c>
       <c r="AO8" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
@@ -1615,25 +1615,25 @@
         <v>1.89</v>
       </c>
       <c r="G9" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="H9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K9" t="n">
         <v>4.1</v>
       </c>
-      <c r="I9" t="n">
-        <v>5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4</v>
-      </c>
       <c r="L9" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
         <v>3.7</v>
@@ -1642,13 +1642,13 @@
         <v>1.32</v>
       </c>
       <c r="P9" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="R9" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S9" t="n">
         <v>3.4</v>
@@ -1663,7 +1663,7 @@
         <v>1.26</v>
       </c>
       <c r="W9" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X9" t="n">
         <v>14.5</v>
@@ -1672,7 +1672,7 @@
         <v>16</v>
       </c>
       <c r="Z9" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AA9" t="n">
         <v>900</v>
@@ -1684,10 +1684,10 @@
         <v>8.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="AF9" t="n">
         <v>12.5</v>
@@ -1717,7 +1717,7 @@
         <v>15</v>
       </c>
       <c r="AO9" t="n">
-        <v>270</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
@@ -1750,10 +1750,10 @@
         <v>4.2</v>
       </c>
       <c r="G10" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="I10" t="n">
         <v>1.94</v>
@@ -1777,22 +1777,22 @@
         <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R10" t="n">
         <v>1.54</v>
       </c>
       <c r="S10" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="T10" t="n">
         <v>1.62</v>
       </c>
       <c r="U10" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="V10" t="n">
         <v>2.06</v>
@@ -1804,19 +1804,19 @@
         <v>20</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z10" t="n">
         <v>13.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB10" t="n">
         <v>21</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD10" t="n">
         <v>10.5</v>
@@ -1825,10 +1825,10 @@
         <v>18</v>
       </c>
       <c r="AF10" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH10" t="n">
         <v>16.5</v>
@@ -1837,22 +1837,22 @@
         <v>80</v>
       </c>
       <c r="AJ10" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="AK10" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AL10" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM10" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="AN10" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AO10" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="11">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="G11" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="I11" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="J11" t="n">
         <v>3.85</v>
@@ -1930,7 +1930,7 @@
         <v>2.4</v>
       </c>
       <c r="V11" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="W11" t="n">
         <v>1.33</v>
@@ -1987,7 +1987,7 @@
         <v>970</v>
       </c>
       <c r="AO11" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="12">
@@ -2017,25 +2017,25 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="G12" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="H12" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="I12" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="J12" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="K12" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2044,58 +2044,58 @@
         <v>4.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R12" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="S12" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U12" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="V12" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W12" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="X12" t="n">
         <v>26</v>
       </c>
       <c r="Y12" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z12" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="AA12" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="AB12" t="n">
         <v>12</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE12" t="n">
         <v>230</v>
       </c>
       <c r="AF12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG12" t="n">
         <v>11</v>
@@ -2104,10 +2104,10 @@
         <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="AJ12" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK12" t="n">
         <v>16.5</v>
@@ -2119,10 +2119,10 @@
         <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AO12" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
@@ -2152,25 +2152,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.04</v>
+        <v>1.42</v>
       </c>
       <c r="G13" t="n">
-        <v>970</v>
+        <v>1.58</v>
       </c>
       <c r="H13" t="n">
-        <v>1.04</v>
+        <v>5.1</v>
       </c>
       <c r="I13" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="J13" t="n">
-        <v>1.02</v>
+        <v>4.3</v>
       </c>
       <c r="K13" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
@@ -2182,82 +2182,82 @@
         <v>1.09</v>
       </c>
       <c r="P13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T13" t="n">
         <v>1.45</v>
       </c>
-      <c r="Q13" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>2.62</v>
       </c>
       <c r="V13" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="W13" t="n">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="14">
@@ -2287,25 +2287,25 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G14" t="n">
         <v>1.54</v>
       </c>
-      <c r="G14" t="n">
-        <v>1.57</v>
-      </c>
       <c r="H14" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="I14" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J14" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K14" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="L14" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2314,40 +2314,40 @@
         <v>5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="R14" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S14" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="T14" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U14" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V14" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W14" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="X14" t="n">
         <v>23</v>
       </c>
       <c r="Y14" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Z14" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
@@ -2359,31 +2359,31 @@
         <v>11.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG14" t="n">
         <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK14" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G15" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H15" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="I15" t="n">
         <v>2.52</v>
       </c>
       <c r="J15" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L15" t="n">
         <v>1.42</v>
@@ -2446,19 +2446,19 @@
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P15" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Q15" t="n">
         <v>1.96</v>
       </c>
       <c r="R15" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S15" t="n">
         <v>3.45</v>
@@ -2470,13 +2470,13 @@
         <v>2.12</v>
       </c>
       <c r="V15" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="W15" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X15" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y15" t="n">
         <v>11</v>
@@ -2497,7 +2497,7 @@
         <v>12</v>
       </c>
       <c r="AE15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF15" t="n">
         <v>25</v>
@@ -2509,25 +2509,25 @@
         <v>18</v>
       </c>
       <c r="AI15" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ15" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL15" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM15" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="AN15" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
@@ -2560,19 +2560,19 @@
         <v>1.49</v>
       </c>
       <c r="G16" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="H16" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I16" t="n">
         <v>6.2</v>
       </c>
       <c r="J16" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="K16" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L16" t="n">
         <v>1.16</v>
@@ -2581,28 +2581,28 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="O16" t="n">
         <v>1.08</v>
       </c>
       <c r="P16" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="R16" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="S16" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="T16" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="U16" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="V16" t="n">
         <v>1.2</v>
@@ -2614,7 +2614,7 @@
         <v>970</v>
       </c>
       <c r="Y16" t="n">
-        <v>970</v>
+        <v>95</v>
       </c>
       <c r="Z16" t="n">
         <v>190</v>
@@ -2623,10 +2623,10 @@
         <v>140</v>
       </c>
       <c r="AB16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC16" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AD16" t="n">
         <v>27</v>
@@ -2635,16 +2635,16 @@
         <v>150</v>
       </c>
       <c r="AF16" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AG16" t="n">
         <v>13.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>120</v>
+        <v>970</v>
       </c>
       <c r="AJ16" t="n">
         <v>21</v>
@@ -2656,13 +2656,13 @@
         <v>22</v>
       </c>
       <c r="AM16" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AN16" t="n">
         <v>4.1</v>
       </c>
       <c r="AO16" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
@@ -2701,7 +2701,7 @@
         <v>1.7</v>
       </c>
       <c r="I17" t="n">
-        <v>970</v>
+        <v>3.15</v>
       </c>
       <c r="J17" t="n">
         <v>3.05</v>
@@ -2740,7 +2740,7 @@
         <v>1.04</v>
       </c>
       <c r="V17" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W17" t="n">
         <v>1.27</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="G18" t="n">
         <v>2.04</v>
@@ -2839,10 +2839,10 @@
         <v>4.6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="K18" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="L18" t="n">
         <v>1.27</v>
@@ -2869,13 +2869,13 @@
         <v>2.36</v>
       </c>
       <c r="T18" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="U18" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="V18" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W18" t="n">
         <v>1.96</v>
@@ -2908,7 +2908,7 @@
         <v>970</v>
       </c>
       <c r="AG18" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AH18" t="n">
         <v>970</v>
@@ -2962,25 +2962,25 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="G19" t="n">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="H19" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="I19" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="J19" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K19" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -2995,61 +2995,61 @@
         <v>1.97</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R19" t="n">
         <v>1.37</v>
       </c>
       <c r="S19" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T19" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V19" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="W19" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="X19" t="n">
         <v>30</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z19" t="n">
-        <v>38</v>
+        <v>12.5</v>
       </c>
       <c r="AA19" t="n">
         <v>120</v>
       </c>
       <c r="AB19" t="n">
+        <v>140</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF19" t="n">
         <v>500</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>970</v>
       </c>
       <c r="AG19" t="n">
         <v>150</v>
       </c>
       <c r="AH19" t="n">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="AI19" t="n">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="AJ19" t="n">
         <v>900</v>
@@ -3064,10 +3064,10 @@
         <v>580</v>
       </c>
       <c r="AN19" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AO19" t="n">
-        <v>55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -3097,46 +3097,46 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="G20" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="I20" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="J20" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K20" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="M20" t="n">
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.02</v>
+        <v>10</v>
       </c>
       <c r="O20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P20" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="R20" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S20" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="T20" t="n">
         <v>1.5</v>
@@ -3148,7 +3148,7 @@
         <v>1.11</v>
       </c>
       <c r="W20" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="X20" t="n">
         <v>70</v>
@@ -3160,16 +3160,16 @@
         <v>120</v>
       </c>
       <c r="AA20" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AB20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC20" t="n">
         <v>22</v>
       </c>
       <c r="AD20" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AE20" t="n">
         <v>110</v>
@@ -3181,7 +3181,7 @@
         <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI20" t="n">
         <v>70</v>
@@ -3199,7 +3199,7 @@
         <v>70</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AO20" t="n">
         <v>65</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="H21" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="I21" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="J21" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="K21" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.2</v>
@@ -3259,13 +3259,13 @@
         <v>7.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P21" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="R21" t="n">
         <v>1.92</v>
@@ -3274,16 +3274,16 @@
         <v>1.89</v>
       </c>
       <c r="T21" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="U21" t="n">
-        <v>2.12</v>
+        <v>1.99</v>
       </c>
       <c r="V21" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="W21" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="X21" t="n">
         <v>970</v>
@@ -3304,7 +3304,7 @@
         <v>970</v>
       </c>
       <c r="AD21" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AE21" t="n">
         <v>970</v>
@@ -3337,7 +3337,7 @@
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>15</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="22">
@@ -3367,64 +3367,64 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="G22" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H22" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I22" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="J22" t="n">
         <v>6.8</v>
       </c>
       <c r="K22" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M22" t="n">
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="P22" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="R22" t="n">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="S22" t="n">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="T22" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="U22" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="V22" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W22" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="X22" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
@@ -3469,7 +3469,7 @@
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.3</v>
+        <v>2.68</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,82 +3502,82 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="G23" t="n">
-        <v>1.81</v>
+        <v>1.64</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="I23" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="J23" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="K23" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="M23" t="n">
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>3.45</v>
+        <v>10.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="P23" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="R23" t="n">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="S23" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="T23" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="U23" t="n">
-        <v>2.78</v>
+        <v>2.98</v>
       </c>
       <c r="V23" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="W23" t="n">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="X23" t="n">
         <v>970</v>
       </c>
       <c r="Y23" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="Z23" t="n">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="AA23" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AB23" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AC23" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE23" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="AF23" t="n">
         <v>21</v>
@@ -3589,22 +3589,22 @@
         <v>18.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="AJ23" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AK23" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AM23" t="n">
-        <v>50</v>
+        <v>580</v>
       </c>
       <c r="AN23" t="n">
-        <v>5.1</v>
+        <v>3.95</v>
       </c>
       <c r="AO23" t="n">
         <v>26</v>
@@ -3637,112 +3637,112 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.76</v>
+        <v>3.1</v>
       </c>
       <c r="G24" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="H24" t="n">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="I24" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="J24" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K24" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M24" t="n">
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O24" t="n">
         <v>1.05</v>
       </c>
       <c r="P24" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="R24" t="n">
-        <v>2.54</v>
+        <v>2.72</v>
       </c>
       <c r="S24" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="T24" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="U24" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="V24" t="n">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="W24" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="X24" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="Y24" t="n">
         <v>42</v>
       </c>
       <c r="Z24" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA24" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AB24" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AC24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE24" t="n">
         <v>21</v>
       </c>
-      <c r="AD24" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>23</v>
-      </c>
       <c r="AF24" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AG24" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AH24" t="n">
         <v>16.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AJ24" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AK24" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN24" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>6</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="25">
@@ -3772,64 +3772,64 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="G25" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="H25" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J25" t="n">
-        <v>1.09</v>
+        <v>4.8</v>
       </c>
       <c r="K25" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="M25" t="n">
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>1.02</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O25" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="P25" t="n">
-        <v>1.25</v>
+        <v>4.1</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.1</v>
+        <v>1.24</v>
       </c>
       <c r="R25" t="n">
-        <v>1.78</v>
+        <v>2.34</v>
       </c>
       <c r="S25" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="T25" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="U25" t="n">
-        <v>2.48</v>
+        <v>2.96</v>
       </c>
       <c r="V25" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W25" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z25" t="n">
         <v>1000</v>
@@ -3838,46 +3838,46 @@
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="26">
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="G26" t="n">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
       <c r="H26" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I26" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="J26" t="n">
         <v>4.8</v>
       </c>
       <c r="K26" t="n">
-        <v>13.5</v>
+        <v>7.4</v>
       </c>
       <c r="L26" t="n">
         <v>1.16</v>
@@ -3931,61 +3931,61 @@
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>3.45</v>
+        <v>8.6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P26" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q26" t="n">
         <v>1.24</v>
       </c>
       <c r="R26" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="S26" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="T26" t="n">
         <v>1.39</v>
       </c>
       <c r="U26" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="V26" t="n">
-        <v>1.06</v>
+        <v>1.15</v>
       </c>
       <c r="W26" t="n">
-        <v>2.62</v>
+        <v>2.92</v>
       </c>
       <c r="X26" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Y26" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Z26" t="n">
         <v>85</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD26" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AE26" t="n">
         <v>75</v>
       </c>
       <c r="AF26" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AG26" t="n">
         <v>13.5</v>
@@ -3997,22 +3997,22 @@
         <v>55</v>
       </c>
       <c r="AJ26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK26" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27">
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="G27" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="H27" t="n">
         <v>7.2</v>
       </c>
       <c r="I27" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J27" t="n">
         <v>5.5</v>
@@ -4078,7 +4078,7 @@
         <v>1.13</v>
       </c>
       <c r="R27" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="S27" t="n">
         <v>1.35</v>
@@ -4087,10 +4087,10 @@
         <v>1.26</v>
       </c>
       <c r="U27" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="V27" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W27" t="n">
         <v>3.35</v>
@@ -4117,7 +4117,7 @@
         <v>970</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF27" t="n">
         <v>970</v>
@@ -4129,7 +4129,7 @@
         <v>970</v>
       </c>
       <c r="AI27" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AJ27" t="n">
         <v>970</v>
@@ -4144,7 +4144,7 @@
         <v>970</v>
       </c>
       <c r="AN27" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AO27" t="n">
         <v>970</v>
@@ -4177,112 +4177,112 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.04</v>
+        <v>1.69</v>
       </c>
       <c r="G28" t="n">
-        <v>1000</v>
+        <v>1.93</v>
       </c>
       <c r="H28" t="n">
-        <v>1.04</v>
+        <v>3.45</v>
       </c>
       <c r="I28" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="J28" t="n">
-        <v>1.02</v>
+        <v>3.95</v>
       </c>
       <c r="K28" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="M28" t="n">
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>1.24</v>
+        <v>1.02</v>
       </c>
       <c r="O28" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="P28" t="n">
-        <v>1.24</v>
+        <v>4.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.06</v>
+        <v>1.23</v>
       </c>
       <c r="R28" t="n">
-        <v>1.18</v>
+        <v>2.3</v>
       </c>
       <c r="S28" t="n">
-        <v>1.06</v>
+        <v>1.59</v>
       </c>
       <c r="T28" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="U28" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="V28" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="W28" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="29">
@@ -4315,7 +4315,7 @@
         <v>2.82</v>
       </c>
       <c r="G29" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="H29" t="n">
         <v>2.56</v>
@@ -4330,34 +4330,34 @@
         <v>3.85</v>
       </c>
       <c r="L29" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M29" t="n">
         <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O29" t="n">
         <v>1.21</v>
       </c>
       <c r="P29" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R29" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="S29" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="T29" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U29" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="V29" t="n">
         <v>1.63</v>
@@ -4369,7 +4369,7 @@
         <v>22</v>
       </c>
       <c r="Y29" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z29" t="n">
         <v>19.5</v>
@@ -4378,7 +4378,7 @@
         <v>36</v>
       </c>
       <c r="AB29" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC29" t="n">
         <v>8.800000000000001</v>
@@ -4390,7 +4390,7 @@
         <v>24</v>
       </c>
       <c r="AF29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG29" t="n">
         <v>13</v>
@@ -4417,7 +4417,7 @@
         <v>17.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -4447,82 +4447,82 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="G30" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="H30" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I30" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="J30" t="n">
         <v>3.6</v>
       </c>
       <c r="K30" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L30" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M30" t="n">
         <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="O30" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P30" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="R30" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="S30" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="T30" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="U30" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V30" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W30" t="n">
         <v>1.59</v>
       </c>
       <c r="X30" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z30" t="n">
         <v>21</v>
       </c>
       <c r="AA30" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD30" t="n">
         <v>13</v>
       </c>
       <c r="AE30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF30" t="n">
         <v>18.5</v>
@@ -4531,28 +4531,28 @@
         <v>12</v>
       </c>
       <c r="AH30" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI30" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ30" t="n">
         <v>38</v>
       </c>
       <c r="AK30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL30" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM30" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
@@ -4582,64 +4582,64 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="G31" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="H31" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="I31" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="J31" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="K31" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O31" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P31" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R31" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="S31" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="T31" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="U31" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="V31" t="n">
         <v>1.12</v>
       </c>
       <c r="W31" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="X31" t="n">
         <v>32</v>
       </c>
       <c r="Y31" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="Z31" t="n">
         <v>90</v>
@@ -4648,13 +4648,13 @@
         <v>260</v>
       </c>
       <c r="AB31" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC31" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD31" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AE31" t="n">
         <v>290</v>
@@ -4672,19 +4672,19 @@
         <v>260</v>
       </c>
       <c r="AJ31" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK31" t="n">
         <v>14.5</v>
       </c>
       <c r="AL31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM31" t="n">
         <v>110</v>
       </c>
       <c r="AN31" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="AO31" t="n">
         <v>110</v>
@@ -4717,94 +4717,94 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H32" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="I32" t="n">
-        <v>2.38</v>
+        <v>2.14</v>
       </c>
       <c r="J32" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K32" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="L32" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="M32" t="n">
         <v>1.11</v>
       </c>
       <c r="N32" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="O32" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P32" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="R32" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="S32" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="T32" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="U32" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="V32" t="n">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="W32" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="X32" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>970</v>
+        <v>7.6</v>
       </c>
       <c r="Z32" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AA32" t="n">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="AB32" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AC32" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH32" t="n">
         <v>42</v>
       </c>
-      <c r="AD32" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>500</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>970</v>
-      </c>
       <c r="AI32" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="AJ32" t="n">
         <v>900</v>
@@ -4819,10 +4819,10 @@
         <v>580</v>
       </c>
       <c r="AN32" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO32" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33">
@@ -4855,19 +4855,19 @@
         <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H33" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I33" t="n">
         <v>4.7</v>
       </c>
       <c r="J33" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K33" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L33" t="n">
         <v>1.49</v>
@@ -4885,25 +4885,25 @@
         <v>1.73</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R33" t="n">
         <v>1.27</v>
       </c>
       <c r="S33" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T33" t="n">
-        <v>1.05</v>
+        <v>1.97</v>
       </c>
       <c r="U33" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="V33" t="n">
         <v>1.27</v>
       </c>
       <c r="W33" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="X33" t="n">
         <v>11.5</v>
@@ -4912,7 +4912,7 @@
         <v>16.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AA33" t="n">
         <v>900</v>
@@ -4921,7 +4921,7 @@
         <v>7.8</v>
       </c>
       <c r="AC33" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="AD33" t="n">
         <v>23</v>
@@ -4930,7 +4930,7 @@
         <v>200</v>
       </c>
       <c r="AF33" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG33" t="n">
         <v>11</v>
@@ -4957,7 +4957,7 @@
         <v>23</v>
       </c>
       <c r="AO33" t="n">
-        <v>340</v>
+        <v>600</v>
       </c>
     </row>
     <row r="34">
@@ -4987,19 +4987,19 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G34" t="n">
         <v>2.5</v>
       </c>
       <c r="H34" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="I34" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="J34" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="K34" t="n">
         <v>4.2</v>
@@ -5023,7 +5023,7 @@
         <v>1.58</v>
       </c>
       <c r="R34" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S34" t="n">
         <v>2.44</v>
@@ -5035,43 +5035,43 @@
         <v>2.6</v>
       </c>
       <c r="V34" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="W34" t="n">
         <v>1.67</v>
       </c>
       <c r="X34" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="Y34" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="Z34" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA34" t="n">
         <v>500</v>
       </c>
-      <c r="AA34" t="n">
-        <v>900</v>
-      </c>
       <c r="AB34" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AC34" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AD34" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AE34" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="AF34" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="AG34" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AH34" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AI34" t="n">
         <v>500</v>
@@ -5080,16 +5080,16 @@
         <v>500</v>
       </c>
       <c r="AK34" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="AL34" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="AM34" t="n">
         <v>580</v>
       </c>
       <c r="AN34" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AO34" t="n">
         <v>970</v>
@@ -5128,16 +5128,16 @@
         <v>1.72</v>
       </c>
       <c r="H35" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I35" t="n">
         <v>5.2</v>
       </c>
-      <c r="I35" t="n">
-        <v>5.4</v>
-      </c>
       <c r="J35" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K35" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L35" t="n">
         <v>1.31</v>
@@ -5152,7 +5152,7 @@
         <v>1.21</v>
       </c>
       <c r="P35" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="Q35" t="n">
         <v>1.63</v>
@@ -5161,25 +5161,25 @@
         <v>1.6</v>
       </c>
       <c r="S35" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T35" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U35" t="n">
         <v>2.38</v>
       </c>
       <c r="V35" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W35" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="X35" t="n">
         <v>23</v>
       </c>
       <c r="Y35" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z35" t="n">
         <v>44</v>
@@ -5191,19 +5191,19 @@
         <v>11.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD35" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF35" t="n">
         <v>12</v>
       </c>
       <c r="AG35" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH35" t="n">
         <v>17</v>
@@ -5212,7 +5212,7 @@
         <v>55</v>
       </c>
       <c r="AJ35" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK35" t="n">
         <v>15.5</v>
@@ -5227,7 +5227,7 @@
         <v>7.4</v>
       </c>
       <c r="AO35" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36">
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G36" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H36" t="n">
         <v>3.3</v>
@@ -5272,7 +5272,7 @@
         <v>3.2</v>
       </c>
       <c r="K36" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L36" t="n">
         <v>1.5</v>
@@ -5281,16 +5281,16 @@
         <v>1.1</v>
       </c>
       <c r="N36" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O36" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P36" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="R36" t="n">
         <v>1.25</v>
@@ -5299,22 +5299,22 @@
         <v>4.5</v>
       </c>
       <c r="T36" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U36" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V36" t="n">
         <v>1.4</v>
       </c>
       <c r="W36" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="X36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y36" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="Z36" t="n">
         <v>970</v>
@@ -5341,7 +5341,7 @@
         <v>26</v>
       </c>
       <c r="AH36" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AI36" t="n">
         <v>500</v>
@@ -5362,7 +5362,7 @@
         <v>970</v>
       </c>
       <c r="AO36" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="37">
@@ -5398,13 +5398,13 @@
         <v>1.83</v>
       </c>
       <c r="H37" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I37" t="n">
         <v>5.9</v>
       </c>
       <c r="J37" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K37" t="n">
         <v>4</v>
@@ -5425,7 +5425,7 @@
         <v>1.83</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R37" t="n">
         <v>1.31</v>
@@ -5488,7 +5488,7 @@
         <v>21</v>
       </c>
       <c r="AL37" t="n">
-        <v>290</v>
+        <v>44</v>
       </c>
       <c r="AM37" t="n">
         <v>580</v>
@@ -5497,7 +5497,7 @@
         <v>14</v>
       </c>
       <c r="AO37" t="n">
-        <v>310</v>
+        <v>600</v>
       </c>
     </row>
     <row r="38">
@@ -5527,13 +5527,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="G38" t="n">
         <v>3.15</v>
       </c>
       <c r="H38" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I38" t="n">
         <v>2.88</v>
@@ -5557,7 +5557,7 @@
         <v>1.47</v>
       </c>
       <c r="P38" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q38" t="n">
         <v>2.46</v>
@@ -5569,7 +5569,7 @@
         <v>4.8</v>
       </c>
       <c r="T38" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U38" t="n">
         <v>1.9</v>
@@ -5584,10 +5584,10 @@
         <v>10</v>
       </c>
       <c r="Y38" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z38" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA38" t="n">
         <v>60</v>
@@ -5599,7 +5599,7 @@
         <v>8.6</v>
       </c>
       <c r="AD38" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE38" t="n">
         <v>46</v>
@@ -5608,13 +5608,13 @@
         <v>23</v>
       </c>
       <c r="AG38" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH38" t="n">
         <v>25</v>
       </c>
       <c r="AI38" t="n">
-        <v>170</v>
+        <v>460</v>
       </c>
       <c r="AJ38" t="n">
         <v>220</v>
@@ -5632,7 +5632,7 @@
         <v>55</v>
       </c>
       <c r="AO38" t="n">
-        <v>110</v>
+        <v>970</v>
       </c>
     </row>
     <row r="39">
@@ -5662,76 +5662,76 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="H39" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J39" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K39" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L39" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="M39" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N39" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="O39" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P39" t="n">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="R39" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="S39" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="T39" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="U39" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="V39" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="W39" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="X39" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="Y39" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AA39" t="n">
         <v>900</v>
       </c>
       <c r="AB39" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD39" t="n">
         <v>28</v>
@@ -5740,25 +5740,25 @@
         <v>970</v>
       </c>
       <c r="AF39" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AG39" t="n">
         <v>28</v>
       </c>
       <c r="AH39" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI39" t="n">
-        <v>380</v>
+        <v>970</v>
       </c>
       <c r="AJ39" t="n">
-        <v>900</v>
+        <v>230</v>
       </c>
       <c r="AK39" t="n">
         <v>970</v>
       </c>
       <c r="AL39" t="n">
-        <v>380</v>
+        <v>970</v>
       </c>
       <c r="AM39" t="n">
         <v>580</v>
@@ -5767,7 +5767,7 @@
         <v>970</v>
       </c>
       <c r="AO39" t="n">
-        <v>970</v>
+        <v>600</v>
       </c>
     </row>
     <row r="40">
@@ -5797,61 +5797,61 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H40" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="I40" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="J40" t="n">
         <v>3.05</v>
       </c>
       <c r="K40" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L40" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M40" t="n">
         <v>1.1</v>
       </c>
       <c r="N40" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="O40" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P40" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="R40" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S40" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="T40" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U40" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V40" t="n">
         <v>1.51</v>
       </c>
       <c r="W40" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X40" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y40" t="n">
         <v>9.800000000000001</v>
@@ -5860,31 +5860,31 @@
         <v>18.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="AB40" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC40" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD40" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF40" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH40" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI40" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ40" t="n">
         <v>55</v>
@@ -5893,7 +5893,7 @@
         <v>40</v>
       </c>
       <c r="AL40" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="AM40" t="n">
         <v>580</v>
@@ -5941,7 +5941,7 @@
         <v>4.3</v>
       </c>
       <c r="I41" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J41" t="n">
         <v>3.45</v>
@@ -5956,34 +5956,34 @@
         <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O41" t="n">
         <v>1.38</v>
       </c>
       <c r="P41" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q41" t="n">
         <v>2.16</v>
       </c>
       <c r="R41" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S41" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="T41" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U41" t="n">
         <v>1.98</v>
       </c>
       <c r="V41" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W41" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="X41" t="n">
         <v>25</v>
@@ -5998,7 +5998,7 @@
         <v>900</v>
       </c>
       <c r="AB41" t="n">
-        <v>970</v>
+        <v>8.4</v>
       </c>
       <c r="AC41" t="n">
         <v>14.5</v>
@@ -6010,7 +6010,7 @@
         <v>500</v>
       </c>
       <c r="AF41" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AG41" t="n">
         <v>40</v>
@@ -6037,7 +6037,7 @@
         <v>55</v>
       </c>
       <c r="AO41" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="42">
@@ -6067,58 +6067,58 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="G42" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="H42" t="n">
         <v>5.5</v>
       </c>
       <c r="I42" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="J42" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K42" t="n">
         <v>4.2</v>
       </c>
       <c r="L42" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M42" t="n">
         <v>1.07</v>
       </c>
       <c r="N42" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S42" t="n">
         <v>3.6</v>
       </c>
-      <c r="O42" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S42" t="n">
-        <v>3.75</v>
-      </c>
       <c r="T42" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="U42" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="V42" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W42" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="X42" t="n">
         <v>22</v>
@@ -6133,10 +6133,10 @@
         <v>900</v>
       </c>
       <c r="AB42" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC42" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD42" t="n">
         <v>65</v>
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G43" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H43" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I43" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J43" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K43" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L43" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="M43" t="n">
         <v>1.1</v>
       </c>
       <c r="N43" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O43" t="n">
         <v>1.42</v>
       </c>
       <c r="P43" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="R43" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S43" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T43" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U43" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V43" t="n">
         <v>1.37</v>
@@ -6256,58 +6256,58 @@
         <v>1.7</v>
       </c>
       <c r="X43" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AA43" t="n">
-        <v>900</v>
+        <v>190</v>
       </c>
       <c r="AB43" t="n">
-        <v>970</v>
+        <v>8.6</v>
       </c>
       <c r="AC43" t="n">
-        <v>42</v>
+        <v>7.4</v>
       </c>
       <c r="AD43" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AE43" t="n">
         <v>500</v>
       </c>
       <c r="AF43" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AH43" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AI43" t="n">
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="AJ43" t="n">
-        <v>970</v>
+        <v>95</v>
       </c>
       <c r="AK43" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AL43" t="n">
-        <v>970</v>
+        <v>130</v>
       </c>
       <c r="AM43" t="n">
         <v>580</v>
       </c>
       <c r="AN43" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AO43" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44">
@@ -6337,16 +6337,16 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="G44" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="H44" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I44" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J44" t="n">
         <v>2.98</v>
@@ -6355,70 +6355,70 @@
         <v>3.1</v>
       </c>
       <c r="L44" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="M44" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N44" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="O44" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="P44" t="n">
         <v>1.49</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="R44" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S44" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="T44" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U44" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="V44" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W44" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="X44" t="n">
         <v>8</v>
       </c>
       <c r="Y44" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z44" t="n">
         <v>24</v>
       </c>
       <c r="AA44" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="AB44" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC44" t="n">
         <v>7.2</v>
       </c>
       <c r="AD44" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF44" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG44" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH44" t="n">
         <v>26</v>
@@ -6427,10 +6427,10 @@
         <v>230</v>
       </c>
       <c r="AJ44" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK44" t="n">
         <v>42</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>40</v>
       </c>
       <c r="AL44" t="n">
         <v>75</v>
@@ -6439,10 +6439,10 @@
         <v>500</v>
       </c>
       <c r="AN44" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="AO44" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
     </row>
     <row r="45">
@@ -6472,52 +6472,52 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="G45" t="n">
         <v>1.91</v>
       </c>
       <c r="H45" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I45" t="n">
         <v>4.6</v>
       </c>
       <c r="J45" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K45" t="n">
         <v>4.1</v>
       </c>
       <c r="L45" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M45" t="n">
         <v>1.06</v>
       </c>
       <c r="N45" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="O45" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P45" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U45" t="n">
         <v>2.12</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S45" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T45" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U45" t="n">
-        <v>2.1</v>
       </c>
       <c r="V45" t="n">
         <v>1.27</v>
@@ -6526,10 +6526,10 @@
         <v>2.08</v>
       </c>
       <c r="X45" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Y45" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="Z45" t="n">
         <v>36</v>
@@ -6538,16 +6538,16 @@
         <v>500</v>
       </c>
       <c r="AB45" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC45" t="n">
         <v>9</v>
       </c>
       <c r="AD45" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AF45" t="n">
         <v>12.5</v>
@@ -6574,10 +6574,10 @@
         <v>95</v>
       </c>
       <c r="AN45" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="AO45" t="n">
-        <v>260</v>
+        <v>600</v>
       </c>
     </row>
     <row r="46">
@@ -6607,61 +6607,61 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="G46" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="H46" t="n">
         <v>5.1</v>
       </c>
       <c r="I46" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="J46" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K46" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L46" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="M46" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N46" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O46" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="P46" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R46" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S46" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="T46" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U46" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="V46" t="n">
         <v>1.22</v>
       </c>
       <c r="W46" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X46" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y46" t="n">
         <v>15.5</v>
@@ -6673,16 +6673,16 @@
         <v>500</v>
       </c>
       <c r="AB46" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC46" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD46" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE46" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="AF46" t="n">
         <v>10.5</v>
@@ -6700,19 +6700,19 @@
         <v>21</v>
       </c>
       <c r="AK46" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL46" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="AM46" t="n">
         <v>580</v>
       </c>
       <c r="AN46" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO46" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="47">
@@ -6748,22 +6748,22 @@
         <v>3.55</v>
       </c>
       <c r="H47" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="I47" t="n">
         <v>2.44</v>
       </c>
       <c r="J47" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K47" t="n">
         <v>3.4</v>
       </c>
       <c r="L47" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M47" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N47" t="n">
         <v>3.2</v>
@@ -6775,25 +6775,25 @@
         <v>1.72</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R47" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S47" t="n">
         <v>4.5</v>
       </c>
       <c r="T47" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U47" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="V47" t="n">
         <v>1.69</v>
       </c>
       <c r="W47" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X47" t="n">
         <v>11</v>
@@ -6820,7 +6820,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG47" t="n">
         <v>15</v>
@@ -6832,22 +6832,22 @@
         <v>230</v>
       </c>
       <c r="AJ47" t="n">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="AK47" t="n">
         <v>220</v>
       </c>
       <c r="AL47" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="AM47" t="n">
         <v>580</v>
       </c>
       <c r="AN47" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AO47" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48">
@@ -6880,19 +6880,19 @@
         <v>2.06</v>
       </c>
       <c r="G48" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H48" t="n">
         <v>3.6</v>
       </c>
       <c r="I48" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="J48" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K48" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L48" t="n">
         <v>1.29</v>
@@ -6919,16 +6919,16 @@
         <v>2.4</v>
       </c>
       <c r="T48" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U48" t="n">
         <v>2.58</v>
       </c>
       <c r="V48" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W48" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X48" t="n">
         <v>55</v>
@@ -6940,7 +6940,7 @@
         <v>85</v>
       </c>
       <c r="AA48" t="n">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="AB48" t="n">
         <v>15.5</v>
@@ -6952,7 +6952,7 @@
         <v>16.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AF48" t="n">
         <v>17</v>
@@ -6961,7 +6961,7 @@
         <v>12</v>
       </c>
       <c r="AH48" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI48" t="n">
         <v>130</v>
@@ -6979,7 +6979,7 @@
         <v>580</v>
       </c>
       <c r="AN48" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO48" t="n">
         <v>24</v>
@@ -7012,16 +7012,16 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="G49" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H49" t="n">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="I49" t="n">
-        <v>2.54</v>
+        <v>2.64</v>
       </c>
       <c r="J49" t="n">
         <v>3.4</v>
@@ -7036,46 +7036,46 @@
         <v>1.07</v>
       </c>
       <c r="N49" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O49" t="n">
         <v>1.34</v>
       </c>
       <c r="P49" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R49" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S49" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="T49" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U49" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V49" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="W49" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="X49" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y49" t="n">
         <v>11</v>
       </c>
       <c r="Z49" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA49" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AB49" t="n">
         <v>12.5</v>
@@ -7087,10 +7087,10 @@
         <v>12.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AF49" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG49" t="n">
         <v>14</v>
@@ -7102,22 +7102,22 @@
         <v>42</v>
       </c>
       <c r="AJ49" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK49" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL49" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM49" t="n">
-        <v>580</v>
+        <v>95</v>
       </c>
       <c r="AN49" t="n">
         <v>38</v>
       </c>
       <c r="AO49" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50">
@@ -7147,85 +7147,85 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="G50" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H50" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I50" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J50" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K50" t="n">
         <v>4.5</v>
       </c>
       <c r="L50" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M50" t="n">
         <v>1.03</v>
       </c>
       <c r="N50" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="O50" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P50" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="R50" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="S50" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="T50" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U50" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="V50" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W50" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="X50" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="Y50" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="Z50" t="n">
         <v>190</v>
       </c>
       <c r="AA50" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AB50" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC50" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD50" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE50" t="n">
         <v>200</v>
       </c>
       <c r="AF50" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG50" t="n">
         <v>11.5</v>
@@ -7243,16 +7243,16 @@
         <v>17</v>
       </c>
       <c r="AL50" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AM50" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN50" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AO50" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51">
@@ -7288,46 +7288,46 @@
         <v>2.52</v>
       </c>
       <c r="H51" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="I51" t="n">
         <v>3.1</v>
       </c>
       <c r="J51" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K51" t="n">
         <v>3.9</v>
       </c>
       <c r="L51" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M51" t="n">
         <v>1.05</v>
       </c>
       <c r="N51" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O51" t="n">
         <v>1.25</v>
       </c>
       <c r="P51" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="R51" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S51" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="T51" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U51" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="V51" t="n">
         <v>1.48</v>
@@ -7336,22 +7336,22 @@
         <v>1.65</v>
       </c>
       <c r="X51" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Y51" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="Z51" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AA51" t="n">
         <v>970</v>
       </c>
       <c r="AB51" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AC51" t="n">
-        <v>12.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD51" t="n">
         <v>25</v>
@@ -7360,7 +7360,7 @@
         <v>970</v>
       </c>
       <c r="AF51" t="n">
-        <v>34</v>
+        <v>19.5</v>
       </c>
       <c r="AG51" t="n">
         <v>12</v>
@@ -7375,7 +7375,7 @@
         <v>130</v>
       </c>
       <c r="AK51" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AL51" t="n">
         <v>500</v>
@@ -7387,7 +7387,7 @@
         <v>55</v>
       </c>
       <c r="AO51" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52">
@@ -7420,19 +7420,19 @@
         <v>4.3</v>
       </c>
       <c r="G52" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="H52" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="I52" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="J52" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K52" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L52" t="n">
         <v>1.53</v>
@@ -7444,7 +7444,7 @@
         <v>2.86</v>
       </c>
       <c r="O52" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P52" t="n">
         <v>1.6</v>
@@ -7456,31 +7456,31 @@
         <v>1.22</v>
       </c>
       <c r="S52" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T52" t="n">
         <v>2.08</v>
       </c>
       <c r="U52" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="V52" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="W52" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="X52" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Y52" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="Z52" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA52" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AB52" t="n">
         <v>12.5</v>
@@ -7492,13 +7492,13 @@
         <v>12</v>
       </c>
       <c r="AE52" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AF52" t="n">
         <v>170</v>
       </c>
       <c r="AG52" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH52" t="n">
         <v>24</v>
@@ -7519,10 +7519,10 @@
         <v>580</v>
       </c>
       <c r="AN52" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO52" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53">
@@ -7552,25 +7552,25 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G53" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H53" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="I53" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J53" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K53" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L53" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M53" t="n">
         <v>1.09</v>
@@ -7585,7 +7585,7 @@
         <v>1.72</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R53" t="n">
         <v>1.26</v>
@@ -7603,7 +7603,7 @@
         <v>1.25</v>
       </c>
       <c r="W53" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X53" t="n">
         <v>19</v>
@@ -7657,7 +7657,7 @@
         <v>55</v>
       </c>
       <c r="AO53" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="54">
@@ -7687,73 +7687,73 @@
         </is>
       </c>
       <c r="F54" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G54" t="n">
         <v>1.69</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1.7</v>
       </c>
       <c r="H54" t="n">
         <v>5.7</v>
       </c>
       <c r="I54" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J54" t="n">
         <v>4.1</v>
       </c>
       <c r="K54" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L54" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N54" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R54" t="n">
         <v>1.42</v>
       </c>
-      <c r="M54" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N54" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P54" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="R54" t="n">
-        <v>1.38</v>
-      </c>
       <c r="S54" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="T54" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="U54" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V54" t="n">
         <v>1.2</v>
       </c>
       <c r="W54" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="X54" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y54" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z54" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AA54" t="n">
         <v>160</v>
       </c>
       <c r="AB54" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AC54" t="n">
         <v>9</v>
@@ -7762,22 +7762,22 @@
         <v>23</v>
       </c>
       <c r="AE54" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AF54" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AG54" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH54" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI54" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AJ54" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK54" t="n">
         <v>17.5</v>
@@ -7786,13 +7786,13 @@
         <v>36</v>
       </c>
       <c r="AM54" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN54" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO54" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55">
@@ -7822,64 +7822,64 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="G55" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="H55" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="I55" t="n">
         <v>2.64</v>
       </c>
       <c r="J55" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K55" t="n">
         <v>3.8</v>
       </c>
-      <c r="K55" t="n">
-        <v>3.85</v>
-      </c>
       <c r="L55" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M55" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N55" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="O55" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P55" t="n">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="R55" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="S55" t="n">
-        <v>2.56</v>
+        <v>2.72</v>
       </c>
       <c r="T55" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="U55" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="V55" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W55" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="X55" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y55" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z55" t="n">
         <v>19.5</v>
@@ -7888,10 +7888,10 @@
         <v>38</v>
       </c>
       <c r="AB55" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC55" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD55" t="n">
         <v>12</v>
@@ -7903,31 +7903,31 @@
         <v>21</v>
       </c>
       <c r="AG55" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH55" t="n">
         <v>14.5</v>
       </c>
       <c r="AI55" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ55" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK55" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL55" t="n">
         <v>32</v>
       </c>
       <c r="AM55" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN55" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO55" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
@@ -7957,61 +7957,61 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="G56" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H56" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I56" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J56" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K56" t="n">
         <v>3.35</v>
       </c>
       <c r="L56" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="M56" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N56" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="O56" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="P56" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R56" t="n">
         <v>1.22</v>
       </c>
       <c r="S56" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="T56" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="U56" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="V56" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W56" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="X56" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y56" t="n">
         <v>13</v>
@@ -8020,19 +8020,19 @@
         <v>32</v>
       </c>
       <c r="AA56" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB56" t="n">
         <v>7</v>
       </c>
       <c r="AC56" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD56" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE56" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AF56" t="n">
         <v>11</v>
@@ -8041,28 +8041,28 @@
         <v>11</v>
       </c>
       <c r="AH56" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="AI56" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AJ56" t="n">
         <v>25</v>
       </c>
       <c r="AK56" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL56" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM56" t="n">
-        <v>580</v>
+        <v>190</v>
       </c>
       <c r="AN56" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO56" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57">
@@ -8092,16 +8092,16 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G57" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="H57" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I57" t="n">
         <v>1.62</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1.63</v>
       </c>
       <c r="J57" t="n">
         <v>4.1</v>
@@ -8110,43 +8110,43 @@
         <v>4.2</v>
       </c>
       <c r="L57" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M57" t="n">
         <v>1.07</v>
       </c>
       <c r="N57" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="O57" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
         <v>1.97</v>
       </c>
-      <c r="Q57" t="n">
-        <v>1.99</v>
-      </c>
       <c r="R57" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S57" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="T57" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U57" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V57" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="W57" t="n">
         <v>1.16</v>
       </c>
       <c r="X57" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y57" t="n">
         <v>7.8</v>
@@ -8155,13 +8155,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AA57" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB57" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC57" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD57" t="n">
         <v>9.6</v>
@@ -8173,31 +8173,31 @@
         <v>60</v>
       </c>
       <c r="AG57" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH57" t="n">
         <v>23</v>
       </c>
       <c r="AI57" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ57" t="n">
         <v>210</v>
       </c>
       <c r="AK57" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AL57" t="n">
         <v>110</v>
       </c>
       <c r="AM57" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN57" t="n">
         <v>140</v>
       </c>
       <c r="AO57" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="58">
@@ -8227,22 +8227,22 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="G58" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H58" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I58" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="J58" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="K58" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="L58" t="n">
         <v>1.27</v>
@@ -8257,28 +8257,28 @@
         <v>1.17</v>
       </c>
       <c r="P58" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="R58" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="S58" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="T58" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U58" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V58" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W58" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="X58" t="n">
         <v>32</v>
@@ -8287,31 +8287,31 @@
         <v>38</v>
       </c>
       <c r="Z58" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AA58" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AB58" t="n">
         <v>12.5</v>
       </c>
       <c r="AC58" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD58" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE58" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AF58" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG58" t="n">
         <v>10.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI58" t="n">
         <v>85</v>
@@ -8320,16 +8320,16 @@
         <v>12</v>
       </c>
       <c r="AK58" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL58" t="n">
         <v>29</v>
       </c>
       <c r="AM58" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AN58" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="AO58" t="n">
         <v>110</v>
@@ -8365,61 +8365,61 @@
         <v>1.82</v>
       </c>
       <c r="G59" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="H59" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="I59" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J59" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K59" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L59" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M59" t="n">
         <v>1.1</v>
       </c>
       <c r="N59" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="O59" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="P59" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="R59" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S59" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="T59" t="n">
-        <v>1.04</v>
+        <v>2.04</v>
       </c>
       <c r="U59" t="n">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="V59" t="n">
         <v>1.21</v>
       </c>
       <c r="W59" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X59" t="n">
         <v>21</v>
       </c>
       <c r="Y59" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="Z59" t="n">
         <v>970</v>
@@ -8443,7 +8443,7 @@
         <v>23</v>
       </c>
       <c r="AG59" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AH59" t="n">
         <v>70</v>
@@ -8464,7 +8464,7 @@
         <v>580</v>
       </c>
       <c r="AN59" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AO59" t="n">
         <v>500</v>
@@ -8500,10 +8500,10 @@
         <v>1.94</v>
       </c>
       <c r="G60" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="H60" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I60" t="n">
         <v>4.8</v>
@@ -8524,19 +8524,19 @@
         <v>3.4</v>
       </c>
       <c r="O60" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P60" t="n">
         <v>1.81</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R60" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S60" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T60" t="n">
         <v>1.98</v>
@@ -8581,7 +8581,7 @@
         <v>10.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI60" t="n">
         <v>75</v>
@@ -8632,25 +8632,25 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="G61" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="H61" t="n">
+        <v>19</v>
+      </c>
+      <c r="I61" t="n">
         <v>19.5</v>
       </c>
-      <c r="I61" t="n">
-        <v>21</v>
-      </c>
       <c r="J61" t="n">
+        <v>8</v>
+      </c>
+      <c r="K61" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="K61" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="L61" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M61" t="n">
         <v>1.02</v>
@@ -8662,19 +8662,19 @@
         <v>1.19</v>
       </c>
       <c r="P61" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R61" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S61" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T61" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="U61" t="n">
         <v>1.68</v>
@@ -8683,25 +8683,25 @@
         <v>1.05</v>
       </c>
       <c r="W61" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="X61" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Y61" t="n">
-        <v>390</v>
+        <v>970</v>
       </c>
       <c r="Z61" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AA61" t="n">
         <v>1000</v>
       </c>
       <c r="AB61" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC61" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AD61" t="n">
         <v>970</v>
@@ -8710,13 +8710,13 @@
         <v>430</v>
       </c>
       <c r="AF61" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AG61" t="n">
         <v>11.5</v>
       </c>
       <c r="AH61" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AI61" t="n">
         <v>300</v>
@@ -8725,19 +8725,19 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AK61" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL61" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AM61" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="AN61" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AO61" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="62">
@@ -8779,7 +8779,7 @@
         <v>870</v>
       </c>
       <c r="J62" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="K62" t="n">
         <v>970</v>
@@ -8788,19 +8788,19 @@
         <v>1.01</v>
       </c>
       <c r="M62" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N62" t="n">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="O62" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="P62" t="n">
         <v>1.24</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="R62" t="n">
         <v>1.18</v>
@@ -8827,52 +8827,52 @@
         <v>970</v>
       </c>
       <c r="Z62" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>970</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>970</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>970</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK62" t="n">
         <v>500</v>
       </c>
-      <c r="AA62" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE62" t="n">
+      <c r="AL62" t="n">
         <v>500</v>
       </c>
-      <c r="AF62" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH62" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI62" t="n">
+      <c r="AM62" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN62" t="n">
         <v>500</v>
       </c>
-      <c r="AJ62" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK62" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL62" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM62" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN62" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO62" t="n">
-        <v>500</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63">
@@ -8902,7 +8902,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G63" t="n">
         <v>2.82</v>
@@ -8911,19 +8911,19 @@
         <v>2.82</v>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="J63" t="n">
         <v>3.35</v>
       </c>
       <c r="K63" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L63" t="n">
         <v>1.43</v>
       </c>
       <c r="M63" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N63" t="n">
         <v>3.65</v>
@@ -8935,13 +8935,13 @@
         <v>1.89</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R63" t="n">
         <v>1.34</v>
       </c>
       <c r="S63" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="T63" t="n">
         <v>1.75</v>
@@ -8956,7 +8956,7 @@
         <v>1.56</v>
       </c>
       <c r="X63" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y63" t="n">
         <v>11.5</v>
@@ -9037,25 +9037,25 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G64" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H64" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="I64" t="n">
         <v>4.3</v>
       </c>
       <c r="J64" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K64" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L64" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M64" t="n">
         <v>1.1</v>
@@ -9067,10 +9067,10 @@
         <v>1.45</v>
       </c>
       <c r="P64" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R64" t="n">
         <v>1.24</v>
@@ -9079,28 +9079,28 @@
         <v>4.5</v>
       </c>
       <c r="T64" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="U64" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V64" t="n">
         <v>1.32</v>
       </c>
       <c r="W64" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X64" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y64" t="n">
         <v>1000</v>
       </c>
       <c r="Z64" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA64" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB64" t="n">
         <v>1000</v>
@@ -9112,7 +9112,7 @@
         <v>1000</v>
       </c>
       <c r="AE64" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF64" t="n">
         <v>1000</v>
@@ -9121,28 +9121,28 @@
         <v>1000</v>
       </c>
       <c r="AH64" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI64" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ64" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK64" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL64" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM64" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN64" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO64" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.8</v>
+        <v>10.5</v>
       </c>
       <c r="G2" t="n">
-        <v>2.82</v>
+        <v>11.5</v>
       </c>
       <c r="H2" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S2" t="n">
+        <v>7</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
         <v>2.92</v>
       </c>
-      <c r="I2" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="W2" t="n">
         <v>1.09</v>
       </c>
-      <c r="N2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.55</v>
-      </c>
       <c r="X2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>3.85</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA2" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.2</v>
+        <v>5.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AF2" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>480</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO2" t="n">
         <v>55</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>2.46</v>
+        <v>2.12</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.85</v>
       </c>
       <c r="I3" t="n">
-        <v>3.55</v>
+        <v>4.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S3" t="n">
         <v>3.45</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.4</v>
-      </c>
       <c r="T3" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="W3" t="n">
-        <v>1.69</v>
+        <v>1.89</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AA3" t="n">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AB3" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AE3" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AF3" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN3" t="n">
         <v>60</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>22</v>
-      </c>
       <c r="AO3" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="G4" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
         <v>4.1</v>
       </c>
-      <c r="I4" t="n">
-        <v>4.2</v>
-      </c>
       <c r="J4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K4" t="n">
         <v>3.7</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.75</v>
       </c>
       <c r="L4" t="n">
         <v>1.46</v>
@@ -964,46 +964,46 @@
         <v>3.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P4" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q4" t="n">
         <v>2.14</v>
       </c>
       <c r="R4" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T4" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U4" t="n">
         <v>2.06</v>
       </c>
       <c r="V4" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W4" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="X4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y4" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y4" t="n">
-        <v>14</v>
-      </c>
       <c r="Z4" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA4" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC4" t="n">
         <v>7.8</v>
@@ -1015,10 +1015,10 @@
         <v>55</v>
       </c>
       <c r="AF4" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH4" t="n">
         <v>19.5</v>
@@ -1027,7 +1027,7 @@
         <v>65</v>
       </c>
       <c r="AJ4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
         <v>22</v>
@@ -1042,7 +1042,7 @@
         <v>16.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="H5" t="n">
-        <v>2.62</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>5.3</v>
+        <v>3.9</v>
       </c>
       <c r="J5" t="n">
         <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.29</v>
@@ -1096,10 +1096,10 @@
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>2.32</v>
+        <v>4.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
         <v>2.28</v>
@@ -1111,73 +1111,73 @@
         <v>1.51</v>
       </c>
       <c r="S5" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="T5" t="n">
         <v>1.56</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>2.36</v>
       </c>
       <c r="V5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W5" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="X5" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AA5" t="n">
-        <v>900</v>
+        <v>65</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC5" t="n">
-        <v>500</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AJ5" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AK5" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AL5" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AM5" t="n">
-        <v>580</v>
+        <v>70</v>
       </c>
       <c r="AN5" t="n">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="AO5" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -1207,46 +1207,46 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="G6" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="H6" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I6" t="n">
         <v>7.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="R6" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="S6" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="T6" t="n">
         <v>1.67</v>
@@ -1258,13 +1258,13 @@
         <v>1.16</v>
       </c>
       <c r="W6" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="X6" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="n">
         <v>1000</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>980</v>
       </c>
       <c r="Z6" t="n">
         <v>160</v>
@@ -1273,43 +1273,43 @@
         <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>19</v>
+        <v>11.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>19</v>
+        <v>11.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
         <v>190</v>
       </c>
       <c r="AF6" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AI6" t="n">
         <v>170</v>
       </c>
       <c r="AJ6" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="AK6" t="n">
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="AL6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>15</v>
+        <v>8.4</v>
       </c>
       <c r="AO6" t="n">
         <v>600</v>
@@ -1342,64 +1342,64 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="G7" t="n">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="H7" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="I7" t="n">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P7" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="Q7" t="n">
         <v>1.59</v>
       </c>
       <c r="R7" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="S7" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="T7" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="U7" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V7" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="W7" t="n">
-        <v>1.94</v>
+        <v>2.14</v>
       </c>
       <c r="X7" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y7" t="n">
         <v>1000</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>980</v>
       </c>
       <c r="Z7" t="n">
         <v>980</v>
@@ -1408,13 +1408,13 @@
         <v>960</v>
       </c>
       <c r="AB7" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AC7" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AD7" t="n">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="AE7" t="n">
         <v>980</v>
@@ -1426,7 +1426,7 @@
         <v>24</v>
       </c>
       <c r="AH7" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AI7" t="n">
         <v>980</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="G8" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="H8" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
         <v>3.45</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L8" t="n">
         <v>1.45</v>
@@ -1501,76 +1501,76 @@
         <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="O8" t="n">
         <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="Q8" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U8" t="n">
         <v>2.06</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.12</v>
       </c>
       <c r="V8" t="n">
         <v>1.42</v>
       </c>
       <c r="W8" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE8" t="n">
         <v>500</v>
       </c>
-      <c r="AB8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>970</v>
-      </c>
       <c r="AF8" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AI8" t="n">
-        <v>500</v>
+        <v>980</v>
       </c>
       <c r="AJ8" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="AK8" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="AL8" t="n">
         <v>500</v>
@@ -1579,10 +1579,10 @@
         <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="AO8" t="n">
-        <v>600</v>
+        <v>980</v>
       </c>
     </row>
     <row r="9">
@@ -1612,109 +1612,109 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="G9" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I9" t="n">
         <v>4.2</v>
       </c>
-      <c r="I9" t="n">
-        <v>4.9</v>
-      </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="O9" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.32</v>
       </c>
-      <c r="P9" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.26</v>
-      </c>
       <c r="W9" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="X9" t="n">
         <v>14.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="AA9" t="n">
         <v>900</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AF9" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AG9" t="n">
         <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="AI9" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="AJ9" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AK9" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="AL9" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AM9" t="n">
         <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AO9" t="n">
         <v>140</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G10" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="I10" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
@@ -1768,46 +1768,46 @@
         <v>1.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="O10" t="n">
         <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="R10" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S10" t="n">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="T10" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="U10" t="n">
         <v>2.38</v>
       </c>
       <c r="V10" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="W10" t="n">
         <v>1.29</v>
       </c>
       <c r="X10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA10" t="n">
         <v>22</v>
@@ -1819,40 +1819,40 @@
         <v>9.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH10" t="n">
         <v>16.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="AJ10" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AK10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL10" t="n">
         <v>48</v>
       </c>
-      <c r="AL10" t="n">
-        <v>50</v>
-      </c>
       <c r="AM10" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="AN10" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO10" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="G11" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="H11" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="I11" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="J11" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K11" t="n">
         <v>4.7</v>
@@ -1903,91 +1903,91 @@
         <v>1.27</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="Q11" t="n">
         <v>1.53</v>
       </c>
       <c r="R11" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="S11" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="T11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U11" t="n">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="V11" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="W11" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X11" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="Y11" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="Z11" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="n">
-        <v>970</v>
+        <v>110</v>
       </c>
       <c r="AB11" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="AC11" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AE11" t="n">
         <v>970</v>
       </c>
       <c r="AF11" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AG11" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AH11" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AI11" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AJ11" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AK11" t="n">
         <v>970</v>
       </c>
       <c r="AL11" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AM11" t="n">
-        <v>65</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
         <v>970</v>
       </c>
       <c r="AO11" t="n">
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="12">
@@ -2017,67 +2017,67 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="G12" t="n">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="H12" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="I12" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K12" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L12" t="n">
         <v>1.27</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="O12" t="n">
         <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="Q12" t="n">
         <v>1.55</v>
       </c>
       <c r="R12" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="S12" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="T12" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="U12" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V12" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W12" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="X12" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z12" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AA12" t="n">
         <v>220</v>
@@ -2092,7 +2092,7 @@
         <v>29</v>
       </c>
       <c r="AE12" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AF12" t="n">
         <v>11.5</v>
@@ -2101,16 +2101,16 @@
         <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
         <v>200</v>
       </c>
       <c r="AJ12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL12" t="n">
         <v>32</v>
@@ -2119,10 +2119,10 @@
         <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AO12" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -2152,52 +2152,52 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="G13" t="n">
         <v>1.58</v>
       </c>
       <c r="H13" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I13" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="J13" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K13" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1.02</v>
+        <v>8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="P13" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="R13" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="T13" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="U13" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="V13" t="n">
         <v>1.16</v>
@@ -2206,13 +2206,13 @@
         <v>2.72</v>
       </c>
       <c r="X13" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="Y13" t="n">
         <v>970</v>
       </c>
       <c r="Z13" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
@@ -2227,7 +2227,7 @@
         <v>970</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AF13" t="n">
         <v>970</v>
@@ -2251,10 +2251,10 @@
         <v>970</v>
       </c>
       <c r="AM13" t="n">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.4</v>
+        <v>6.8</v>
       </c>
       <c r="AO13" t="n">
         <v>970</v>
@@ -2287,31 +2287,31 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G14" t="n">
         <v>1.51</v>
       </c>
-      <c r="G14" t="n">
-        <v>1.54</v>
-      </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I14" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="J14" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K14" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L14" t="n">
         <v>1.34</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="O14" t="n">
         <v>1.22</v>
@@ -2323,34 +2323,34 @@
         <v>1.68</v>
       </c>
       <c r="R14" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S14" t="n">
         <v>2.74</v>
       </c>
       <c r="T14" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U14" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V14" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="W14" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="X14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y14" t="n">
         <v>30</v>
       </c>
       <c r="Z14" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AB14" t="n">
         <v>10.5</v>
@@ -2362,37 +2362,37 @@
         <v>28</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF14" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG14" t="n">
         <v>9.800000000000001</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>10.5</v>
       </c>
       <c r="AH14" t="n">
         <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15">
@@ -2425,25 +2425,25 @@
         <v>3.15</v>
       </c>
       <c r="G15" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H15" t="n">
         <v>2.32</v>
       </c>
       <c r="I15" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="J15" t="n">
         <v>3.3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L15" t="n">
         <v>1.42</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
         <v>3.8</v>
@@ -2464,7 +2464,7 @@
         <v>3.45</v>
       </c>
       <c r="T15" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U15" t="n">
         <v>2.12</v>
@@ -2473,7 +2473,7 @@
         <v>1.67</v>
       </c>
       <c r="W15" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X15" t="n">
         <v>14.5</v>
@@ -2557,31 +2557,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="G16" t="n">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="H16" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J16" t="n">
         <v>4.8</v>
       </c>
-      <c r="I16" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4.5</v>
-      </c>
       <c r="K16" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L16" t="n">
         <v>1.16</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
         <v>1.08</v>
@@ -2593,76 +2593,76 @@
         <v>1.25</v>
       </c>
       <c r="R16" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="S16" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="T16" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="U16" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="V16" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W16" t="n">
-        <v>2.58</v>
+        <v>2.42</v>
       </c>
       <c r="X16" t="n">
-        <v>970</v>
+        <v>170</v>
       </c>
       <c r="Y16" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="Z16" t="n">
         <v>190</v>
       </c>
       <c r="AA16" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AB16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AC16" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE16" t="n">
         <v>150</v>
       </c>
       <c r="AF16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG16" t="n">
         <v>13.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI16" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AJ16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="n">
         <v>22</v>
       </c>
       <c r="AM16" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="AO16" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
@@ -2692,112 +2692,112 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.06</v>
+        <v>2.98</v>
       </c>
       <c r="G17" t="n">
-        <v>970</v>
+        <v>3.45</v>
       </c>
       <c r="H17" t="n">
-        <v>1.7</v>
+        <v>2.16</v>
       </c>
       <c r="I17" t="n">
-        <v>3.15</v>
+        <v>2.44</v>
       </c>
       <c r="J17" t="n">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="K17" t="n">
-        <v>8.800000000000001</v>
+        <v>4.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>1.55</v>
+        <v>4.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>1.25</v>
+        <v>2.18</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.19</v>
+        <v>1.58</v>
       </c>
       <c r="R17" t="n">
-        <v>1.19</v>
+        <v>1.54</v>
       </c>
       <c r="S17" t="n">
-        <v>1.05</v>
+        <v>2.44</v>
       </c>
       <c r="T17" t="n">
-        <v>1.04</v>
+        <v>1.54</v>
       </c>
       <c r="U17" t="n">
-        <v>1.04</v>
+        <v>2.34</v>
       </c>
       <c r="V17" t="n">
-        <v>1.56</v>
+        <v>1.69</v>
       </c>
       <c r="W17" t="n">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="X17" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="Y17" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="Z17" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>900</v>
+        <v>32</v>
       </c>
       <c r="AB17" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AC17" t="n">
-        <v>500</v>
+        <v>10.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>500</v>
+        <v>23</v>
       </c>
       <c r="AF17" t="n">
-        <v>500</v>
+        <v>28</v>
       </c>
       <c r="AG17" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AH17" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AI17" t="n">
-        <v>500</v>
+        <v>32</v>
       </c>
       <c r="AJ17" t="n">
-        <v>500</v>
+        <v>310</v>
       </c>
       <c r="AK17" t="n">
-        <v>500</v>
+        <v>38</v>
       </c>
       <c r="AL17" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="AM17" t="n">
         <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>600</v>
+        <v>29</v>
       </c>
       <c r="AO17" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="18">
@@ -2827,58 +2827,58 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="G18" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I18" t="n">
         <v>4.6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="K18" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="L18" t="n">
         <v>1.27</v>
       </c>
       <c r="M18" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P18" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R18" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="S18" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="T18" t="n">
         <v>1.53</v>
       </c>
       <c r="U18" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="V18" t="n">
         <v>1.27</v>
       </c>
       <c r="W18" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="X18" t="n">
         <v>970</v>
@@ -2929,7 +2929,7 @@
         <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO18" t="n">
         <v>970</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="G19" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="H19" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="I19" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="J19" t="n">
         <v>3.6</v>
@@ -2983,7 +2983,7 @@
         <v>1.41</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
         <v>3.85</v>
@@ -3004,52 +3004,52 @@
         <v>3.35</v>
       </c>
       <c r="T19" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="U19" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V19" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X19" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="Z19" t="n">
         <v>12.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="AB19" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD19" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>200</v>
+      </c>
+      <c r="AG19" t="n">
         <v>65</v>
       </c>
-      <c r="AF19" t="n">
-        <v>500</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>150</v>
-      </c>
       <c r="AH19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI19" t="n">
         <v>95</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>170</v>
       </c>
       <c r="AJ19" t="n">
         <v>900</v>
@@ -3064,7 +3064,7 @@
         <v>580</v>
       </c>
       <c r="AN19" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO19" t="n">
         <v>14</v>
@@ -3097,64 +3097,64 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="G20" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H20" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J20" t="n">
-        <v>5.1</v>
+        <v>6.6</v>
       </c>
       <c r="K20" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="M20" t="n">
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O20" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="P20" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="R20" t="n">
-        <v>2.3</v>
+        <v>2.58</v>
       </c>
       <c r="S20" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="T20" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="U20" t="n">
-        <v>2.36</v>
+        <v>2.68</v>
       </c>
       <c r="V20" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W20" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="X20" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="Y20" t="n">
-        <v>70</v>
+        <v>970</v>
       </c>
       <c r="Z20" t="n">
         <v>120</v>
@@ -3163,46 +3163,46 @@
         <v>260</v>
       </c>
       <c r="AB20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC20" t="n">
         <v>24</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>22</v>
       </c>
       <c r="AD20" t="n">
         <v>40</v>
       </c>
       <c r="AE20" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="AF20" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AG20" t="n">
         <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AJ20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK20" t="n">
         <v>15</v>
       </c>
       <c r="AL20" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AM20" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.4</v>
+        <v>2.84</v>
       </c>
       <c r="AO20" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
@@ -3244,19 +3244,19 @@
         <v>1.32</v>
       </c>
       <c r="J21" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="K21" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="O21" t="n">
         <v>1.11</v>
@@ -3265,25 +3265,25 @@
         <v>3.15</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="R21" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="S21" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="T21" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="U21" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="V21" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="W21" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="X21" t="n">
         <v>970</v>
@@ -3292,7 +3292,7 @@
         <v>970</v>
       </c>
       <c r="Z21" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AA21" t="n">
         <v>970</v>
@@ -3337,7 +3337,7 @@
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>3.5</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="22">
@@ -3367,64 +3367,64 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="G22" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="H22" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="I22" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="J22" t="n">
         <v>6.8</v>
       </c>
       <c r="K22" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M22" t="n">
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="O22" t="n">
         <v>1.06</v>
       </c>
       <c r="P22" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="R22" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="S22" t="n">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="T22" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="U22" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="V22" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W22" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
@@ -3466,10 +3466,10 @@
         <v>970</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN22" t="n">
-        <v>2.68</v>
+        <v>2.54</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,112 +3502,112 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.49</v>
+        <v>1.63</v>
       </c>
       <c r="G23" t="n">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="H23" t="n">
-        <v>4.7</v>
+        <v>3.85</v>
       </c>
       <c r="I23" t="n">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K23" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="M23" t="n">
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O23" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="R23" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S23" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="T23" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="U23" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="V23" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="W23" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="X23" t="n">
         <v>970</v>
       </c>
       <c r="Y23" t="n">
-        <v>970</v>
+        <v>120</v>
       </c>
       <c r="Z23" t="n">
         <v>170</v>
       </c>
       <c r="AA23" t="n">
-        <v>140</v>
+        <v>340</v>
       </c>
       <c r="AB23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC23" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE23" t="n">
         <v>150</v>
       </c>
       <c r="AF23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG23" t="n">
         <v>14</v>
       </c>
       <c r="AH23" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AI23" t="n">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="AJ23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL23" t="n">
         <v>22</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>21</v>
       </c>
       <c r="AM23" t="n">
         <v>580</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.95</v>
+        <v>4.8</v>
       </c>
       <c r="AO23" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="24">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="G24" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H24" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="I24" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
         <v>4.7</v>
@@ -3661,16 +3661,16 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="O24" t="n">
         <v>1.05</v>
       </c>
       <c r="P24" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="R24" t="n">
         <v>2.72</v>
@@ -3679,19 +3679,19 @@
         <v>1.5</v>
       </c>
       <c r="T24" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="U24" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="V24" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="W24" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X24" t="n">
-        <v>500</v>
+        <v>190</v>
       </c>
       <c r="Y24" t="n">
         <v>42</v>
@@ -3706,43 +3706,43 @@
         <v>60</v>
       </c>
       <c r="AC24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AD24" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE24" t="n">
         <v>21</v>
       </c>
       <c r="AF24" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG24" t="n">
         <v>24</v>
       </c>
       <c r="AH24" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI24" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ24" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK24" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AL24" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AM24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN24" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AO24" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="25">
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="G25" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="H25" t="n">
         <v>4.3</v>
@@ -3784,55 +3784,55 @@
         <v>5.5</v>
       </c>
       <c r="J25" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K25" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="M25" t="n">
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="O25" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="P25" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="R25" t="n">
-        <v>2.34</v>
+        <v>2.68</v>
       </c>
       <c r="S25" t="n">
-        <v>1.62</v>
+        <v>1.51</v>
       </c>
       <c r="T25" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U25" t="n">
-        <v>2.96</v>
+        <v>3.25</v>
       </c>
       <c r="V25" t="n">
         <v>1.22</v>
       </c>
       <c r="W25" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y25" t="n">
         <v>970</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
@@ -3847,7 +3847,7 @@
         <v>970</v>
       </c>
       <c r="AE25" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="AF25" t="n">
         <v>970</v>
@@ -3874,7 +3874,7 @@
         <v>970</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="AO25" t="n">
         <v>970</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.38</v>
+        <v>1.65</v>
       </c>
       <c r="G26" t="n">
-        <v>1.49</v>
+        <v>1.78</v>
       </c>
       <c r="H26" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>8</v>
+        <v>5.3</v>
       </c>
       <c r="J26" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="K26" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="L26" t="n">
         <v>1.16</v>
@@ -3931,88 +3931,88 @@
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O26" t="n">
         <v>1.07</v>
       </c>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="R26" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="S26" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="T26" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="U26" t="n">
-        <v>2.72</v>
+        <v>3.1</v>
       </c>
       <c r="V26" t="n">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="W26" t="n">
-        <v>2.92</v>
+        <v>2.26</v>
       </c>
       <c r="X26" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Y26" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Z26" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AA26" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AB26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC26" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AD26" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AE26" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="AF26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG26" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH26" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI26" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AJ26" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AK26" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AM26" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AN26" t="n">
-        <v>3.65</v>
+        <v>4.6</v>
       </c>
       <c r="AO26" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -4042,19 +4042,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="G27" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="H27" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="J27" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="K27" t="n">
         <v>8.800000000000001</v>
@@ -4072,28 +4072,28 @@
         <v>1.03</v>
       </c>
       <c r="P27" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="R27" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="S27" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="T27" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="U27" t="n">
-        <v>3.3</v>
+        <v>2.84</v>
       </c>
       <c r="V27" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="W27" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="X27" t="n">
         <v>970</v>
@@ -4117,7 +4117,7 @@
         <v>970</v>
       </c>
       <c r="AE27" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
         <v>970</v>
@@ -4129,7 +4129,7 @@
         <v>970</v>
       </c>
       <c r="AI27" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
         <v>970</v>
@@ -4144,7 +4144,7 @@
         <v>970</v>
       </c>
       <c r="AN27" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="AO27" t="n">
         <v>970</v>
@@ -4177,112 +4177,112 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.69</v>
+        <v>1.4</v>
       </c>
       <c r="G28" t="n">
-        <v>1.93</v>
+        <v>1.51</v>
       </c>
       <c r="H28" t="n">
-        <v>3.45</v>
+        <v>5.3</v>
       </c>
       <c r="I28" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="J28" t="n">
-        <v>3.95</v>
+        <v>5.6</v>
       </c>
       <c r="K28" t="n">
-        <v>5.9</v>
+        <v>7.4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="M28" t="n">
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>1.02</v>
+        <v>13.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="P28" t="n">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="R28" t="n">
-        <v>2.3</v>
+        <v>2.74</v>
       </c>
       <c r="S28" t="n">
-        <v>1.59</v>
+        <v>1.46</v>
       </c>
       <c r="T28" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="U28" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="V28" t="n">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="W28" t="n">
-        <v>2.06</v>
+        <v>2.9</v>
       </c>
       <c r="X28" t="n">
-        <v>80</v>
+        <v>970</v>
       </c>
       <c r="Y28" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="Z28" t="n">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="AA28" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="AB28" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="AC28" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AE28" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AF28" t="n">
         <v>26</v>
       </c>
       <c r="AG28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK28" t="n">
         <v>16.5</v>
       </c>
-      <c r="AI28" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK28" t="n">
+      <c r="AL28" t="n">
         <v>21</v>
       </c>
-      <c r="AL28" t="n">
-        <v>22</v>
-      </c>
       <c r="AM28" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AN28" t="n">
-        <v>5.5</v>
+        <v>3.15</v>
       </c>
       <c r="AO28" t="n">
-        <v>17.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
@@ -4312,10 +4312,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="G29" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="H29" t="n">
         <v>2.56</v>
@@ -4342,31 +4342,31 @@
         <v>1.21</v>
       </c>
       <c r="P29" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R29" t="n">
         <v>1.58</v>
       </c>
       <c r="S29" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T29" t="n">
         <v>1.58</v>
       </c>
       <c r="U29" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="V29" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W29" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y29" t="n">
         <v>15</v>
@@ -4414,7 +4414,7 @@
         <v>60</v>
       </c>
       <c r="AN29" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO29" t="n">
         <v>15</v>
@@ -4447,13 +4447,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G30" t="n">
         <v>2.68</v>
       </c>
       <c r="H30" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="I30" t="n">
         <v>2.92</v>
@@ -4468,10 +4468,10 @@
         <v>1.41</v>
       </c>
       <c r="M30" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O30" t="n">
         <v>1.29</v>
@@ -4492,7 +4492,7 @@
         <v>1.71</v>
       </c>
       <c r="U30" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V30" t="n">
         <v>1.52</v>
@@ -4507,16 +4507,16 @@
         <v>13</v>
       </c>
       <c r="Z30" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA30" t="n">
         <v>44</v>
       </c>
       <c r="AB30" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD30" t="n">
         <v>13</v>
@@ -4549,7 +4549,7 @@
         <v>80</v>
       </c>
       <c r="AN30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO30" t="n">
         <v>24</v>
@@ -4585,7 +4585,7 @@
         <v>1.37</v>
       </c>
       <c r="G31" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H31" t="n">
         <v>8.4</v>
@@ -4606,28 +4606,28 @@
         <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="O31" t="n">
         <v>1.15</v>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="R31" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="S31" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="T31" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="U31" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="V31" t="n">
         <v>1.12</v>
@@ -4636,22 +4636,22 @@
         <v>3.5</v>
       </c>
       <c r="X31" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y31" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="Z31" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AA31" t="n">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="AB31" t="n">
         <v>13</v>
       </c>
       <c r="AC31" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD31" t="n">
         <v>34</v>
@@ -4675,16 +4675,16 @@
         <v>12.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL31" t="n">
         <v>29</v>
       </c>
       <c r="AM31" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AN31" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="AO31" t="n">
         <v>110</v>
@@ -4717,10 +4717,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="G32" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H32" t="n">
         <v>2.1</v>
@@ -4729,10 +4729,10 @@
         <v>2.14</v>
       </c>
       <c r="J32" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K32" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L32" t="n">
         <v>1.53</v>
@@ -4741,7 +4741,7 @@
         <v>1.11</v>
       </c>
       <c r="N32" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O32" t="n">
         <v>1.47</v>
@@ -4750,79 +4750,79 @@
         <v>1.66</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R32" t="n">
         <v>1.24</v>
       </c>
       <c r="S32" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T32" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="U32" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="V32" t="n">
         <v>1.87</v>
       </c>
       <c r="W32" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X32" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y32" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA32" t="n">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="AB32" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD32" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE32" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK32" t="n">
         <v>65</v>
       </c>
-      <c r="AF32" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>42</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>500</v>
-      </c>
       <c r="AL32" t="n">
-        <v>500</v>
+        <v>85</v>
       </c>
       <c r="AM32" t="n">
         <v>580</v>
       </c>
       <c r="AN32" t="n">
-        <v>600</v>
+        <v>95</v>
       </c>
       <c r="AO32" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33">
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G33" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H33" t="n">
         <v>4.3</v>
@@ -4864,16 +4864,16 @@
         <v>4.7</v>
       </c>
       <c r="J33" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K33" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L33" t="n">
         <v>1.49</v>
       </c>
       <c r="M33" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N33" t="n">
         <v>3.2</v>
@@ -4882,10 +4882,10 @@
         <v>1.41</v>
       </c>
       <c r="P33" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="R33" t="n">
         <v>1.27</v>
@@ -4903,16 +4903,16 @@
         <v>1.27</v>
       </c>
       <c r="W33" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="X33" t="n">
         <v>11.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="Z33" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AA33" t="n">
         <v>900</v>
@@ -4921,7 +4921,7 @@
         <v>7.8</v>
       </c>
       <c r="AC33" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD33" t="n">
         <v>23</v>
@@ -4945,7 +4945,7 @@
         <v>30</v>
       </c>
       <c r="AK33" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AL33" t="n">
         <v>970</v>
@@ -4987,61 +4987,61 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="G34" t="n">
         <v>2.5</v>
       </c>
       <c r="H34" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="I34" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="J34" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K34" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L34" t="n">
         <v>1.29</v>
       </c>
       <c r="M34" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
         <v>5.7</v>
       </c>
       <c r="O34" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P34" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R34" t="n">
         <v>1.65</v>
       </c>
       <c r="S34" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="T34" t="n">
         <v>1.55</v>
       </c>
       <c r="U34" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="V34" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W34" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X34" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="Y34" t="n">
         <v>60</v>
@@ -5053,7 +5053,7 @@
         <v>500</v>
       </c>
       <c r="AB34" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AC34" t="n">
         <v>42</v>
@@ -5062,7 +5062,7 @@
         <v>65</v>
       </c>
       <c r="AE34" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="AF34" t="n">
         <v>70</v>
@@ -5077,7 +5077,7 @@
         <v>500</v>
       </c>
       <c r="AJ34" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="AK34" t="n">
         <v>160</v>
@@ -5089,7 +5089,7 @@
         <v>580</v>
       </c>
       <c r="AN34" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AO34" t="n">
         <v>970</v>
@@ -5128,10 +5128,10 @@
         <v>1.72</v>
       </c>
       <c r="H35" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I35" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J35" t="n">
         <v>4.4</v>
@@ -5140,34 +5140,34 @@
         <v>4.5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M35" t="n">
         <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="O35" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P35" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="R35" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="S35" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="T35" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U35" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="V35" t="n">
         <v>1.23</v>
@@ -5176,10 +5176,10 @@
         <v>2.38</v>
       </c>
       <c r="X35" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y35" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z35" t="n">
         <v>44</v>
@@ -5188,10 +5188,10 @@
         <v>120</v>
       </c>
       <c r="AB35" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD35" t="n">
         <v>19.5</v>
@@ -5203,28 +5203,28 @@
         <v>12</v>
       </c>
       <c r="AG35" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH35" t="n">
         <v>17</v>
       </c>
       <c r="AI35" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ35" t="n">
         <v>17.5</v>
       </c>
       <c r="AK35" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL35" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM35" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN35" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AO35" t="n">
         <v>50</v>
@@ -5266,7 +5266,7 @@
         <v>3.3</v>
       </c>
       <c r="I36" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J36" t="n">
         <v>3.2</v>
@@ -5278,7 +5278,7 @@
         <v>1.5</v>
       </c>
       <c r="M36" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N36" t="n">
         <v>3.1</v>
@@ -5287,7 +5287,7 @@
         <v>1.43</v>
       </c>
       <c r="P36" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q36" t="n">
         <v>2.32</v>
@@ -5395,10 +5395,10 @@
         <v>1.76</v>
       </c>
       <c r="G37" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="H37" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I37" t="n">
         <v>5.9</v>
@@ -5413,7 +5413,7 @@
         <v>1.45</v>
       </c>
       <c r="M37" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N37" t="n">
         <v>3.5</v>
@@ -5443,7 +5443,7 @@
         <v>1.21</v>
       </c>
       <c r="W37" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="X37" t="n">
         <v>13.5</v>
@@ -5527,28 +5527,28 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="G38" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H38" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I38" t="n">
         <v>2.88</v>
       </c>
       <c r="J38" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K38" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L38" t="n">
         <v>1.53</v>
       </c>
       <c r="M38" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N38" t="n">
         <v>2.96</v>
@@ -5557,10 +5557,10 @@
         <v>1.47</v>
       </c>
       <c r="P38" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="R38" t="n">
         <v>1.23</v>
@@ -5578,7 +5578,7 @@
         <v>1.53</v>
       </c>
       <c r="W38" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X38" t="n">
         <v>10</v>
@@ -5662,64 +5662,64 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="G39" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="H39" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="I39" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J39" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K39" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L39" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M39" t="n">
         <v>1.08</v>
       </c>
       <c r="N39" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O39" t="n">
         <v>1.36</v>
       </c>
       <c r="P39" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R39" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S39" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T39" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="U39" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V39" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="W39" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X39" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="Y39" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z39" t="n">
         <v>500</v>
@@ -5764,7 +5764,7 @@
         <v>580</v>
       </c>
       <c r="AN39" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AO39" t="n">
         <v>600</v>
@@ -5803,10 +5803,10 @@
         <v>3.05</v>
       </c>
       <c r="H40" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I40" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="J40" t="n">
         <v>3.05</v>
@@ -5818,31 +5818,31 @@
         <v>1.53</v>
       </c>
       <c r="M40" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N40" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O40" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P40" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="R40" t="n">
         <v>1.24</v>
       </c>
       <c r="S40" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T40" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U40" t="n">
         <v>1.91</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.96</v>
       </c>
       <c r="V40" t="n">
         <v>1.51</v>
@@ -5854,7 +5854,7 @@
         <v>10.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Z40" t="n">
         <v>18.5</v>
@@ -5890,16 +5890,16 @@
         <v>55</v>
       </c>
       <c r="AK40" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AL40" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AM40" t="n">
         <v>580</v>
       </c>
       <c r="AN40" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AO40" t="n">
         <v>42</v>
@@ -5935,55 +5935,55 @@
         <v>1.98</v>
       </c>
       <c r="G41" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H41" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="I41" t="n">
         <v>4.7</v>
       </c>
       <c r="J41" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K41" t="n">
         <v>3.8</v>
       </c>
       <c r="L41" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="M41" t="n">
         <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O41" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P41" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="R41" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S41" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="T41" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="U41" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V41" t="n">
         <v>1.28</v>
       </c>
       <c r="W41" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="X41" t="n">
         <v>25</v>
@@ -5998,7 +5998,7 @@
         <v>900</v>
       </c>
       <c r="AB41" t="n">
-        <v>8.4</v>
+        <v>16</v>
       </c>
       <c r="AC41" t="n">
         <v>14.5</v>
@@ -6016,7 +6016,7 @@
         <v>40</v>
       </c>
       <c r="AH41" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AI41" t="n">
         <v>500</v>
@@ -6067,58 +6067,58 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="G42" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="H42" t="n">
         <v>5.5</v>
       </c>
       <c r="I42" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="J42" t="n">
         <v>3.7</v>
       </c>
       <c r="K42" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L42" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M42" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="O42" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P42" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R42" t="n">
         <v>1.34</v>
       </c>
       <c r="S42" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="T42" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U42" t="n">
         <v>1.92</v>
       </c>
       <c r="V42" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W42" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="X42" t="n">
         <v>22</v>
@@ -6127,7 +6127,7 @@
         <v>60</v>
       </c>
       <c r="Z42" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="AA42" t="n">
         <v>900</v>
@@ -6169,7 +6169,7 @@
         <v>580</v>
       </c>
       <c r="AN42" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AO42" t="n">
         <v>880</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G43" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="H43" t="n">
         <v>3.5</v>
@@ -6217,58 +6217,58 @@
         <v>3.15</v>
       </c>
       <c r="K43" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L43" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M43" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N43" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O43" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="P43" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="R43" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="S43" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="T43" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="U43" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="V43" t="n">
         <v>1.37</v>
       </c>
       <c r="W43" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="X43" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Y43" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z43" t="n">
         <v>25</v>
       </c>
       <c r="AA43" t="n">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="AB43" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC43" t="n">
         <v>7.4</v>
@@ -6277,7 +6277,7 @@
         <v>16</v>
       </c>
       <c r="AE43" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="AF43" t="n">
         <v>14.5</v>
@@ -6286,16 +6286,16 @@
         <v>12</v>
       </c>
       <c r="AH43" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI43" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AJ43" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AK43" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AL43" t="n">
         <v>130</v>
@@ -6337,85 +6337,85 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G44" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H44" t="n">
         <v>3.5</v>
       </c>
       <c r="I44" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J44" t="n">
         <v>2.98</v>
       </c>
       <c r="K44" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L44" t="n">
         <v>1.65</v>
       </c>
       <c r="M44" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N44" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="O44" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="P44" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="R44" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="S44" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="T44" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U44" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V44" t="n">
         <v>1.37</v>
       </c>
       <c r="W44" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="X44" t="n">
         <v>8</v>
       </c>
       <c r="Y44" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z44" t="n">
         <v>24</v>
       </c>
       <c r="AA44" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB44" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AC44" t="n">
         <v>7.2</v>
       </c>
       <c r="AD44" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF44" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG44" t="n">
         <v>13.5</v>
@@ -6427,22 +6427,22 @@
         <v>230</v>
       </c>
       <c r="AJ44" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK44" t="n">
         <v>44</v>
       </c>
-      <c r="AK44" t="n">
-        <v>42</v>
-      </c>
       <c r="AL44" t="n">
-        <v>75</v>
+        <v>460</v>
       </c>
       <c r="AM44" t="n">
         <v>500</v>
       </c>
       <c r="AN44" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO44" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="45">
@@ -6472,94 +6472,94 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="G45" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H45" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I45" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J45" t="n">
         <v>3.9</v>
       </c>
       <c r="K45" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L45" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M45" t="n">
         <v>1.06</v>
       </c>
       <c r="N45" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O45" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P45" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="R45" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S45" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T45" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="U45" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V45" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W45" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X45" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y45" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Z45" t="n">
         <v>36</v>
       </c>
       <c r="AA45" t="n">
-        <v>500</v>
+        <v>110</v>
       </c>
       <c r="AB45" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AC45" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD45" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="AF45" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG45" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH45" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI45" t="n">
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="AJ45" t="n">
         <v>38</v>
@@ -6568,16 +6568,16 @@
         <v>19</v>
       </c>
       <c r="AL45" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AM45" t="n">
-        <v>95</v>
+        <v>580</v>
       </c>
       <c r="AN45" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="AO45" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46">
@@ -6607,25 +6607,25 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="G46" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="H46" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="I46" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="J46" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K46" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L46" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M46" t="n">
         <v>1.1</v>
@@ -6634,10 +6634,10 @@
         <v>3.1</v>
       </c>
       <c r="O46" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P46" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q46" t="n">
         <v>2.38</v>
@@ -6655,19 +6655,19 @@
         <v>1.83</v>
       </c>
       <c r="V46" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W46" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="X46" t="n">
         <v>11</v>
       </c>
       <c r="Y46" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z46" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AA46" t="n">
         <v>500</v>
@@ -6676,16 +6676,16 @@
         <v>7.4</v>
       </c>
       <c r="AC46" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD46" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE46" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="AF46" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG46" t="n">
         <v>11</v>
@@ -6697,7 +6697,7 @@
         <v>500</v>
       </c>
       <c r="AJ46" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AK46" t="n">
         <v>24</v>
@@ -6709,7 +6709,7 @@
         <v>580</v>
       </c>
       <c r="AN46" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AO46" t="n">
         <v>600</v>
@@ -6742,37 +6742,37 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="G47" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="H47" t="n">
-        <v>2.36</v>
+        <v>2.5</v>
       </c>
       <c r="I47" t="n">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="J47" t="n">
         <v>3.3</v>
       </c>
       <c r="K47" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L47" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M47" t="n">
         <v>1.1</v>
       </c>
       <c r="N47" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O47" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P47" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q47" t="n">
         <v>2.3</v>
@@ -6781,73 +6781,73 @@
         <v>1.27</v>
       </c>
       <c r="S47" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T47" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U47" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="V47" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="W47" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="X47" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z47" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA47" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AB47" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD47" t="n">
         <v>12</v>
       </c>
       <c r="AE47" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AF47" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG47" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH47" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI47" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="AJ47" t="n">
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="AK47" t="n">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="AL47" t="n">
         <v>300</v>
       </c>
       <c r="AM47" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN47" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AO47" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G48" t="n">
         <v>2.14</v>
@@ -6892,13 +6892,13 @@
         <v>3.85</v>
       </c>
       <c r="K48" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L48" t="n">
         <v>1.29</v>
       </c>
       <c r="M48" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N48" t="n">
         <v>5.8</v>
@@ -6907,7 +6907,7 @@
         <v>1.18</v>
       </c>
       <c r="P48" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="Q48" t="n">
         <v>1.57</v>
@@ -6919,10 +6919,10 @@
         <v>2.4</v>
       </c>
       <c r="T48" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U48" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="V48" t="n">
         <v>1.36</v>
@@ -6943,7 +6943,7 @@
         <v>65</v>
       </c>
       <c r="AB48" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC48" t="n">
         <v>10.5</v>
@@ -6976,7 +6976,7 @@
         <v>55</v>
       </c>
       <c r="AM48" t="n">
-        <v>580</v>
+        <v>160</v>
       </c>
       <c r="AN48" t="n">
         <v>9.800000000000001</v>
@@ -7012,76 +7012,76 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="G49" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H49" t="n">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="I49" t="n">
-        <v>2.64</v>
+        <v>2.88</v>
       </c>
       <c r="J49" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K49" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="L49" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M49" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N49" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O49" t="n">
         <v>1.34</v>
       </c>
       <c r="P49" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R49" t="n">
         <v>1.35</v>
       </c>
       <c r="S49" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T49" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U49" t="n">
         <v>2.16</v>
       </c>
       <c r="V49" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="W49" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="X49" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z49" t="n">
         <v>18</v>
       </c>
       <c r="AA49" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AB49" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AD49" t="n">
         <v>12.5</v>
@@ -7090,34 +7090,34 @@
         <v>32</v>
       </c>
       <c r="AF49" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AG49" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI49" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ49" t="n">
         <v>42</v>
       </c>
-      <c r="AJ49" t="n">
-        <v>55</v>
-      </c>
       <c r="AK49" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL49" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM49" t="n">
         <v>95</v>
       </c>
       <c r="AN49" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AO49" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50">
@@ -7147,19 +7147,19 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="G50" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="H50" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I50" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J50" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K50" t="n">
         <v>4.5</v>
@@ -7168,43 +7168,43 @@
         <v>1.28</v>
       </c>
       <c r="M50" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N50" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="O50" t="n">
         <v>1.18</v>
       </c>
       <c r="P50" t="n">
-        <v>2.7</v>
+        <v>2.84</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="R50" t="n">
         <v>1.67</v>
       </c>
       <c r="S50" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T50" t="n">
         <v>1.59</v>
       </c>
       <c r="U50" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="V50" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W50" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="X50" t="n">
         <v>75</v>
       </c>
       <c r="Y50" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z50" t="n">
         <v>190</v>
@@ -7213,7 +7213,7 @@
         <v>500</v>
       </c>
       <c r="AB50" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC50" t="n">
         <v>11.5</v>
@@ -7228,7 +7228,7 @@
         <v>14.5</v>
       </c>
       <c r="AG50" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH50" t="n">
         <v>17</v>
@@ -7252,7 +7252,7 @@
         <v>7.6</v>
       </c>
       <c r="AO50" t="n">
-        <v>36</v>
+        <v>500</v>
       </c>
     </row>
     <row r="51">
@@ -7297,7 +7297,7 @@
         <v>3.7</v>
       </c>
       <c r="K51" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L51" t="n">
         <v>1.36</v>
@@ -7306,7 +7306,7 @@
         <v>1.05</v>
       </c>
       <c r="N51" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O51" t="n">
         <v>1.25</v>
@@ -7315,7 +7315,7 @@
         <v>2.26</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R51" t="n">
         <v>1.47</v>
@@ -7324,10 +7324,10 @@
         <v>3</v>
       </c>
       <c r="T51" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U51" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V51" t="n">
         <v>1.48</v>
@@ -7336,7 +7336,7 @@
         <v>1.65</v>
       </c>
       <c r="X51" t="n">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="Y51" t="n">
         <v>970</v>
@@ -7348,22 +7348,22 @@
         <v>970</v>
       </c>
       <c r="AB51" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AC51" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD51" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AE51" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AF51" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG51" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH51" t="n">
         <v>28</v>
@@ -7378,13 +7378,13 @@
         <v>60</v>
       </c>
       <c r="AL51" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="AM51" t="n">
         <v>580</v>
       </c>
       <c r="AN51" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AO51" t="n">
         <v>48</v>
@@ -7417,22 +7417,22 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="G52" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H52" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="I52" t="n">
         <v>2.08</v>
       </c>
       <c r="J52" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K52" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L52" t="n">
         <v>1.53</v>
@@ -7447,7 +7447,7 @@
         <v>1.48</v>
       </c>
       <c r="P52" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q52" t="n">
         <v>2.46</v>
@@ -7468,19 +7468,19 @@
         <v>1.92</v>
       </c>
       <c r="W52" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X52" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Y52" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z52" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA52" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB52" t="n">
         <v>12.5</v>
@@ -7492,10 +7492,10 @@
         <v>12</v>
       </c>
       <c r="AE52" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="AF52" t="n">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="AG52" t="n">
         <v>19</v>
@@ -7522,7 +7522,7 @@
         <v>600</v>
       </c>
       <c r="AO52" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53">
@@ -7552,64 +7552,64 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="G53" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="H53" t="n">
         <v>4.4</v>
       </c>
       <c r="I53" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J53" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K53" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L53" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="M53" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N53" t="n">
-        <v>3.15</v>
+        <v>2.86</v>
       </c>
       <c r="O53" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="P53" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.26</v>
+        <v>2.54</v>
       </c>
       <c r="R53" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="S53" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="T53" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="U53" t="n">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="V53" t="n">
         <v>1.25</v>
       </c>
       <c r="W53" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="X53" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="Y53" t="n">
-        <v>28</v>
+        <v>13.5</v>
       </c>
       <c r="Z53" t="n">
         <v>970</v>
@@ -7618,31 +7618,31 @@
         <v>900</v>
       </c>
       <c r="AB53" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AC53" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AD53" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="AE53" t="n">
         <v>500</v>
       </c>
       <c r="AF53" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="AG53" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AI53" t="n">
         <v>500</v>
       </c>
       <c r="AJ53" t="n">
-        <v>900</v>
+        <v>90</v>
       </c>
       <c r="AK53" t="n">
         <v>75</v>
@@ -7654,7 +7654,7 @@
         <v>580</v>
       </c>
       <c r="AN53" t="n">
-        <v>55</v>
+        <v>600</v>
       </c>
       <c r="AO53" t="n">
         <v>600</v>
@@ -7690,37 +7690,37 @@
         <v>1.66</v>
       </c>
       <c r="G54" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="H54" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I54" t="n">
         <v>6</v>
       </c>
       <c r="J54" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K54" t="n">
         <v>4.4</v>
       </c>
       <c r="L54" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M54" t="n">
         <v>1.06</v>
       </c>
       <c r="N54" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O54" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P54" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="R54" t="n">
         <v>1.42</v>
@@ -7738,25 +7738,25 @@
         <v>1.2</v>
       </c>
       <c r="W54" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="X54" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y54" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z54" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="AA54" t="n">
         <v>160</v>
       </c>
       <c r="AB54" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC54" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AD54" t="n">
         <v>23</v>
@@ -7765,16 +7765,16 @@
         <v>80</v>
       </c>
       <c r="AF54" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG54" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH54" t="n">
         <v>21</v>
       </c>
       <c r="AI54" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="AJ54" t="n">
         <v>16.5</v>
@@ -7789,7 +7789,7 @@
         <v>120</v>
       </c>
       <c r="AN54" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO54" t="n">
         <v>100</v>
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G55" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="H55" t="n">
         <v>2.6</v>
@@ -7846,43 +7846,43 @@
         <v>1.05</v>
       </c>
       <c r="N55" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O55" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P55" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R55" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S55" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="T55" t="n">
         <v>1.59</v>
       </c>
       <c r="U55" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="V55" t="n">
         <v>1.61</v>
       </c>
       <c r="W55" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X55" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Y55" t="n">
         <v>14.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA55" t="n">
         <v>38</v>
@@ -7915,16 +7915,16 @@
         <v>44</v>
       </c>
       <c r="AK55" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL55" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM55" t="n">
         <v>60</v>
       </c>
       <c r="AN55" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO55" t="n">
         <v>16</v>
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G56" t="n">
         <v>2.08</v>
       </c>
       <c r="H56" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I56" t="n">
         <v>4.9</v>
       </c>
       <c r="J56" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K56" t="n">
         <v>3.25</v>
-      </c>
-      <c r="K56" t="n">
-        <v>3.35</v>
       </c>
       <c r="L56" t="n">
         <v>1.56</v>
@@ -7981,7 +7981,7 @@
         <v>1.12</v>
       </c>
       <c r="N56" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O56" t="n">
         <v>1.52</v>
@@ -7990,13 +7990,13 @@
         <v>1.6</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="R56" t="n">
         <v>1.22</v>
       </c>
       <c r="S56" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="T56" t="n">
         <v>2.16</v>
@@ -8008,10 +8008,10 @@
         <v>1.25</v>
       </c>
       <c r="W56" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="X56" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y56" t="n">
         <v>13</v>
@@ -8023,7 +8023,7 @@
         <v>130</v>
       </c>
       <c r="AB56" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC56" t="n">
         <v>7.6</v>
@@ -8044,7 +8044,7 @@
         <v>25</v>
       </c>
       <c r="AI56" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ56" t="n">
         <v>25</v>
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="G57" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="H57" t="n">
         <v>1.6</v>
       </c>
       <c r="I57" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="J57" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K57" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L57" t="n">
         <v>1.42</v>
@@ -8116,46 +8116,46 @@
         <v>1.07</v>
       </c>
       <c r="N57" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O57" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P57" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T57" t="n">
         <v>2</v>
       </c>
-      <c r="Q57" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="R57" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S57" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T57" t="n">
-        <v>2.02</v>
-      </c>
       <c r="U57" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V57" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="W57" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="X57" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y57" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z57" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AA57" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB57" t="n">
         <v>22</v>
@@ -8167,7 +8167,7 @@
         <v>9.6</v>
       </c>
       <c r="AE57" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF57" t="n">
         <v>60</v>
@@ -8179,16 +8179,16 @@
         <v>23</v>
       </c>
       <c r="AI57" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AJ57" t="n">
         <v>210</v>
       </c>
       <c r="AK57" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL57" t="n">
         <v>100</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>110</v>
       </c>
       <c r="AM57" t="n">
         <v>140</v>
@@ -8197,7 +8197,7 @@
         <v>140</v>
       </c>
       <c r="AO57" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="58">
@@ -8227,97 +8227,97 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="G58" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="H58" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="I58" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J58" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="K58" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="L58" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M58" t="n">
         <v>1.03</v>
       </c>
       <c r="N58" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="O58" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P58" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="R58" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S58" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="T58" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U58" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="V58" t="n">
         <v>1.11</v>
       </c>
       <c r="W58" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="X58" t="n">
         <v>32</v>
       </c>
       <c r="Y58" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Z58" t="n">
         <v>90</v>
       </c>
       <c r="AA58" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AB58" t="n">
         <v>12.5</v>
       </c>
       <c r="AC58" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD58" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AE58" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF58" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AG58" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH58" t="n">
         <v>23</v>
       </c>
       <c r="AI58" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ58" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK58" t="n">
         <v>13</v>
@@ -8326,13 +8326,13 @@
         <v>29</v>
       </c>
       <c r="AM58" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN58" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AO58" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59">
@@ -8362,10 +8362,10 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="G59" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="H59" t="n">
         <v>5.1</v>
@@ -8374,46 +8374,46 @@
         <v>6</v>
       </c>
       <c r="J59" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K59" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L59" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="M59" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N59" t="n">
-        <v>2.94</v>
+        <v>2.8</v>
       </c>
       <c r="O59" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="P59" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="R59" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="S59" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="T59" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="U59" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V59" t="n">
         <v>1.21</v>
       </c>
       <c r="W59" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X59" t="n">
         <v>21</v>
@@ -8440,13 +8440,13 @@
         <v>500</v>
       </c>
       <c r="AF59" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG59" t="n">
         <v>23</v>
       </c>
       <c r="AH59" t="n">
-        <v>70</v>
+        <v>970</v>
       </c>
       <c r="AI59" t="n">
         <v>500</v>
@@ -8455,7 +8455,7 @@
         <v>900</v>
       </c>
       <c r="AK59" t="n">
-        <v>90</v>
+        <v>970</v>
       </c>
       <c r="AL59" t="n">
         <v>500</v>
@@ -8467,7 +8467,7 @@
         <v>55</v>
       </c>
       <c r="AO59" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="60">
@@ -8512,7 +8512,7 @@
         <v>3.6</v>
       </c>
       <c r="K60" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L60" t="n">
         <v>1.47</v>
@@ -8524,13 +8524,13 @@
         <v>3.4</v>
       </c>
       <c r="O60" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P60" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R60" t="n">
         <v>1.29</v>
@@ -8539,10 +8539,10 @@
         <v>4.2</v>
       </c>
       <c r="T60" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U60" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="V60" t="n">
         <v>1.26</v>
@@ -8554,7 +8554,7 @@
         <v>11.5</v>
       </c>
       <c r="Y60" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z60" t="n">
         <v>32</v>
@@ -8563,19 +8563,19 @@
         <v>120</v>
       </c>
       <c r="AB60" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC60" t="n">
         <v>7.8</v>
       </c>
       <c r="AD60" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE60" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF60" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG60" t="n">
         <v>10.5</v>
@@ -8587,19 +8587,19 @@
         <v>75</v>
       </c>
       <c r="AJ60" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK60" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL60" t="n">
         <v>42</v>
       </c>
       <c r="AM60" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN60" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AO60" t="n">
         <v>85</v>
@@ -8632,34 +8632,34 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="G61" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="H61" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I61" t="n">
         <v>19</v>
       </c>
-      <c r="I61" t="n">
-        <v>19.5</v>
-      </c>
       <c r="J61" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="K61" t="n">
         <v>8</v>
       </c>
-      <c r="K61" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="L61" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M61" t="n">
         <v>1.02</v>
       </c>
       <c r="N61" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="O61" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P61" t="n">
         <v>2.6</v>
@@ -8668,31 +8668,31 @@
         <v>1.59</v>
       </c>
       <c r="R61" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="S61" t="n">
         <v>2.54</v>
       </c>
       <c r="T61" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="U61" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="V61" t="n">
         <v>1.05</v>
       </c>
       <c r="W61" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="X61" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Y61" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="Z61" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AA61" t="n">
         <v>1000</v>
@@ -8701,7 +8701,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC61" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AD61" t="n">
         <v>970</v>
@@ -8716,7 +8716,7 @@
         <v>11.5</v>
       </c>
       <c r="AH61" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AI61" t="n">
         <v>300</v>
@@ -8728,13 +8728,13 @@
         <v>14</v>
       </c>
       <c r="AL61" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AM61" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AN61" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AO61" t="n">
         <v>1000</v>
@@ -8767,67 +8767,67 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.44</v>
+        <v>4.4</v>
       </c>
       <c r="G62" t="n">
-        <v>970</v>
+        <v>5.7</v>
       </c>
       <c r="H62" t="n">
-        <v>1.43</v>
+        <v>1.79</v>
       </c>
       <c r="I62" t="n">
-        <v>870</v>
+        <v>1.93</v>
       </c>
       <c r="J62" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="K62" t="n">
-        <v>970</v>
+        <v>4.1</v>
       </c>
       <c r="L62" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M62" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N62" t="n">
-        <v>1.1</v>
+        <v>2.84</v>
       </c>
       <c r="O62" t="n">
-        <v>1.05</v>
+        <v>1.41</v>
       </c>
       <c r="P62" t="n">
-        <v>1.24</v>
+        <v>1.62</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.05</v>
+        <v>2.14</v>
       </c>
       <c r="R62" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S62" t="n">
-        <v>1.05</v>
+        <v>4</v>
       </c>
       <c r="T62" t="n">
-        <v>1.04</v>
+        <v>1.98</v>
       </c>
       <c r="U62" t="n">
-        <v>1.04</v>
+        <v>1.76</v>
       </c>
       <c r="V62" t="n">
-        <v>1.35</v>
+        <v>2.06</v>
       </c>
       <c r="W62" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="X62" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y62" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="Z62" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AA62" t="n">
         <v>970</v>
@@ -8836,7 +8836,7 @@
         <v>970</v>
       </c>
       <c r="AC62" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AD62" t="n">
         <v>970</v>
@@ -8869,7 +8869,7 @@
         <v>580</v>
       </c>
       <c r="AN62" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO62" t="n">
         <v>85</v>
@@ -8908,7 +8908,7 @@
         <v>2.82</v>
       </c>
       <c r="H63" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="I63" t="n">
         <v>2.94</v>
@@ -8929,25 +8929,25 @@
         <v>3.65</v>
       </c>
       <c r="O63" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P63" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q63" t="n">
         <v>2.06</v>
       </c>
       <c r="R63" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S63" t="n">
         <v>3.75</v>
       </c>
       <c r="T63" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U63" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="V63" t="n">
         <v>1.51</v>
@@ -8956,19 +8956,19 @@
         <v>1.56</v>
       </c>
       <c r="X63" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y63" t="n">
         <v>11.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA63" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB63" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC63" t="n">
         <v>8</v>
@@ -9037,13 +9037,13 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="G64" t="n">
         <v>2.24</v>
       </c>
       <c r="H64" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I64" t="n">
         <v>4.3</v>
@@ -9052,7 +9052,7 @@
         <v>3.2</v>
       </c>
       <c r="K64" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L64" t="n">
         <v>1.51</v>
@@ -9070,13 +9070,13 @@
         <v>1.67</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R64" t="n">
         <v>1.24</v>
       </c>
       <c r="S64" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T64" t="n">
         <v>1.96</v>
@@ -9124,7 +9124,7 @@
         <v>980</v>
       </c>
       <c r="AI64" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AJ64" t="n">
         <v>980</v>
@@ -9142,7 +9142,7 @@
         <v>980</v>
       </c>
       <c r="AO64" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO43"/>
+  <dimension ref="A1:AO42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Australian A-League Men</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07:45:00</t>
+          <t>09:45:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Perth Glory</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Brisbane Roar</t>
+          <t>Al-Arabi Al-Saudi</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>9.4</v>
+        <v>1.08</v>
       </c>
       <c r="G2" t="n">
-        <v>10.5</v>
+        <v>1.09</v>
       </c>
       <c r="H2" t="n">
-        <v>1.57</v>
+        <v>200</v>
       </c>
       <c r="I2" t="n">
-        <v>1.59</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>3.75</v>
+        <v>14.5</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,34 +691,34 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>1.47</v>
+        <v>100</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="V2" t="n">
-        <v>2.8</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.09</v>
+        <v>8.6</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,28 +733,28 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD2" t="n">
         <v>1000</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AE2" t="n">
         <v>1000</v>
       </c>
-      <c r="AD2" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>7</v>
-      </c>
       <c r="AF2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH2" t="n">
         <v>1000</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AI2" t="n">
         <v>1000</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>9.4</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -763,16 +763,16 @@
         <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -793,127 +793,127 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Jndal</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Arabi Al-Saudi</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,48 +923,48 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:45:00</t>
+          <t>10:40:07</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Jabalain</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.1</v>
+        <v>10.5</v>
       </c>
       <c r="G4" t="n">
-        <v>2.18</v>
+        <v>12</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>1.42</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>1.45</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
         <v>1.96</v>
@@ -973,76 +973,76 @@
         <v>2.02</v>
       </c>
       <c r="R4" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="S4" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="V4" t="n">
-        <v>1.33</v>
+        <v>3.25</v>
       </c>
       <c r="W4" t="n">
-        <v>1.84</v>
+        <v>1.09</v>
       </c>
       <c r="X4" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AA4" t="n">
         <v>15</v>
       </c>
-      <c r="Z4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>90</v>
-      </c>
       <c r="AB4" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>16.5</v>
+        <v>7.2</v>
       </c>
       <c r="AE4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI4" t="n">
         <v>60</v>
       </c>
-      <c r="AF4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>80</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="AL4" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="AM4" t="n">
+        <v>260</v>
+      </c>
+      <c r="AN4" t="n">
         <v>230</v>
       </c>
-      <c r="AN4" t="n">
-        <v>18</v>
-      </c>
       <c r="AO4" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:40:00</t>
+          <t>11:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.5</v>
+        <v>1.57</v>
       </c>
       <c r="G5" t="n">
-        <v>4.7</v>
+        <v>1.58</v>
       </c>
       <c r="H5" t="n">
-        <v>1.83</v>
+        <v>6.8</v>
       </c>
       <c r="I5" t="n">
-        <v>1.87</v>
+        <v>7.2</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>2.4</v>
+        <v>2.08</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.67</v>
+        <v>1.89</v>
       </c>
       <c r="R5" t="n">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
       <c r="S5" t="n">
-        <v>2.68</v>
+        <v>3.25</v>
       </c>
       <c r="T5" t="n">
-        <v>1.66</v>
+        <v>1.99</v>
       </c>
       <c r="U5" t="n">
-        <v>2.42</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>2.14</v>
+        <v>1.16</v>
       </c>
       <c r="W5" t="n">
-        <v>1.27</v>
+        <v>2.72</v>
       </c>
       <c r="X5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y5" t="n">
         <v>23</v>
       </c>
-      <c r="Y5" t="n">
-        <v>12</v>
-      </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="AB5" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH5" t="n">
         <v>22</v>
       </c>
-      <c r="AC5" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>44</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>17</v>
-      </c>
       <c r="AI5" t="n">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="AJ5" t="n">
-        <v>100</v>
+        <v>14.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>50</v>
+        <v>16.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AM5" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AN5" t="n">
-        <v>40</v>
+        <v>8.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.800000000000001</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:45:00</t>
+          <t>11:50:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Al-Adalh</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.47</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>1.5</v>
+        <v>3.15</v>
       </c>
       <c r="H6" t="n">
-        <v>7.2</v>
+        <v>2.5</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>2.62</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="L6" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O6" t="n">
         <v>1.34</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.22</v>
-      </c>
       <c r="P6" t="n">
-        <v>2.4</v>
+        <v>1.94</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.66</v>
+        <v>1.99</v>
       </c>
       <c r="R6" t="n">
-        <v>1.55</v>
+        <v>1.36</v>
       </c>
       <c r="S6" t="n">
-        <v>2.68</v>
+        <v>3.55</v>
       </c>
       <c r="T6" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="U6" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="V6" t="n">
-        <v>1.14</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
-        <v>3</v>
+        <v>1.46</v>
       </c>
       <c r="X6" t="n">
-        <v>27</v>
+        <v>14.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>32</v>
+        <v>11.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="AA6" t="n">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>12.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.6</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13.5</v>
+        <v>50</v>
       </c>
       <c r="AK6" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="AM6" t="n">
         <v>120</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.4</v>
+        <v>32</v>
       </c>
       <c r="AO6" t="n">
-        <v>120</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:50:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Adalh</t>
+          <t>Al Draih</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="G7" t="n">
-        <v>3.45</v>
+        <v>5.1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.32</v>
+        <v>1.82</v>
       </c>
       <c r="I7" t="n">
-        <v>2.44</v>
+        <v>1.9</v>
       </c>
       <c r="J7" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="R7" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S7" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="U7" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="W7" t="n">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="X7" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="AA7" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AB7" t="n">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AH7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AJ7" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK7" t="n">
         <v>100</v>
       </c>
-      <c r="AK7" t="n">
-        <v>40</v>
-      </c>
       <c r="AL7" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="AM7" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AN7" t="n">
-        <v>38</v>
+        <v>500</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al Draih</t>
+          <t>FC Magdeburg</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.4</v>
+        <v>2.98</v>
       </c>
       <c r="G8" t="n">
-        <v>5.1</v>
+        <v>3.05</v>
       </c>
       <c r="H8" t="n">
-        <v>1.81</v>
+        <v>2.44</v>
       </c>
       <c r="I8" t="n">
-        <v>1.91</v>
+        <v>2.46</v>
       </c>
       <c r="J8" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>3.85</v>
+        <v>5.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>1.98</v>
+        <v>2.46</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.93</v>
+        <v>1.66</v>
       </c>
       <c r="R8" t="n">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="S8" t="n">
-        <v>3.35</v>
+        <v>2.66</v>
       </c>
       <c r="T8" t="n">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="U8" t="n">
-        <v>2.04</v>
+        <v>2.66</v>
       </c>
       <c r="V8" t="n">
-        <v>2.08</v>
+        <v>1.67</v>
       </c>
       <c r="W8" t="n">
-        <v>1.25</v>
+        <v>1.49</v>
       </c>
       <c r="X8" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.4</v>
+        <v>14.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="AA8" t="n">
         <v>34</v>
       </c>
       <c r="AB8" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AF8" t="n">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="AG8" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>36</v>
+        <v>14.5</v>
       </c>
       <c r="AI8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM8" t="n">
         <v>60</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>500</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>500</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>580</v>
-      </c>
       <c r="AN8" t="n">
-        <v>80</v>
+        <v>19.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.35</v>
+        <v>2.56</v>
       </c>
       <c r="G9" t="n">
-        <v>1.37</v>
+        <v>2.6</v>
       </c>
       <c r="H9" t="n">
-        <v>8.800000000000001</v>
+        <v>2.94</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>2.98</v>
       </c>
       <c r="J9" t="n">
-        <v>6.2</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
-        <v>6.8</v>
+        <v>3.65</v>
       </c>
       <c r="L9" t="n">
-        <v>1.24</v>
+        <v>1.4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>7.8</v>
+        <v>4.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.13</v>
+        <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>3.2</v>
+        <v>2.12</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.42</v>
+        <v>1.86</v>
       </c>
       <c r="R9" t="n">
-        <v>1.89</v>
+        <v>1.44</v>
       </c>
       <c r="S9" t="n">
-        <v>2.06</v>
+        <v>3.15</v>
       </c>
       <c r="T9" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="U9" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="V9" t="n">
-        <v>1.11</v>
+        <v>1.5</v>
       </c>
       <c r="W9" t="n">
-        <v>3.7</v>
+        <v>1.62</v>
       </c>
       <c r="X9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI9" t="n">
         <v>40</v>
       </c>
-      <c r="Y9" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>190</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>310</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>260</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>12.5</v>
+        <v>36</v>
       </c>
       <c r="AK9" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AM9" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.9</v>
+        <v>19.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>95</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.6</v>
+        <v>1.33</v>
       </c>
       <c r="G10" t="n">
-        <v>2.64</v>
+        <v>1.35</v>
       </c>
       <c r="H10" t="n">
-        <v>2.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>2.94</v>
+        <v>10.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>6.2</v>
       </c>
       <c r="K10" t="n">
-        <v>3.65</v>
+        <v>6.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>4.3</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.28</v>
+        <v>1.12</v>
       </c>
       <c r="P10" t="n">
-        <v>2.12</v>
+        <v>3.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.87</v>
+        <v>1.42</v>
       </c>
       <c r="R10" t="n">
-        <v>1.44</v>
+        <v>1.94</v>
       </c>
       <c r="S10" t="n">
-        <v>3.2</v>
+        <v>2.02</v>
       </c>
       <c r="T10" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="U10" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="V10" t="n">
-        <v>1.51</v>
+        <v>1.1</v>
       </c>
       <c r="W10" t="n">
-        <v>1.61</v>
+        <v>3.85</v>
       </c>
       <c r="X10" t="n">
-        <v>16.5</v>
+        <v>42</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.5</v>
+        <v>55</v>
       </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>44</v>
+        <v>350</v>
       </c>
       <c r="AB10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>260</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC10" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>38</v>
-      </c>
       <c r="AK10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL10" t="n">
         <v>27</v>
       </c>
-      <c r="AL10" t="n">
-        <v>36</v>
-      </c>
       <c r="AM10" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>20</v>
+        <v>3.7</v>
       </c>
       <c r="AO10" t="n">
-        <v>24</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FC Magdeburg</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.98</v>
+        <v>1.7</v>
       </c>
       <c r="G11" t="n">
-        <v>3.05</v>
+        <v>1.71</v>
       </c>
       <c r="H11" t="n">
-        <v>2.44</v>
+        <v>5.2</v>
       </c>
       <c r="I11" t="n">
-        <v>2.48</v>
+        <v>5.3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="K11" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R11" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="S11" t="n">
-        <v>2.68</v>
+        <v>2.52</v>
       </c>
       <c r="T11" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="U11" t="n">
-        <v>2.66</v>
+        <v>2.46</v>
       </c>
       <c r="V11" t="n">
-        <v>1.68</v>
+        <v>1.23</v>
       </c>
       <c r="W11" t="n">
-        <v>1.49</v>
+        <v>2.4</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.5</v>
+        <v>44</v>
       </c>
       <c r="AA11" t="n">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="AB11" t="n">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AF11" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AM11" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="n">
-        <v>19.5</v>
+        <v>7.2</v>
       </c>
       <c r="AO11" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Jahn Regensburg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Ingolstadt</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.71</v>
+        <v>2.38</v>
       </c>
       <c r="G12" t="n">
-        <v>1.72</v>
+        <v>2.5</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="I12" t="n">
-        <v>5.2</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="K12" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P12" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="Q12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="T12" t="n">
         <v>1.6</v>
       </c>
-      <c r="R12" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.66</v>
       </c>
-      <c r="U12" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W12" t="n">
-        <v>2.38</v>
-      </c>
       <c r="X12" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="Y12" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Z12" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AA12" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AB12" t="n">
-        <v>11.5</v>
+        <v>32</v>
       </c>
       <c r="AC12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE12" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF12" t="n">
         <v>55</v>
       </c>
-      <c r="AF12" t="n">
-        <v>12</v>
-      </c>
       <c r="AG12" t="n">
-        <v>9.800000000000001</v>
+        <v>18</v>
       </c>
       <c r="AH12" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="AJ12" t="n">
-        <v>17.5</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="AL12" t="n">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="AM12" t="n">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="AN12" t="n">
-        <v>7.2</v>
+        <v>32</v>
       </c>
       <c r="AO12" t="n">
-        <v>46</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jahn Regensburg</t>
+          <t>Academico de Viseu</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ingolstadt</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.4</v>
+        <v>2.02</v>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>2.08</v>
       </c>
       <c r="H13" t="n">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="J13" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.29</v>
+        <v>1.49</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>5.7</v>
+        <v>3.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.19</v>
+        <v>1.42</v>
       </c>
       <c r="P13" t="n">
-        <v>2.66</v>
+        <v>1.73</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.57</v>
+        <v>2.3</v>
       </c>
       <c r="R13" t="n">
-        <v>1.65</v>
+        <v>1.27</v>
       </c>
       <c r="S13" t="n">
-        <v>2.44</v>
+        <v>4.4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.6</v>
+        <v>1.98</v>
       </c>
       <c r="U13" t="n">
-        <v>2.64</v>
+        <v>1.91</v>
       </c>
       <c r="V13" t="n">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="W13" t="n">
-        <v>1.66</v>
+        <v>1.94</v>
       </c>
       <c r="X13" t="n">
-        <v>75</v>
+        <v>11.5</v>
       </c>
       <c r="Y13" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>36</v>
       </c>
-      <c r="Z13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>290</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>48</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD13" t="n">
+      <c r="AK13" t="n">
         <v>38</v>
       </c>
-      <c r="AE13" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>60</v>
-      </c>
       <c r="AL13" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AM13" t="n">
         <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AO13" t="n">
-        <v>46</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Academico de Viseu</t>
+          <t>Arges Pitesti</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.02</v>
+        <v>4.5</v>
       </c>
       <c r="G14" t="n">
-        <v>2.08</v>
+        <v>4.6</v>
       </c>
       <c r="H14" t="n">
-        <v>4.4</v>
+        <v>2.14</v>
       </c>
       <c r="I14" t="n">
-        <v>4.7</v>
+        <v>2.18</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N14" t="n">
-        <v>3.2</v>
+        <v>2.84</v>
       </c>
       <c r="O14" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="P14" t="n">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.3</v>
+        <v>2.56</v>
       </c>
       <c r="R14" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="W14" t="n">
         <v>1.27</v>
       </c>
-      <c r="S14" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.93</v>
-      </c>
       <c r="X14" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD14" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y14" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z14" t="n">
+      <c r="AE14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL14" t="n">
         <v>95</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>46</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>190</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>970</v>
       </c>
       <c r="AM14" t="n">
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="AO14" t="n">
-        <v>600</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,126 +2408,126 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K15" t="n">
         <v>4.1</v>
       </c>
-      <c r="G15" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L15" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="M15" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="O15" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="P15" t="n">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="Q15" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W15" t="n">
         <v>2.28</v>
       </c>
-      <c r="R15" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.29</v>
-      </c>
       <c r="X15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.199999999999999</v>
+        <v>18.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AA15" t="n">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="AB15" t="n">
-        <v>13.5</v>
+        <v>8.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AE15" t="n">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="AF15" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AG15" t="n">
-        <v>17.5</v>
+        <v>10</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI15" t="n">
-        <v>46</v>
+        <v>290</v>
       </c>
       <c r="AJ15" t="n">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="AK15" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AM15" t="n">
         <v>140</v>
       </c>
       <c r="AN15" t="n">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="AO15" t="n">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Aubagne FC</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Paris 13 Atletico</t>
+          <t>Le Puy</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.36</v>
+        <v>2.12</v>
       </c>
       <c r="G16" t="n">
-        <v>2.48</v>
+        <v>2.2</v>
       </c>
       <c r="H16" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I16" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J16" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="L16" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="M16" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="O16" t="n">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="P16" t="n">
-        <v>1.65</v>
+        <v>1.93</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.42</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="S16" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="T16" t="n">
-        <v>1.99</v>
+        <v>1.75</v>
       </c>
       <c r="U16" t="n">
-        <v>1.87</v>
+        <v>2.12</v>
       </c>
       <c r="V16" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W16" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="X16" t="n">
-        <v>9.800000000000001</v>
+        <v>25</v>
       </c>
       <c r="Y16" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>970</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG16" t="n">
         <v>11</v>
       </c>
-      <c r="Z16" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>260</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH16" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="AI16" t="n">
-        <v>160</v>
+        <v>420</v>
       </c>
       <c r="AJ16" t="n">
-        <v>38</v>
+        <v>900</v>
       </c>
       <c r="AK16" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AL16" t="n">
-        <v>130</v>
+        <v>970</v>
       </c>
       <c r="AM16" t="n">
         <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AO16" t="n">
-        <v>85</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17">
@@ -2683,112 +2683,112 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Le Puy</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.28</v>
+        <v>3.05</v>
       </c>
       <c r="G17" t="n">
-        <v>2.32</v>
+        <v>3.2</v>
       </c>
       <c r="H17" t="n">
-        <v>3.45</v>
+        <v>2.64</v>
       </c>
       <c r="I17" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="J17" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="K17" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="P17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U17" t="n">
         <v>1.9</v>
       </c>
-      <c r="Q17" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.1</v>
-      </c>
       <c r="V17" t="n">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="W17" t="n">
-        <v>1.75</v>
+        <v>1.46</v>
       </c>
       <c r="X17" t="n">
-        <v>25</v>
+        <v>10.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>26</v>
+        <v>9.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>85</v>
+        <v>17.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>900</v>
+        <v>46</v>
       </c>
       <c r="AB17" t="n">
-        <v>29</v>
+        <v>10.5</v>
       </c>
       <c r="AC17" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD17" t="n">
         <v>13.5</v>
       </c>
-      <c r="AD17" t="n">
-        <v>32</v>
-      </c>
       <c r="AE17" t="n">
-        <v>370</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI17" t="n">
         <v>60</v>
       </c>
-      <c r="AI17" t="n">
-        <v>420</v>
-      </c>
       <c r="AJ17" t="n">
-        <v>970</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL17" t="n">
         <v>65</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>970</v>
       </c>
       <c r="AM17" t="n">
         <v>580</v>
@@ -2797,7 +2797,7 @@
         <v>55</v>
       </c>
       <c r="AO17" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -2818,25 +2818,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Paris 13 Atletico</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="G18" t="n">
-        <v>3.05</v>
+        <v>2.52</v>
       </c>
       <c r="H18" t="n">
-        <v>2.74</v>
+        <v>3.45</v>
       </c>
       <c r="I18" t="n">
-        <v>2.94</v>
+        <v>3.7</v>
       </c>
       <c r="J18" t="n">
         <v>3.05</v>
@@ -2845,94 +2845,94 @@
         <v>3.3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="M18" t="n">
         <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O18" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P18" t="n">
         <v>1.64</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="R18" t="n">
         <v>1.23</v>
       </c>
       <c r="S18" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T18" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="U18" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="V18" t="n">
-        <v>1.52</v>
+        <v>1.37</v>
       </c>
       <c r="W18" t="n">
-        <v>1.48</v>
+        <v>1.66</v>
       </c>
       <c r="X18" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="Z18" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AA18" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI18" t="n">
         <v>75</v>
       </c>
-      <c r="AB18" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>110</v>
-      </c>
       <c r="AJ18" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AK18" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AL18" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM18" t="n">
         <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AO18" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.76</v>
+        <v>3.05</v>
       </c>
       <c r="G19" t="n">
-        <v>1.81</v>
+        <v>3.2</v>
       </c>
       <c r="H19" t="n">
-        <v>5.1</v>
+        <v>2.68</v>
       </c>
       <c r="I19" t="n">
-        <v>5.8</v>
+        <v>2.82</v>
       </c>
       <c r="J19" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="K19" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="L19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W19" t="n">
         <v>1.45</v>
       </c>
-      <c r="M19" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W19" t="n">
-        <v>2.2</v>
-      </c>
       <c r="X19" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y19" t="n">
-        <v>18</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z19" t="n">
-        <v>220</v>
+        <v>29</v>
       </c>
       <c r="AA19" t="n">
         <v>900</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="AF19" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AH19" t="n">
         <v>40</v>
       </c>
       <c r="AI19" t="n">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="AJ19" t="n">
-        <v>19.5</v>
+        <v>220</v>
       </c>
       <c r="AK19" t="n">
-        <v>21</v>
+        <v>230</v>
       </c>
       <c r="AL19" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AM19" t="n">
         <v>580</v>
       </c>
       <c r="AN19" t="n">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="AO19" t="n">
-        <v>880</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20">
@@ -3088,118 +3088,118 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Versailles 78 FC</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.92</v>
+        <v>1.84</v>
       </c>
       <c r="G20" t="n">
-        <v>3.05</v>
+        <v>1.9</v>
       </c>
       <c r="H20" t="n">
-        <v>2.82</v>
+        <v>4.8</v>
       </c>
       <c r="I20" t="n">
-        <v>2.98</v>
+        <v>5.2</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="K20" t="n">
-        <v>3.3</v>
+        <v>3.95</v>
       </c>
       <c r="L20" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="M20" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>2.96</v>
+        <v>3.55</v>
       </c>
       <c r="O20" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="P20" t="n">
-        <v>1.63</v>
+        <v>1.85</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.48</v>
+        <v>2.08</v>
       </c>
       <c r="R20" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V20" t="n">
         <v>1.23</v>
       </c>
-      <c r="S20" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.51</v>
-      </c>
       <c r="W20" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="X20" t="n">
-        <v>9.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="Y20" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Z20" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD20" t="n">
         <v>21</v>
       </c>
-      <c r="AA20" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB20" t="n">
+      <c r="AE20" t="n">
+        <v>480</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG20" t="n">
         <v>11</v>
       </c>
-      <c r="AC20" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>16</v>
-      </c>
       <c r="AH20" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>460</v>
+        <v>380</v>
       </c>
       <c r="AJ20" t="n">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="AK20" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="AL20" t="n">
-        <v>460</v>
+        <v>44</v>
       </c>
       <c r="AM20" t="n">
         <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="AO20" t="n">
         <v>600</v>
@@ -3223,118 +3223,118 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Bourg-en-Bresse</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="G21" t="n">
-        <v>1.91</v>
+        <v>2.7</v>
       </c>
       <c r="H21" t="n">
-        <v>4.7</v>
+        <v>3.05</v>
       </c>
       <c r="I21" t="n">
-        <v>5.2</v>
+        <v>3.3</v>
       </c>
       <c r="J21" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="K21" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="P21" t="n">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="R21" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="S21" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U21" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="V21" t="n">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="W21" t="n">
-        <v>2.08</v>
+        <v>1.58</v>
       </c>
       <c r="X21" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Z21" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="AA21" t="n">
         <v>900</v>
       </c>
       <c r="AB21" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE21" t="n">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="AF21" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>19.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AI21" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="AJ21" t="n">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="AK21" t="n">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="AL21" t="n">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="AM21" t="n">
         <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>85</v>
+        <v>970</v>
       </c>
       <c r="AO21" t="n">
         <v>600</v>
@@ -3370,7 +3370,7 @@
         <v>2.54</v>
       </c>
       <c r="G22" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="H22" t="n">
         <v>2.98</v>
@@ -3382,7 +3382,7 @@
         <v>3.4</v>
       </c>
       <c r="K22" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L22" t="n">
         <v>1.42</v>
@@ -3391,22 +3391,22 @@
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="O22" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P22" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="R22" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S22" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T22" t="n">
         <v>1.74</v>
@@ -3418,31 +3418,31 @@
         <v>1.46</v>
       </c>
       <c r="W22" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X22" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y22" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="AA22" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="AB22" t="n">
         <v>12</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AE22" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AF22" t="n">
         <v>18</v>
@@ -3457,28 +3457,28 @@
         <v>380</v>
       </c>
       <c r="AJ22" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AK22" t="n">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="AL22" t="n">
-        <v>160</v>
+        <v>380</v>
       </c>
       <c r="AM22" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN22" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="AO22" t="n">
-        <v>500</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,126 +3488,126 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.52</v>
+        <v>1.84</v>
       </c>
       <c r="G23" t="n">
-        <v>2.68</v>
+        <v>1.85</v>
       </c>
       <c r="H23" t="n">
-        <v>3.05</v>
+        <v>4.9</v>
       </c>
       <c r="I23" t="n">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="J23" t="n">
-        <v>3.15</v>
+        <v>3.85</v>
       </c>
       <c r="K23" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="M23" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>3.1</v>
+        <v>3.95</v>
       </c>
       <c r="O23" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="P23" t="n">
-        <v>1.68</v>
+        <v>1.98</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.36</v>
+        <v>1.97</v>
       </c>
       <c r="R23" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="S23" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="U23" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="V23" t="n">
-        <v>1.43</v>
+        <v>1.24</v>
       </c>
       <c r="W23" t="n">
-        <v>1.6</v>
+        <v>2.14</v>
       </c>
       <c r="X23" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH23" t="n">
         <v>21</v>
       </c>
-      <c r="Y23" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>60</v>
-      </c>
       <c r="AI23" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="AJ23" t="n">
-        <v>900</v>
+        <v>19.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AL23" t="n">
-        <v>380</v>
+        <v>36</v>
       </c>
       <c r="AM23" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN23" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Boulogne</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Pau</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.86</v>
+        <v>3.2</v>
       </c>
       <c r="G24" t="n">
-        <v>1.89</v>
+        <v>3.3</v>
       </c>
       <c r="H24" t="n">
-        <v>4.7</v>
+        <v>2.54</v>
       </c>
       <c r="I24" t="n">
-        <v>4.9</v>
+        <v>2.58</v>
       </c>
       <c r="J24" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="K24" t="n">
-        <v>3.95</v>
+        <v>3.35</v>
       </c>
       <c r="L24" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="P24" t="n">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.95</v>
+        <v>2.32</v>
       </c>
       <c r="R24" t="n">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="S24" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="T24" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="U24" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="V24" t="n">
-        <v>1.25</v>
+        <v>1.63</v>
       </c>
       <c r="W24" t="n">
-        <v>2.12</v>
+        <v>1.43</v>
       </c>
       <c r="X24" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="Y24" t="n">
-        <v>17.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z24" t="n">
-        <v>36</v>
+        <v>16.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="AB24" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH24" t="n">
         <v>19</v>
       </c>
-      <c r="AE24" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AI24" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="AJ24" t="n">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="AK24" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="AL24" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="AM24" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AN24" t="n">
-        <v>12.5</v>
+        <v>80</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Boulogne</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.2</v>
+        <v>1.81</v>
       </c>
       <c r="G25" t="n">
-        <v>3.3</v>
+        <v>1.83</v>
       </c>
       <c r="H25" t="n">
-        <v>2.5</v>
+        <v>5.2</v>
       </c>
       <c r="I25" t="n">
-        <v>2.56</v>
+        <v>5.5</v>
       </c>
       <c r="J25" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="K25" t="n">
-        <v>3.35</v>
+        <v>3.95</v>
       </c>
       <c r="L25" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N25" t="n">
         <v>3.25</v>
       </c>
       <c r="O25" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P25" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R25" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S25" t="n">
         <v>4.3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="U25" t="n">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="V25" t="n">
-        <v>1.64</v>
+        <v>1.22</v>
       </c>
       <c r="W25" t="n">
-        <v>1.43</v>
+        <v>2.2</v>
       </c>
       <c r="X25" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.4</v>
+        <v>16</v>
       </c>
       <c r="Z25" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="AA25" t="n">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="AB25" t="n">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AE25" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="AF25" t="n">
-        <v>21</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AH25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>19</v>
       </c>
-      <c r="AI25" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>160</v>
-      </c>
       <c r="AK25" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="AL25" t="n">
-        <v>150</v>
+        <v>46</v>
       </c>
       <c r="AM25" t="n">
-        <v>580</v>
+        <v>180</v>
       </c>
       <c r="AN25" t="n">
-        <v>600</v>
+        <v>15.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>28</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
@@ -3898,127 +3898,127 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.86</v>
+        <v>2.64</v>
       </c>
       <c r="G26" t="n">
-        <v>1.88</v>
+        <v>2.72</v>
       </c>
       <c r="H26" t="n">
-        <v>4.9</v>
+        <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="J26" t="n">
-        <v>3.65</v>
+        <v>2.96</v>
       </c>
       <c r="K26" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="L26" t="n">
-        <v>1.52</v>
+        <v>1.67</v>
       </c>
       <c r="M26" t="n">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="N26" t="n">
-        <v>3.15</v>
+        <v>2.42</v>
       </c>
       <c r="O26" t="n">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="P26" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S26" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U26" t="n">
         <v>1.71</v>
       </c>
-      <c r="Q26" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S26" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.83</v>
-      </c>
       <c r="V26" t="n">
-        <v>1.23</v>
+        <v>1.4</v>
       </c>
       <c r="W26" t="n">
-        <v>2.12</v>
+        <v>1.58</v>
       </c>
       <c r="X26" t="n">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="Y26" t="n">
-        <v>14.5</v>
+        <v>9</v>
       </c>
       <c r="Z26" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="AA26" t="n">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="AB26" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AE26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>230</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL26" t="n">
         <v>85</v>
       </c>
-      <c r="AF26" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>50</v>
-      </c>
       <c r="AM26" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="AN26" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="AO26" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.58</v>
+        <v>2.08</v>
       </c>
       <c r="G27" t="n">
-        <v>2.66</v>
+        <v>2.12</v>
       </c>
       <c r="H27" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="I27" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="J27" t="n">
-        <v>2.98</v>
+        <v>3.85</v>
       </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="L27" t="n">
-        <v>1.65</v>
+        <v>1.31</v>
       </c>
       <c r="M27" t="n">
-        <v>1.16</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U27" t="n">
         <v>2.48</v>
       </c>
-      <c r="O27" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>3</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S27" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.72</v>
-      </c>
       <c r="V27" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="W27" t="n">
-        <v>1.6</v>
+        <v>1.89</v>
       </c>
       <c r="X27" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="Y27" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC27" t="n">
         <v>9.4</v>
       </c>
-      <c r="Z27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>250</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AD27" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF27" t="n">
         <v>16.5</v>
       </c>
-      <c r="AE27" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>15</v>
-      </c>
       <c r="AG27" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH27" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>26</v>
       </c>
-      <c r="AI27" t="n">
-        <v>230</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>46</v>
-      </c>
       <c r="AK27" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="AL27" t="n">
-        <v>190</v>
+        <v>27</v>
       </c>
       <c r="AM27" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="AN27" t="n">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="AO27" t="n">
-        <v>600</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
@@ -4168,37 +4168,37 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="G28" t="n">
-        <v>2.12</v>
+        <v>1.79</v>
       </c>
       <c r="H28" t="n">
-        <v>3.65</v>
+        <v>4.6</v>
       </c>
       <c r="I28" t="n">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="J28" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="K28" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M28" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N28" t="n">
         <v>6.2</v>
@@ -4207,82 +4207,82 @@
         <v>1.17</v>
       </c>
       <c r="P28" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R28" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="S28" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="T28" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="U28" t="n">
-        <v>2.7</v>
+        <v>2.56</v>
       </c>
       <c r="V28" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="W28" t="n">
-        <v>1.89</v>
+        <v>2.26</v>
       </c>
       <c r="X28" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="Y28" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Z28" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AO28" t="n">
         <v>32</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="29">
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.79</v>
+        <v>2.4</v>
       </c>
       <c r="G29" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H29" t="n">
-        <v>4.4</v>
+        <v>2.98</v>
       </c>
       <c r="I29" t="n">
-        <v>4.6</v>
+        <v>3.15</v>
       </c>
       <c r="J29" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="K29" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N29" t="n">
         <v>4.7</v>
       </c>
-      <c r="L29" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N29" t="n">
-        <v>6</v>
-      </c>
       <c r="O29" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="P29" t="n">
-        <v>2.74</v>
+        <v>2.22</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.54</v>
+        <v>1.78</v>
       </c>
       <c r="R29" t="n">
-        <v>1.67</v>
+        <v>1.49</v>
       </c>
       <c r="S29" t="n">
-        <v>2.44</v>
+        <v>2.94</v>
       </c>
       <c r="T29" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="U29" t="n">
-        <v>2.54</v>
+        <v>2.4</v>
       </c>
       <c r="V29" t="n">
-        <v>1.27</v>
+        <v>1.46</v>
       </c>
       <c r="W29" t="n">
-        <v>2.24</v>
+        <v>1.66</v>
       </c>
       <c r="X29" t="n">
-        <v>42</v>
+        <v>18.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="AA29" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AB29" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AF29" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI29" t="n">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="AJ29" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AK29" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AL29" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AM29" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AN29" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AO29" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,127 +4438,127 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="G30" t="n">
-        <v>2.48</v>
+        <v>2.96</v>
       </c>
       <c r="H30" t="n">
-        <v>2.98</v>
+        <v>2.66</v>
       </c>
       <c r="I30" t="n">
-        <v>3.15</v>
+        <v>2.68</v>
       </c>
       <c r="J30" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="K30" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="L30" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R30" t="n">
         <v>1.35</v>
       </c>
-      <c r="M30" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N30" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.48</v>
-      </c>
       <c r="S30" t="n">
-        <v>2.94</v>
+        <v>3.65</v>
       </c>
       <c r="T30" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="U30" t="n">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="V30" t="n">
-        <v>1.47</v>
+        <v>1.59</v>
       </c>
       <c r="W30" t="n">
-        <v>1.67</v>
+        <v>1.51</v>
       </c>
       <c r="X30" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK30" t="n">
         <v>32</v>
       </c>
-      <c r="Y30" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>290</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE30" t="n">
+      <c r="AL30" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO30" t="n">
         <v>32</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>16</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.76</v>
+        <v>2.88</v>
       </c>
       <c r="G31" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="H31" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N31" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S31" t="n">
         <v>2.78</v>
       </c>
-      <c r="I31" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N31" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3.55</v>
-      </c>
       <c r="T31" t="n">
-        <v>1.72</v>
+        <v>1.59</v>
       </c>
       <c r="U31" t="n">
-        <v>2.22</v>
+        <v>2.6</v>
       </c>
       <c r="V31" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="W31" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="X31" t="n">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="Y31" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z31" t="n">
         <v>18.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AB31" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AF31" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AG31" t="n">
         <v>12.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AI31" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AJ31" t="n">
         <v>44</v>
       </c>
       <c r="AK31" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AL31" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AM31" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AN31" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AO31" t="n">
-        <v>36</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,127 +4708,127 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.86</v>
+        <v>2.02</v>
       </c>
       <c r="G32" t="n">
-        <v>2.88</v>
+        <v>2.06</v>
       </c>
       <c r="H32" t="n">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="I32" t="n">
-        <v>2.64</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="K32" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L32" t="n">
-        <v>1.34</v>
+        <v>1.55</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="N32" t="n">
-        <v>5.2</v>
+        <v>2.92</v>
       </c>
       <c r="O32" t="n">
-        <v>1.23</v>
+        <v>1.5</v>
       </c>
       <c r="P32" t="n">
-        <v>2.36</v>
+        <v>1.63</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.71</v>
+        <v>2.54</v>
       </c>
       <c r="R32" t="n">
-        <v>1.55</v>
+        <v>1.22</v>
       </c>
       <c r="S32" t="n">
-        <v>2.78</v>
+        <v>5.1</v>
       </c>
       <c r="T32" t="n">
-        <v>1.59</v>
+        <v>2.12</v>
       </c>
       <c r="U32" t="n">
-        <v>2.58</v>
+        <v>1.84</v>
       </c>
       <c r="V32" t="n">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="W32" t="n">
-        <v>1.53</v>
+        <v>1.94</v>
       </c>
       <c r="X32" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD32" t="n">
         <v>20</v>
       </c>
-      <c r="Y32" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>12</v>
-      </c>
       <c r="AE32" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH32" t="n">
         <v>24</v>
       </c>
-      <c r="AF32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AI32" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="AK32" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL32" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AM32" t="n">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="AN32" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AO32" t="n">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Team Altamura</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G33" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="H33" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="I33" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J33" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K33" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L33" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M33" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N33" t="n">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="O33" t="n">
         <v>1.5</v>
       </c>
       <c r="P33" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="R33" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="S33" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="T33" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="U33" t="n">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="V33" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W33" t="n">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="X33" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Y33" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="AA33" t="n">
-        <v>130</v>
+        <v>900</v>
       </c>
       <c r="AB33" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AC33" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD33" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE33" t="n">
+        <v>500</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>500</v>
+      </c>
+      <c r="AK33" t="n">
         <v>80</v>
       </c>
-      <c r="AF33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>28</v>
-      </c>
       <c r="AL33" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AM33" t="n">
         <v>580</v>
       </c>
       <c r="AN33" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AO33" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
     </row>
     <row r="34">
@@ -4978,55 +4978,55 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Team Altamura</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="G34" t="n">
-        <v>2.34</v>
+        <v>4.9</v>
       </c>
       <c r="H34" t="n">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>4.3</v>
+        <v>2.1</v>
       </c>
       <c r="J34" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K34" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="L34" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="M34" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N34" t="n">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="O34" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="P34" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.62</v>
+        <v>2.46</v>
       </c>
       <c r="R34" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S34" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="T34" t="n">
         <v>2.08</v>
@@ -5035,70 +5035,70 @@
         <v>1.76</v>
       </c>
       <c r="V34" t="n">
-        <v>1.3</v>
+        <v>1.92</v>
       </c>
       <c r="W34" t="n">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="X34" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y34" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD34" t="n">
         <v>12</v>
       </c>
-      <c r="Z34" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>32</v>
-      </c>
       <c r="AE34" t="n">
-        <v>500</v>
+        <v>44</v>
       </c>
       <c r="AF34" t="n">
-        <v>12.5</v>
+        <v>55</v>
       </c>
       <c r="AG34" t="n">
-        <v>12.5</v>
+        <v>19</v>
       </c>
       <c r="AH34" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AI34" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="AJ34" t="n">
         <v>900</v>
       </c>
       <c r="AK34" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AL34" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AM34" t="n">
         <v>580</v>
       </c>
       <c r="AN34" t="n">
-        <v>970</v>
+        <v>600</v>
       </c>
       <c r="AO34" t="n">
-        <v>600</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5113,127 +5113,127 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>CD Castellon</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>4.4</v>
+        <v>1.59</v>
       </c>
       <c r="G35" t="n">
-        <v>4.9</v>
+        <v>1.61</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>6.4</v>
       </c>
       <c r="I35" t="n">
-        <v>2.08</v>
+        <v>6.8</v>
       </c>
       <c r="J35" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="K35" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="M35" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>2.92</v>
+        <v>4.3</v>
       </c>
       <c r="O35" t="n">
-        <v>1.48</v>
+        <v>1.28</v>
       </c>
       <c r="P35" t="n">
-        <v>1.6</v>
+        <v>2.14</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.46</v>
+        <v>1.84</v>
       </c>
       <c r="R35" t="n">
-        <v>1.22</v>
+        <v>1.43</v>
       </c>
       <c r="S35" t="n">
-        <v>4.9</v>
+        <v>3.15</v>
       </c>
       <c r="T35" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="U35" t="n">
-        <v>1.75</v>
+        <v>2.06</v>
       </c>
       <c r="V35" t="n">
-        <v>1.92</v>
+        <v>1.17</v>
       </c>
       <c r="W35" t="n">
-        <v>1.25</v>
+        <v>2.62</v>
       </c>
       <c r="X35" t="n">
-        <v>9.800000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>7.6</v>
+        <v>23</v>
       </c>
       <c r="Z35" t="n">
-        <v>11.5</v>
+        <v>55</v>
       </c>
       <c r="AA35" t="n">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="AB35" t="n">
-        <v>12.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC35" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD35" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AE35" t="n">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="AF35" t="n">
-        <v>55</v>
+        <v>9.4</v>
       </c>
       <c r="AG35" t="n">
-        <v>19</v>
+        <v>9.4</v>
       </c>
       <c r="AH35" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI35" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AJ35" t="n">
-        <v>900</v>
+        <v>15</v>
       </c>
       <c r="AK35" t="n">
-        <v>500</v>
+        <v>16.5</v>
       </c>
       <c r="AL35" t="n">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="AM35" t="n">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="AN35" t="n">
-        <v>600</v>
+        <v>8.4</v>
       </c>
       <c r="AO35" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,132 +5243,132 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>CD Castellon</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.63</v>
+        <v>7.2</v>
       </c>
       <c r="G36" t="n">
-        <v>1.66</v>
+        <v>7.4</v>
       </c>
       <c r="H36" t="n">
-        <v>6</v>
+        <v>1.57</v>
       </c>
       <c r="I36" t="n">
-        <v>6.6</v>
+        <v>1.58</v>
       </c>
       <c r="J36" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K36" t="n">
         <v>4.4</v>
       </c>
       <c r="L36" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M36" t="n">
         <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="O36" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="P36" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="R36" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S36" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="T36" t="n">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="U36" t="n">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="V36" t="n">
-        <v>1.18</v>
+        <v>2.72</v>
       </c>
       <c r="W36" t="n">
-        <v>2.5</v>
+        <v>1.15</v>
       </c>
       <c r="X36" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y36" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB36" t="n">
         <v>23</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>770</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>8.800000000000001</v>
       </c>
       <c r="AC36" t="n">
         <v>9.4</v>
       </c>
       <c r="AD36" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH36" t="n">
         <v>23</v>
       </c>
-      <c r="AE36" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>21</v>
-      </c>
       <c r="AI36" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AJ36" t="n">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="AK36" t="n">
-        <v>16.5</v>
+        <v>110</v>
       </c>
       <c r="AL36" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="AM36" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AN36" t="n">
-        <v>8.800000000000001</v>
+        <v>180</v>
       </c>
       <c r="AO36" t="n">
-        <v>110</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,132 +5378,132 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>7</v>
+        <v>1.34</v>
       </c>
       <c r="G37" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+      <c r="I37" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J37" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K37" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N37" t="n">
         <v>7.4</v>
       </c>
-      <c r="H37" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J37" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K37" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N37" t="n">
-        <v>4</v>
-      </c>
       <c r="O37" t="n">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="P37" t="n">
-        <v>2.02</v>
+        <v>3.1</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.97</v>
+        <v>1.46</v>
       </c>
       <c r="R37" t="n">
-        <v>1.39</v>
+        <v>1.84</v>
       </c>
       <c r="S37" t="n">
-        <v>3.5</v>
+        <v>2.12</v>
       </c>
       <c r="T37" t="n">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="U37" t="n">
-        <v>1.93</v>
+        <v>2.16</v>
       </c>
       <c r="V37" t="n">
-        <v>2.66</v>
+        <v>1.1</v>
       </c>
       <c r="W37" t="n">
-        <v>1.15</v>
+        <v>3.9</v>
       </c>
       <c r="X37" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="Y37" t="n">
-        <v>7.8</v>
+        <v>44</v>
       </c>
       <c r="Z37" t="n">
-        <v>8.6</v>
+        <v>100</v>
       </c>
       <c r="AA37" t="n">
-        <v>13.5</v>
+        <v>350</v>
       </c>
       <c r="AB37" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AC37" t="n">
-        <v>9.199999999999999</v>
+        <v>14.5</v>
       </c>
       <c r="AD37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF37" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AE37" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>60</v>
-      </c>
       <c r="AG37" t="n">
-        <v>26</v>
+        <v>10.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI37" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="AJ37" t="n">
-        <v>220</v>
+        <v>11.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="AL37" t="n">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="AM37" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="AN37" t="n">
-        <v>140</v>
+        <v>3.9</v>
       </c>
       <c r="AO37" t="n">
-        <v>8.800000000000001</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Portuguese Liga 3</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5518,127 +5518,127 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Santarem</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.35</v>
+        <v>1.94</v>
       </c>
       <c r="G38" t="n">
-        <v>1.36</v>
+        <v>2.02</v>
       </c>
       <c r="H38" t="n">
-        <v>10</v>
+        <v>4.9</v>
       </c>
       <c r="I38" t="n">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="J38" t="n">
-        <v>6.2</v>
+        <v>3.2</v>
       </c>
       <c r="K38" t="n">
-        <v>6.4</v>
+        <v>3.5</v>
       </c>
       <c r="L38" t="n">
-        <v>1.26</v>
+        <v>1.56</v>
       </c>
       <c r="M38" t="n">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="N38" t="n">
-        <v>7.2</v>
+        <v>2.8</v>
       </c>
       <c r="O38" t="n">
-        <v>1.15</v>
+        <v>1.51</v>
       </c>
       <c r="P38" t="n">
-        <v>3.05</v>
+        <v>1.57</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.47</v>
+        <v>2.56</v>
       </c>
       <c r="R38" t="n">
-        <v>1.84</v>
+        <v>1.21</v>
       </c>
       <c r="S38" t="n">
-        <v>2.14</v>
+        <v>5.1</v>
       </c>
       <c r="T38" t="n">
-        <v>1.84</v>
+        <v>2.12</v>
       </c>
       <c r="U38" t="n">
-        <v>2.14</v>
+        <v>1.75</v>
       </c>
       <c r="V38" t="n">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="W38" t="n">
-        <v>3.8</v>
+        <v>1.98</v>
       </c>
       <c r="X38" t="n">
-        <v>36</v>
+        <v>17.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="Z38" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AA38" t="n">
-        <v>320</v>
+        <v>900</v>
       </c>
       <c r="AB38" t="n">
-        <v>12.5</v>
+        <v>6.8</v>
       </c>
       <c r="AC38" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AE38" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AF38" t="n">
-        <v>9.800000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>10.5</v>
+        <v>22</v>
       </c>
       <c r="AH38" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AI38" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AJ38" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AK38" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AL38" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="AM38" t="n">
-        <v>95</v>
+        <v>580</v>
       </c>
       <c r="AN38" t="n">
-        <v>4</v>
+        <v>970</v>
       </c>
       <c r="AO38" t="n">
-        <v>140</v>
+        <v>600</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Portuguese Liga 3</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5653,127 +5653,127 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Santarem</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="H39" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="I39" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="J39" t="n">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="K39" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="L39" t="n">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="M39" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="N39" t="n">
-        <v>2.76</v>
+        <v>3.45</v>
       </c>
       <c r="O39" t="n">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="P39" t="n">
-        <v>1.56</v>
+        <v>1.82</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.58</v>
+        <v>2.2</v>
       </c>
       <c r="R39" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="S39" t="n">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="T39" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="U39" t="n">
-        <v>1.73</v>
+        <v>1.98</v>
       </c>
       <c r="V39" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W39" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="X39" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>34</v>
+        <v>14.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AA39" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="AB39" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AC39" t="n">
-        <v>14</v>
+        <v>7.8</v>
       </c>
       <c r="AD39" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="AF39" t="n">
-        <v>40</v>
+        <v>10.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>40</v>
+        <v>10.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AI39" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="AJ39" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AK39" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AL39" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AM39" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN39" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AO39" t="n">
-        <v>600</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,132 +5783,132 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.94</v>
+        <v>1.21</v>
       </c>
       <c r="G40" t="n">
-        <v>1.95</v>
+        <v>1.22</v>
       </c>
       <c r="H40" t="n">
-        <v>4.7</v>
+        <v>18</v>
       </c>
       <c r="I40" t="n">
-        <v>4.8</v>
+        <v>18.5</v>
       </c>
       <c r="J40" t="n">
-        <v>3.6</v>
+        <v>7.8</v>
       </c>
       <c r="K40" t="n">
-        <v>3.65</v>
+        <v>8</v>
       </c>
       <c r="L40" t="n">
-        <v>1.49</v>
+        <v>1.29</v>
       </c>
       <c r="M40" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N40" t="n">
-        <v>3.4</v>
+        <v>5.8</v>
       </c>
       <c r="O40" t="n">
-        <v>1.4</v>
+        <v>1.19</v>
       </c>
       <c r="P40" t="n">
-        <v>1.8</v>
+        <v>2.62</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="R40" t="n">
-        <v>1.29</v>
+        <v>1.62</v>
       </c>
       <c r="S40" t="n">
-        <v>4.3</v>
+        <v>2.58</v>
       </c>
       <c r="T40" t="n">
-        <v>1.99</v>
+        <v>2.32</v>
       </c>
       <c r="U40" t="n">
-        <v>1.96</v>
+        <v>1.7</v>
       </c>
       <c r="V40" t="n">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="W40" t="n">
-        <v>2.04</v>
+        <v>5.5</v>
       </c>
       <c r="X40" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="Y40" t="n">
-        <v>14</v>
+        <v>390</v>
       </c>
       <c r="Z40" t="n">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="AA40" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC40" t="n">
-        <v>7.8</v>
+        <v>17.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AE40" t="n">
-        <v>70</v>
+        <v>440</v>
       </c>
       <c r="AF40" t="n">
-        <v>10.5</v>
+        <v>7.4</v>
       </c>
       <c r="AG40" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH40" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI40" t="n">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="AJ40" t="n">
-        <v>21</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK40" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="AL40" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AM40" t="n">
-        <v>130</v>
+        <v>270</v>
       </c>
       <c r="AN40" t="n">
-        <v>16</v>
+        <v>4.2</v>
       </c>
       <c r="AO40" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,126 +5918,126 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Deportivo Pereira</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Llaneros FC</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.21</v>
+        <v>3.05</v>
       </c>
       <c r="G41" t="n">
-        <v>1.22</v>
+        <v>3.25</v>
       </c>
       <c r="H41" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X41" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH41" t="n">
         <v>18</v>
       </c>
-      <c r="I41" t="n">
-        <v>19</v>
-      </c>
-      <c r="J41" t="n">
-        <v>8</v>
-      </c>
-      <c r="K41" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N41" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P41" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="S41" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T41" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W41" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X41" t="n">
+      <c r="AI41" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN41" t="n">
         <v>36</v>
       </c>
-      <c r="Y41" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>220</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>400</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>430</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>46</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>300</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>290</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>4.2</v>
-      </c>
       <c r="AO41" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
@@ -6053,261 +6053,126 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Llaneros FC</t>
+          <t>Alianza FC Valledupar</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.9</v>
+        <v>2.16</v>
       </c>
       <c r="G42" t="n">
-        <v>3.05</v>
+        <v>2.24</v>
       </c>
       <c r="H42" t="n">
-        <v>2.64</v>
+        <v>4</v>
       </c>
       <c r="I42" t="n">
-        <v>2.74</v>
+        <v>4.4</v>
       </c>
       <c r="J42" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K42" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L42" t="n">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="M42" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N42" t="n">
-        <v>3.65</v>
+        <v>2.8</v>
       </c>
       <c r="O42" t="n">
-        <v>1.35</v>
+        <v>1.52</v>
       </c>
       <c r="P42" t="n">
-        <v>1.87</v>
+        <v>1.59</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.06</v>
+        <v>2.6</v>
       </c>
       <c r="R42" t="n">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="S42" t="n">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="T42" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="U42" t="n">
-        <v>2.06</v>
+        <v>1.75</v>
       </c>
       <c r="V42" t="n">
-        <v>1.58</v>
+        <v>1.3</v>
       </c>
       <c r="W42" t="n">
-        <v>1.48</v>
+        <v>1.8</v>
       </c>
       <c r="X42" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y42" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y42" t="n">
-        <v>11</v>
-      </c>
       <c r="Z42" t="n">
-        <v>17.5</v>
+        <v>36</v>
       </c>
       <c r="AA42" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AB42" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC42" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD42" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AE42" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AF42" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="AI42" t="n">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="AJ42" t="n">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="AK42" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL42" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM42" t="n">
-        <v>580</v>
+        <v>180</v>
       </c>
       <c r="AN42" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AO42" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Fortaleza FC</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Alianza FC Valledupar</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="G43" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="H43" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I43" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K43" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N43" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S43" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T43" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W43" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X43" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA43" t="n">
         <v>120</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO42"/>
+  <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:45:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al-Jndal</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al-Arabi Al-Saudi</t>
+          <t>Al Draih</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.08</v>
+        <v>32</v>
       </c>
       <c r="G2" t="n">
+        <v>720</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.09</v>
       </c>
-      <c r="H2" t="n">
-        <v>200</v>
-      </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>1.12</v>
       </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="K2" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,16 +691,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="O2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="Q2" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="R2" t="n">
         <v>1.01</v>
@@ -709,46 +709,46 @@
         <v>100</v>
       </c>
       <c r="T2" t="n">
-        <v>7.6</v>
+        <v>4.3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="V2" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.01</v>
-      </c>
-      <c r="W2" t="n">
-        <v>8.6</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>410</v>
+      </c>
+      <c r="AB2" t="n">
         <v>1000</v>
       </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1.26</v>
-      </c>
       <c r="AC2" t="n">
-        <v>34</v>
+        <v>17.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Jabalain</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>FC Magdeburg</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:40:07</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10.5</v>
+        <v>2.62</v>
       </c>
       <c r="G4" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X4" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB4" t="n">
         <v>12</v>
       </c>
-      <c r="H4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1000</v>
-      </c>
       <c r="AC4" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.2</v>
+        <v>12.5</v>
       </c>
       <c r="AE4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN4" t="n">
         <v>19.5</v>
       </c>
-      <c r="AF4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>95</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>260</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>230</v>
-      </c>
       <c r="AO4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.57</v>
+        <v>1.31</v>
       </c>
       <c r="G5" t="n">
-        <v>1.58</v>
+        <v>1.32</v>
       </c>
       <c r="H5" t="n">
+        <v>10</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J5" t="n">
         <v>6.8</v>
       </c>
-      <c r="I5" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.4</v>
-      </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.39</v>
+        <v>1.23</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>4.2</v>
+        <v>8.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="P5" t="n">
-        <v>2.08</v>
+        <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.89</v>
+        <v>1.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.42</v>
+        <v>1.97</v>
       </c>
       <c r="S5" t="n">
-        <v>3.25</v>
+        <v>1.99</v>
       </c>
       <c r="T5" t="n">
-        <v>1.99</v>
+        <v>1.73</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="V5" t="n">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="W5" t="n">
-        <v>2.72</v>
+        <v>4.1</v>
       </c>
       <c r="X5" t="n">
-        <v>16.5</v>
+        <v>44</v>
       </c>
       <c r="Y5" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="Z5" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AA5" t="n">
-        <v>190</v>
+        <v>380</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AD5" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH5" t="n">
         <v>24</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>22</v>
       </c>
       <c r="AI5" t="n">
         <v>90</v>
       </c>
       <c r="AJ5" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="AM5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AO5" t="n">
         <v>130</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:50:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Adalh</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>1.71</v>
       </c>
       <c r="G6" t="n">
-        <v>3.15</v>
+        <v>1.72</v>
       </c>
       <c r="H6" t="n">
-        <v>2.5</v>
+        <v>5.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.62</v>
+        <v>5.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>4.4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>3.85</v>
+        <v>5.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.34</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>1.94</v>
+        <v>2.58</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.99</v>
+        <v>1.62</v>
       </c>
       <c r="R6" t="n">
-        <v>1.36</v>
+        <v>1.63</v>
       </c>
       <c r="S6" t="n">
-        <v>3.55</v>
+        <v>2.52</v>
       </c>
       <c r="T6" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="U6" t="n">
-        <v>2.18</v>
+        <v>2.44</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.23</v>
       </c>
       <c r="W6" t="n">
-        <v>1.46</v>
+        <v>2.4</v>
       </c>
       <c r="X6" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="Y6" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB6" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AC6" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="AL6" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AN6" t="n">
-        <v>32</v>
+        <v>7.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>Jahn Regensburg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al Draih</t>
+          <t>Ingolstadt</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="G7" t="n">
-        <v>5.1</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.82</v>
+        <v>2.9</v>
       </c>
       <c r="I7" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K7" t="n">
         <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>3.9</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="P7" t="n">
-        <v>1.98</v>
+        <v>2.62</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.94</v>
+        <v>1.56</v>
       </c>
       <c r="R7" t="n">
-        <v>1.37</v>
+        <v>1.65</v>
       </c>
       <c r="S7" t="n">
-        <v>3.4</v>
+        <v>2.42</v>
       </c>
       <c r="T7" t="n">
-        <v>1.82</v>
+        <v>1.57</v>
       </c>
       <c r="U7" t="n">
-        <v>2.04</v>
+        <v>2.64</v>
       </c>
       <c r="V7" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="W7" t="n">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="X7" t="n">
-        <v>15.5</v>
+        <v>30</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.4</v>
+        <v>32</v>
       </c>
       <c r="Z7" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF7" t="n">
         <v>22</v>
       </c>
-      <c r="AB7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>55</v>
-      </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AJ7" t="n">
-        <v>900</v>
+        <v>34</v>
       </c>
       <c r="AK7" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>500</v>
+        <v>42</v>
       </c>
       <c r="AM7" t="n">
-        <v>500</v>
+        <v>85</v>
       </c>
       <c r="AN7" t="n">
-        <v>500</v>
+        <v>12.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Academico de Viseu</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FC Magdeburg</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.98</v>
+        <v>1.92</v>
       </c>
       <c r="G8" t="n">
-        <v>3.05</v>
+        <v>1.98</v>
       </c>
       <c r="H8" t="n">
-        <v>2.44</v>
+        <v>4.6</v>
       </c>
       <c r="I8" t="n">
-        <v>2.46</v>
+        <v>4.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="K8" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>5.4</v>
+        <v>3.35</v>
       </c>
       <c r="O8" t="n">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="P8" t="n">
-        <v>2.46</v>
+        <v>1.77</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.66</v>
+        <v>2.22</v>
       </c>
       <c r="R8" t="n">
-        <v>1.58</v>
+        <v>1.29</v>
       </c>
       <c r="S8" t="n">
-        <v>2.66</v>
+        <v>4.2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.58</v>
+        <v>1.95</v>
       </c>
       <c r="U8" t="n">
-        <v>2.66</v>
+        <v>1.92</v>
       </c>
       <c r="V8" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="W8" t="n">
-        <v>1.49</v>
+        <v>2.02</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD8" t="n">
         <v>18</v>
       </c>
-      <c r="AA8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>12</v>
-      </c>
       <c r="AE8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>23</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AK8" t="n">
         <v>23</v>
       </c>
-      <c r="AG8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>28</v>
-      </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AM8" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AN8" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>Arges Pitesti</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.56</v>
+        <v>4.5</v>
       </c>
       <c r="G9" t="n">
-        <v>2.6</v>
+        <v>4.7</v>
       </c>
       <c r="H9" t="n">
-        <v>2.94</v>
+        <v>2.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.98</v>
+        <v>2.12</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="K9" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="L9" t="n">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>4.3</v>
+        <v>2.78</v>
       </c>
       <c r="O9" t="n">
-        <v>1.28</v>
+        <v>1.53</v>
       </c>
       <c r="P9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T9" t="n">
         <v>2.12</v>
       </c>
-      <c r="Q9" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.69</v>
-      </c>
       <c r="U9" t="n">
-        <v>2.38</v>
+        <v>1.78</v>
       </c>
       <c r="V9" t="n">
-        <v>1.5</v>
+        <v>1.89</v>
       </c>
       <c r="W9" t="n">
-        <v>1.62</v>
+        <v>1.27</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.5</v>
+        <v>7</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AA9" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="AB9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF9" t="n">
-        <v>17.5</v>
+        <v>44</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AI9" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ9" t="n">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="AK9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>170</v>
+      </c>
+      <c r="AO9" t="n">
         <v>26</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Paris 13 Atletico</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.33</v>
+        <v>2.46</v>
       </c>
       <c r="G10" t="n">
-        <v>1.35</v>
+        <v>2.6</v>
       </c>
       <c r="H10" t="n">
-        <v>9.199999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Y10" t="n">
         <v>10.5</v>
       </c>
-      <c r="J10" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N10" t="n">
-        <v>8</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W10" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="X10" t="n">
-        <v>42</v>
-      </c>
-      <c r="Y10" t="n">
+      <c r="Z10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE10" t="n">
         <v>55</v>
       </c>
-      <c r="Z10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>350</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC10" t="n">
+      <c r="AF10" t="n">
         <v>15.5</v>
       </c>
-      <c r="AD10" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>11</v>
-      </c>
       <c r="AG10" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12.5</v>
+        <v>40</v>
       </c>
       <c r="AK10" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="AM10" t="n">
-        <v>130</v>
+        <v>830</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.7</v>
+        <v>40</v>
       </c>
       <c r="AO10" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="G11" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="H11" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="J11" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.29</v>
+        <v>1.45</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>5.8</v>
+        <v>3.65</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="P11" t="n">
-        <v>2.6</v>
+        <v>1.88</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.62</v>
+        <v>2.04</v>
       </c>
       <c r="R11" t="n">
-        <v>1.64</v>
+        <v>1.35</v>
       </c>
       <c r="S11" t="n">
-        <v>2.52</v>
+        <v>3.75</v>
       </c>
       <c r="T11" t="n">
-        <v>1.66</v>
+        <v>1.96</v>
       </c>
       <c r="U11" t="n">
-        <v>2.46</v>
+        <v>1.95</v>
       </c>
       <c r="V11" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W11" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="X11" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Z11" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA11" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AB11" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AF11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG11" t="n">
         <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK11" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AL11" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AM11" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AN11" t="n">
-        <v>7.2</v>
+        <v>13.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>46</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,123 +2003,123 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jahn Regensburg</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Ingolstadt</t>
+          <t>Le Puy</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.38</v>
+        <v>2.12</v>
       </c>
       <c r="G12" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>3.85</v>
       </c>
       <c r="J12" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="L12" t="n">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>5.7</v>
+        <v>3.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="P12" t="n">
-        <v>2.66</v>
+        <v>1.93</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="S12" t="n">
-        <v>2.44</v>
+        <v>3.6</v>
       </c>
       <c r="T12" t="n">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
       <c r="U12" t="n">
-        <v>2.64</v>
+        <v>2.1</v>
       </c>
       <c r="V12" t="n">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="W12" t="n">
-        <v>1.66</v>
+        <v>1.83</v>
       </c>
       <c r="X12" t="n">
-        <v>46</v>
+        <v>14.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>36</v>
+        <v>16.5</v>
       </c>
       <c r="Z12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>380</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL12" t="n">
         <v>70</v>
       </c>
-      <c r="AA12" t="n">
-        <v>290</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>150</v>
-      </c>
       <c r="AM12" t="n">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO12" t="n">
         <v>500</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,60 +2138,60 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Academico de Viseu</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.02</v>
+        <v>3.05</v>
       </c>
       <c r="G13" t="n">
-        <v>2.08</v>
+        <v>3.15</v>
       </c>
       <c r="H13" t="n">
-        <v>4.4</v>
+        <v>2.7</v>
       </c>
       <c r="I13" t="n">
-        <v>4.6</v>
+        <v>2.8</v>
       </c>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="K13" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3</v>
+      </c>
+      <c r="O13" t="n">
         <v>1.49</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.42</v>
-      </c>
       <c r="P13" t="n">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="R13" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="S13" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="T13" t="n">
         <v>1.98</v>
@@ -2200,55 +2200,55 @@
         <v>1.91</v>
       </c>
       <c r="V13" t="n">
-        <v>1.27</v>
+        <v>1.56</v>
       </c>
       <c r="W13" t="n">
-        <v>1.94</v>
+        <v>1.46</v>
       </c>
       <c r="X13" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Y13" t="n">
-        <v>14</v>
+        <v>9.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>95</v>
+        <v>17.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>900</v>
+        <v>46</v>
       </c>
       <c r="AB13" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>500</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>14.5</v>
       </c>
       <c r="AH13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK13" t="n">
         <v>46</v>
       </c>
-      <c r="AI13" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>38</v>
-      </c>
       <c r="AL13" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="AM13" t="n">
         <v>580</v>
@@ -2257,13 +2257,13 @@
         <v>55</v>
       </c>
       <c r="AO13" t="n">
-        <v>600</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,126 +2273,126 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.5</v>
+        <v>1.86</v>
       </c>
       <c r="G14" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H14" t="n">
         <v>4.6</v>
       </c>
-      <c r="H14" t="n">
-        <v>2.14</v>
-      </c>
       <c r="I14" t="n">
-        <v>2.18</v>
+        <v>5.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="K14" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="M14" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>2.84</v>
+        <v>3.55</v>
       </c>
       <c r="O14" t="n">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="P14" t="n">
-        <v>1.61</v>
+        <v>1.85</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.56</v>
+        <v>2.08</v>
       </c>
       <c r="R14" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="S14" t="n">
-        <v>5.2</v>
+        <v>3.85</v>
       </c>
       <c r="T14" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="U14" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="V14" t="n">
-        <v>1.84</v>
+        <v>1.24</v>
       </c>
       <c r="W14" t="n">
-        <v>1.27</v>
+        <v>2.08</v>
       </c>
       <c r="X14" t="n">
-        <v>8.6</v>
+        <v>13</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.2</v>
+        <v>16</v>
       </c>
       <c r="Z14" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="AA14" t="n">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="AB14" t="n">
-        <v>13</v>
+        <v>8.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF14" t="n">
         <v>11.5</v>
       </c>
-      <c r="AE14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>30</v>
-      </c>
       <c r="AG14" t="n">
-        <v>18.5</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="AJ14" t="n">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="AK14" t="n">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="AL14" t="n">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="AM14" t="n">
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="AO14" t="n">
-        <v>25</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.73</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>1.78</v>
+        <v>3.15</v>
       </c>
       <c r="H15" t="n">
-        <v>5.4</v>
+        <v>2.74</v>
       </c>
       <c r="I15" t="n">
-        <v>5.8</v>
+        <v>2.84</v>
       </c>
       <c r="J15" t="n">
-        <v>3.85</v>
+        <v>3.05</v>
       </c>
       <c r="K15" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="L15" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="N15" t="n">
-        <v>3.65</v>
+        <v>2.96</v>
       </c>
       <c r="O15" t="n">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="P15" t="n">
-        <v>1.89</v>
+        <v>1.62</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.04</v>
+        <v>2.48</v>
       </c>
       <c r="R15" t="n">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="S15" t="n">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="T15" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="U15" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="V15" t="n">
-        <v>1.2</v>
+        <v>1.54</v>
       </c>
       <c r="W15" t="n">
-        <v>2.28</v>
+        <v>1.46</v>
       </c>
       <c r="X15" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD15" t="n">
         <v>13</v>
       </c>
-      <c r="Y15" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Z15" t="n">
+      <c r="AE15" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AO15" t="n">
         <v>42</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>290</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>110</v>
       </c>
     </row>
     <row r="16">
@@ -2548,118 +2548,118 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Le Puy</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.12</v>
+        <v>2.6</v>
       </c>
       <c r="G16" t="n">
-        <v>2.2</v>
+        <v>2.74</v>
       </c>
       <c r="H16" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="K16" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="L16" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O16" t="n">
         <v>1.43</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.35</v>
-      </c>
       <c r="P16" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T16" t="n">
         <v>1.93</v>
       </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.75</v>
-      </c>
       <c r="U16" t="n">
-        <v>2.12</v>
+        <v>1.94</v>
       </c>
       <c r="V16" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="W16" t="n">
-        <v>1.83</v>
+        <v>1.58</v>
       </c>
       <c r="X16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z16" t="n">
         <v>25</v>
       </c>
-      <c r="Y16" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>85</v>
-      </c>
       <c r="AA16" t="n">
-        <v>900</v>
+        <v>170</v>
       </c>
       <c r="AB16" t="n">
-        <v>15</v>
+        <v>9.4</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AF16" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AH16" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="AI16" t="n">
-        <v>420</v>
+        <v>310</v>
       </c>
       <c r="AJ16" t="n">
-        <v>900</v>
+        <v>50</v>
       </c>
       <c r="AK16" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AL16" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AM16" t="n">
-        <v>580</v>
+        <v>990</v>
       </c>
       <c r="AN16" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AO16" t="n">
         <v>600</v>
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.05</v>
+        <v>2.54</v>
       </c>
       <c r="G17" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I17" t="n">
         <v>3.2</v>
       </c>
-      <c r="H17" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.8</v>
-      </c>
       <c r="J17" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="K17" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="L17" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="P17" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.44</v>
+        <v>1.93</v>
       </c>
       <c r="R17" t="n">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="S17" t="n">
-        <v>4.8</v>
+        <v>3.35</v>
       </c>
       <c r="T17" t="n">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="U17" t="n">
-        <v>1.9</v>
+        <v>2.16</v>
       </c>
       <c r="V17" t="n">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="W17" t="n">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="X17" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.4</v>
+        <v>13.5</v>
       </c>
       <c r="Z17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF17" t="n">
         <v>17.5</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AG17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI17" t="n">
         <v>46</v>
       </c>
-      <c r="AB17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE17" t="n">
+      <c r="AJ17" t="n">
         <v>38</v>
       </c>
-      <c r="AF17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>95</v>
-      </c>
       <c r="AK17" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="AL17" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AM17" t="n">
-        <v>580</v>
+        <v>140</v>
       </c>
       <c r="AN17" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="AO17" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,114 +2813,114 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Aubagne FC</t>
+          <t>Boulogne</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Paris 13 Atletico</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="G18" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H18" t="n">
         <v>2.52</v>
       </c>
-      <c r="H18" t="n">
-        <v>3.45</v>
-      </c>
       <c r="I18" t="n">
-        <v>3.7</v>
+        <v>2.58</v>
       </c>
       <c r="J18" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K18" t="n">
         <v>3.3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P18" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="R18" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="S18" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="U18" t="n">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="V18" t="n">
-        <v>1.37</v>
+        <v>1.63</v>
       </c>
       <c r="W18" t="n">
-        <v>1.66</v>
+        <v>1.42</v>
       </c>
       <c r="X18" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="Y18" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z18" t="n">
-        <v>24</v>
+        <v>15.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>500</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AF18" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="AG18" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AJ18" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AL18" t="n">
         <v>60</v>
@@ -2929,16 +2929,16 @@
         <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AO18" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Versailles 78 FC</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="F19" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K19" t="n">
         <v>3.05</v>
       </c>
-      <c r="G19" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.25</v>
-      </c>
       <c r="L19" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="M19" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="N19" t="n">
-        <v>2.96</v>
+        <v>2.44</v>
       </c>
       <c r="O19" t="n">
-        <v>1.49</v>
+        <v>1.65</v>
       </c>
       <c r="P19" t="n">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.48</v>
+        <v>3.05</v>
       </c>
       <c r="R19" t="n">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="S19" t="n">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="T19" t="n">
-        <v>1.98</v>
+        <v>2.28</v>
       </c>
       <c r="U19" t="n">
-        <v>1.89</v>
+        <v>1.72</v>
       </c>
       <c r="V19" t="n">
-        <v>1.54</v>
+        <v>1.4</v>
       </c>
       <c r="W19" t="n">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="X19" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z19" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AA19" t="n">
-        <v>900</v>
+        <v>190</v>
       </c>
       <c r="AB19" t="n">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AI19" t="n">
-        <v>460</v>
+        <v>180</v>
       </c>
       <c r="AJ19" t="n">
-        <v>220</v>
+        <v>42</v>
       </c>
       <c r="AK19" t="n">
-        <v>230</v>
+        <v>44</v>
       </c>
       <c r="AL19" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AM19" t="n">
-        <v>580</v>
+        <v>240</v>
       </c>
       <c r="AN19" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AO19" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,123 +3083,123 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Bourg-en-Bresse</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="G20" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H20" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I20" t="n">
         <v>5.2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K20" t="n">
+        <v>4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N20" t="n">
         <v>3.95</v>
       </c>
-      <c r="L20" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N20" t="n">
-        <v>3.55</v>
-      </c>
       <c r="O20" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="P20" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U20" t="n">
         <v>2.08</v>
       </c>
-      <c r="R20" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.9</v>
-      </c>
       <c r="V20" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W20" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="X20" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Y20" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Z20" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA20" t="n">
         <v>120</v>
       </c>
-      <c r="AA20" t="n">
-        <v>900</v>
-      </c>
       <c r="AB20" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>480</v>
+        <v>100</v>
       </c>
       <c r="AF20" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="AJ20" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AM20" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN20" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AO20" t="n">
         <v>600</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="G21" t="n">
-        <v>2.7</v>
+        <v>1.82</v>
       </c>
       <c r="H21" t="n">
-        <v>3.05</v>
+        <v>5.3</v>
       </c>
       <c r="I21" t="n">
-        <v>3.3</v>
+        <v>5.6</v>
       </c>
       <c r="J21" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="K21" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="L21" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="M21" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O21" t="n">
         <v>1.43</v>
       </c>
       <c r="P21" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="R21" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S21" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T21" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="U21" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="V21" t="n">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="W21" t="n">
-        <v>1.58</v>
+        <v>2.2</v>
       </c>
       <c r="X21" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y21" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Z21" t="n">
         <v>42</v>
       </c>
       <c r="AA21" t="n">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE21" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AF21" t="n">
-        <v>34</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG21" t="n">
-        <v>19.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AI21" t="n">
+        <v>260</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM21" t="n">
         <v>500</v>
       </c>
-      <c r="AJ21" t="n">
-        <v>230</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>95</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>160</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>580</v>
-      </c>
       <c r="AN21" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>600</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Fleury Merogis</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.54</v>
+        <v>1.69</v>
       </c>
       <c r="G22" t="n">
-        <v>2.64</v>
+        <v>1.73</v>
       </c>
       <c r="H22" t="n">
-        <v>2.98</v>
+        <v>4.9</v>
       </c>
       <c r="I22" t="n">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="K22" t="n">
-        <v>3.55</v>
+        <v>4.7</v>
       </c>
       <c r="L22" t="n">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>3.95</v>
+        <v>6.4</v>
       </c>
       <c r="O22" t="n">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="P22" t="n">
-        <v>1.98</v>
+        <v>2.88</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.94</v>
+        <v>1.52</v>
       </c>
       <c r="R22" t="n">
-        <v>1.38</v>
+        <v>1.74</v>
       </c>
       <c r="S22" t="n">
-        <v>3.45</v>
+        <v>2.34</v>
       </c>
       <c r="T22" t="n">
-        <v>1.74</v>
+        <v>1.58</v>
       </c>
       <c r="U22" t="n">
-        <v>2.2</v>
+        <v>2.58</v>
       </c>
       <c r="V22" t="n">
-        <v>1.46</v>
+        <v>1.24</v>
       </c>
       <c r="W22" t="n">
-        <v>1.6</v>
+        <v>2.36</v>
       </c>
       <c r="X22" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="Y22" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF22" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AG22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL22" t="n">
         <v>23</v>
       </c>
-      <c r="AA22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE22" t="n">
+      <c r="AM22" t="n">
         <v>60</v>
       </c>
-      <c r="AF22" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>380</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>380</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>580</v>
-      </c>
       <c r="AN22" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AO22" t="n">
         <v>38</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Pau</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.84</v>
+        <v>2.3</v>
       </c>
       <c r="G23" t="n">
-        <v>1.85</v>
+        <v>2.36</v>
       </c>
       <c r="H23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N23" t="n">
         <v>4.9</v>
       </c>
-      <c r="I23" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N23" t="n">
-        <v>3.95</v>
-      </c>
       <c r="O23" t="n">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="P23" t="n">
-        <v>1.98</v>
+        <v>2.28</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.97</v>
+        <v>1.76</v>
       </c>
       <c r="R23" t="n">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="S23" t="n">
-        <v>3.5</v>
+        <v>2.86</v>
       </c>
       <c r="T23" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="U23" t="n">
-        <v>2.02</v>
+        <v>2.44</v>
       </c>
       <c r="V23" t="n">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="W23" t="n">
-        <v>2.14</v>
+        <v>1.73</v>
       </c>
       <c r="X23" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AA23" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="AC23" t="n">
         <v>8.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AE23" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM23" t="n">
         <v>65</v>
       </c>
-      <c r="AF23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>110</v>
-      </c>
       <c r="AN23" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>260</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Boulogne</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="G24" t="n">
-        <v>3.3</v>
+        <v>2.44</v>
       </c>
       <c r="H24" t="n">
-        <v>2.54</v>
+        <v>3.05</v>
       </c>
       <c r="I24" t="n">
-        <v>2.58</v>
+        <v>3.15</v>
       </c>
       <c r="J24" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="K24" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="M24" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="O24" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="P24" t="n">
-        <v>1.72</v>
+        <v>2.22</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.32</v>
+        <v>1.79</v>
       </c>
       <c r="R24" t="n">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="S24" t="n">
-        <v>4.4</v>
+        <v>2.98</v>
       </c>
       <c r="T24" t="n">
-        <v>1.92</v>
+        <v>1.65</v>
       </c>
       <c r="U24" t="n">
-        <v>1.99</v>
+        <v>2.42</v>
       </c>
       <c r="V24" t="n">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="W24" t="n">
-        <v>1.43</v>
+        <v>1.69</v>
       </c>
       <c r="X24" t="n">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="Z24" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="AA24" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AB24" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
         <v>32</v>
       </c>
       <c r="AF24" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AI24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>55</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>160</v>
-      </c>
       <c r="AK24" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="AL24" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="AM24" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="AN24" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="AO24" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.81</v>
+        <v>2.9</v>
       </c>
       <c r="G25" t="n">
-        <v>1.83</v>
+        <v>2.98</v>
       </c>
       <c r="H25" t="n">
-        <v>5.2</v>
+        <v>2.6</v>
       </c>
       <c r="I25" t="n">
-        <v>5.5</v>
+        <v>2.68</v>
       </c>
       <c r="J25" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="K25" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="L25" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="W25" t="n">
         <v>1.5</v>
       </c>
-      <c r="M25" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S25" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W25" t="n">
-        <v>2.2</v>
-      </c>
       <c r="X25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB25" t="n">
         <v>12</v>
       </c>
-      <c r="Y25" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AC25" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="AE25" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM25" t="n">
         <v>90</v>
       </c>
-      <c r="AF25" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>180</v>
-      </c>
       <c r="AN25" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="AO25" t="n">
-        <v>130</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.64</v>
+        <v>2.88</v>
       </c>
       <c r="G26" t="n">
-        <v>2.72</v>
+        <v>2.92</v>
       </c>
       <c r="H26" t="n">
-        <v>3.4</v>
+        <v>2.58</v>
       </c>
       <c r="I26" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="J26" t="n">
-        <v>2.96</v>
+        <v>3.7</v>
       </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L26" t="n">
-        <v>1.67</v>
+        <v>1.34</v>
       </c>
       <c r="M26" t="n">
-        <v>1.16</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>2.42</v>
+        <v>5.2</v>
       </c>
       <c r="O26" t="n">
-        <v>1.67</v>
+        <v>1.22</v>
       </c>
       <c r="P26" t="n">
-        <v>1.45</v>
+        <v>2.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.05</v>
+        <v>1.7</v>
       </c>
       <c r="R26" t="n">
-        <v>1.16</v>
+        <v>1.55</v>
       </c>
       <c r="S26" t="n">
-        <v>6.6</v>
+        <v>2.76</v>
       </c>
       <c r="T26" t="n">
-        <v>2.24</v>
+        <v>1.58</v>
       </c>
       <c r="U26" t="n">
-        <v>1.71</v>
+        <v>2.66</v>
       </c>
       <c r="V26" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="W26" t="n">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="X26" t="n">
-        <v>7.2</v>
+        <v>21</v>
       </c>
       <c r="Y26" t="n">
-        <v>9</v>
+        <v>14.5</v>
       </c>
       <c r="Z26" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF26" t="n">
         <v>21</v>
       </c>
-      <c r="AA26" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>15</v>
-      </c>
       <c r="AG26" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="AI26" t="n">
-        <v>230</v>
+        <v>30</v>
       </c>
       <c r="AJ26" t="n">
         <v>44</v>
       </c>
       <c r="AK26" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="AL26" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="AM26" t="n">
-        <v>240</v>
+        <v>55</v>
       </c>
       <c r="AN26" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="AO26" t="n">
-        <v>90</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,17 +4028,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -4048,112 +4048,112 @@
         <v>2.12</v>
       </c>
       <c r="H27" t="n">
-        <v>3.65</v>
+        <v>4.6</v>
       </c>
       <c r="I27" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="J27" t="n">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="K27" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="L27" t="n">
-        <v>1.31</v>
+        <v>1.55</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="N27" t="n">
-        <v>5.3</v>
+        <v>2.9</v>
       </c>
       <c r="O27" t="n">
-        <v>1.2</v>
+        <v>1.51</v>
       </c>
       <c r="P27" t="n">
-        <v>2.5</v>
+        <v>1.63</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.63</v>
+        <v>2.54</v>
       </c>
       <c r="R27" t="n">
-        <v>1.61</v>
+        <v>1.22</v>
       </c>
       <c r="S27" t="n">
-        <v>2.54</v>
+        <v>5.2</v>
       </c>
       <c r="T27" t="n">
-        <v>1.56</v>
+        <v>2.12</v>
       </c>
       <c r="U27" t="n">
-        <v>2.48</v>
+        <v>1.84</v>
       </c>
       <c r="V27" t="n">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="W27" t="n">
         <v>1.89</v>
       </c>
       <c r="X27" t="n">
-        <v>22</v>
+        <v>9.4</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z27" t="n">
         <v>32</v>
       </c>
       <c r="AA27" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AB27" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE27" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AF27" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="AG27" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH27" t="n">
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AJ27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK27" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AL27" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="AM27" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AN27" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AO27" t="n">
-        <v>29</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Team Altamura</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.78</v>
+        <v>2.1</v>
       </c>
       <c r="G28" t="n">
-        <v>1.79</v>
+        <v>2.24</v>
       </c>
       <c r="H28" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="I28" t="n">
         <v>4.8</v>
       </c>
       <c r="J28" t="n">
-        <v>4.4</v>
+        <v>2.98</v>
       </c>
       <c r="K28" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="L28" t="n">
-        <v>1.28</v>
+        <v>1.56</v>
       </c>
       <c r="M28" t="n">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="N28" t="n">
-        <v>6.2</v>
+        <v>2.7</v>
       </c>
       <c r="O28" t="n">
-        <v>1.17</v>
+        <v>1.53</v>
       </c>
       <c r="P28" t="n">
-        <v>2.76</v>
+        <v>1.56</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.55</v>
+        <v>2.64</v>
       </c>
       <c r="R28" t="n">
-        <v>1.69</v>
+        <v>1.2</v>
       </c>
       <c r="S28" t="n">
-        <v>2.42</v>
+        <v>5.5</v>
       </c>
       <c r="T28" t="n">
-        <v>1.58</v>
+        <v>2.12</v>
       </c>
       <c r="U28" t="n">
-        <v>2.56</v>
+        <v>1.74</v>
       </c>
       <c r="V28" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W28" t="n">
-        <v>2.26</v>
+        <v>1.8</v>
       </c>
       <c r="X28" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>500</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH28" t="n">
         <v>46</v>
       </c>
-      <c r="Y28" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>16</v>
-      </c>
       <c r="AI28" t="n">
-        <v>46</v>
+        <v>500</v>
       </c>
       <c r="AJ28" t="n">
-        <v>19</v>
+        <v>500</v>
       </c>
       <c r="AK28" t="n">
-        <v>15.5</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AM28" t="n">
-        <v>95</v>
+        <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>7.2</v>
+        <v>500</v>
       </c>
       <c r="AO28" t="n">
-        <v>32</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="G29" t="n">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="H29" t="n">
-        <v>2.98</v>
+        <v>2.18</v>
       </c>
       <c r="I29" t="n">
-        <v>3.15</v>
+        <v>2.3</v>
       </c>
       <c r="J29" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="K29" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="L29" t="n">
-        <v>1.35</v>
+        <v>1.54</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="N29" t="n">
-        <v>4.7</v>
+        <v>2.88</v>
       </c>
       <c r="O29" t="n">
-        <v>1.26</v>
+        <v>1.49</v>
       </c>
       <c r="P29" t="n">
-        <v>2.22</v>
+        <v>1.61</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.78</v>
+        <v>2.46</v>
       </c>
       <c r="R29" t="n">
-        <v>1.49</v>
+        <v>1.21</v>
       </c>
       <c r="S29" t="n">
-        <v>2.94</v>
+        <v>5.1</v>
       </c>
       <c r="T29" t="n">
-        <v>1.65</v>
+        <v>2.04</v>
       </c>
       <c r="U29" t="n">
-        <v>2.4</v>
+        <v>1.79</v>
       </c>
       <c r="V29" t="n">
-        <v>1.46</v>
+        <v>1.76</v>
       </c>
       <c r="W29" t="n">
-        <v>1.66</v>
+        <v>1.31</v>
       </c>
       <c r="X29" t="n">
-        <v>18.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y29" t="n">
-        <v>14.5</v>
+        <v>7.8</v>
       </c>
       <c r="Z29" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AA29" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AB29" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE29" t="n">
         <v>32</v>
       </c>
       <c r="AF29" t="n">
-        <v>17.5</v>
+        <v>36</v>
       </c>
       <c r="AG29" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="AH29" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AI29" t="n">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="AJ29" t="n">
-        <v>34</v>
+        <v>900</v>
       </c>
       <c r="AK29" t="n">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="AL29" t="n">
-        <v>34</v>
+        <v>500</v>
       </c>
       <c r="AM29" t="n">
-        <v>70</v>
+        <v>580</v>
       </c>
       <c r="AN29" t="n">
-        <v>17</v>
+        <v>600</v>
       </c>
       <c r="AO29" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>CD Castellon</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="G30" t="n">
-        <v>2.96</v>
+        <v>1.62</v>
       </c>
       <c r="H30" t="n">
-        <v>2.66</v>
+        <v>6.2</v>
       </c>
       <c r="I30" t="n">
-        <v>2.68</v>
+        <v>6.8</v>
       </c>
       <c r="J30" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="K30" t="n">
-        <v>3.55</v>
+        <v>4.6</v>
       </c>
       <c r="L30" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="M30" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="O30" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="P30" t="n">
-        <v>1.94</v>
+        <v>2.16</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="R30" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="S30" t="n">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="T30" t="n">
-        <v>1.74</v>
+        <v>1.9</v>
       </c>
       <c r="U30" t="n">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="V30" t="n">
-        <v>1.59</v>
+        <v>1.17</v>
       </c>
       <c r="W30" t="n">
-        <v>1.51</v>
+        <v>2.6</v>
       </c>
       <c r="X30" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Z30" t="n">
-        <v>17.5</v>
+        <v>55</v>
       </c>
       <c r="AA30" t="n">
-        <v>40</v>
+        <v>330</v>
       </c>
       <c r="AB30" t="n">
-        <v>12</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD30" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AE30" t="n">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="AF30" t="n">
-        <v>18.5</v>
+        <v>9.4</v>
       </c>
       <c r="AG30" t="n">
-        <v>12.5</v>
+        <v>9.4</v>
       </c>
       <c r="AH30" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="AI30" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AJ30" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="AK30" t="n">
-        <v>32</v>
+        <v>16.5</v>
       </c>
       <c r="AL30" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AM30" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AN30" t="n">
-        <v>28</v>
+        <v>8.4</v>
       </c>
       <c r="AO30" t="n">
-        <v>32</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.88</v>
+        <v>7.4</v>
       </c>
       <c r="G31" t="n">
-        <v>2.9</v>
+        <v>7.6</v>
       </c>
       <c r="H31" t="n">
-        <v>2.58</v>
+        <v>1.58</v>
       </c>
       <c r="I31" t="n">
-        <v>2.6</v>
+        <v>1.59</v>
       </c>
       <c r="J31" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="K31" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="L31" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="O31" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="P31" t="n">
-        <v>2.36</v>
+        <v>2.04</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.71</v>
+        <v>1.94</v>
       </c>
       <c r="R31" t="n">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="S31" t="n">
-        <v>2.78</v>
+        <v>3.4</v>
       </c>
       <c r="T31" t="n">
-        <v>1.59</v>
+        <v>2</v>
       </c>
       <c r="U31" t="n">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="V31" t="n">
-        <v>1.62</v>
+        <v>2.72</v>
       </c>
       <c r="W31" t="n">
-        <v>1.52</v>
+        <v>1.15</v>
       </c>
       <c r="X31" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Y31" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="Z31" t="n">
-        <v>18.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA31" t="n">
-        <v>36</v>
+        <v>13.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE31" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AF31" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="AG31" t="n">
-        <v>12.5</v>
+        <v>26</v>
       </c>
       <c r="AH31" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AI31" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AJ31" t="n">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="AK31" t="n">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="AL31" t="n">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="AM31" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AN31" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AO31" t="n">
-        <v>15.5</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,96 +4703,96 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.02</v>
+        <v>1.32</v>
       </c>
       <c r="G32" t="n">
-        <v>2.06</v>
+        <v>1.33</v>
       </c>
       <c r="H32" t="n">
-        <v>4.8</v>
+        <v>10.5</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J32" t="n">
-        <v>3.25</v>
+        <v>6.6</v>
       </c>
       <c r="K32" t="n">
-        <v>3.3</v>
+        <v>6.8</v>
       </c>
       <c r="L32" t="n">
-        <v>1.55</v>
+        <v>1.23</v>
       </c>
       <c r="M32" t="n">
-        <v>1.12</v>
+        <v>1.02</v>
       </c>
       <c r="N32" t="n">
-        <v>2.92</v>
+        <v>8.4</v>
       </c>
       <c r="O32" t="n">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="P32" t="n">
-        <v>1.63</v>
+        <v>3.45</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.54</v>
+        <v>1.39</v>
       </c>
       <c r="R32" t="n">
-        <v>1.22</v>
+        <v>2</v>
       </c>
       <c r="S32" t="n">
-        <v>5.1</v>
+        <v>1.98</v>
       </c>
       <c r="T32" t="n">
-        <v>2.12</v>
+        <v>1.74</v>
       </c>
       <c r="U32" t="n">
-        <v>1.84</v>
+        <v>2.3</v>
       </c>
       <c r="V32" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="W32" t="n">
-        <v>1.94</v>
+        <v>4</v>
       </c>
       <c r="X32" t="n">
-        <v>9.4</v>
+        <v>40</v>
       </c>
       <c r="Y32" t="n">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="Z32" t="n">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="AA32" t="n">
-        <v>130</v>
+        <v>350</v>
       </c>
       <c r="AB32" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.2</v>
+        <v>16</v>
       </c>
       <c r="AD32" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="AE32" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AF32" t="n">
         <v>11</v>
@@ -4804,31 +4804,31 @@
         <v>24</v>
       </c>
       <c r="AI32" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AJ32" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AK32" t="n">
-        <v>26</v>
+        <v>12.5</v>
       </c>
       <c r="AL32" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="AM32" t="n">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="AN32" t="n">
-        <v>22</v>
+        <v>3.6</v>
       </c>
       <c r="AO32" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Portuguese Liga 3</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,114 +4838,114 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Team Altamura</t>
+          <t>Santarem</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="G33" t="n">
-        <v>2.22</v>
+        <v>2.04</v>
       </c>
       <c r="H33" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="I33" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="J33" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K33" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L33" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="M33" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N33" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="O33" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P33" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="R33" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S33" t="n">
         <v>5.3</v>
       </c>
       <c r="T33" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="U33" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="V33" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="W33" t="n">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="X33" t="n">
-        <v>9.6</v>
+        <v>17</v>
       </c>
       <c r="Y33" t="n">
-        <v>12.5</v>
+        <v>30</v>
       </c>
       <c r="Z33" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AA33" t="n">
         <v>900</v>
       </c>
       <c r="AB33" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AC33" t="n">
-        <v>7.2</v>
+        <v>13.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="AE33" t="n">
         <v>500</v>
       </c>
       <c r="AF33" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AG33" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AI33" t="n">
         <v>500</v>
       </c>
       <c r="AJ33" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AK33" t="n">
-        <v>80</v>
+        <v>970</v>
       </c>
       <c r="AL33" t="n">
         <v>970</v>
@@ -4954,7 +4954,7 @@
         <v>580</v>
       </c>
       <c r="AN33" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AO33" t="n">
         <v>600</v>
@@ -4963,7 +4963,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,132 +4973,132 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4.2</v>
+        <v>1.92</v>
       </c>
       <c r="G34" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I34" t="n">
         <v>4.9</v>
       </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2.1</v>
-      </c>
       <c r="J34" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="K34" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N34" t="n">
         <v>3.55</v>
       </c>
-      <c r="L34" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2.9</v>
-      </c>
       <c r="O34" t="n">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="P34" t="n">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.46</v>
+        <v>2.14</v>
       </c>
       <c r="R34" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="S34" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="T34" t="n">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="U34" t="n">
-        <v>1.76</v>
+        <v>2.02</v>
       </c>
       <c r="V34" t="n">
-        <v>1.92</v>
+        <v>1.25</v>
       </c>
       <c r="W34" t="n">
-        <v>1.25</v>
+        <v>2.06</v>
       </c>
       <c r="X34" t="n">
-        <v>9.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>7.6</v>
+        <v>15.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>11.5</v>
+        <v>34</v>
       </c>
       <c r="AA34" t="n">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="AB34" t="n">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="AC34" t="n">
         <v>7.8</v>
       </c>
       <c r="AD34" t="n">
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AF34" t="n">
-        <v>55</v>
+        <v>10.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>19</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH34" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AI34" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM34" t="n">
         <v>130</v>
       </c>
-      <c r="AJ34" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>500</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>500</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>580</v>
-      </c>
       <c r="AN34" t="n">
-        <v>600</v>
+        <v>15.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>CD Castellon</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.59</v>
+        <v>1.21</v>
       </c>
       <c r="G35" t="n">
-        <v>1.61</v>
+        <v>1.22</v>
       </c>
       <c r="H35" t="n">
-        <v>6.4</v>
+        <v>18.5</v>
       </c>
       <c r="I35" t="n">
-        <v>6.8</v>
+        <v>19</v>
       </c>
       <c r="J35" t="n">
-        <v>4.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>4.5</v>
+        <v>8.4</v>
       </c>
       <c r="L35" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="M35" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N35" t="n">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="O35" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="P35" t="n">
-        <v>2.14</v>
+        <v>2.72</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.84</v>
+        <v>1.57</v>
       </c>
       <c r="R35" t="n">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="S35" t="n">
-        <v>3.15</v>
+        <v>2.46</v>
       </c>
       <c r="T35" t="n">
-        <v>1.92</v>
+        <v>2.28</v>
       </c>
       <c r="U35" t="n">
-        <v>2.06</v>
+        <v>1.73</v>
       </c>
       <c r="V35" t="n">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="W35" t="n">
-        <v>2.62</v>
+        <v>5.6</v>
       </c>
       <c r="X35" t="n">
-        <v>17.5</v>
+        <v>36</v>
       </c>
       <c r="Y35" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="Z35" t="n">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="AA35" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AB35" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>360</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ35" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AC35" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>15</v>
-      </c>
       <c r="AK35" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AL35" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AM35" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="AN35" t="n">
-        <v>8.4</v>
+        <v>3.95</v>
       </c>
       <c r="AO35" t="n">
-        <v>120</v>
+        <v>520</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,132 +5243,132 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Deportivo Pereira</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Llaneros FC</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>7.2</v>
+        <v>3.05</v>
       </c>
       <c r="G36" t="n">
-        <v>7.4</v>
+        <v>3.15</v>
       </c>
       <c r="H36" t="n">
-        <v>1.57</v>
+        <v>2.56</v>
       </c>
       <c r="I36" t="n">
-        <v>1.58</v>
+        <v>2.64</v>
       </c>
       <c r="J36" t="n">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="K36" t="n">
-        <v>4.4</v>
+        <v>3.45</v>
       </c>
       <c r="L36" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M36" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="O36" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="P36" t="n">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="R36" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="S36" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="T36" t="n">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="U36" t="n">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="V36" t="n">
-        <v>2.72</v>
+        <v>1.6</v>
       </c>
       <c r="W36" t="n">
-        <v>1.15</v>
+        <v>1.46</v>
       </c>
       <c r="X36" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y36" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC36" t="n">
         <v>7.8</v>
       </c>
-      <c r="Z36" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AA36" t="n">
+      <c r="AD36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG36" t="n">
         <v>13.5</v>
       </c>
-      <c r="AB36" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG36" t="n">
+      <c r="AH36" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO36" t="n">
         <v>26</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>220</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>180</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>8.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,801 +5378,126 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Alianza FC Valledupar</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.34</v>
+        <v>2.16</v>
       </c>
       <c r="G37" t="n">
-        <v>1.35</v>
+        <v>2.26</v>
       </c>
       <c r="H37" t="n">
-        <v>10</v>
+        <v>3.95</v>
       </c>
       <c r="I37" t="n">
-        <v>10.5</v>
+        <v>4.3</v>
       </c>
       <c r="J37" t="n">
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="K37" t="n">
-        <v>6.6</v>
+        <v>3.35</v>
       </c>
       <c r="L37" t="n">
-        <v>1.25</v>
+        <v>1.54</v>
       </c>
       <c r="M37" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="N37" t="n">
-        <v>7.4</v>
+        <v>2.84</v>
       </c>
       <c r="O37" t="n">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="P37" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.46</v>
+        <v>2.54</v>
       </c>
       <c r="R37" t="n">
-        <v>1.84</v>
+        <v>1.22</v>
       </c>
       <c r="S37" t="n">
-        <v>2.12</v>
+        <v>5.1</v>
       </c>
       <c r="T37" t="n">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="U37" t="n">
-        <v>2.16</v>
+        <v>1.74</v>
       </c>
       <c r="V37" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="W37" t="n">
-        <v>3.9</v>
+        <v>1.79</v>
       </c>
       <c r="X37" t="n">
-        <v>38</v>
+        <v>11.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>44</v>
+        <v>13.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="AA37" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="AB37" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="AC37" t="n">
-        <v>14.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD37" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AE37" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AF37" t="n">
-        <v>9.800000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI37" t="n">
         <v>90</v>
       </c>
       <c r="AJ37" t="n">
-        <v>11.5</v>
+        <v>36</v>
       </c>
       <c r="AK37" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AL37" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AM37" t="n">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="AN37" t="n">
-        <v>3.9</v>
+        <v>30</v>
       </c>
       <c r="AO37" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Portuguese Liga 3</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Mafra</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Santarem</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="G38" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="H38" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="I38" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K38" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N38" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="T38" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W38" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="X38" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>70</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>970</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>970</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Spanish La Liga</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Espanyol</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Girona</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="H39" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I39" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K39" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N39" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W39" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="X39" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Sporting Lisbon</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Casa Pia</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="H40" t="n">
-        <v>18</v>
-      </c>
-      <c r="I40" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="J40" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="K40" t="n">
-        <v>8</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N40" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P40" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="T40" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W40" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X40" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>390</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>230</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>440</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>300</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>270</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>20:20:00</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Deportivo Pereira</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Llaneros FC</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="G41" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K41" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N41" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S41" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U41" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="W41" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X41" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM41" t="n">
         <v>110</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Fortaleza FC</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Alianza FC Valledupar</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="G42" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="H42" t="n">
-        <v>4</v>
-      </c>
-      <c r="I42" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K42" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N42" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W42" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X42" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO37"/>
+  <dimension ref="A1:AO36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al Draih</t>
+          <t>FC Magdeburg</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="G2" t="n">
-        <v>720</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="I2" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="J2" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="K2" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,31 +691,31 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="S2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="T2" t="n">
-        <v>4.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="U2" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>5.7</v>
+        <v>500</v>
       </c>
       <c r="W2" t="n">
         <v>1.01</v>
@@ -724,22 +724,22 @@
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.34</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>410</v>
+        <v>1.17</v>
       </c>
       <c r="AB2" t="n">
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -793,127 +793,127 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FC Magdeburg</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.1</v>
+        <v>1.02</v>
       </c>
       <c r="G3" t="n">
-        <v>3.15</v>
+        <v>1.04</v>
       </c>
       <c r="H3" t="n">
-        <v>2.36</v>
+        <v>1000</v>
       </c>
       <c r="I3" t="n">
-        <v>2.38</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.85</v>
+        <v>28</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>55</v>
       </c>
       <c r="L3" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>5.6</v>
+        <v>1.11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="P3" t="n">
-        <v>2.5</v>
+        <v>1.01</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.64</v>
+        <v>200</v>
       </c>
       <c r="R3" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="S3" t="n">
-        <v>2.58</v>
+        <v>100</v>
       </c>
       <c r="T3" t="n">
-        <v>1.57</v>
+        <v>7.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.66</v>
+        <v>1.03</v>
       </c>
       <c r="V3" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.46</v>
+        <v>12</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>16.5</v>
+        <v>1.16</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.800000000000001</v>
+        <v>70</v>
       </c>
       <c r="AD3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:30:06</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.31</v>
+        <v>2.08</v>
       </c>
       <c r="G5" t="n">
-        <v>1.32</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>11.5</v>
+        <v>6.2</v>
       </c>
       <c r="J5" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Q5" t="n">
         <v>6.8</v>
       </c>
-      <c r="K5" t="n">
-        <v>7</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="R5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="S5" t="n">
+        <v>27</v>
+      </c>
+      <c r="T5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.23</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N5" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.24</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="W5" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="X5" t="n">
         <v>4.1</v>
       </c>
-      <c r="X5" t="n">
-        <v>44</v>
-      </c>
       <c r="Y5" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>420</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD5" t="n">
         <v>55</v>
       </c>
-      <c r="Z5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>380</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD5" t="n">
+      <c r="AE5" t="n">
+        <v>490</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>36</v>
       </c>
-      <c r="AE5" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>12</v>
-      </c>
       <c r="AK5" t="n">
-        <v>12.5</v>
+        <v>100</v>
       </c>
       <c r="AL5" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Jahn Regensburg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Ingolstadt</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.71</v>
+        <v>44</v>
       </c>
       <c r="G6" t="n">
-        <v>1.72</v>
+        <v>60</v>
       </c>
       <c r="H6" t="n">
-        <v>5.3</v>
+        <v>1.11</v>
       </c>
       <c r="I6" t="n">
-        <v>5.4</v>
+        <v>1.12</v>
       </c>
       <c r="J6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>13</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V6" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z6" t="n">
         <v>4.4</v>
       </c>
-      <c r="K6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="X6" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>44</v>
-      </c>
       <c r="AA6" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM6" t="n">
         <v>120</v>
       </c>
-      <c r="AB6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>75</v>
-      </c>
       <c r="AN6" t="n">
-        <v>7.4</v>
+        <v>310</v>
       </c>
       <c r="AO6" t="n">
-        <v>55</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Jahn Regensburg</t>
+          <t>Academico de Viseu</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ingolstadt</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.4</v>
+        <v>1.26</v>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>1.28</v>
       </c>
       <c r="H7" t="n">
-        <v>2.9</v>
+        <v>30</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>5.5</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.04</v>
       </c>
-      <c r="N7" t="n">
-        <v>6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.65</v>
-      </c>
       <c r="S7" t="n">
-        <v>2.42</v>
+        <v>21</v>
       </c>
       <c r="T7" t="n">
-        <v>1.57</v>
+        <v>3.4</v>
       </c>
       <c r="U7" t="n">
-        <v>2.64</v>
+        <v>1.36</v>
       </c>
       <c r="V7" t="n">
-        <v>1.5</v>
+        <v>1.02</v>
       </c>
       <c r="W7" t="n">
-        <v>1.67</v>
+        <v>4.6</v>
       </c>
       <c r="X7" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>16</v>
+        <v>2.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>6.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="AE7" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="AI7" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="AL7" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>12.5</v>
+        <v>150</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Academico de Viseu</t>
+          <t>Arges Pitesti</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.92</v>
+        <v>1.52</v>
       </c>
       <c r="G8" t="n">
-        <v>1.98</v>
+        <v>1.53</v>
       </c>
       <c r="H8" t="n">
-        <v>4.6</v>
+        <v>12.5</v>
       </c>
       <c r="I8" t="n">
-        <v>4.9</v>
+        <v>13.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K8" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>3.35</v>
+        <v>2.08</v>
       </c>
       <c r="O8" t="n">
-        <v>1.41</v>
+        <v>1.88</v>
       </c>
       <c r="P8" t="n">
-        <v>1.77</v>
+        <v>1.21</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.22</v>
+        <v>5.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.29</v>
+        <v>1.03</v>
       </c>
       <c r="S8" t="n">
-        <v>4.2</v>
+        <v>30</v>
       </c>
       <c r="T8" t="n">
-        <v>1.95</v>
+        <v>2.48</v>
       </c>
       <c r="U8" t="n">
-        <v>1.92</v>
+        <v>1.62</v>
       </c>
       <c r="V8" t="n">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="W8" t="n">
-        <v>2.02</v>
+        <v>3.05</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.6</v>
+        <v>2.12</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.199999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE8" t="n">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="AF8" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="AI8" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="AL8" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Paris 13 Atletico</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.5</v>
+        <v>7.6</v>
       </c>
       <c r="G9" t="n">
-        <v>4.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2.1</v>
+        <v>1.68</v>
       </c>
       <c r="I9" t="n">
-        <v>2.12</v>
+        <v>1.72</v>
       </c>
       <c r="J9" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="L9" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>2.78</v>
+        <v>3.75</v>
       </c>
       <c r="O9" t="n">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.62</v>
+        <v>2.28</v>
       </c>
       <c r="R9" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="S9" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="T9" t="n">
-        <v>2.12</v>
+        <v>1.67</v>
       </c>
       <c r="U9" t="n">
-        <v>1.78</v>
+        <v>2.24</v>
       </c>
       <c r="V9" t="n">
-        <v>1.89</v>
+        <v>2.36</v>
       </c>
       <c r="W9" t="n">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="X9" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="Z9" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.2</v>
+        <v>540</v>
       </c>
       <c r="AD9" t="n">
-        <v>11.5</v>
+        <v>460</v>
       </c>
       <c r="AE9" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>790</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>990</v>
       </c>
       <c r="AI9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Aubagne FC</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Paris 13 Atletico</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.46</v>
+        <v>1.24</v>
       </c>
       <c r="G10" t="n">
-        <v>2.6</v>
+        <v>1.26</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>21</v>
       </c>
       <c r="I10" t="n">
-        <v>3.65</v>
+        <v>24</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.15</v>
+        <v>6.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>2.96</v>
+        <v>4.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.48</v>
+        <v>1.26</v>
       </c>
       <c r="P10" t="n">
-        <v>1.63</v>
+        <v>1.84</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.46</v>
+        <v>2.12</v>
       </c>
       <c r="R10" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S10" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W10" t="n">
         <v>4.8</v>
       </c>
-      <c r="T10" t="n">
-        <v>2</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.63</v>
-      </c>
       <c r="X10" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>250</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>230</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>40</v>
-      </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>19.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="n">
-        <v>830</v>
+        <v>430</v>
       </c>
       <c r="AN10" t="n">
-        <v>40</v>
+        <v>16.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Le Puy</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.79</v>
+        <v>2.62</v>
       </c>
       <c r="G11" t="n">
-        <v>1.83</v>
+        <v>2.74</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I11" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>2.38</v>
       </c>
       <c r="K11" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="S11" t="n">
+        <v>23</v>
+      </c>
+      <c r="T11" t="n">
         <v>4</v>
       </c>
-      <c r="L11" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.96</v>
-      </c>
       <c r="U11" t="n">
-        <v>1.95</v>
+        <v>1.29</v>
       </c>
       <c r="V11" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="W11" t="n">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>3.9</v>
       </c>
       <c r="Y11" t="n">
-        <v>17</v>
+        <v>7.8</v>
       </c>
       <c r="Z11" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AA11" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.6</v>
+        <v>4.9</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>21</v>
+        <v>990</v>
       </c>
       <c r="AE11" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>990</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>990</v>
       </c>
       <c r="AI11" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Le Puy</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.12</v>
+        <v>2.98</v>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="I12" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>2.32</v>
       </c>
       <c r="K12" t="n">
-        <v>3.75</v>
+        <v>2.42</v>
       </c>
       <c r="L12" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="W12" t="n">
-        <v>1.83</v>
+        <v>1.46</v>
       </c>
       <c r="X12" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>3.55</v>
       </c>
       <c r="AI12" t="n">
-        <v>380</v>
+        <v>6.4</v>
       </c>
       <c r="AJ12" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>70</v>
+        <v>5.5</v>
       </c>
       <c r="AM12" t="n">
-        <v>580</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AN12" t="n">
-        <v>30</v>
+        <v>9.6</v>
       </c>
       <c r="AO12" t="n">
-        <v>500</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="G13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
         <v>3.15</v>
       </c>
-      <c r="H13" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.64</v>
-      </c>
       <c r="Q13" t="n">
-        <v>2.48</v>
+        <v>1.42</v>
       </c>
       <c r="R13" t="n">
-        <v>1.23</v>
+        <v>1.48</v>
       </c>
       <c r="S13" t="n">
-        <v>4.8</v>
+        <v>2.94</v>
       </c>
       <c r="T13" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="W13" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="X13" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.6</v>
+        <v>3.35</v>
       </c>
       <c r="AD13" t="n">
-        <v>13.5</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="AF13" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>14.5</v>
+        <v>6.2</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>8.6</v>
       </c>
       <c r="AI13" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AJ13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>85</v>
+      </c>
+      <c r="AO13" t="n">
         <v>75</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="14">
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.86</v>
+        <v>1.24</v>
       </c>
       <c r="G14" t="n">
-        <v>1.92</v>
+        <v>1.26</v>
       </c>
       <c r="H14" t="n">
-        <v>4.6</v>
+        <v>30</v>
       </c>
       <c r="I14" t="n">
-        <v>5.2</v>
+        <v>36</v>
       </c>
       <c r="J14" t="n">
-        <v>3.7</v>
+        <v>5.8</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>6.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="P14" t="n">
-        <v>1.85</v>
+        <v>1.46</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.08</v>
+        <v>3.1</v>
       </c>
       <c r="R14" t="n">
-        <v>1.32</v>
+        <v>1.11</v>
       </c>
       <c r="S14" t="n">
-        <v>3.85</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="T14" t="n">
-        <v>1.94</v>
+        <v>2.68</v>
       </c>
       <c r="U14" t="n">
-        <v>1.9</v>
+        <v>1.53</v>
       </c>
       <c r="V14" t="n">
-        <v>1.24</v>
+        <v>1.03</v>
       </c>
       <c r="W14" t="n">
-        <v>2.08</v>
+        <v>4.7</v>
       </c>
       <c r="X14" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH14" t="n">
         <v>48</v>
       </c>
-      <c r="AA14" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>22</v>
-      </c>
       <c r="AI14" t="n">
-        <v>230</v>
+        <v>430</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AL14" t="n">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="AM14" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Versailles 78 FC</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="G15" t="n">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="H15" t="n">
-        <v>2.74</v>
+        <v>4.6</v>
       </c>
       <c r="I15" t="n">
-        <v>2.84</v>
+        <v>4.9</v>
       </c>
       <c r="J15" t="n">
-        <v>3.05</v>
+        <v>2.24</v>
       </c>
       <c r="K15" t="n">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.52</v>
+        <v>1.71</v>
       </c>
       <c r="M15" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="P15" t="n">
         <v>1.12</v>
       </c>
-      <c r="N15" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.62</v>
-      </c>
       <c r="Q15" t="n">
-        <v>2.48</v>
+        <v>9</v>
       </c>
       <c r="R15" t="n">
-        <v>1.23</v>
+        <v>1.02</v>
       </c>
       <c r="S15" t="n">
-        <v>4.8</v>
+        <v>38</v>
       </c>
       <c r="T15" t="n">
-        <v>2.02</v>
+        <v>5.1</v>
       </c>
       <c r="U15" t="n">
-        <v>1.88</v>
+        <v>1.21</v>
       </c>
       <c r="V15" t="n">
-        <v>1.54</v>
+        <v>1.26</v>
       </c>
       <c r="W15" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="X15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>320</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC15" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="Y15" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="AE15" t="n">
-        <v>48</v>
+        <v>410</v>
       </c>
       <c r="AF15" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AH15" t="n">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="AI15" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AK15" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AL15" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="AO15" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.6</v>
+        <v>1.47</v>
       </c>
       <c r="G16" t="n">
-        <v>2.74</v>
+        <v>1.52</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>9</v>
       </c>
       <c r="I16" t="n">
-        <v>3.3</v>
+        <v>12</v>
       </c>
       <c r="J16" t="n">
-        <v>3.15</v>
+        <v>4.2</v>
       </c>
       <c r="K16" t="n">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.43</v>
+        <v>1.21</v>
       </c>
       <c r="P16" t="n">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.36</v>
+        <v>1.94</v>
       </c>
       <c r="R16" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="S16" t="n">
-        <v>4.5</v>
+        <v>1.09</v>
       </c>
       <c r="T16" t="n">
-        <v>1.93</v>
+        <v>1.64</v>
       </c>
       <c r="U16" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="V16" t="n">
-        <v>1.43</v>
+        <v>1.11</v>
       </c>
       <c r="W16" t="n">
-        <v>1.58</v>
+        <v>2.84</v>
       </c>
       <c r="X16" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>990</v>
       </c>
       <c r="AH16" t="n">
-        <v>24</v>
+        <v>990</v>
       </c>
       <c r="AI16" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,126 +2678,126 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Fleury Merogis</t>
+          <t>Boulogne</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.54</v>
+        <v>3.15</v>
       </c>
       <c r="G17" t="n">
-        <v>2.66</v>
+        <v>3.3</v>
       </c>
       <c r="H17" t="n">
-        <v>2.98</v>
+        <v>2.76</v>
       </c>
       <c r="I17" t="n">
-        <v>3.2</v>
+        <v>2.86</v>
       </c>
       <c r="J17" t="n">
-        <v>3.35</v>
+        <v>2.94</v>
       </c>
       <c r="K17" t="n">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="L17" t="n">
-        <v>1.42</v>
+        <v>1.89</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="N17" t="n">
-        <v>3.9</v>
+        <v>2.42</v>
       </c>
       <c r="O17" t="n">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="P17" t="n">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.93</v>
+        <v>3.15</v>
       </c>
       <c r="R17" t="n">
-        <v>1.38</v>
+        <v>1.14</v>
       </c>
       <c r="S17" t="n">
-        <v>3.35</v>
+        <v>7.4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.8</v>
+        <v>2.34</v>
       </c>
       <c r="U17" t="n">
-        <v>2.16</v>
+        <v>1.68</v>
       </c>
       <c r="V17" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="W17" t="n">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="X17" t="n">
-        <v>15</v>
+        <v>7.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.5</v>
+        <v>7.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AA17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE17" t="n">
         <v>55</v>
       </c>
-      <c r="AB17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>36</v>
-      </c>
       <c r="AF17" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AG17" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="AH17" t="n">
-        <v>17.5</v>
+        <v>27</v>
       </c>
       <c r="AI17" t="n">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="AJ17" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AK17" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AL17" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="AM17" t="n">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="AO17" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Boulogne</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="G18" t="n">
-        <v>3.35</v>
+        <v>2.9</v>
       </c>
       <c r="H18" t="n">
-        <v>2.52</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>2.58</v>
+        <v>3.7</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>2.66</v>
       </c>
       <c r="K18" t="n">
-        <v>3.3</v>
+        <v>2.76</v>
       </c>
       <c r="L18" t="n">
-        <v>1.5</v>
+        <v>2.22</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="N18" t="n">
-        <v>3.2</v>
+        <v>1.91</v>
       </c>
       <c r="O18" t="n">
-        <v>1.44</v>
+        <v>2.04</v>
       </c>
       <c r="P18" t="n">
-        <v>1.72</v>
+        <v>1.29</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.34</v>
+        <v>4.3</v>
       </c>
       <c r="R18" t="n">
-        <v>1.27</v>
+        <v>1.08</v>
       </c>
       <c r="S18" t="n">
-        <v>4.5</v>
+        <v>11.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.93</v>
+        <v>2.78</v>
       </c>
       <c r="U18" t="n">
-        <v>1.97</v>
+        <v>1.49</v>
       </c>
       <c r="V18" t="n">
-        <v>1.63</v>
+        <v>1.37</v>
       </c>
       <c r="W18" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="X18" t="n">
-        <v>11</v>
+        <v>5.4</v>
       </c>
       <c r="Y18" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="AA18" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AB18" t="n">
-        <v>10.5</v>
+        <v>6.4</v>
       </c>
       <c r="AC18" t="n">
         <v>7</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="AF18" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="AI18" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="AJ18" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK18" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AL18" t="n">
-        <v>60</v>
+        <v>550</v>
       </c>
       <c r="AM18" t="n">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="AN18" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>32</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.64</v>
+        <v>1.33</v>
       </c>
       <c r="G19" t="n">
-        <v>2.66</v>
+        <v>1.35</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>11.5</v>
       </c>
       <c r="I19" t="n">
-        <v>3.5</v>
+        <v>13</v>
       </c>
       <c r="J19" t="n">
-        <v>2.94</v>
+        <v>5.6</v>
       </c>
       <c r="K19" t="n">
+        <v>6</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P19" t="n">
         <v>3.05</v>
       </c>
-      <c r="L19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P19" t="n">
+      <c r="Q19" t="n">
         <v>1.47</v>
       </c>
-      <c r="Q19" t="n">
-        <v>3.05</v>
-      </c>
       <c r="R19" t="n">
-        <v>1.16</v>
+        <v>1.62</v>
       </c>
       <c r="S19" t="n">
-        <v>6.6</v>
+        <v>2.56</v>
       </c>
       <c r="T19" t="n">
-        <v>2.28</v>
+        <v>1.59</v>
       </c>
       <c r="U19" t="n">
-        <v>1.72</v>
+        <v>2.5</v>
       </c>
       <c r="V19" t="n">
-        <v>1.4</v>
+        <v>1.08</v>
       </c>
       <c r="W19" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="X19" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="AC19" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="AE19" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AF19" t="n">
-        <v>14</v>
+        <v>7.8</v>
       </c>
       <c r="AG19" t="n">
-        <v>13.5</v>
+        <v>7.8</v>
       </c>
       <c r="AH19" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="AI19" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="AJ19" t="n">
-        <v>42</v>
+        <v>11.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>44</v>
+        <v>12.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="AM19" t="n">
-        <v>240</v>
+        <v>95</v>
       </c>
       <c r="AN19" t="n">
-        <v>55</v>
+        <v>7.8</v>
       </c>
       <c r="AO19" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pau</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="G20" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H20" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="I20" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="J20" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.41</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="N20" t="n">
-        <v>3.95</v>
+        <v>2.48</v>
       </c>
       <c r="O20" t="n">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="P20" t="n">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.96</v>
+        <v>3.05</v>
       </c>
       <c r="R20" t="n">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="S20" t="n">
-        <v>3.4</v>
+        <v>6.4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.86</v>
+        <v>2.64</v>
       </c>
       <c r="U20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W20" t="n">
         <v>2.08</v>
       </c>
-      <c r="V20" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W20" t="n">
-        <v>2.16</v>
-      </c>
       <c r="X20" t="n">
-        <v>16</v>
+        <v>7.6</v>
       </c>
       <c r="Y20" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Z20" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH20" t="n">
         <v>38</v>
       </c>
-      <c r="AA20" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AI20" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AK20" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AL20" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AM20" t="n">
-        <v>110</v>
+        <v>470</v>
       </c>
       <c r="AN20" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AO20" t="n">
-        <v>600</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="G21" t="n">
-        <v>1.82</v>
+        <v>2.54</v>
       </c>
       <c r="H21" t="n">
-        <v>5.3</v>
+        <v>2.96</v>
       </c>
       <c r="I21" t="n">
-        <v>5.6</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
         <v>3.75</v>
       </c>
       <c r="K21" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L21" t="n">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="M21" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.43</v>
+        <v>1.24</v>
       </c>
       <c r="P21" t="n">
-        <v>1.75</v>
+        <v>2.26</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.3</v>
+        <v>1.76</v>
       </c>
       <c r="R21" t="n">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="S21" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="T21" t="n">
-        <v>2.08</v>
+        <v>1.63</v>
       </c>
       <c r="U21" t="n">
-        <v>1.83</v>
+        <v>2.48</v>
       </c>
       <c r="V21" t="n">
-        <v>1.21</v>
+        <v>1.5</v>
       </c>
       <c r="W21" t="n">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="X21" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG21" t="n">
         <v>12</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="AH21" t="n">
         <v>15.5</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AI21" t="n">
         <v>42</v>
       </c>
-      <c r="AA21" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD21" t="n">
+      <c r="AJ21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO21" t="n">
         <v>23</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>260</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>130</v>
       </c>
     </row>
     <row r="22">
@@ -3367,112 +3367,112 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G22" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="H22" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="I22" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="J22" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K22" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="P22" t="n">
-        <v>2.88</v>
+        <v>2.42</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.52</v>
+        <v>1.67</v>
       </c>
       <c r="R22" t="n">
-        <v>1.74</v>
+        <v>1.57</v>
       </c>
       <c r="S22" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W22" t="n">
         <v>2.34</v>
       </c>
-      <c r="T22" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W22" t="n">
-        <v>2.36</v>
-      </c>
       <c r="X22" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="Y22" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Z22" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AA22" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB22" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE22" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AF22" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AG22" t="n">
         <v>10.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AI22" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AJ22" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK22" t="n">
         <v>16</v>
       </c>
       <c r="AL22" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AM22" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO22" t="n">
         <v>60</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>38</v>
       </c>
     </row>
     <row r="23">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.3</v>
+        <v>2.86</v>
       </c>
       <c r="G23" t="n">
-        <v>2.36</v>
+        <v>2.96</v>
       </c>
       <c r="H23" t="n">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="I23" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J23" t="n">
         <v>3.35</v>
       </c>
-      <c r="J23" t="n">
-        <v>3.7</v>
-      </c>
       <c r="K23" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>4.9</v>
+        <v>3.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="P23" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q23" t="n">
         <v>2.28</v>
       </c>
-      <c r="Q23" t="n">
-        <v>1.76</v>
-      </c>
       <c r="R23" t="n">
-        <v>1.51</v>
+        <v>1.29</v>
       </c>
       <c r="S23" t="n">
-        <v>2.86</v>
+        <v>4.3</v>
       </c>
       <c r="T23" t="n">
-        <v>1.63</v>
+        <v>1.91</v>
       </c>
       <c r="U23" t="n">
-        <v>2.44</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="W23" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="X23" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="Y23" t="n">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AB23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD23" t="n">
         <v>13</v>
       </c>
-      <c r="AC23" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>14</v>
-      </c>
       <c r="AE23" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AF23" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH23" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AI23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN23" t="n">
         <v>40</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AO23" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.4</v>
+        <v>2.98</v>
       </c>
       <c r="G24" t="n">
-        <v>2.44</v>
+        <v>3.05</v>
       </c>
       <c r="H24" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="I24" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J24" t="n">
         <v>3.15</v>
       </c>
-      <c r="J24" t="n">
-        <v>3.75</v>
-      </c>
       <c r="K24" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.35</v>
+        <v>1.8</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="N24" t="n">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
       <c r="O24" t="n">
-        <v>1.25</v>
+        <v>1.59</v>
       </c>
       <c r="P24" t="n">
-        <v>2.22</v>
+        <v>1.52</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.79</v>
+        <v>2.86</v>
       </c>
       <c r="R24" t="n">
-        <v>1.48</v>
+        <v>1.18</v>
       </c>
       <c r="S24" t="n">
-        <v>2.98</v>
+        <v>6.2</v>
       </c>
       <c r="T24" t="n">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="U24" t="n">
-        <v>2.42</v>
+        <v>1.76</v>
       </c>
       <c r="V24" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="W24" t="n">
-        <v>1.69</v>
+        <v>1.46</v>
       </c>
       <c r="X24" t="n">
-        <v>17.5</v>
+        <v>8.4</v>
       </c>
       <c r="Y24" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="Z24" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AA24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK24" t="n">
         <v>55</v>
       </c>
-      <c r="AB24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>24</v>
-      </c>
       <c r="AL24" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="AM24" t="n">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="AN24" t="n">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="AO24" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.9</v>
+        <v>2.68</v>
       </c>
       <c r="G25" t="n">
-        <v>2.98</v>
+        <v>2.7</v>
       </c>
       <c r="H25" t="n">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="I25" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="J25" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="K25" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="L25" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>3.85</v>
+        <v>4.7</v>
       </c>
       <c r="O25" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="P25" t="n">
-        <v>1.97</v>
+        <v>2.22</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="R25" t="n">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="S25" t="n">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="U25" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="V25" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W25" t="n">
         <v>1.59</v>
       </c>
-      <c r="W25" t="n">
-        <v>1.5</v>
-      </c>
       <c r="X25" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Z25" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA25" t="n">
         <v>40</v>
       </c>
       <c r="AB25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD25" t="n">
         <v>12</v>
       </c>
-      <c r="AC25" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AE25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN25" t="n">
         <v>20</v>
       </c>
-      <c r="AG25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>29</v>
-      </c>
       <c r="AO25" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,127 +3898,127 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="F26" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N26" t="n">
         <v>2.88</v>
       </c>
-      <c r="G26" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="H26" t="n">
+      <c r="O26" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q26" t="n">
         <v>2.58</v>
       </c>
-      <c r="I26" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N26" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O26" t="n">
+      <c r="R26" t="n">
         <v>1.22</v>
       </c>
-      <c r="P26" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.55</v>
-      </c>
       <c r="S26" t="n">
-        <v>2.76</v>
+        <v>5.4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.58</v>
+        <v>2.12</v>
       </c>
       <c r="U26" t="n">
-        <v>2.66</v>
+        <v>1.84</v>
       </c>
       <c r="V26" t="n">
-        <v>1.62</v>
+        <v>1.26</v>
       </c>
       <c r="W26" t="n">
-        <v>1.52</v>
+        <v>1.87</v>
       </c>
       <c r="X26" t="n">
-        <v>21</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y26" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Z26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD26" t="n">
         <v>18.5</v>
       </c>
-      <c r="AA26" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AE26" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="AF26" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AG26" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AI26" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="AK26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL26" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AM26" t="n">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="AN26" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AO26" t="n">
-        <v>15.5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Team Altamura</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G27" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="H27" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I27" t="n">
         <v>4.6</v>
       </c>
-      <c r="I27" t="n">
-        <v>4.8</v>
-      </c>
       <c r="J27" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K27" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="L27" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="M27" t="n">
         <v>1.12</v>
       </c>
       <c r="N27" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="O27" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="P27" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="R27" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S27" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="T27" t="n">
         <v>2.12</v>
       </c>
       <c r="U27" t="n">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="V27" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W27" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="X27" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y27" t="n">
         <v>12.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AA27" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AB27" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AE27" t="n">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="AF27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH27" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="AI27" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AJ27" t="n">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="AK27" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AM27" t="n">
-        <v>190</v>
+        <v>500</v>
       </c>
       <c r="AN27" t="n">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="AO27" t="n">
-        <v>110</v>
+        <v>600</v>
       </c>
     </row>
     <row r="28">
@@ -4168,28 +4168,28 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Team Altamura</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="G28" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I28" t="n">
         <v>2.24</v>
       </c>
-      <c r="H28" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>4.8</v>
-      </c>
       <c r="J28" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="K28" t="n">
         <v>3.3</v>
@@ -4201,94 +4201,94 @@
         <v>1.12</v>
       </c>
       <c r="N28" t="n">
-        <v>2.7</v>
+        <v>2.92</v>
       </c>
       <c r="O28" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="P28" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.64</v>
+        <v>2.48</v>
       </c>
       <c r="R28" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T28" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="U28" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="V28" t="n">
-        <v>1.27</v>
+        <v>1.79</v>
       </c>
       <c r="W28" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="X28" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>12.5</v>
+        <v>7.6</v>
       </c>
       <c r="Z28" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="AA28" t="n">
-        <v>900</v>
+        <v>29</v>
       </c>
       <c r="AB28" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>34</v>
+        <v>11.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>500</v>
+        <v>44</v>
       </c>
       <c r="AF28" t="n">
-        <v>11.5</v>
+        <v>28</v>
       </c>
       <c r="AG28" t="n">
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="AI28" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="AJ28" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AL28" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="AM28" t="n">
         <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="AO28" t="n">
-        <v>600</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>CD Castellon</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="G29" t="n">
-        <v>4.2</v>
+        <v>1.62</v>
       </c>
       <c r="H29" t="n">
-        <v>2.18</v>
+        <v>6.4</v>
       </c>
       <c r="I29" t="n">
-        <v>2.3</v>
+        <v>6.8</v>
       </c>
       <c r="J29" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="K29" t="n">
-        <v>3.45</v>
+        <v>4.6</v>
       </c>
       <c r="L29" t="n">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="M29" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>2.88</v>
+        <v>4.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.49</v>
+        <v>1.27</v>
       </c>
       <c r="P29" t="n">
-        <v>1.61</v>
+        <v>2.2</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.46</v>
+        <v>1.81</v>
       </c>
       <c r="R29" t="n">
-        <v>1.21</v>
+        <v>1.46</v>
       </c>
       <c r="S29" t="n">
-        <v>5.1</v>
+        <v>3.1</v>
       </c>
       <c r="T29" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="U29" t="n">
-        <v>1.79</v>
+        <v>2.06</v>
       </c>
       <c r="V29" t="n">
-        <v>1.76</v>
+        <v>1.17</v>
       </c>
       <c r="W29" t="n">
-        <v>1.31</v>
+        <v>2.6</v>
       </c>
       <c r="X29" t="n">
-        <v>9.800000000000001</v>
+        <v>18</v>
       </c>
       <c r="Y29" t="n">
-        <v>7.8</v>
+        <v>22</v>
       </c>
       <c r="Z29" t="n">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="AA29" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL29" t="n">
         <v>32</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>500</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>500</v>
       </c>
       <c r="AM29" t="n">
         <v>580</v>
       </c>
       <c r="AN29" t="n">
-        <v>600</v>
+        <v>8</v>
       </c>
       <c r="AO29" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CD Castellon</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F30" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I30" t="n">
         <v>1.6</v>
       </c>
-      <c r="G30" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="H30" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>6.8</v>
-      </c>
       <c r="J30" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="K30" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L30" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M30" t="n">
         <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="O30" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P30" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="R30" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="S30" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="T30" t="n">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="U30" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="V30" t="n">
-        <v>1.17</v>
+        <v>2.68</v>
       </c>
       <c r="W30" t="n">
-        <v>2.6</v>
+        <v>1.15</v>
       </c>
       <c r="X30" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y30" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="Z30" t="n">
-        <v>55</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA30" t="n">
-        <v>330</v>
+        <v>14</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.800000000000001</v>
+        <v>24</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD30" t="n">
-        <v>24</v>
+        <v>9.4</v>
       </c>
       <c r="AE30" t="n">
-        <v>140</v>
+        <v>15.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>9.4</v>
+        <v>65</v>
       </c>
       <c r="AG30" t="n">
-        <v>9.4</v>
+        <v>25</v>
       </c>
       <c r="AH30" t="n">
         <v>22</v>
       </c>
       <c r="AI30" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c r="AK30" t="n">
-        <v>16.5</v>
+        <v>100</v>
       </c>
       <c r="AL30" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="AM30" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN30" t="n">
-        <v>8.4</v>
+        <v>140</v>
       </c>
       <c r="AO30" t="n">
-        <v>250</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>7.4</v>
+        <v>1.31</v>
       </c>
       <c r="G31" t="n">
-        <v>7.6</v>
+        <v>1.32</v>
       </c>
       <c r="H31" t="n">
-        <v>1.58</v>
+        <v>10.5</v>
       </c>
       <c r="I31" t="n">
-        <v>1.59</v>
+        <v>11</v>
       </c>
       <c r="J31" t="n">
-        <v>4.2</v>
+        <v>6.8</v>
       </c>
       <c r="K31" t="n">
-        <v>4.3</v>
+        <v>7.2</v>
       </c>
       <c r="L31" t="n">
-        <v>1.41</v>
+        <v>1.23</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N31" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W31" t="n">
         <v>4.1</v>
       </c>
-      <c r="O31" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V31" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.15</v>
-      </c>
       <c r="X31" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="Y31" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="Z31" t="n">
-        <v>8.800000000000001</v>
+        <v>120</v>
       </c>
       <c r="AA31" t="n">
+        <v>420</v>
+      </c>
+      <c r="AB31" t="n">
         <v>13.5</v>
       </c>
-      <c r="AB31" t="n">
-        <v>23</v>
-      </c>
       <c r="AC31" t="n">
-        <v>9.199999999999999</v>
+        <v>16</v>
       </c>
       <c r="AD31" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF31" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AE31" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>65</v>
-      </c>
       <c r="AG31" t="n">
-        <v>26</v>
+        <v>10.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI31" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AJ31" t="n">
-        <v>220</v>
+        <v>11.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>110</v>
+        <v>12.5</v>
       </c>
       <c r="AL31" t="n">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="AM31" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="AN31" t="n">
-        <v>160</v>
+        <v>3.75</v>
       </c>
       <c r="AO31" t="n">
-        <v>8.800000000000001</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Portuguese Liga 3</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,127 +4708,127 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Santarem</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.32</v>
+        <v>1.96</v>
       </c>
       <c r="G32" t="n">
-        <v>1.33</v>
+        <v>2.04</v>
       </c>
       <c r="H32" t="n">
-        <v>10.5</v>
+        <v>4.9</v>
       </c>
       <c r="I32" t="n">
-        <v>11</v>
+        <v>5.3</v>
       </c>
       <c r="J32" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="X32" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB32" t="n">
         <v>6.6</v>
       </c>
-      <c r="K32" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N32" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P32" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="R32" t="n">
-        <v>2</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W32" t="n">
-        <v>4</v>
-      </c>
-      <c r="X32" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>350</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>15</v>
-      </c>
       <c r="AC32" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AD32" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AE32" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AF32" t="n">
         <v>11</v>
       </c>
       <c r="AG32" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH32" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AI32" t="n">
-        <v>85</v>
+        <v>500</v>
       </c>
       <c r="AJ32" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="AK32" t="n">
-        <v>12.5</v>
+        <v>34</v>
       </c>
       <c r="AL32" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN32" t="n">
         <v>28</v>
       </c>
-      <c r="AM32" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>3.6</v>
-      </c>
       <c r="AO32" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Portuguese Liga 3</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,127 +4843,127 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Santarem</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="G33" t="n">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="H33" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I33" t="n">
         <v>4.9</v>
       </c>
-      <c r="I33" t="n">
-        <v>5.5</v>
-      </c>
       <c r="J33" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="K33" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="L33" t="n">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="M33" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="N33" t="n">
-        <v>2.72</v>
+        <v>3.5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="P33" t="n">
-        <v>1.54</v>
+        <v>1.81</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.66</v>
+        <v>2.18</v>
       </c>
       <c r="R33" t="n">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="S33" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="T33" t="n">
-        <v>2.16</v>
+        <v>1.97</v>
       </c>
       <c r="U33" t="n">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W33" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="X33" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Y33" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Z33" t="n">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="AA33" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="AB33" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="AC33" t="n">
-        <v>13.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD33" t="n">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="AE33" t="n">
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="AF33" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>18.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH33" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AI33" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="AJ33" t="n">
-        <v>900</v>
+        <v>21</v>
       </c>
       <c r="AK33" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AL33" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AM33" t="n">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="AN33" t="n">
-        <v>500</v>
+        <v>16</v>
       </c>
       <c r="AO33" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,132 +4973,132 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.92</v>
+        <v>1.21</v>
       </c>
       <c r="G34" t="n">
-        <v>1.93</v>
+        <v>1.22</v>
       </c>
       <c r="H34" t="n">
-        <v>4.8</v>
+        <v>17.5</v>
       </c>
       <c r="I34" t="n">
-        <v>4.9</v>
+        <v>19</v>
       </c>
       <c r="J34" t="n">
-        <v>3.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K34" t="n">
-        <v>3.65</v>
+        <v>8.6</v>
       </c>
       <c r="L34" t="n">
-        <v>1.48</v>
+        <v>1.28</v>
       </c>
       <c r="M34" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>3.55</v>
+        <v>6</v>
       </c>
       <c r="O34" t="n">
-        <v>1.37</v>
+        <v>1.19</v>
       </c>
       <c r="P34" t="n">
-        <v>1.85</v>
+        <v>2.66</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.14</v>
+        <v>1.58</v>
       </c>
       <c r="R34" t="n">
-        <v>1.32</v>
+        <v>1.64</v>
       </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>2.48</v>
       </c>
       <c r="T34" t="n">
-        <v>1.95</v>
+        <v>2.32</v>
       </c>
       <c r="U34" t="n">
-        <v>2.02</v>
+        <v>1.7</v>
       </c>
       <c r="V34" t="n">
-        <v>1.25</v>
+        <v>1.05</v>
       </c>
       <c r="W34" t="n">
-        <v>2.06</v>
+        <v>5.6</v>
       </c>
       <c r="X34" t="n">
-        <v>12.5</v>
+        <v>34</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.5</v>
+        <v>990</v>
       </c>
       <c r="Z34" t="n">
-        <v>34</v>
+        <v>360</v>
       </c>
       <c r="AA34" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.8</v>
+        <v>18</v>
       </c>
       <c r="AD34" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AE34" t="n">
-        <v>65</v>
+        <v>640</v>
       </c>
       <c r="AF34" t="n">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="AG34" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AH34" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI34" t="n">
-        <v>75</v>
+        <v>290</v>
       </c>
       <c r="AJ34" t="n">
-        <v>21</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK34" t="n">
-        <v>22</v>
+        <v>13.5</v>
       </c>
       <c r="AL34" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AM34" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="AN34" t="n">
-        <v>15.5</v>
+        <v>3.85</v>
       </c>
       <c r="AO34" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,126 +5108,126 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Deportivo Pereira</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Llaneros FC</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.21</v>
+        <v>2.86</v>
       </c>
       <c r="G35" t="n">
-        <v>1.22</v>
+        <v>2.98</v>
       </c>
       <c r="H35" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N35" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X35" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF35" t="n">
         <v>18.5</v>
       </c>
-      <c r="I35" t="n">
-        <v>19</v>
-      </c>
-      <c r="J35" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="K35" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N35" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S35" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="T35" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W35" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="X35" t="n">
-        <v>36</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>210</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>360</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AG35" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="AI35" t="n">
-        <v>290</v>
+        <v>46</v>
       </c>
       <c r="AJ35" t="n">
-        <v>8.800000000000001</v>
+        <v>48</v>
       </c>
       <c r="AK35" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AL35" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AM35" t="n">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="AN35" t="n">
-        <v>3.95</v>
+        <v>32</v>
       </c>
       <c r="AO35" t="n">
-        <v>520</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
@@ -5243,260 +5243,125 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Llaneros FC</t>
+          <t>Alianza FC Valledupar</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.05</v>
+        <v>2.16</v>
       </c>
       <c r="G36" t="n">
-        <v>3.15</v>
+        <v>2.24</v>
       </c>
       <c r="H36" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q36" t="n">
         <v>2.56</v>
       </c>
-      <c r="I36" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N36" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.1</v>
-      </c>
       <c r="R36" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="S36" t="n">
-        <v>3.85</v>
+        <v>5.2</v>
       </c>
       <c r="T36" t="n">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="U36" t="n">
-        <v>2.06</v>
+        <v>1.74</v>
       </c>
       <c r="V36" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="W36" t="n">
-        <v>1.46</v>
+        <v>1.8</v>
       </c>
       <c r="X36" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="AA36" t="n">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="AB36" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="AC36" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AD36" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AE36" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AF36" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AG36" t="n">
         <v>13.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AI36" t="n">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="AJ36" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AK36" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL36" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM36" t="n">
-        <v>580</v>
+        <v>180</v>
       </c>
       <c r="AN36" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AO36" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Fortaleza FC</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Alianza FC Valledupar</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="G37" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="H37" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="I37" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K37" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N37" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="T37" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="X37" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO37" t="n">
         <v>110</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,105 +653,105 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Llaneros FC</t>
+          <t>Alianza FC Valledupar</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.4</v>
+        <v>2.46</v>
       </c>
       <c r="G2" t="n">
-        <v>3.5</v>
+        <v>2.82</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>3.15</v>
+        <v>6.8</v>
       </c>
       <c r="J2" t="n">
-        <v>2.56</v>
+        <v>2.14</v>
       </c>
       <c r="K2" t="n">
-        <v>2.64</v>
+        <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="N2" t="n">
-        <v>1.69</v>
+        <v>1.5</v>
       </c>
       <c r="O2" t="n">
-        <v>2.36</v>
+        <v>2.94</v>
       </c>
       <c r="P2" t="n">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.4</v>
+        <v>8.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="S2" t="n">
-        <v>16.5</v>
+        <v>32</v>
       </c>
       <c r="T2" t="n">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="U2" t="n">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.46</v>
+        <v>1.2</v>
       </c>
       <c r="W2" t="n">
-        <v>1.39</v>
+        <v>1.64</v>
       </c>
       <c r="X2" t="n">
-        <v>4.4</v>
+        <v>3.35</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.9</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.8</v>
+        <v>9.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>950</v>
       </c>
       <c r="AH2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -773,141 +773,6 @@
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Fortaleza FC</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Alianza FC Valledupar</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X3" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
